--- a/IP_Controlling_Bruno_Maikoff.xlsx
+++ b/IP_Controlling_Bruno_Maikoff.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FHNW\Semester7\Bachlorthesis\BlockChain_TransactionManager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8D8C3F63-09C2-412A-B8C9-01EB4BE493AC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CBE96F1-6541-4CB2-8B27-BBA19267DE98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="15375" windowHeight="8340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arbeitsrapport_Bruno" sheetId="11" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="22">
   <si>
     <t>Aufwand in h</t>
   </si>
@@ -101,6 +101,9 @@
   </si>
   <si>
     <t>Template, Projektvereinbarung</t>
+  </si>
+  <si>
+    <t>Test Blockchain Netzwerk aufgesetzt, Sitzung feedback, Protokoll schreiben/schicken</t>
   </si>
 </sst>
 </file>
@@ -857,76 +860,76 @@
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>20</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>20</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>20</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>20</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>20</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>20</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>20</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>20</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>20</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>20</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>20</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>20</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>20</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>20</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>20</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>20</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>20</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>20</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>20</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>20</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>20</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>20</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>20</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>20</c:v>
+                  <c:v>28</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1968,8 +1971,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG36"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2358,99 +2361,99 @@
       </c>
       <c r="J5" s="45">
         <f t="shared" si="29"/>
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="K5" s="45">
         <f t="shared" si="29"/>
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="L5" s="45">
         <f t="shared" si="29"/>
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="M5" s="45">
         <f t="shared" si="29"/>
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="N5" s="45">
         <f t="shared" si="29"/>
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="O5" s="45">
         <f t="shared" si="29"/>
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="P5" s="45">
         <f t="shared" si="29"/>
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="Q5" s="45">
         <f t="shared" si="29"/>
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="R5" s="45">
         <f t="shared" si="29"/>
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="S5" s="45">
         <f t="shared" si="29"/>
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="T5" s="45">
         <f t="shared" si="29"/>
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="U5" s="45">
         <f t="shared" si="29"/>
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="V5" s="45">
         <f t="shared" si="29"/>
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="W5" s="45">
         <f t="shared" si="29"/>
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="X5" s="45">
         <f t="shared" si="29"/>
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="Y5" s="45">
         <f t="shared" si="29"/>
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="Z5" s="45">
         <f t="shared" si="29"/>
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="AA5" s="45">
         <f t="shared" si="29"/>
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="AB5" s="45">
         <f t="shared" si="29"/>
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="AC5" s="45">
         <f t="shared" si="29"/>
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="AD5" s="45">
         <f t="shared" si="29"/>
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="AE5" s="45">
         <f t="shared" ref="AE5" si="30">AD5+SUMIF($A$6:$A$33,AE3,$D$6:$D$33)</f>
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="AF5" s="45">
         <f t="shared" ref="AF5" si="31">AE5+SUMIF($A$6:$A$33,AF3,$D$6:$D$33)</f>
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="AG5" s="45">
         <f t="shared" ref="AG5" si="32">AF5+SUMIF($A$6:$A$33,AG3,$D$6:$D$33)</f>
-        <v>20</v>
+        <v>28</v>
       </c>
     </row>
     <row r="6" spans="1:33" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
@@ -2514,7 +2517,7 @@
       </c>
       <c r="F8" s="9"/>
     </row>
-    <row r="9" spans="1:33" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A9" s="22">
         <f t="shared" si="33"/>
         <v>4</v>
@@ -2527,8 +2530,12 @@
         <f t="shared" si="34"/>
         <v>43751</v>
       </c>
-      <c r="D9" s="31"/>
-      <c r="E9" s="24"/>
+      <c r="D9" s="31">
+        <v>8</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>21</v>
+      </c>
       <c r="F9" s="9"/>
     </row>
     <row r="10" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -2908,7 +2915,7 @@
       <c r="C34" s="50"/>
       <c r="D34" s="33">
         <f>SUM(D6:D33)</f>
-        <v>20</v>
+        <v>28</v>
       </c>
       <c r="E34" s="12"/>
     </row>
@@ -2949,7 +2956,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00B32BAB-AD55-D94B-8F6F-B7572181299C}">
   <dimension ref="A1:AG36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>

--- a/IP_Controlling_Bruno_Maikoff.xlsx
+++ b/IP_Controlling_Bruno_Maikoff.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FHNW\Semester7\Bachlorthesis\BlockChain_TransactionManager\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\BlockChain_TransactionManager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CBE96F1-6541-4CB2-8B27-BBA19267DE98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C86CFB7-0C1B-4155-A6CC-8F53DEE0C87B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2580" yWindow="2580" windowWidth="15375" windowHeight="8340" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arbeitsrapport_Bruno" sheetId="11" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
   <si>
     <t>Aufwand in h</t>
   </si>
@@ -104,6 +104,9 @@
   </si>
   <si>
     <t>Test Blockchain Netzwerk aufgesetzt, Sitzung feedback, Protokoll schreiben/schicken</t>
+  </si>
+  <si>
+    <t>2tes Meeting, Projektvereinbarung, Protokoll, Testumgebung aufsetzen</t>
   </si>
 </sst>
 </file>
@@ -1295,76 +1298,76 @@
                   <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>31</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>31</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>31</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>31</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>31</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>31</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>31</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>31</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>31</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>31</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>31</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>31</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>31</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>31</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>31</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>31</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>31</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>31</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>31</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>31</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>31</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>31</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>31</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>31</c:v>
+                  <c:v>37</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1971,7 +1974,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -2956,8 +2959,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00B32BAB-AD55-D94B-8F6F-B7572181299C}">
   <dimension ref="A1:AG36"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3346,99 +3349,99 @@
       </c>
       <c r="J5" s="45">
         <f t="shared" si="2"/>
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="K5" s="45">
         <f t="shared" si="2"/>
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="L5" s="45">
         <f t="shared" si="2"/>
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="M5" s="45">
         <f t="shared" si="2"/>
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="N5" s="45">
         <f t="shared" si="2"/>
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="O5" s="45">
         <f t="shared" si="2"/>
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="P5" s="45">
         <f t="shared" si="2"/>
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="Q5" s="45">
         <f t="shared" si="2"/>
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="R5" s="45">
         <f t="shared" si="2"/>
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="S5" s="45">
         <f t="shared" si="2"/>
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="T5" s="45">
         <f t="shared" si="2"/>
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="U5" s="45">
         <f t="shared" si="2"/>
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="V5" s="45">
         <f t="shared" si="2"/>
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="W5" s="45">
         <f t="shared" si="2"/>
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="X5" s="45">
         <f t="shared" si="2"/>
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="Y5" s="45">
         <f t="shared" si="2"/>
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="Z5" s="45">
         <f t="shared" si="2"/>
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="AA5" s="45">
         <f t="shared" si="2"/>
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="AB5" s="45">
         <f t="shared" si="2"/>
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="AC5" s="45">
         <f t="shared" si="2"/>
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="AD5" s="45">
         <f t="shared" si="2"/>
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="AE5" s="45">
         <f t="shared" si="2"/>
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="AF5" s="45">
         <f t="shared" si="2"/>
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="AG5" s="45">
         <f t="shared" si="2"/>
-        <v>31</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:33" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -3502,7 +3505,7 @@
       </c>
       <c r="F8" s="9"/>
     </row>
-    <row r="9" spans="1:33" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A9" s="22">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -3515,8 +3518,12 @@
         <f t="shared" si="4"/>
         <v>43751</v>
       </c>
-      <c r="D9" s="31"/>
-      <c r="E9" s="24"/>
+      <c r="D9" s="31">
+        <v>6</v>
+      </c>
+      <c r="E9" s="24" t="s">
+        <v>22</v>
+      </c>
       <c r="F9" s="9"/>
     </row>
     <row r="10" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -3896,7 +3903,7 @@
       <c r="C34" s="50"/>
       <c r="D34" s="33">
         <f>SUM(D6:D33)</f>
-        <v>31</v>
+        <v>37</v>
       </c>
       <c r="E34" s="12"/>
     </row>

--- a/IP_Controlling_Bruno_Maikoff.xlsx
+++ b/IP_Controlling_Bruno_Maikoff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\BlockChain_TransactionManager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C86CFB7-0C1B-4155-A6CC-8F53DEE0C87B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{210FABAB-0B13-4A63-8F4A-A70BEA697011}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1298,76 +1298,76 @@
                   <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>37</c:v>
+                  <c:v>40.5</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>37</c:v>
+                  <c:v>40.5</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>37</c:v>
+                  <c:v>40.5</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>37</c:v>
+                  <c:v>40.5</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>37</c:v>
+                  <c:v>40.5</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>37</c:v>
+                  <c:v>40.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>37</c:v>
+                  <c:v>40.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>37</c:v>
+                  <c:v>40.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>37</c:v>
+                  <c:v>40.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>37</c:v>
+                  <c:v>40.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>37</c:v>
+                  <c:v>40.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>37</c:v>
+                  <c:v>40.5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>37</c:v>
+                  <c:v>40.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>37</c:v>
+                  <c:v>40.5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>37</c:v>
+                  <c:v>40.5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>37</c:v>
+                  <c:v>40.5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>37</c:v>
+                  <c:v>40.5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>37</c:v>
+                  <c:v>40.5</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>37</c:v>
+                  <c:v>40.5</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>37</c:v>
+                  <c:v>40.5</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>37</c:v>
+                  <c:v>40.5</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>37</c:v>
+                  <c:v>40.5</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>37</c:v>
+                  <c:v>40.5</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>37</c:v>
+                  <c:v>40.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2960,7 +2960,7 @@
   <dimension ref="A1:AG36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3349,99 +3349,99 @@
       </c>
       <c r="J5" s="45">
         <f t="shared" si="2"/>
-        <v>37</v>
+        <v>40.5</v>
       </c>
       <c r="K5" s="45">
         <f t="shared" si="2"/>
-        <v>37</v>
+        <v>40.5</v>
       </c>
       <c r="L5" s="45">
         <f t="shared" si="2"/>
-        <v>37</v>
+        <v>40.5</v>
       </c>
       <c r="M5" s="45">
         <f t="shared" si="2"/>
-        <v>37</v>
+        <v>40.5</v>
       </c>
       <c r="N5" s="45">
         <f t="shared" si="2"/>
-        <v>37</v>
+        <v>40.5</v>
       </c>
       <c r="O5" s="45">
         <f t="shared" si="2"/>
-        <v>37</v>
+        <v>40.5</v>
       </c>
       <c r="P5" s="45">
         <f t="shared" si="2"/>
-        <v>37</v>
+        <v>40.5</v>
       </c>
       <c r="Q5" s="45">
         <f t="shared" si="2"/>
-        <v>37</v>
+        <v>40.5</v>
       </c>
       <c r="R5" s="45">
         <f t="shared" si="2"/>
-        <v>37</v>
+        <v>40.5</v>
       </c>
       <c r="S5" s="45">
         <f t="shared" si="2"/>
-        <v>37</v>
+        <v>40.5</v>
       </c>
       <c r="T5" s="45">
         <f t="shared" si="2"/>
-        <v>37</v>
+        <v>40.5</v>
       </c>
       <c r="U5" s="45">
         <f t="shared" si="2"/>
-        <v>37</v>
+        <v>40.5</v>
       </c>
       <c r="V5" s="45">
         <f t="shared" si="2"/>
-        <v>37</v>
+        <v>40.5</v>
       </c>
       <c r="W5" s="45">
         <f t="shared" si="2"/>
-        <v>37</v>
+        <v>40.5</v>
       </c>
       <c r="X5" s="45">
         <f t="shared" si="2"/>
-        <v>37</v>
+        <v>40.5</v>
       </c>
       <c r="Y5" s="45">
         <f t="shared" si="2"/>
-        <v>37</v>
+        <v>40.5</v>
       </c>
       <c r="Z5" s="45">
         <f t="shared" si="2"/>
-        <v>37</v>
+        <v>40.5</v>
       </c>
       <c r="AA5" s="45">
         <f t="shared" si="2"/>
-        <v>37</v>
+        <v>40.5</v>
       </c>
       <c r="AB5" s="45">
         <f t="shared" si="2"/>
-        <v>37</v>
+        <v>40.5</v>
       </c>
       <c r="AC5" s="45">
         <f t="shared" si="2"/>
-        <v>37</v>
+        <v>40.5</v>
       </c>
       <c r="AD5" s="45">
         <f t="shared" si="2"/>
-        <v>37</v>
+        <v>40.5</v>
       </c>
       <c r="AE5" s="45">
         <f t="shared" si="2"/>
-        <v>37</v>
+        <v>40.5</v>
       </c>
       <c r="AF5" s="45">
         <f t="shared" si="2"/>
-        <v>37</v>
+        <v>40.5</v>
       </c>
       <c r="AG5" s="45">
         <f t="shared" si="2"/>
-        <v>37</v>
+        <v>40.5</v>
       </c>
     </row>
     <row r="6" spans="1:33" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -3519,7 +3519,7 @@
         <v>43751</v>
       </c>
       <c r="D9" s="31">
-        <v>6</v>
+        <v>9.5</v>
       </c>
       <c r="E9" s="24" t="s">
         <v>22</v>
@@ -3903,7 +3903,7 @@
       <c r="C34" s="50"/>
       <c r="D34" s="33">
         <f>SUM(D6:D33)</f>
-        <v>37</v>
+        <v>40.5</v>
       </c>
       <c r="E34" s="12"/>
     </row>

--- a/IP_Controlling_Bruno_Maikoff.xlsx
+++ b/IP_Controlling_Bruno_Maikoff.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\BlockChain_TransactionManager\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FHNW\Semester7\Bachlorthesis\BlockChain_TransactionManager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{210FABAB-0B13-4A63-8F4A-A70BEA697011}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFB7C52A-294B-4155-87FB-BD57DCCDBAA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arbeitsrapport_Bruno" sheetId="11" r:id="rId1"/>
@@ -103,10 +103,10 @@
     <t>Template, Projektvereinbarung</t>
   </si>
   <si>
-    <t>Test Blockchain Netzwerk aufgesetzt, Sitzung feedback, Protokoll schreiben/schicken</t>
+    <t>2tes Meeting, Projektvereinbarung, Protokoll, Testumgebung aufsetzen</t>
   </si>
   <si>
-    <t>2tes Meeting, Projektvereinbarung, Protokoll, Testumgebung aufsetzen</t>
+    <t>Test Blockchain Netzwerk aufgesetzt, Sitzung feedback, Protokoll schreiben/schicken, Vereinbarung, Meilensteine, Tsks</t>
   </si>
 </sst>
 </file>
@@ -863,76 +863,76 @@
                   <c:v>20</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>28</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>28</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>28</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>28</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>28</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>28</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>28</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>28</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>28</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>28</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>28</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>28</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>28</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>28</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>28</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>28</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>28</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>28</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>28</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>28</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>28</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>28</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>28</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>28</c:v>
+                  <c:v>32</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1974,7 +1974,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG36"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -2364,99 +2364,99 @@
       </c>
       <c r="J5" s="45">
         <f t="shared" si="29"/>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="K5" s="45">
         <f t="shared" si="29"/>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="L5" s="45">
         <f t="shared" si="29"/>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="M5" s="45">
         <f t="shared" si="29"/>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="N5" s="45">
         <f t="shared" si="29"/>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="O5" s="45">
         <f t="shared" si="29"/>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="P5" s="45">
         <f t="shared" si="29"/>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="Q5" s="45">
         <f t="shared" si="29"/>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="R5" s="45">
         <f t="shared" si="29"/>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="S5" s="45">
         <f t="shared" si="29"/>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="T5" s="45">
         <f t="shared" si="29"/>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="U5" s="45">
         <f t="shared" si="29"/>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="V5" s="45">
         <f t="shared" si="29"/>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="W5" s="45">
         <f t="shared" si="29"/>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="X5" s="45">
         <f t="shared" si="29"/>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="Y5" s="45">
         <f t="shared" si="29"/>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="Z5" s="45">
         <f t="shared" si="29"/>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AA5" s="45">
         <f t="shared" si="29"/>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AB5" s="45">
         <f t="shared" si="29"/>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AC5" s="45">
         <f t="shared" si="29"/>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AD5" s="45">
         <f t="shared" si="29"/>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AE5" s="45">
         <f t="shared" ref="AE5" si="30">AD5+SUMIF($A$6:$A$33,AE3,$D$6:$D$33)</f>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AF5" s="45">
         <f t="shared" ref="AF5" si="31">AE5+SUMIF($A$6:$A$33,AF3,$D$6:$D$33)</f>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="AG5" s="45">
         <f t="shared" ref="AG5" si="32">AF5+SUMIF($A$6:$A$33,AG3,$D$6:$D$33)</f>
-        <v>28</v>
+        <v>32</v>
       </c>
     </row>
     <row r="6" spans="1:33" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
@@ -2534,10 +2534,10 @@
         <v>43751</v>
       </c>
       <c r="D9" s="31">
-        <v>8</v>
+        <v>12</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F9" s="9"/>
     </row>
@@ -2918,7 +2918,7 @@
       <c r="C34" s="50"/>
       <c r="D34" s="33">
         <f>SUM(D6:D33)</f>
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E34" s="12"/>
     </row>
@@ -2959,7 +2959,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00B32BAB-AD55-D94B-8F6F-B7572181299C}">
   <dimension ref="A1:AG36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
@@ -3522,7 +3522,7 @@
         <v>9.5</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F9" s="9"/>
     </row>

--- a/IP_Controlling_Bruno_Maikoff.xlsx
+++ b/IP_Controlling_Bruno_Maikoff.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FHNW\Semester7\Bachlorthesis\BlockChain_TransactionManager\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mai714\Documents\Workspace\BlockChain_TransactionManager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFB7C52A-294B-4155-87FB-BD57DCCDBAA0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Arbeitsrapport_Bruno" sheetId="11" r:id="rId1"/>
@@ -23,7 +22,7 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="1" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -112,7 +111,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -555,9 +554,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Standard 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard 2" xfId="2"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -584,7 +583,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -671,7 +670,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -989,7 +988,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1"/>
@@ -1044,7 +1043,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2067145632"/>
@@ -1092,7 +1091,7 @@
           <a:cs typeface="Arial"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1106,7 +1105,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1298,76 +1297,76 @@
                   <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>40.5</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40.5</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40.5</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40.5</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>40.5</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>40.5</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>40.5</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>40.5</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>40.5</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>40.5</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>40.5</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>40.5</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>40.5</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>40.5</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>40.5</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>40.5</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>40.5</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>40.5</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>40.5</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>40.5</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>40.5</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>40.5</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>40.5</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>40.5</c:v>
+                  <c:v>42</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1424,7 +1423,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1"/>
@@ -1479,7 +1478,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2067145632"/>
@@ -1527,7 +1526,7 @@
           <a:cs typeface="Arial"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1971,25 +1970,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" style="15" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="46.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="46.6640625" customWidth="1"/>
     <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="33" width="4.7109375" customWidth="1"/>
+    <col min="7" max="33" width="4.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="3" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" s="3" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A1" s="46" t="s">
         <v>3</v>
       </c>
@@ -1999,7 +1998,7 @@
       <c r="E1" s="46"/>
       <c r="F1" s="14"/>
     </row>
-    <row r="2" spans="1:33" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="47" t="s">
         <v>10</v>
       </c>
@@ -2094,7 +2093,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" s="47"/>
       <c r="B3" s="47"/>
       <c r="C3" s="47"/>
@@ -2211,7 +2210,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:33" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>5</v>
       </c>
@@ -2331,7 +2330,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="5" spans="1:33" s="8" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" s="8" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>6</v>
       </c>
@@ -2459,7 +2458,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:33" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" s="10" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A6" s="22">
         <v>1</v>
       </c>
@@ -2478,7 +2477,7 @@
       </c>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="1:33" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" s="10" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A7" s="22">
         <f t="shared" ref="A7:A22" si="33">A6+1</f>
         <v>2</v>
@@ -2499,7 +2498,7 @@
       </c>
       <c r="F7" s="9"/>
     </row>
-    <row r="8" spans="1:33" s="10" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" s="10" customFormat="1" ht="30.6" x14ac:dyDescent="0.25">
       <c r="A8" s="22">
         <f t="shared" si="33"/>
         <v>3</v>
@@ -2520,7 +2519,7 @@
       </c>
       <c r="F8" s="9"/>
     </row>
-    <row r="9" spans="1:33" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33" s="10" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A9" s="22">
         <f t="shared" si="33"/>
         <v>4</v>
@@ -2541,7 +2540,7 @@
       </c>
       <c r="F9" s="9"/>
     </row>
-    <row r="10" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A10" s="22">
         <f t="shared" si="33"/>
         <v>5</v>
@@ -2558,7 +2557,7 @@
       <c r="E10" s="24"/>
       <c r="F10" s="9"/>
     </row>
-    <row r="11" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A11" s="22">
         <f t="shared" si="33"/>
         <v>6</v>
@@ -2575,7 +2574,7 @@
       <c r="E11" s="24"/>
       <c r="F11" s="9"/>
     </row>
-    <row r="12" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:33" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A12" s="22">
         <f t="shared" si="33"/>
         <v>7</v>
@@ -2591,7 +2590,7 @@
       <c r="D12" s="31"/>
       <c r="E12" s="24"/>
     </row>
-    <row r="13" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:33" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A13" s="22">
         <f t="shared" si="33"/>
         <v>8</v>
@@ -2607,7 +2606,7 @@
       <c r="D13" s="31"/>
       <c r="E13" s="24"/>
     </row>
-    <row r="14" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:33" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A14" s="22">
         <f t="shared" si="33"/>
         <v>9</v>
@@ -2623,7 +2622,7 @@
       <c r="D14" s="31"/>
       <c r="E14" s="24"/>
     </row>
-    <row r="15" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:33" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A15" s="22">
         <f t="shared" si="33"/>
         <v>10</v>
@@ -2639,7 +2638,7 @@
       <c r="D15" s="31"/>
       <c r="E15" s="24"/>
     </row>
-    <row r="16" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:33" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A16" s="34">
         <f t="shared" si="33"/>
         <v>11</v>
@@ -2657,7 +2656,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A17" s="38">
         <f t="shared" si="33"/>
         <v>12</v>
@@ -2672,7 +2671,7 @@
       </c>
       <c r="D17" s="31"/>
     </row>
-    <row r="18" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A18" s="22">
         <f t="shared" si="33"/>
         <v>13</v>
@@ -2688,7 +2687,7 @@
       <c r="D18" s="31"/>
       <c r="E18" s="24"/>
     </row>
-    <row r="19" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A19" s="22">
         <f t="shared" si="33"/>
         <v>14</v>
@@ -2704,7 +2703,7 @@
       <c r="D19" s="31"/>
       <c r="E19" s="24"/>
     </row>
-    <row r="20" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A20" s="22">
         <f t="shared" si="33"/>
         <v>15</v>
@@ -2720,7 +2719,7 @@
       <c r="D20" s="31"/>
       <c r="E20" s="24"/>
     </row>
-    <row r="21" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A21" s="22">
         <f t="shared" si="33"/>
         <v>16</v>
@@ -2736,7 +2735,7 @@
       <c r="D21" s="31"/>
       <c r="E21" s="24"/>
     </row>
-    <row r="22" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A22" s="38">
         <f t="shared" si="33"/>
         <v>17</v>
@@ -2752,7 +2751,7 @@
       <c r="D22" s="31"/>
       <c r="E22" s="40"/>
     </row>
-    <row r="23" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A23" s="22">
         <v>18</v>
       </c>
@@ -2767,7 +2766,7 @@
       <c r="D23" s="31"/>
       <c r="E23" s="24"/>
     </row>
-    <row r="24" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A24" s="22">
         <v>19</v>
       </c>
@@ -2782,7 +2781,7 @@
       <c r="D24" s="31"/>
       <c r="E24" s="24"/>
     </row>
-    <row r="25" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A25" s="22">
         <v>20</v>
       </c>
@@ -2797,7 +2796,7 @@
       <c r="D25" s="31"/>
       <c r="E25" s="24"/>
     </row>
-    <row r="26" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A26" s="22">
         <v>21</v>
       </c>
@@ -2812,7 +2811,7 @@
       <c r="D26" s="31"/>
       <c r="E26" s="24"/>
     </row>
-    <row r="27" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A27" s="22">
         <v>22</v>
       </c>
@@ -2827,7 +2826,7 @@
       <c r="D27" s="31"/>
       <c r="E27" s="24"/>
     </row>
-    <row r="28" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A28" s="22">
         <v>23</v>
       </c>
@@ -2842,7 +2841,7 @@
       <c r="D28" s="31"/>
       <c r="E28" s="24"/>
     </row>
-    <row r="29" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A29" s="22">
         <v>24</v>
       </c>
@@ -2857,7 +2856,7 @@
       <c r="D29" s="31"/>
       <c r="E29" s="24"/>
     </row>
-    <row r="30" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A30" s="22">
         <v>25</v>
       </c>
@@ -2872,7 +2871,7 @@
       <c r="D30" s="31"/>
       <c r="E30" s="24"/>
     </row>
-    <row r="31" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A31" s="22">
         <v>26</v>
       </c>
@@ -2886,7 +2885,7 @@
       </c>
       <c r="D31" s="31"/>
     </row>
-    <row r="32" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A32" s="34">
         <v>27</v>
       </c>
@@ -2903,14 +2902,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="25"/>
       <c r="B33" s="26"/>
       <c r="C33" s="26"/>
       <c r="D33" s="32"/>
       <c r="E33" s="27"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="50" t="s">
         <v>2</v>
       </c>
@@ -2922,14 +2921,14 @@
       </c>
       <c r="E34" s="12"/>
     </row>
-    <row r="35" spans="1:5" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="51"/>
       <c r="B35" s="51"/>
       <c r="C35" s="51"/>
       <c r="D35" s="51"/>
       <c r="E35" s="13"/>
     </row>
-    <row r="36" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="25"/>
       <c r="B36" s="26"/>
       <c r="C36" s="26"/>
@@ -2937,7 +2936,7 @@
       <c r="E36" s="27"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:B5" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A5:B5"/>
   <mergeCells count="5">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:C3"/>
@@ -2946,7 +2945,7 @@
     <mergeCell ref="A35:D35"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="Name, Vorname:" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId1" display="Name, Vorname:"/>
   </hyperlinks>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" scale="75" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -2956,25 +2955,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00B32BAB-AD55-D94B-8F6F-B7572181299C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG36"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" style="15" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="46.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="46.6640625" customWidth="1"/>
     <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="33" width="4.7109375" customWidth="1"/>
+    <col min="7" max="33" width="4.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="3" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" s="3" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A1" s="46" t="s">
         <v>3</v>
       </c>
@@ -2984,7 +2983,7 @@
       <c r="E1" s="46"/>
       <c r="F1" s="14"/>
     </row>
-    <row r="2" spans="1:33" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="47" t="s">
         <v>10</v>
       </c>
@@ -3079,7 +3078,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:33" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="47"/>
       <c r="B3" s="47"/>
       <c r="C3" s="47"/>
@@ -3196,7 +3195,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:33" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A4" s="43" t="s">
         <v>5</v>
       </c>
@@ -3316,7 +3315,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="5" spans="1:33" s="8" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" s="8" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>6</v>
       </c>
@@ -3349,102 +3348,102 @@
       </c>
       <c r="J5" s="45">
         <f t="shared" si="2"/>
-        <v>40.5</v>
+        <v>42</v>
       </c>
       <c r="K5" s="45">
         <f t="shared" si="2"/>
-        <v>40.5</v>
+        <v>42</v>
       </c>
       <c r="L5" s="45">
         <f t="shared" si="2"/>
-        <v>40.5</v>
+        <v>42</v>
       </c>
       <c r="M5" s="45">
         <f t="shared" si="2"/>
-        <v>40.5</v>
+        <v>42</v>
       </c>
       <c r="N5" s="45">
         <f t="shared" si="2"/>
-        <v>40.5</v>
+        <v>42</v>
       </c>
       <c r="O5" s="45">
         <f t="shared" si="2"/>
-        <v>40.5</v>
+        <v>42</v>
       </c>
       <c r="P5" s="45">
         <f t="shared" si="2"/>
-        <v>40.5</v>
+        <v>42</v>
       </c>
       <c r="Q5" s="45">
         <f t="shared" si="2"/>
-        <v>40.5</v>
+        <v>42</v>
       </c>
       <c r="R5" s="45">
         <f t="shared" si="2"/>
-        <v>40.5</v>
+        <v>42</v>
       </c>
       <c r="S5" s="45">
         <f t="shared" si="2"/>
-        <v>40.5</v>
+        <v>42</v>
       </c>
       <c r="T5" s="45">
         <f t="shared" si="2"/>
-        <v>40.5</v>
+        <v>42</v>
       </c>
       <c r="U5" s="45">
         <f t="shared" si="2"/>
-        <v>40.5</v>
+        <v>42</v>
       </c>
       <c r="V5" s="45">
         <f t="shared" si="2"/>
-        <v>40.5</v>
+        <v>42</v>
       </c>
       <c r="W5" s="45">
         <f t="shared" si="2"/>
-        <v>40.5</v>
+        <v>42</v>
       </c>
       <c r="X5" s="45">
         <f t="shared" si="2"/>
-        <v>40.5</v>
+        <v>42</v>
       </c>
       <c r="Y5" s="45">
         <f t="shared" si="2"/>
-        <v>40.5</v>
+        <v>42</v>
       </c>
       <c r="Z5" s="45">
         <f t="shared" si="2"/>
-        <v>40.5</v>
+        <v>42</v>
       </c>
       <c r="AA5" s="45">
         <f t="shared" si="2"/>
-        <v>40.5</v>
+        <v>42</v>
       </c>
       <c r="AB5" s="45">
         <f t="shared" si="2"/>
-        <v>40.5</v>
+        <v>42</v>
       </c>
       <c r="AC5" s="45">
         <f t="shared" si="2"/>
-        <v>40.5</v>
+        <v>42</v>
       </c>
       <c r="AD5" s="45">
         <f t="shared" si="2"/>
-        <v>40.5</v>
+        <v>42</v>
       </c>
       <c r="AE5" s="45">
         <f t="shared" si="2"/>
-        <v>40.5</v>
+        <v>42</v>
       </c>
       <c r="AF5" s="45">
         <f t="shared" si="2"/>
-        <v>40.5</v>
+        <v>42</v>
       </c>
       <c r="AG5" s="45">
         <f t="shared" si="2"/>
-        <v>40.5</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" s="10" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A6" s="22">
         <v>1</v>
       </c>
@@ -3463,7 +3462,7 @@
       </c>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="1:33" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" s="10" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A7" s="22">
         <f t="shared" ref="A7:A22" si="3">A6+1</f>
         <v>2</v>
@@ -3484,7 +3483,7 @@
       </c>
       <c r="F7" s="9"/>
     </row>
-    <row r="8" spans="1:33" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" s="10" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A8" s="22">
         <f t="shared" si="3"/>
         <v>3</v>
@@ -3505,7 +3504,7 @@
       </c>
       <c r="F8" s="9"/>
     </row>
-    <row r="9" spans="1:33" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33" s="10" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A9" s="22">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -3519,14 +3518,14 @@
         <v>43751</v>
       </c>
       <c r="D9" s="31">
-        <v>9.5</v>
+        <v>11</v>
       </c>
       <c r="E9" s="24" t="s">
         <v>21</v>
       </c>
       <c r="F9" s="9"/>
     </row>
-    <row r="10" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A10" s="22">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -3543,7 +3542,7 @@
       <c r="E10" s="24"/>
       <c r="F10" s="9"/>
     </row>
-    <row r="11" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A11" s="22">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -3560,7 +3559,7 @@
       <c r="E11" s="24"/>
       <c r="F11" s="9"/>
     </row>
-    <row r="12" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:33" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A12" s="22">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -3576,7 +3575,7 @@
       <c r="D12" s="31"/>
       <c r="E12" s="24"/>
     </row>
-    <row r="13" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:33" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A13" s="22">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -3592,7 +3591,7 @@
       <c r="D13" s="31"/>
       <c r="E13" s="24"/>
     </row>
-    <row r="14" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:33" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A14" s="22">
         <f t="shared" si="3"/>
         <v>9</v>
@@ -3608,7 +3607,7 @@
       <c r="D14" s="31"/>
       <c r="E14" s="24"/>
     </row>
-    <row r="15" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:33" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A15" s="22">
         <f t="shared" si="3"/>
         <v>10</v>
@@ -3624,7 +3623,7 @@
       <c r="D15" s="31"/>
       <c r="E15" s="24"/>
     </row>
-    <row r="16" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:33" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A16" s="34">
         <f t="shared" si="3"/>
         <v>11</v>
@@ -3642,7 +3641,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A17" s="38">
         <f t="shared" si="3"/>
         <v>12</v>
@@ -3657,7 +3656,7 @@
       </c>
       <c r="D17" s="31"/>
     </row>
-    <row r="18" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A18" s="22">
         <f t="shared" si="3"/>
         <v>13</v>
@@ -3673,7 +3672,7 @@
       <c r="D18" s="31"/>
       <c r="E18" s="24"/>
     </row>
-    <row r="19" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A19" s="22">
         <f t="shared" si="3"/>
         <v>14</v>
@@ -3689,7 +3688,7 @@
       <c r="D19" s="31"/>
       <c r="E19" s="24"/>
     </row>
-    <row r="20" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A20" s="22">
         <f t="shared" si="3"/>
         <v>15</v>
@@ -3705,7 +3704,7 @@
       <c r="D20" s="31"/>
       <c r="E20" s="24"/>
     </row>
-    <row r="21" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A21" s="22">
         <f t="shared" si="3"/>
         <v>16</v>
@@ -3721,7 +3720,7 @@
       <c r="D21" s="31"/>
       <c r="E21" s="24"/>
     </row>
-    <row r="22" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A22" s="38">
         <f t="shared" si="3"/>
         <v>17</v>
@@ -3737,7 +3736,7 @@
       <c r="D22" s="31"/>
       <c r="E22" s="40"/>
     </row>
-    <row r="23" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A23" s="22">
         <v>18</v>
       </c>
@@ -3752,7 +3751,7 @@
       <c r="D23" s="31"/>
       <c r="E23" s="24"/>
     </row>
-    <row r="24" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A24" s="22">
         <v>19</v>
       </c>
@@ -3767,7 +3766,7 @@
       <c r="D24" s="31"/>
       <c r="E24" s="24"/>
     </row>
-    <row r="25" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A25" s="22">
         <v>20</v>
       </c>
@@ -3782,7 +3781,7 @@
       <c r="D25" s="31"/>
       <c r="E25" s="24"/>
     </row>
-    <row r="26" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A26" s="22">
         <v>21</v>
       </c>
@@ -3797,7 +3796,7 @@
       <c r="D26" s="31"/>
       <c r="E26" s="24"/>
     </row>
-    <row r="27" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A27" s="22">
         <v>22</v>
       </c>
@@ -3812,7 +3811,7 @@
       <c r="D27" s="31"/>
       <c r="E27" s="24"/>
     </row>
-    <row r="28" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A28" s="22">
         <v>23</v>
       </c>
@@ -3827,7 +3826,7 @@
       <c r="D28" s="31"/>
       <c r="E28" s="24"/>
     </row>
-    <row r="29" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A29" s="22">
         <v>24</v>
       </c>
@@ -3842,7 +3841,7 @@
       <c r="D29" s="31"/>
       <c r="E29" s="24"/>
     </row>
-    <row r="30" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A30" s="22">
         <v>25</v>
       </c>
@@ -3857,7 +3856,7 @@
       <c r="D30" s="31"/>
       <c r="E30" s="24"/>
     </row>
-    <row r="31" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A31" s="22">
         <v>26</v>
       </c>
@@ -3871,7 +3870,7 @@
       </c>
       <c r="D31" s="31"/>
     </row>
-    <row r="32" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A32" s="34">
         <v>27</v>
       </c>
@@ -3888,14 +3887,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="25"/>
       <c r="B33" s="26"/>
       <c r="C33" s="26"/>
       <c r="D33" s="32"/>
       <c r="E33" s="27"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="50" t="s">
         <v>2</v>
       </c>
@@ -3903,18 +3902,18 @@
       <c r="C34" s="50"/>
       <c r="D34" s="33">
         <f>SUM(D6:D33)</f>
-        <v>40.5</v>
+        <v>42</v>
       </c>
       <c r="E34" s="12"/>
     </row>
-    <row r="35" spans="1:5" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="51"/>
       <c r="B35" s="51"/>
       <c r="C35" s="51"/>
       <c r="D35" s="51"/>
       <c r="E35" s="13"/>
     </row>
-    <row r="36" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="25"/>
       <c r="B36" s="26"/>
       <c r="C36" s="26"/>
@@ -3922,7 +3921,7 @@
       <c r="E36" s="27"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:B5" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A5:B5"/>
   <mergeCells count="5">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:C3"/>
@@ -3931,7 +3930,7 @@
     <mergeCell ref="A35:D35"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="Name, Vorname:" xr:uid="{42D18B0C-3583-BB48-818A-4FF21DDCFDE7}"/>
+    <hyperlink ref="A2" r:id="rId1" display="Name, Vorname:"/>
   </hyperlinks>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" scale="75" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/IP_Controlling_Bruno_Maikoff.xlsx
+++ b/IP_Controlling_Bruno_Maikoff.xlsx
@@ -1297,76 +1297,76 @@
                   <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>42</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>42</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>42</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>42</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>42</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>42</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>42</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>42</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>42</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>42</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>42</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>42</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>42</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>42</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>42</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>42</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>42</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>42</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>42</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>42</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>42</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>42</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>42</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>42</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2959,7 +2959,7 @@
   <dimension ref="A1:AG36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3348,99 +3348,99 @@
       </c>
       <c r="J5" s="45">
         <f t="shared" si="2"/>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="K5" s="45">
         <f t="shared" si="2"/>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="L5" s="45">
         <f t="shared" si="2"/>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="M5" s="45">
         <f t="shared" si="2"/>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="N5" s="45">
         <f t="shared" si="2"/>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="O5" s="45">
         <f t="shared" si="2"/>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="P5" s="45">
         <f t="shared" si="2"/>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Q5" s="45">
         <f t="shared" si="2"/>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="R5" s="45">
         <f t="shared" si="2"/>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="S5" s="45">
         <f t="shared" si="2"/>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="T5" s="45">
         <f t="shared" si="2"/>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="U5" s="45">
         <f t="shared" si="2"/>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="V5" s="45">
         <f t="shared" si="2"/>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="W5" s="45">
         <f t="shared" si="2"/>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="X5" s="45">
         <f t="shared" si="2"/>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Y5" s="45">
         <f t="shared" si="2"/>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="Z5" s="45">
         <f t="shared" si="2"/>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AA5" s="45">
         <f t="shared" si="2"/>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AB5" s="45">
         <f t="shared" si="2"/>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AC5" s="45">
         <f t="shared" si="2"/>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AD5" s="45">
         <f t="shared" si="2"/>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AE5" s="45">
         <f t="shared" si="2"/>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AF5" s="45">
         <f t="shared" si="2"/>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="AG5" s="45">
         <f t="shared" si="2"/>
-        <v>42</v>
+        <v>43</v>
       </c>
     </row>
     <row r="6" spans="1:33" s="10" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
@@ -3518,7 +3518,7 @@
         <v>43751</v>
       </c>
       <c r="D9" s="31">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E9" s="24" t="s">
         <v>21</v>
@@ -3902,7 +3902,7 @@
       <c r="C34" s="50"/>
       <c r="D34" s="33">
         <f>SUM(D6:D33)</f>
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E34" s="12"/>
     </row>

--- a/IP_Controlling_Bruno_Maikoff.xlsx
+++ b/IP_Controlling_Bruno_Maikoff.xlsx
@@ -1297,76 +1297,76 @@
                   <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>43</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>43</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>43</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>43</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>43</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>43</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>43</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>43</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>43</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>43</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>43</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>43</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>43</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>43</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>43</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>43</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>43</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>43</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>43</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>43</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>43</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>43</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>43</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>43</c:v>
+                  <c:v>45</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2959,7 +2959,7 @@
   <dimension ref="A1:AG36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3348,99 +3348,99 @@
       </c>
       <c r="J5" s="45">
         <f t="shared" si="2"/>
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="K5" s="45">
         <f t="shared" si="2"/>
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="L5" s="45">
         <f t="shared" si="2"/>
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="M5" s="45">
         <f t="shared" si="2"/>
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="N5" s="45">
         <f t="shared" si="2"/>
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="O5" s="45">
         <f t="shared" si="2"/>
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="P5" s="45">
         <f t="shared" si="2"/>
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="Q5" s="45">
         <f t="shared" si="2"/>
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="R5" s="45">
         <f t="shared" si="2"/>
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="S5" s="45">
         <f t="shared" si="2"/>
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="T5" s="45">
         <f t="shared" si="2"/>
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="U5" s="45">
         <f t="shared" si="2"/>
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="V5" s="45">
         <f t="shared" si="2"/>
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="W5" s="45">
         <f t="shared" si="2"/>
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="X5" s="45">
         <f t="shared" si="2"/>
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="Y5" s="45">
         <f t="shared" si="2"/>
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="Z5" s="45">
         <f t="shared" si="2"/>
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AA5" s="45">
         <f t="shared" si="2"/>
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AB5" s="45">
         <f t="shared" si="2"/>
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AC5" s="45">
         <f t="shared" si="2"/>
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AD5" s="45">
         <f t="shared" si="2"/>
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AE5" s="45">
         <f t="shared" si="2"/>
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AF5" s="45">
         <f t="shared" si="2"/>
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="AG5" s="45">
         <f t="shared" si="2"/>
-        <v>43</v>
+        <v>45</v>
       </c>
     </row>
     <row r="6" spans="1:33" s="10" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
@@ -3518,7 +3518,7 @@
         <v>43751</v>
       </c>
       <c r="D9" s="31">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E9" s="24" t="s">
         <v>21</v>
@@ -3902,7 +3902,7 @@
       <c r="C34" s="50"/>
       <c r="D34" s="33">
         <f>SUM(D6:D33)</f>
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="E34" s="12"/>
     </row>

--- a/IP_Controlling_Bruno_Maikoff.xlsx
+++ b/IP_Controlling_Bruno_Maikoff.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mai714\Documents\Workspace\BlockChain_TransactionManager\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\BlockChain_TransactionManager\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42F542FF-E242-4666-BEAF-5D14F675C488}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arbeitsrapport_Bruno" sheetId="11" r:id="rId1"/>
@@ -22,7 +23,7 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="1" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -102,16 +103,16 @@
     <t>Template, Projektvereinbarung</t>
   </si>
   <si>
-    <t>2tes Meeting, Projektvereinbarung, Protokoll, Testumgebung aufsetzen</t>
+    <t>Test Blockchain Netzwerk aufgesetzt, Sitzung feedback, Protokoll schreiben/schicken, Vereinbarung, Meilensteine, Tsks</t>
   </si>
   <si>
-    <t>Test Blockchain Netzwerk aufgesetzt, Sitzung feedback, Protokoll schreiben/schicken, Vereinbarung, Meilensteine, Tsks</t>
+    <t>2tes Meeting, Projektvereinbarung, Protokoll, Testumgebung aufsetzen, Einarbeiten in Materie</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -554,9 +555,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Standard 2" xfId="2"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -583,7 +584,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -670,7 +671,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -988,7 +989,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1"/>
@@ -1043,7 +1044,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2067145632"/>
@@ -1091,7 +1092,7 @@
           <a:cs typeface="Arial"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1105,7 +1106,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1297,76 +1298,76 @@
                   <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>45</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>45</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>45</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>45</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>45</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>45</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>45</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>45</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>45</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>45</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>45</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>45</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>45</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>45</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>45</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>45</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>45</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>45</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>45</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>45</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>45</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>45</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>45</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>45</c:v>
+                  <c:v>48</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1423,7 +1424,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1"/>
@@ -1478,7 +1479,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2067145632"/>
@@ -1526,7 +1527,7 @@
           <a:cs typeface="Arial"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1970,25 +1971,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG36"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" style="15" customWidth="1"/>
-    <col min="4" max="4" width="9.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="46.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="15" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="46.7109375" customWidth="1"/>
     <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="33" width="4.6640625" customWidth="1"/>
+    <col min="7" max="33" width="4.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="3" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:33" s="3" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="46" t="s">
         <v>3</v>
       </c>
@@ -1998,7 +1999,7 @@
       <c r="E1" s="46"/>
       <c r="F1" s="14"/>
     </row>
-    <row r="2" spans="1:33" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="47" t="s">
         <v>10</v>
       </c>
@@ -2093,7 +2094,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" s="47"/>
       <c r="B3" s="47"/>
       <c r="C3" s="47"/>
@@ -2210,7 +2211,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:33" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
         <v>5</v>
       </c>
@@ -2330,7 +2331,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="5" spans="1:33" s="8" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" s="8" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
         <v>6</v>
       </c>
@@ -2458,7 +2459,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:33" s="10" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A6" s="22">
         <v>1</v>
       </c>
@@ -2477,7 +2478,7 @@
       </c>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="1:33" s="10" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A7" s="22">
         <f t="shared" ref="A7:A22" si="33">A6+1</f>
         <v>2</v>
@@ -2498,7 +2499,7 @@
       </c>
       <c r="F7" s="9"/>
     </row>
-    <row r="8" spans="1:33" s="10" customFormat="1" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" s="10" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A8" s="22">
         <f t="shared" si="33"/>
         <v>3</v>
@@ -2519,7 +2520,7 @@
       </c>
       <c r="F8" s="9"/>
     </row>
-    <row r="9" spans="1:33" s="10" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A9" s="22">
         <f t="shared" si="33"/>
         <v>4</v>
@@ -2536,11 +2537,11 @@
         <v>12</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F9" s="9"/>
     </row>
-    <row r="10" spans="1:33" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A10" s="22">
         <f t="shared" si="33"/>
         <v>5</v>
@@ -2557,7 +2558,7 @@
       <c r="E10" s="24"/>
       <c r="F10" s="9"/>
     </row>
-    <row r="11" spans="1:33" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A11" s="22">
         <f t="shared" si="33"/>
         <v>6</v>
@@ -2574,7 +2575,7 @@
       <c r="E11" s="24"/>
       <c r="F11" s="9"/>
     </row>
-    <row r="12" spans="1:33" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A12" s="22">
         <f t="shared" si="33"/>
         <v>7</v>
@@ -2590,7 +2591,7 @@
       <c r="D12" s="31"/>
       <c r="E12" s="24"/>
     </row>
-    <row r="13" spans="1:33" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A13" s="22">
         <f t="shared" si="33"/>
         <v>8</v>
@@ -2606,7 +2607,7 @@
       <c r="D13" s="31"/>
       <c r="E13" s="24"/>
     </row>
-    <row r="14" spans="1:33" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A14" s="22">
         <f t="shared" si="33"/>
         <v>9</v>
@@ -2622,7 +2623,7 @@
       <c r="D14" s="31"/>
       <c r="E14" s="24"/>
     </row>
-    <row r="15" spans="1:33" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A15" s="22">
         <f t="shared" si="33"/>
         <v>10</v>
@@ -2638,7 +2639,7 @@
       <c r="D15" s="31"/>
       <c r="E15" s="24"/>
     </row>
-    <row r="16" spans="1:33" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A16" s="34">
         <f t="shared" si="33"/>
         <v>11</v>
@@ -2656,7 +2657,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A17" s="38">
         <f t="shared" si="33"/>
         <v>12</v>
@@ -2671,7 +2672,7 @@
       </c>
       <c r="D17" s="31"/>
     </row>
-    <row r="18" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A18" s="22">
         <f t="shared" si="33"/>
         <v>13</v>
@@ -2687,7 +2688,7 @@
       <c r="D18" s="31"/>
       <c r="E18" s="24"/>
     </row>
-    <row r="19" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A19" s="22">
         <f t="shared" si="33"/>
         <v>14</v>
@@ -2703,7 +2704,7 @@
       <c r="D19" s="31"/>
       <c r="E19" s="24"/>
     </row>
-    <row r="20" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A20" s="22">
         <f t="shared" si="33"/>
         <v>15</v>
@@ -2719,7 +2720,7 @@
       <c r="D20" s="31"/>
       <c r="E20" s="24"/>
     </row>
-    <row r="21" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A21" s="22">
         <f t="shared" si="33"/>
         <v>16</v>
@@ -2735,7 +2736,7 @@
       <c r="D21" s="31"/>
       <c r="E21" s="24"/>
     </row>
-    <row r="22" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A22" s="38">
         <f t="shared" si="33"/>
         <v>17</v>
@@ -2751,7 +2752,7 @@
       <c r="D22" s="31"/>
       <c r="E22" s="40"/>
     </row>
-    <row r="23" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A23" s="22">
         <v>18</v>
       </c>
@@ -2766,7 +2767,7 @@
       <c r="D23" s="31"/>
       <c r="E23" s="24"/>
     </row>
-    <row r="24" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A24" s="22">
         <v>19</v>
       </c>
@@ -2781,7 +2782,7 @@
       <c r="D24" s="31"/>
       <c r="E24" s="24"/>
     </row>
-    <row r="25" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A25" s="22">
         <v>20</v>
       </c>
@@ -2796,7 +2797,7 @@
       <c r="D25" s="31"/>
       <c r="E25" s="24"/>
     </row>
-    <row r="26" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A26" s="22">
         <v>21</v>
       </c>
@@ -2811,7 +2812,7 @@
       <c r="D26" s="31"/>
       <c r="E26" s="24"/>
     </row>
-    <row r="27" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A27" s="22">
         <v>22</v>
       </c>
@@ -2826,7 +2827,7 @@
       <c r="D27" s="31"/>
       <c r="E27" s="24"/>
     </row>
-    <row r="28" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A28" s="22">
         <v>23</v>
       </c>
@@ -2841,7 +2842,7 @@
       <c r="D28" s="31"/>
       <c r="E28" s="24"/>
     </row>
-    <row r="29" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A29" s="22">
         <v>24</v>
       </c>
@@ -2856,7 +2857,7 @@
       <c r="D29" s="31"/>
       <c r="E29" s="24"/>
     </row>
-    <row r="30" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A30" s="22">
         <v>25</v>
       </c>
@@ -2871,7 +2872,7 @@
       <c r="D30" s="31"/>
       <c r="E30" s="24"/>
     </row>
-    <row r="31" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A31" s="22">
         <v>26</v>
       </c>
@@ -2885,7 +2886,7 @@
       </c>
       <c r="D31" s="31"/>
     </row>
-    <row r="32" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A32" s="34">
         <v>27</v>
       </c>
@@ -2902,14 +2903,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="25"/>
       <c r="B33" s="26"/>
       <c r="C33" s="26"/>
       <c r="D33" s="32"/>
       <c r="E33" s="27"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="50" t="s">
         <v>2</v>
       </c>
@@ -2921,14 +2922,14 @@
       </c>
       <c r="E34" s="12"/>
     </row>
-    <row r="35" spans="1:5" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="51"/>
       <c r="B35" s="51"/>
       <c r="C35" s="51"/>
       <c r="D35" s="51"/>
       <c r="E35" s="13"/>
     </row>
-    <row r="36" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="25"/>
       <c r="B36" s="26"/>
       <c r="C36" s="26"/>
@@ -2936,7 +2937,7 @@
       <c r="E36" s="27"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:B5"/>
+  <autoFilter ref="A5:B5" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="5">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:C3"/>
@@ -2945,7 +2946,7 @@
     <mergeCell ref="A35:D35"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="Name, Vorname:"/>
+    <hyperlink ref="A2" r:id="rId1" display="Name, Vorname:" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" scale="75" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -2955,25 +2956,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AG36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" style="15" customWidth="1"/>
-    <col min="4" max="4" width="9.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="46.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="15" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="46.7109375" customWidth="1"/>
     <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="33" width="4.6640625" customWidth="1"/>
+    <col min="7" max="33" width="4.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="3" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:33" s="3" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="46" t="s">
         <v>3</v>
       </c>
@@ -2983,7 +2984,7 @@
       <c r="E1" s="46"/>
       <c r="F1" s="14"/>
     </row>
-    <row r="2" spans="1:33" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="47" t="s">
         <v>10</v>
       </c>
@@ -3078,7 +3079,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:33" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="47"/>
       <c r="B3" s="47"/>
       <c r="C3" s="47"/>
@@ -3195,7 +3196,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:33" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="43" t="s">
         <v>5</v>
       </c>
@@ -3315,7 +3316,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="5" spans="1:33" s="8" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" s="8" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
         <v>6</v>
       </c>
@@ -3348,102 +3349,102 @@
       </c>
       <c r="J5" s="45">
         <f t="shared" si="2"/>
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="K5" s="45">
         <f t="shared" si="2"/>
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="L5" s="45">
         <f t="shared" si="2"/>
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="M5" s="45">
         <f t="shared" si="2"/>
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="N5" s="45">
         <f t="shared" si="2"/>
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="O5" s="45">
         <f t="shared" si="2"/>
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="P5" s="45">
         <f t="shared" si="2"/>
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="Q5" s="45">
         <f t="shared" si="2"/>
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="R5" s="45">
         <f t="shared" si="2"/>
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="S5" s="45">
         <f t="shared" si="2"/>
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="T5" s="45">
         <f t="shared" si="2"/>
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="U5" s="45">
         <f t="shared" si="2"/>
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="V5" s="45">
         <f t="shared" si="2"/>
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="W5" s="45">
         <f t="shared" si="2"/>
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="X5" s="45">
         <f t="shared" si="2"/>
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="Y5" s="45">
         <f t="shared" si="2"/>
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="Z5" s="45">
         <f t="shared" si="2"/>
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AA5" s="45">
         <f t="shared" si="2"/>
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AB5" s="45">
         <f t="shared" si="2"/>
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AC5" s="45">
         <f t="shared" si="2"/>
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AD5" s="45">
         <f t="shared" si="2"/>
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AE5" s="45">
         <f t="shared" si="2"/>
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AF5" s="45">
         <f t="shared" si="2"/>
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="AG5" s="45">
         <f t="shared" si="2"/>
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33" s="10" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A6" s="22">
         <v>1</v>
       </c>
@@ -3462,7 +3463,7 @@
       </c>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="1:33" s="10" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A7" s="22">
         <f t="shared" ref="A7:A22" si="3">A6+1</f>
         <v>2</v>
@@ -3483,7 +3484,7 @@
       </c>
       <c r="F7" s="9"/>
     </row>
-    <row r="8" spans="1:33" s="10" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A8" s="22">
         <f t="shared" si="3"/>
         <v>3</v>
@@ -3504,7 +3505,7 @@
       </c>
       <c r="F8" s="9"/>
     </row>
-    <row r="9" spans="1:33" s="10" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A9" s="22">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -3518,14 +3519,14 @@
         <v>43751</v>
       </c>
       <c r="D9" s="31">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="F9" s="9"/>
     </row>
-    <row r="10" spans="1:33" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A10" s="22">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -3542,7 +3543,7 @@
       <c r="E10" s="24"/>
       <c r="F10" s="9"/>
     </row>
-    <row r="11" spans="1:33" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A11" s="22">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -3559,7 +3560,7 @@
       <c r="E11" s="24"/>
       <c r="F11" s="9"/>
     </row>
-    <row r="12" spans="1:33" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A12" s="22">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -3575,7 +3576,7 @@
       <c r="D12" s="31"/>
       <c r="E12" s="24"/>
     </row>
-    <row r="13" spans="1:33" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A13" s="22">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -3591,7 +3592,7 @@
       <c r="D13" s="31"/>
       <c r="E13" s="24"/>
     </row>
-    <row r="14" spans="1:33" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A14" s="22">
         <f t="shared" si="3"/>
         <v>9</v>
@@ -3607,7 +3608,7 @@
       <c r="D14" s="31"/>
       <c r="E14" s="24"/>
     </row>
-    <row r="15" spans="1:33" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A15" s="22">
         <f t="shared" si="3"/>
         <v>10</v>
@@ -3623,7 +3624,7 @@
       <c r="D15" s="31"/>
       <c r="E15" s="24"/>
     </row>
-    <row r="16" spans="1:33" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A16" s="34">
         <f t="shared" si="3"/>
         <v>11</v>
@@ -3641,7 +3642,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A17" s="38">
         <f t="shared" si="3"/>
         <v>12</v>
@@ -3656,7 +3657,7 @@
       </c>
       <c r="D17" s="31"/>
     </row>
-    <row r="18" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A18" s="22">
         <f t="shared" si="3"/>
         <v>13</v>
@@ -3672,7 +3673,7 @@
       <c r="D18" s="31"/>
       <c r="E18" s="24"/>
     </row>
-    <row r="19" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A19" s="22">
         <f t="shared" si="3"/>
         <v>14</v>
@@ -3688,7 +3689,7 @@
       <c r="D19" s="31"/>
       <c r="E19" s="24"/>
     </row>
-    <row r="20" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A20" s="22">
         <f t="shared" si="3"/>
         <v>15</v>
@@ -3704,7 +3705,7 @@
       <c r="D20" s="31"/>
       <c r="E20" s="24"/>
     </row>
-    <row r="21" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A21" s="22">
         <f t="shared" si="3"/>
         <v>16</v>
@@ -3720,7 +3721,7 @@
       <c r="D21" s="31"/>
       <c r="E21" s="24"/>
     </row>
-    <row r="22" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A22" s="38">
         <f t="shared" si="3"/>
         <v>17</v>
@@ -3736,7 +3737,7 @@
       <c r="D22" s="31"/>
       <c r="E22" s="40"/>
     </row>
-    <row r="23" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A23" s="22">
         <v>18</v>
       </c>
@@ -3751,7 +3752,7 @@
       <c r="D23" s="31"/>
       <c r="E23" s="24"/>
     </row>
-    <row r="24" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A24" s="22">
         <v>19</v>
       </c>
@@ -3766,7 +3767,7 @@
       <c r="D24" s="31"/>
       <c r="E24" s="24"/>
     </row>
-    <row r="25" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A25" s="22">
         <v>20</v>
       </c>
@@ -3781,7 +3782,7 @@
       <c r="D25" s="31"/>
       <c r="E25" s="24"/>
     </row>
-    <row r="26" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A26" s="22">
         <v>21</v>
       </c>
@@ -3796,7 +3797,7 @@
       <c r="D26" s="31"/>
       <c r="E26" s="24"/>
     </row>
-    <row r="27" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A27" s="22">
         <v>22</v>
       </c>
@@ -3811,7 +3812,7 @@
       <c r="D27" s="31"/>
       <c r="E27" s="24"/>
     </row>
-    <row r="28" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A28" s="22">
         <v>23</v>
       </c>
@@ -3826,7 +3827,7 @@
       <c r="D28" s="31"/>
       <c r="E28" s="24"/>
     </row>
-    <row r="29" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A29" s="22">
         <v>24</v>
       </c>
@@ -3841,7 +3842,7 @@
       <c r="D29" s="31"/>
       <c r="E29" s="24"/>
     </row>
-    <row r="30" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A30" s="22">
         <v>25</v>
       </c>
@@ -3856,7 +3857,7 @@
       <c r="D30" s="31"/>
       <c r="E30" s="24"/>
     </row>
-    <row r="31" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A31" s="22">
         <v>26</v>
       </c>
@@ -3870,7 +3871,7 @@
       </c>
       <c r="D31" s="31"/>
     </row>
-    <row r="32" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A32" s="34">
         <v>27</v>
       </c>
@@ -3887,14 +3888,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="25"/>
       <c r="B33" s="26"/>
       <c r="C33" s="26"/>
       <c r="D33" s="32"/>
       <c r="E33" s="27"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="50" t="s">
         <v>2</v>
       </c>
@@ -3902,18 +3903,18 @@
       <c r="C34" s="50"/>
       <c r="D34" s="33">
         <f>SUM(D6:D33)</f>
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="E34" s="12"/>
     </row>
-    <row r="35" spans="1:5" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="51"/>
       <c r="B35" s="51"/>
       <c r="C35" s="51"/>
       <c r="D35" s="51"/>
       <c r="E35" s="13"/>
     </row>
-    <row r="36" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="25"/>
       <c r="B36" s="26"/>
       <c r="C36" s="26"/>
@@ -3921,7 +3922,7 @@
       <c r="E36" s="27"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:B5"/>
+  <autoFilter ref="A5:B5" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="5">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:C3"/>
@@ -3930,7 +3931,7 @@
     <mergeCell ref="A35:D35"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="Name, Vorname:"/>
+    <hyperlink ref="A2" r:id="rId1" display="Name, Vorname:" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" scale="75" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/IP_Controlling_Bruno_Maikoff.xlsx
+++ b/IP_Controlling_Bruno_Maikoff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\BlockChain_TransactionManager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{42F542FF-E242-4666-BEAF-5D14F675C488}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D1EA7DD-2A9D-401A-8A6B-B0EF3D2EA048}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1298,76 +1298,76 @@
                   <c:v>31</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>48</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>48</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>48</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>48</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>48</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>48</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>48</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>48</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>48</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>48</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>48</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>48</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>48</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>48</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>48</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>48</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>48</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>48</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>48</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>48</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>48</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>48</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>48</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>48</c:v>
+                  <c:v>49</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2960,7 +2960,7 @@
   <dimension ref="A1:AG36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3349,99 +3349,99 @@
       </c>
       <c r="J5" s="45">
         <f t="shared" si="2"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="K5" s="45">
         <f t="shared" si="2"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="L5" s="45">
         <f t="shared" si="2"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="M5" s="45">
         <f t="shared" si="2"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="N5" s="45">
         <f t="shared" si="2"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="O5" s="45">
         <f t="shared" si="2"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="P5" s="45">
         <f t="shared" si="2"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Q5" s="45">
         <f t="shared" si="2"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="R5" s="45">
         <f t="shared" si="2"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="S5" s="45">
         <f t="shared" si="2"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="T5" s="45">
         <f t="shared" si="2"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="U5" s="45">
         <f t="shared" si="2"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="V5" s="45">
         <f t="shared" si="2"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="W5" s="45">
         <f t="shared" si="2"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="X5" s="45">
         <f t="shared" si="2"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Y5" s="45">
         <f t="shared" si="2"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="Z5" s="45">
         <f t="shared" si="2"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AA5" s="45">
         <f t="shared" si="2"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AB5" s="45">
         <f t="shared" si="2"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AC5" s="45">
         <f t="shared" si="2"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AD5" s="45">
         <f t="shared" si="2"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AE5" s="45">
         <f t="shared" si="2"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AF5" s="45">
         <f t="shared" si="2"/>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="AG5" s="45">
         <f t="shared" si="2"/>
-        <v>48</v>
+        <v>49</v>
       </c>
     </row>
     <row r="6" spans="1:33" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -3519,7 +3519,7 @@
         <v>43751</v>
       </c>
       <c r="D9" s="31">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E9" s="24" t="s">
         <v>22</v>
@@ -3903,7 +3903,7 @@
       <c r="C34" s="50"/>
       <c r="D34" s="33">
         <f>SUM(D6:D33)</f>
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="E34" s="12"/>
     </row>

--- a/IP_Controlling_Bruno_Maikoff.xlsx
+++ b/IP_Controlling_Bruno_Maikoff.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\BlockChain_TransactionManager\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspaces\BlockChain_TransactionManager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D1EA7DD-2A9D-401A-8A6B-B0EF3D2EA048}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73D0EBA9-37D7-4571-8EF5-21A7617C1EDF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arbeitsrapport_Bruno" sheetId="11" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
   <si>
     <t>Aufwand in h</t>
   </si>
@@ -107,6 +107,9 @@
   </si>
   <si>
     <t>2tes Meeting, Projektvereinbarung, Protokoll, Testumgebung aufsetzen, Einarbeiten in Materie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Einlesen </t>
   </si>
 </sst>
 </file>
@@ -555,8 +558,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Standard 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="2">
@@ -671,7 +674,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -989,7 +992,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1"/>
@@ -1044,7 +1047,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2067145632"/>
@@ -1092,7 +1095,7 @@
           <a:cs typeface="Arial"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1106,7 +1109,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1301,73 +1304,73 @@
                   <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>49</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>49</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>49</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>49</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>49</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>49</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>49</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>49</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>49</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>49</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>49</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>49</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>49</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>49</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>49</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>49</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>49</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>49</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>49</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>49</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>49</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>49</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>49</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1424,7 +1427,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1"/>
@@ -1479,7 +1482,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2067145632"/>
@@ -1527,7 +1530,7 @@
           <a:cs typeface="Arial"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1978,18 +1981,18 @@
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.59765625" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" style="15" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="46.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.265625" customWidth="1"/>
+    <col min="3" max="3" width="10.265625" style="15" customWidth="1"/>
+    <col min="4" max="4" width="9.3984375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="46.73046875" customWidth="1"/>
     <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="33" width="4.7109375" customWidth="1"/>
+    <col min="7" max="33" width="4.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="3" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" s="3" customFormat="1" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="46" t="s">
         <v>3</v>
       </c>
@@ -1999,7 +2002,7 @@
       <c r="E1" s="46"/>
       <c r="F1" s="14"/>
     </row>
-    <row r="2" spans="1:33" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="47" t="s">
         <v>10</v>
       </c>
@@ -2094,7 +2097,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A3" s="47"/>
       <c r="B3" s="47"/>
       <c r="C3" s="47"/>
@@ -2211,7 +2214,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:33" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A4" s="16" t="s">
         <v>5</v>
       </c>
@@ -2331,7 +2334,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="5" spans="1:33" s="8" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" s="8" customFormat="1" ht="26.25" x14ac:dyDescent="0.35">
       <c r="A5" s="17" t="s">
         <v>6</v>
       </c>
@@ -2459,7 +2462,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="6" spans="1:33" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" s="10" customFormat="1" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A6" s="22">
         <v>1</v>
       </c>
@@ -2478,7 +2481,7 @@
       </c>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="1:33" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" s="10" customFormat="1" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A7" s="22">
         <f t="shared" ref="A7:A22" si="33">A6+1</f>
         <v>2</v>
@@ -2499,7 +2502,7 @@
       </c>
       <c r="F7" s="9"/>
     </row>
-    <row r="8" spans="1:33" s="10" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" s="10" customFormat="1" ht="30.4" x14ac:dyDescent="0.35">
       <c r="A8" s="22">
         <f t="shared" si="33"/>
         <v>3</v>
@@ -2520,7 +2523,7 @@
       </c>
       <c r="F8" s="9"/>
     </row>
-    <row r="9" spans="1:33" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33" s="10" customFormat="1" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A9" s="22">
         <f t="shared" si="33"/>
         <v>4</v>
@@ -2541,7 +2544,7 @@
       </c>
       <c r="F9" s="9"/>
     </row>
-    <row r="10" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A10" s="22">
         <f t="shared" si="33"/>
         <v>5</v>
@@ -2558,7 +2561,7 @@
       <c r="E10" s="24"/>
       <c r="F10" s="9"/>
     </row>
-    <row r="11" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A11" s="22">
         <f t="shared" si="33"/>
         <v>6</v>
@@ -2575,7 +2578,7 @@
       <c r="E11" s="24"/>
       <c r="F11" s="9"/>
     </row>
-    <row r="12" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:33" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A12" s="22">
         <f t="shared" si="33"/>
         <v>7</v>
@@ -2591,7 +2594,7 @@
       <c r="D12" s="31"/>
       <c r="E12" s="24"/>
     </row>
-    <row r="13" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:33" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A13" s="22">
         <f t="shared" si="33"/>
         <v>8</v>
@@ -2607,7 +2610,7 @@
       <c r="D13" s="31"/>
       <c r="E13" s="24"/>
     </row>
-    <row r="14" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:33" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A14" s="22">
         <f t="shared" si="33"/>
         <v>9</v>
@@ -2623,7 +2626,7 @@
       <c r="D14" s="31"/>
       <c r="E14" s="24"/>
     </row>
-    <row r="15" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:33" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A15" s="22">
         <f t="shared" si="33"/>
         <v>10</v>
@@ -2639,7 +2642,7 @@
       <c r="D15" s="31"/>
       <c r="E15" s="24"/>
     </row>
-    <row r="16" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:33" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A16" s="34">
         <f t="shared" si="33"/>
         <v>11</v>
@@ -2657,7 +2660,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A17" s="38">
         <f t="shared" si="33"/>
         <v>12</v>
@@ -2672,7 +2675,7 @@
       </c>
       <c r="D17" s="31"/>
     </row>
-    <row r="18" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A18" s="22">
         <f t="shared" si="33"/>
         <v>13</v>
@@ -2688,7 +2691,7 @@
       <c r="D18" s="31"/>
       <c r="E18" s="24"/>
     </row>
-    <row r="19" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A19" s="22">
         <f t="shared" si="33"/>
         <v>14</v>
@@ -2704,7 +2707,7 @@
       <c r="D19" s="31"/>
       <c r="E19" s="24"/>
     </row>
-    <row r="20" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A20" s="22">
         <f t="shared" si="33"/>
         <v>15</v>
@@ -2720,7 +2723,7 @@
       <c r="D20" s="31"/>
       <c r="E20" s="24"/>
     </row>
-    <row r="21" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A21" s="22">
         <f t="shared" si="33"/>
         <v>16</v>
@@ -2736,7 +2739,7 @@
       <c r="D21" s="31"/>
       <c r="E21" s="24"/>
     </row>
-    <row r="22" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A22" s="38">
         <f t="shared" si="33"/>
         <v>17</v>
@@ -2752,7 +2755,7 @@
       <c r="D22" s="31"/>
       <c r="E22" s="40"/>
     </row>
-    <row r="23" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A23" s="22">
         <v>18</v>
       </c>
@@ -2767,7 +2770,7 @@
       <c r="D23" s="31"/>
       <c r="E23" s="24"/>
     </row>
-    <row r="24" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A24" s="22">
         <v>19</v>
       </c>
@@ -2782,7 +2785,7 @@
       <c r="D24" s="31"/>
       <c r="E24" s="24"/>
     </row>
-    <row r="25" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A25" s="22">
         <v>20</v>
       </c>
@@ -2797,7 +2800,7 @@
       <c r="D25" s="31"/>
       <c r="E25" s="24"/>
     </row>
-    <row r="26" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A26" s="22">
         <v>21</v>
       </c>
@@ -2812,7 +2815,7 @@
       <c r="D26" s="31"/>
       <c r="E26" s="24"/>
     </row>
-    <row r="27" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A27" s="22">
         <v>22</v>
       </c>
@@ -2827,7 +2830,7 @@
       <c r="D27" s="31"/>
       <c r="E27" s="24"/>
     </row>
-    <row r="28" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A28" s="22">
         <v>23</v>
       </c>
@@ -2842,7 +2845,7 @@
       <c r="D28" s="31"/>
       <c r="E28" s="24"/>
     </row>
-    <row r="29" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A29" s="22">
         <v>24</v>
       </c>
@@ -2857,7 +2860,7 @@
       <c r="D29" s="31"/>
       <c r="E29" s="24"/>
     </row>
-    <row r="30" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A30" s="22">
         <v>25</v>
       </c>
@@ -2872,7 +2875,7 @@
       <c r="D30" s="31"/>
       <c r="E30" s="24"/>
     </row>
-    <row r="31" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A31" s="22">
         <v>26</v>
       </c>
@@ -2886,7 +2889,7 @@
       </c>
       <c r="D31" s="31"/>
     </row>
-    <row r="32" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A32" s="34">
         <v>27</v>
       </c>
@@ -2903,14 +2906,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="25"/>
       <c r="B33" s="26"/>
       <c r="C33" s="26"/>
       <c r="D33" s="32"/>
       <c r="E33" s="27"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="50" t="s">
         <v>2</v>
       </c>
@@ -2922,14 +2925,14 @@
       </c>
       <c r="E34" s="12"/>
     </row>
-    <row r="35" spans="1:5" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="51"/>
       <c r="B35" s="51"/>
       <c r="C35" s="51"/>
       <c r="D35" s="51"/>
       <c r="E35" s="13"/>
     </row>
-    <row r="36" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="25"/>
       <c r="B36" s="26"/>
       <c r="C36" s="26"/>
@@ -2959,22 +2962,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AG36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.59765625" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" style="15" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="46.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.265625" customWidth="1"/>
+    <col min="3" max="3" width="10.265625" style="15" customWidth="1"/>
+    <col min="4" max="4" width="9.3984375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="46.73046875" customWidth="1"/>
     <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="33" width="4.7109375" customWidth="1"/>
+    <col min="7" max="33" width="4.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="3" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" s="3" customFormat="1" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="46" t="s">
         <v>3</v>
       </c>
@@ -2984,7 +2987,7 @@
       <c r="E1" s="46"/>
       <c r="F1" s="14"/>
     </row>
-    <row r="2" spans="1:33" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="47" t="s">
         <v>10</v>
       </c>
@@ -3079,7 +3082,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:33" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33" ht="12.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="47"/>
       <c r="B3" s="47"/>
       <c r="C3" s="47"/>
@@ -3196,7 +3199,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:33" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A4" s="43" t="s">
         <v>5</v>
       </c>
@@ -3316,7 +3319,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="5" spans="1:33" s="8" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" s="8" customFormat="1" ht="26.25" x14ac:dyDescent="0.35">
       <c r="A5" s="17" t="s">
         <v>6</v>
       </c>
@@ -3353,98 +3356,98 @@
       </c>
       <c r="K5" s="45">
         <f t="shared" si="2"/>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="L5" s="45">
         <f t="shared" si="2"/>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="M5" s="45">
         <f t="shared" si="2"/>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="N5" s="45">
         <f t="shared" si="2"/>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="O5" s="45">
         <f t="shared" si="2"/>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="P5" s="45">
         <f t="shared" si="2"/>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Q5" s="45">
         <f t="shared" si="2"/>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="R5" s="45">
         <f t="shared" si="2"/>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="S5" s="45">
         <f t="shared" si="2"/>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="T5" s="45">
         <f t="shared" si="2"/>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="U5" s="45">
         <f t="shared" si="2"/>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="V5" s="45">
         <f t="shared" si="2"/>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="W5" s="45">
         <f t="shared" si="2"/>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="X5" s="45">
         <f t="shared" si="2"/>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Y5" s="45">
         <f t="shared" si="2"/>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="Z5" s="45">
         <f t="shared" si="2"/>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AA5" s="45">
         <f t="shared" si="2"/>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AB5" s="45">
         <f t="shared" si="2"/>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AC5" s="45">
         <f t="shared" si="2"/>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AD5" s="45">
         <f t="shared" si="2"/>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AE5" s="45">
         <f t="shared" si="2"/>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AF5" s="45">
         <f t="shared" si="2"/>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="AG5" s="45">
         <f t="shared" si="2"/>
-        <v>49</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" s="10" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A6" s="22">
         <v>1</v>
       </c>
@@ -3463,7 +3466,7 @@
       </c>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="1:33" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" s="10" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A7" s="22">
         <f t="shared" ref="A7:A22" si="3">A6+1</f>
         <v>2</v>
@@ -3484,7 +3487,7 @@
       </c>
       <c r="F7" s="9"/>
     </row>
-    <row r="8" spans="1:33" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" s="10" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A8" s="22">
         <f t="shared" si="3"/>
         <v>3</v>
@@ -3505,7 +3508,7 @@
       </c>
       <c r="F8" s="9"/>
     </row>
-    <row r="9" spans="1:33" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33" s="10" customFormat="1" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A9" s="22">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -3526,7 +3529,7 @@
       </c>
       <c r="F9" s="9"/>
     </row>
-    <row r="10" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A10" s="22">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -3539,11 +3542,15 @@
         <f t="shared" si="4"/>
         <v>43758</v>
       </c>
-      <c r="D10" s="31"/>
-      <c r="E10" s="24"/>
+      <c r="D10" s="31">
+        <v>1</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>23</v>
+      </c>
       <c r="F10" s="9"/>
     </row>
-    <row r="11" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A11" s="22">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -3560,7 +3567,7 @@
       <c r="E11" s="24"/>
       <c r="F11" s="9"/>
     </row>
-    <row r="12" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:33" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A12" s="22">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -3576,7 +3583,7 @@
       <c r="D12" s="31"/>
       <c r="E12" s="24"/>
     </row>
-    <row r="13" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:33" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A13" s="22">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -3592,7 +3599,7 @@
       <c r="D13" s="31"/>
       <c r="E13" s="24"/>
     </row>
-    <row r="14" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:33" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A14" s="22">
         <f t="shared" si="3"/>
         <v>9</v>
@@ -3608,7 +3615,7 @@
       <c r="D14" s="31"/>
       <c r="E14" s="24"/>
     </row>
-    <row r="15" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:33" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A15" s="22">
         <f t="shared" si="3"/>
         <v>10</v>
@@ -3624,7 +3631,7 @@
       <c r="D15" s="31"/>
       <c r="E15" s="24"/>
     </row>
-    <row r="16" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:33" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A16" s="34">
         <f t="shared" si="3"/>
         <v>11</v>
@@ -3642,7 +3649,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A17" s="38">
         <f t="shared" si="3"/>
         <v>12</v>
@@ -3657,7 +3664,7 @@
       </c>
       <c r="D17" s="31"/>
     </row>
-    <row r="18" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A18" s="22">
         <f t="shared" si="3"/>
         <v>13</v>
@@ -3673,7 +3680,7 @@
       <c r="D18" s="31"/>
       <c r="E18" s="24"/>
     </row>
-    <row r="19" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A19" s="22">
         <f t="shared" si="3"/>
         <v>14</v>
@@ -3689,7 +3696,7 @@
       <c r="D19" s="31"/>
       <c r="E19" s="24"/>
     </row>
-    <row r="20" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A20" s="22">
         <f t="shared" si="3"/>
         <v>15</v>
@@ -3705,7 +3712,7 @@
       <c r="D20" s="31"/>
       <c r="E20" s="24"/>
     </row>
-    <row r="21" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A21" s="22">
         <f t="shared" si="3"/>
         <v>16</v>
@@ -3721,7 +3728,7 @@
       <c r="D21" s="31"/>
       <c r="E21" s="24"/>
     </row>
-    <row r="22" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A22" s="38">
         <f t="shared" si="3"/>
         <v>17</v>
@@ -3737,7 +3744,7 @@
       <c r="D22" s="31"/>
       <c r="E22" s="40"/>
     </row>
-    <row r="23" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A23" s="22">
         <v>18</v>
       </c>
@@ -3752,7 +3759,7 @@
       <c r="D23" s="31"/>
       <c r="E23" s="24"/>
     </row>
-    <row r="24" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A24" s="22">
         <v>19</v>
       </c>
@@ -3767,7 +3774,7 @@
       <c r="D24" s="31"/>
       <c r="E24" s="24"/>
     </row>
-    <row r="25" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A25" s="22">
         <v>20</v>
       </c>
@@ -3782,7 +3789,7 @@
       <c r="D25" s="31"/>
       <c r="E25" s="24"/>
     </row>
-    <row r="26" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A26" s="22">
         <v>21</v>
       </c>
@@ -3797,7 +3804,7 @@
       <c r="D26" s="31"/>
       <c r="E26" s="24"/>
     </row>
-    <row r="27" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A27" s="22">
         <v>22</v>
       </c>
@@ -3812,7 +3819,7 @@
       <c r="D27" s="31"/>
       <c r="E27" s="24"/>
     </row>
-    <row r="28" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A28" s="22">
         <v>23</v>
       </c>
@@ -3827,7 +3834,7 @@
       <c r="D28" s="31"/>
       <c r="E28" s="24"/>
     </row>
-    <row r="29" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A29" s="22">
         <v>24</v>
       </c>
@@ -3842,7 +3849,7 @@
       <c r="D29" s="31"/>
       <c r="E29" s="24"/>
     </row>
-    <row r="30" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A30" s="22">
         <v>25</v>
       </c>
@@ -3857,7 +3864,7 @@
       <c r="D30" s="31"/>
       <c r="E30" s="24"/>
     </row>
-    <row r="31" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A31" s="22">
         <v>26</v>
       </c>
@@ -3871,7 +3878,7 @@
       </c>
       <c r="D31" s="31"/>
     </row>
-    <row r="32" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A32" s="34">
         <v>27</v>
       </c>
@@ -3888,14 +3895,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="25"/>
       <c r="B33" s="26"/>
       <c r="C33" s="26"/>
       <c r="D33" s="32"/>
       <c r="E33" s="27"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="50" t="s">
         <v>2</v>
       </c>
@@ -3903,18 +3910,18 @@
       <c r="C34" s="50"/>
       <c r="D34" s="33">
         <f>SUM(D6:D33)</f>
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="E34" s="12"/>
     </row>
-    <row r="35" spans="1:5" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="51"/>
       <c r="B35" s="51"/>
       <c r="C35" s="51"/>
       <c r="D35" s="51"/>
       <c r="E35" s="13"/>
     </row>
-    <row r="36" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="25"/>
       <c r="B36" s="26"/>
       <c r="C36" s="26"/>

--- a/IP_Controlling_Bruno_Maikoff.xlsx
+++ b/IP_Controlling_Bruno_Maikoff.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspaces\BlockChain_TransactionManager\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\BlockChain_TransactionManager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73D0EBA9-37D7-4571-8EF5-21A7617C1EDF}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB8EC923-453F-49B2-BDB5-627B0E4068EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arbeitsrapport_Bruno" sheetId="11" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="25">
   <si>
     <t>Aufwand in h</t>
   </si>
@@ -109,7 +109,10 @@
     <t>2tes Meeting, Projektvereinbarung, Protokoll, Testumgebung aufsetzen, Einarbeiten in Materie</t>
   </si>
   <si>
-    <t xml:space="preserve">Einlesen </t>
+    <t>Projektvereinbarung finalisiert, First Smart contract</t>
+  </si>
+  <si>
+    <t>Einlesen, First Smart contract, Projektvereinbarung finalisiert</t>
   </si>
 </sst>
 </file>
@@ -558,8 +561,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Standard 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="2">
@@ -674,7 +677,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -869,73 +872,73 @@
                   <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>32</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>32</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>32</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>32</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>32</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>32</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>32</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>32</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>32</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>32</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>32</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>32</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>32</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>32</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>32</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>32</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>32</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>32</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>32</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>32</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>32</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>32</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>32</c:v>
+                  <c:v>40</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -992,7 +995,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1"/>
@@ -1047,7 +1050,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2067145632"/>
@@ -1095,7 +1098,7 @@
           <a:cs typeface="Arial"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1109,7 +1112,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1304,73 +1307,73 @@
                   <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>50</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>50</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>50</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>50</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>50</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>50</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>50</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>50</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>50</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>50</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>50</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>50</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>50</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>50</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>50</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>50</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>50</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>50</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>50</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>50</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>50</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>50</c:v>
+                  <c:v>58</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1427,7 +1430,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1"/>
@@ -1482,7 +1485,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2067145632"/>
@@ -1530,7 +1533,7 @@
           <a:cs typeface="Arial"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1978,21 +1981,21 @@
   <dimension ref="A1:AG36"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.59765625" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="10.265625" customWidth="1"/>
-    <col min="3" max="3" width="10.265625" style="15" customWidth="1"/>
-    <col min="4" max="4" width="9.3984375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="46.73046875" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="15" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="46.7109375" customWidth="1"/>
     <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="33" width="4.73046875" customWidth="1"/>
+    <col min="7" max="33" width="4.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="3" customFormat="1" ht="20.25" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:33" s="3" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="46" t="s">
         <v>3</v>
       </c>
@@ -2002,7 +2005,7 @@
       <c r="E1" s="46"/>
       <c r="F1" s="14"/>
     </row>
-    <row r="2" spans="1:33" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:33" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="47" t="s">
         <v>10</v>
       </c>
@@ -2097,7 +2100,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" s="47"/>
       <c r="B3" s="47"/>
       <c r="C3" s="47"/>
@@ -2214,7 +2217,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:33" ht="25.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:33" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
         <v>5</v>
       </c>
@@ -2334,7 +2337,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="5" spans="1:33" s="8" customFormat="1" ht="26.25" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:33" s="8" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
         <v>6</v>
       </c>
@@ -2371,98 +2374,98 @@
       </c>
       <c r="K5" s="45">
         <f t="shared" si="29"/>
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="L5" s="45">
         <f t="shared" si="29"/>
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="M5" s="45">
         <f t="shared" si="29"/>
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="N5" s="45">
         <f t="shared" si="29"/>
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="O5" s="45">
         <f t="shared" si="29"/>
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="P5" s="45">
         <f t="shared" si="29"/>
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="Q5" s="45">
         <f t="shared" si="29"/>
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="R5" s="45">
         <f t="shared" si="29"/>
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="S5" s="45">
         <f t="shared" si="29"/>
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="T5" s="45">
         <f t="shared" si="29"/>
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="U5" s="45">
         <f t="shared" si="29"/>
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="V5" s="45">
         <f t="shared" si="29"/>
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="W5" s="45">
         <f t="shared" si="29"/>
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="X5" s="45">
         <f t="shared" si="29"/>
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="Y5" s="45">
         <f t="shared" si="29"/>
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="Z5" s="45">
         <f t="shared" si="29"/>
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AA5" s="45">
         <f t="shared" si="29"/>
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AB5" s="45">
         <f t="shared" si="29"/>
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AC5" s="45">
         <f t="shared" si="29"/>
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AD5" s="45">
         <f t="shared" si="29"/>
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AE5" s="45">
         <f t="shared" ref="AE5" si="30">AD5+SUMIF($A$6:$A$33,AE3,$D$6:$D$33)</f>
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AF5" s="45">
         <f t="shared" ref="AF5" si="31">AE5+SUMIF($A$6:$A$33,AF3,$D$6:$D$33)</f>
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="AG5" s="45">
         <f t="shared" ref="AG5" si="32">AF5+SUMIF($A$6:$A$33,AG3,$D$6:$D$33)</f>
-        <v>32</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33" s="10" customFormat="1" ht="20.25" x14ac:dyDescent="0.35">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A6" s="22">
         <v>1</v>
       </c>
@@ -2481,7 +2484,7 @@
       </c>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="1:33" s="10" customFormat="1" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:33" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A7" s="22">
         <f t="shared" ref="A7:A22" si="33">A6+1</f>
         <v>2</v>
@@ -2502,7 +2505,7 @@
       </c>
       <c r="F7" s="9"/>
     </row>
-    <row r="8" spans="1:33" s="10" customFormat="1" ht="30.4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:33" s="10" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A8" s="22">
         <f t="shared" si="33"/>
         <v>3</v>
@@ -2523,7 +2526,7 @@
       </c>
       <c r="F8" s="9"/>
     </row>
-    <row r="9" spans="1:33" s="10" customFormat="1" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:33" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A9" s="22">
         <f t="shared" si="33"/>
         <v>4</v>
@@ -2544,7 +2547,7 @@
       </c>
       <c r="F9" s="9"/>
     </row>
-    <row r="10" spans="1:33" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A10" s="22">
         <f t="shared" si="33"/>
         <v>5</v>
@@ -2557,11 +2560,15 @@
         <f t="shared" si="34"/>
         <v>43758</v>
       </c>
-      <c r="D10" s="31"/>
-      <c r="E10" s="24"/>
+      <c r="D10" s="31">
+        <v>8</v>
+      </c>
+      <c r="E10" s="24" t="s">
+        <v>23</v>
+      </c>
       <c r="F10" s="9"/>
     </row>
-    <row r="11" spans="1:33" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A11" s="22">
         <f t="shared" si="33"/>
         <v>6</v>
@@ -2578,7 +2585,7 @@
       <c r="E11" s="24"/>
       <c r="F11" s="9"/>
     </row>
-    <row r="12" spans="1:33" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A12" s="22">
         <f t="shared" si="33"/>
         <v>7</v>
@@ -2594,7 +2601,7 @@
       <c r="D12" s="31"/>
       <c r="E12" s="24"/>
     </row>
-    <row r="13" spans="1:33" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A13" s="22">
         <f t="shared" si="33"/>
         <v>8</v>
@@ -2610,7 +2617,7 @@
       <c r="D13" s="31"/>
       <c r="E13" s="24"/>
     </row>
-    <row r="14" spans="1:33" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A14" s="22">
         <f t="shared" si="33"/>
         <v>9</v>
@@ -2626,7 +2633,7 @@
       <c r="D14" s="31"/>
       <c r="E14" s="24"/>
     </row>
-    <row r="15" spans="1:33" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A15" s="22">
         <f t="shared" si="33"/>
         <v>10</v>
@@ -2642,7 +2649,7 @@
       <c r="D15" s="31"/>
       <c r="E15" s="24"/>
     </row>
-    <row r="16" spans="1:33" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A16" s="34">
         <f t="shared" si="33"/>
         <v>11</v>
@@ -2660,7 +2667,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A17" s="38">
         <f t="shared" si="33"/>
         <v>12</v>
@@ -2675,7 +2682,7 @@
       </c>
       <c r="D17" s="31"/>
     </row>
-    <row r="18" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A18" s="22">
         <f t="shared" si="33"/>
         <v>13</v>
@@ -2691,7 +2698,7 @@
       <c r="D18" s="31"/>
       <c r="E18" s="24"/>
     </row>
-    <row r="19" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A19" s="22">
         <f t="shared" si="33"/>
         <v>14</v>
@@ -2707,7 +2714,7 @@
       <c r="D19" s="31"/>
       <c r="E19" s="24"/>
     </row>
-    <row r="20" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A20" s="22">
         <f t="shared" si="33"/>
         <v>15</v>
@@ -2723,7 +2730,7 @@
       <c r="D20" s="31"/>
       <c r="E20" s="24"/>
     </row>
-    <row r="21" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A21" s="22">
         <f t="shared" si="33"/>
         <v>16</v>
@@ -2739,7 +2746,7 @@
       <c r="D21" s="31"/>
       <c r="E21" s="24"/>
     </row>
-    <row r="22" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A22" s="38">
         <f t="shared" si="33"/>
         <v>17</v>
@@ -2755,7 +2762,7 @@
       <c r="D22" s="31"/>
       <c r="E22" s="40"/>
     </row>
-    <row r="23" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A23" s="22">
         <v>18</v>
       </c>
@@ -2770,7 +2777,7 @@
       <c r="D23" s="31"/>
       <c r="E23" s="24"/>
     </row>
-    <row r="24" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A24" s="22">
         <v>19</v>
       </c>
@@ -2785,7 +2792,7 @@
       <c r="D24" s="31"/>
       <c r="E24" s="24"/>
     </row>
-    <row r="25" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A25" s="22">
         <v>20</v>
       </c>
@@ -2800,7 +2807,7 @@
       <c r="D25" s="31"/>
       <c r="E25" s="24"/>
     </row>
-    <row r="26" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A26" s="22">
         <v>21</v>
       </c>
@@ -2815,7 +2822,7 @@
       <c r="D26" s="31"/>
       <c r="E26" s="24"/>
     </row>
-    <row r="27" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A27" s="22">
         <v>22</v>
       </c>
@@ -2830,7 +2837,7 @@
       <c r="D27" s="31"/>
       <c r="E27" s="24"/>
     </row>
-    <row r="28" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A28" s="22">
         <v>23</v>
       </c>
@@ -2845,7 +2852,7 @@
       <c r="D28" s="31"/>
       <c r="E28" s="24"/>
     </row>
-    <row r="29" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A29" s="22">
         <v>24</v>
       </c>
@@ -2860,7 +2867,7 @@
       <c r="D29" s="31"/>
       <c r="E29" s="24"/>
     </row>
-    <row r="30" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A30" s="22">
         <v>25</v>
       </c>
@@ -2875,7 +2882,7 @@
       <c r="D30" s="31"/>
       <c r="E30" s="24"/>
     </row>
-    <row r="31" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A31" s="22">
         <v>26</v>
       </c>
@@ -2889,7 +2896,7 @@
       </c>
       <c r="D31" s="31"/>
     </row>
-    <row r="32" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A32" s="34">
         <v>27</v>
       </c>
@@ -2906,14 +2913,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="25"/>
       <c r="B33" s="26"/>
       <c r="C33" s="26"/>
       <c r="D33" s="32"/>
       <c r="E33" s="27"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="50" t="s">
         <v>2</v>
       </c>
@@ -2921,18 +2928,18 @@
       <c r="C34" s="50"/>
       <c r="D34" s="33">
         <f>SUM(D6:D33)</f>
-        <v>32</v>
+        <v>40</v>
       </c>
       <c r="E34" s="12"/>
     </row>
-    <row r="35" spans="1:5" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:5" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="51"/>
       <c r="B35" s="51"/>
       <c r="C35" s="51"/>
       <c r="D35" s="51"/>
       <c r="E35" s="13"/>
     </row>
-    <row r="36" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="25"/>
       <c r="B36" s="26"/>
       <c r="C36" s="26"/>
@@ -2962,22 +2969,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AG36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.59765625" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="10.265625" customWidth="1"/>
-    <col min="3" max="3" width="10.265625" style="15" customWidth="1"/>
-    <col min="4" max="4" width="9.3984375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="46.73046875" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="15" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="46.7109375" customWidth="1"/>
     <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="33" width="4.73046875" customWidth="1"/>
+    <col min="7" max="33" width="4.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="3" customFormat="1" ht="20.25" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:33" s="3" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="46" t="s">
         <v>3</v>
       </c>
@@ -2987,7 +2994,7 @@
       <c r="E1" s="46"/>
       <c r="F1" s="14"/>
     </row>
-    <row r="2" spans="1:33" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:33" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="47" t="s">
         <v>10</v>
       </c>
@@ -3082,7 +3089,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:33" ht="12.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:33" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="47"/>
       <c r="B3" s="47"/>
       <c r="C3" s="47"/>
@@ -3199,7 +3206,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:33" ht="25.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:33" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="43" t="s">
         <v>5</v>
       </c>
@@ -3319,7 +3326,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="5" spans="1:33" s="8" customFormat="1" ht="26.25" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:33" s="8" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
         <v>6</v>
       </c>
@@ -3356,98 +3363,98 @@
       </c>
       <c r="K5" s="45">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="L5" s="45">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="M5" s="45">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="N5" s="45">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="O5" s="45">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="P5" s="45">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="Q5" s="45">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="R5" s="45">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="S5" s="45">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="T5" s="45">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="U5" s="45">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="V5" s="45">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="W5" s="45">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="X5" s="45">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="Y5" s="45">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="Z5" s="45">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="AA5" s="45">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="AB5" s="45">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="AC5" s="45">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="AD5" s="45">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="AE5" s="45">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="AF5" s="45">
         <f t="shared" si="2"/>
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="AG5" s="45">
         <f t="shared" si="2"/>
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33" s="10" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A6" s="22">
         <v>1</v>
       </c>
@@ -3466,7 +3473,7 @@
       </c>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="1:33" s="10" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:33" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A7" s="22">
         <f t="shared" ref="A7:A22" si="3">A6+1</f>
         <v>2</v>
@@ -3487,7 +3494,7 @@
       </c>
       <c r="F7" s="9"/>
     </row>
-    <row r="8" spans="1:33" s="10" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:33" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A8" s="22">
         <f t="shared" si="3"/>
         <v>3</v>
@@ -3508,7 +3515,7 @@
       </c>
       <c r="F8" s="9"/>
     </row>
-    <row r="9" spans="1:33" s="10" customFormat="1" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:33" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A9" s="22">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -3529,7 +3536,7 @@
       </c>
       <c r="F9" s="9"/>
     </row>
-    <row r="10" spans="1:33" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A10" s="22">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -3543,14 +3550,14 @@
         <v>43758</v>
       </c>
       <c r="D10" s="31">
-        <v>1</v>
+        <v>9</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F10" s="9"/>
     </row>
-    <row r="11" spans="1:33" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A11" s="22">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -3567,7 +3574,7 @@
       <c r="E11" s="24"/>
       <c r="F11" s="9"/>
     </row>
-    <row r="12" spans="1:33" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A12" s="22">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -3583,7 +3590,7 @@
       <c r="D12" s="31"/>
       <c r="E12" s="24"/>
     </row>
-    <row r="13" spans="1:33" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A13" s="22">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -3599,7 +3606,7 @@
       <c r="D13" s="31"/>
       <c r="E13" s="24"/>
     </row>
-    <row r="14" spans="1:33" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A14" s="22">
         <f t="shared" si="3"/>
         <v>9</v>
@@ -3615,7 +3622,7 @@
       <c r="D14" s="31"/>
       <c r="E14" s="24"/>
     </row>
-    <row r="15" spans="1:33" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A15" s="22">
         <f t="shared" si="3"/>
         <v>10</v>
@@ -3631,7 +3638,7 @@
       <c r="D15" s="31"/>
       <c r="E15" s="24"/>
     </row>
-    <row r="16" spans="1:33" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A16" s="34">
         <f t="shared" si="3"/>
         <v>11</v>
@@ -3649,7 +3656,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A17" s="38">
         <f t="shared" si="3"/>
         <v>12</v>
@@ -3664,7 +3671,7 @@
       </c>
       <c r="D17" s="31"/>
     </row>
-    <row r="18" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A18" s="22">
         <f t="shared" si="3"/>
         <v>13</v>
@@ -3680,7 +3687,7 @@
       <c r="D18" s="31"/>
       <c r="E18" s="24"/>
     </row>
-    <row r="19" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A19" s="22">
         <f t="shared" si="3"/>
         <v>14</v>
@@ -3696,7 +3703,7 @@
       <c r="D19" s="31"/>
       <c r="E19" s="24"/>
     </row>
-    <row r="20" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A20" s="22">
         <f t="shared" si="3"/>
         <v>15</v>
@@ -3712,7 +3719,7 @@
       <c r="D20" s="31"/>
       <c r="E20" s="24"/>
     </row>
-    <row r="21" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A21" s="22">
         <f t="shared" si="3"/>
         <v>16</v>
@@ -3728,7 +3735,7 @@
       <c r="D21" s="31"/>
       <c r="E21" s="24"/>
     </row>
-    <row r="22" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A22" s="38">
         <f t="shared" si="3"/>
         <v>17</v>
@@ -3744,7 +3751,7 @@
       <c r="D22" s="31"/>
       <c r="E22" s="40"/>
     </row>
-    <row r="23" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A23" s="22">
         <v>18</v>
       </c>
@@ -3759,7 +3766,7 @@
       <c r="D23" s="31"/>
       <c r="E23" s="24"/>
     </row>
-    <row r="24" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A24" s="22">
         <v>19</v>
       </c>
@@ -3774,7 +3781,7 @@
       <c r="D24" s="31"/>
       <c r="E24" s="24"/>
     </row>
-    <row r="25" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A25" s="22">
         <v>20</v>
       </c>
@@ -3789,7 +3796,7 @@
       <c r="D25" s="31"/>
       <c r="E25" s="24"/>
     </row>
-    <row r="26" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A26" s="22">
         <v>21</v>
       </c>
@@ -3804,7 +3811,7 @@
       <c r="D26" s="31"/>
       <c r="E26" s="24"/>
     </row>
-    <row r="27" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A27" s="22">
         <v>22</v>
       </c>
@@ -3819,7 +3826,7 @@
       <c r="D27" s="31"/>
       <c r="E27" s="24"/>
     </row>
-    <row r="28" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A28" s="22">
         <v>23</v>
       </c>
@@ -3834,7 +3841,7 @@
       <c r="D28" s="31"/>
       <c r="E28" s="24"/>
     </row>
-    <row r="29" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A29" s="22">
         <v>24</v>
       </c>
@@ -3849,7 +3856,7 @@
       <c r="D29" s="31"/>
       <c r="E29" s="24"/>
     </row>
-    <row r="30" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A30" s="22">
         <v>25</v>
       </c>
@@ -3864,7 +3871,7 @@
       <c r="D30" s="31"/>
       <c r="E30" s="24"/>
     </row>
-    <row r="31" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A31" s="22">
         <v>26</v>
       </c>
@@ -3878,7 +3885,7 @@
       </c>
       <c r="D31" s="31"/>
     </row>
-    <row r="32" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A32" s="34">
         <v>27</v>
       </c>
@@ -3895,14 +3902,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="25"/>
       <c r="B33" s="26"/>
       <c r="C33" s="26"/>
       <c r="D33" s="32"/>
       <c r="E33" s="27"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="50" t="s">
         <v>2</v>
       </c>
@@ -3910,18 +3917,18 @@
       <c r="C34" s="50"/>
       <c r="D34" s="33">
         <f>SUM(D6:D33)</f>
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="E34" s="12"/>
     </row>
-    <row r="35" spans="1:5" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:5" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="51"/>
       <c r="B35" s="51"/>
       <c r="C35" s="51"/>
       <c r="D35" s="51"/>
       <c r="E35" s="13"/>
     </row>
-    <row r="36" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="25"/>
       <c r="B36" s="26"/>
       <c r="C36" s="26"/>

--- a/IP_Controlling_Bruno_Maikoff.xlsx
+++ b/IP_Controlling_Bruno_Maikoff.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\BlockChain_TransactionManager\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mai714\Documents\Workspace\BlockChain_TransactionManager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB8EC923-453F-49B2-BDB5-627B0E4068EE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Arbeitsrapport_Bruno" sheetId="11" r:id="rId1"/>
@@ -23,7 +22,7 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="1" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -112,13 +111,13 @@
     <t>Projektvereinbarung finalisiert, First Smart contract</t>
   </si>
   <si>
-    <t>Einlesen, First Smart contract, Projektvereinbarung finalisiert</t>
+    <t>Einlesen, First Smart contract, Projektvereinbarung überarbeitet</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -561,9 +560,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Standard 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard 2" xfId="2"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -590,7 +589,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -677,7 +676,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -995,7 +994,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1"/>
@@ -1050,7 +1049,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2067145632"/>
@@ -1098,7 +1097,7 @@
           <a:cs typeface="Arial"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1112,7 +1111,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1307,73 +1306,73 @@
                   <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>58</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>58</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>58</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>58</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>58</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>58</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>58</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>58</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>58</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>58</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>58</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>58</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>58</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>58</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>58</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>58</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>58</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>58</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>58</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>58</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>58</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>58</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>58</c:v>
+                  <c:v>61</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1430,7 +1429,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1"/>
@@ -1485,7 +1484,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2067145632"/>
@@ -1533,7 +1532,7 @@
           <a:cs typeface="Arial"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1977,14 +1976,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG36"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" customWidth="1"/>
@@ -2947,7 +2946,7 @@
       <c r="E36" s="27"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:B5" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A5:B5"/>
   <mergeCells count="5">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:C3"/>
@@ -2956,7 +2955,7 @@
     <mergeCell ref="A35:D35"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="Name, Vorname:" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId1" display="Name, Vorname:"/>
   </hyperlinks>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" scale="75" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -2966,14 +2965,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" customWidth="1"/>
@@ -3363,95 +3362,95 @@
       </c>
       <c r="K5" s="45">
         <f t="shared" si="2"/>
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="L5" s="45">
         <f t="shared" si="2"/>
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="M5" s="45">
         <f t="shared" si="2"/>
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="N5" s="45">
         <f t="shared" si="2"/>
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="O5" s="45">
         <f t="shared" si="2"/>
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="P5" s="45">
         <f t="shared" si="2"/>
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="Q5" s="45">
         <f t="shared" si="2"/>
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="R5" s="45">
         <f t="shared" si="2"/>
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="S5" s="45">
         <f t="shared" si="2"/>
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="T5" s="45">
         <f t="shared" si="2"/>
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="U5" s="45">
         <f t="shared" si="2"/>
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="V5" s="45">
         <f t="shared" si="2"/>
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="W5" s="45">
         <f t="shared" si="2"/>
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="X5" s="45">
         <f t="shared" si="2"/>
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="Y5" s="45">
         <f t="shared" si="2"/>
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="Z5" s="45">
         <f t="shared" si="2"/>
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AA5" s="45">
         <f t="shared" si="2"/>
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AB5" s="45">
         <f t="shared" si="2"/>
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AC5" s="45">
         <f t="shared" si="2"/>
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AD5" s="45">
         <f t="shared" si="2"/>
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AE5" s="45">
         <f t="shared" si="2"/>
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AF5" s="45">
         <f t="shared" si="2"/>
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="AG5" s="45">
         <f t="shared" si="2"/>
-        <v>58</v>
+        <v>61</v>
       </c>
     </row>
     <row r="6" spans="1:33" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -3550,7 +3549,7 @@
         <v>43758</v>
       </c>
       <c r="D10" s="31">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="E10" s="24" t="s">
         <v>24</v>
@@ -3917,7 +3916,7 @@
       <c r="C34" s="50"/>
       <c r="D34" s="33">
         <f>SUM(D6:D33)</f>
-        <v>58</v>
+        <v>61</v>
       </c>
       <c r="E34" s="12"/>
     </row>
@@ -3936,7 +3935,7 @@
       <c r="E36" s="27"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:B5" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A5:B5"/>
   <mergeCells count="5">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:C3"/>
@@ -3945,7 +3944,7 @@
     <mergeCell ref="A35:D35"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="Name, Vorname:" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId1" display="Name, Vorname:"/>
   </hyperlinks>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" scale="75" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/IP_Controlling_Bruno_Maikoff.xlsx
+++ b/IP_Controlling_Bruno_Maikoff.xlsx
@@ -1306,73 +1306,73 @@
                   <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>61</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>61</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>61</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>61</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>61</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>61</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>61</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>61</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>61</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>61</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>61</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>61</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>61</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>61</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>61</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>61</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>61</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>61</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>61</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>61</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>61</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>61</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>61</c:v>
+                  <c:v>62</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2969,7 +2969,7 @@
   <dimension ref="A1:AG36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3362,95 +3362,95 @@
       </c>
       <c r="K5" s="45">
         <f t="shared" si="2"/>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="L5" s="45">
         <f t="shared" si="2"/>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="M5" s="45">
         <f t="shared" si="2"/>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="N5" s="45">
         <f t="shared" si="2"/>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="O5" s="45">
         <f t="shared" si="2"/>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="P5" s="45">
         <f t="shared" si="2"/>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Q5" s="45">
         <f t="shared" si="2"/>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="R5" s="45">
         <f t="shared" si="2"/>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="S5" s="45">
         <f t="shared" si="2"/>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="T5" s="45">
         <f t="shared" si="2"/>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="U5" s="45">
         <f t="shared" si="2"/>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="V5" s="45">
         <f t="shared" si="2"/>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="W5" s="45">
         <f t="shared" si="2"/>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="X5" s="45">
         <f t="shared" si="2"/>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Y5" s="45">
         <f t="shared" si="2"/>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="Z5" s="45">
         <f t="shared" si="2"/>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AA5" s="45">
         <f t="shared" si="2"/>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AB5" s="45">
         <f t="shared" si="2"/>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AC5" s="45">
         <f t="shared" si="2"/>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AD5" s="45">
         <f t="shared" si="2"/>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AE5" s="45">
         <f t="shared" si="2"/>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AF5" s="45">
         <f t="shared" si="2"/>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="AG5" s="45">
         <f t="shared" si="2"/>
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
     <row r="6" spans="1:33" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -3549,7 +3549,7 @@
         <v>43758</v>
       </c>
       <c r="D10" s="31">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="E10" s="24" t="s">
         <v>24</v>
@@ -3916,7 +3916,7 @@
       <c r="C34" s="50"/>
       <c r="D34" s="33">
         <f>SUM(D6:D33)</f>
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="E34" s="12"/>
     </row>

--- a/IP_Controlling_Bruno_Maikoff.xlsx
+++ b/IP_Controlling_Bruno_Maikoff.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mai714\Documents\Workspace\BlockChain_TransactionManager\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\BlockChain_TransactionManager\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{384822AE-40B8-4C2F-B52C-EE20D5EED3BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arbeitsrapport_Bruno" sheetId="11" r:id="rId1"/>
@@ -22,7 +23,7 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="1" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -117,7 +118,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -560,9 +561,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Standard 2" xfId="2"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -589,7 +590,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -676,7 +677,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -994,7 +995,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1"/>
@@ -1049,7 +1050,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2067145632"/>
@@ -1097,7 +1098,7 @@
           <a:cs typeface="Arial"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1111,7 +1112,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1306,73 +1307,73 @@
                   <c:v>49</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>62</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>62</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>62</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>62</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>62</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>62</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>62</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>62</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>62</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>62</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>62</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>62</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>62</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>62</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>62</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>62</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>62</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>62</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>62</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>62</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>62</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>62</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>62</c:v>
+                  <c:v>63</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1429,7 +1430,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1"/>
@@ -1484,7 +1485,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2067145632"/>
@@ -1532,7 +1533,7 @@
           <a:cs typeface="Arial"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1976,14 +1977,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG36"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" customWidth="1"/>
@@ -2946,7 +2947,7 @@
       <c r="E36" s="27"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:B5"/>
+  <autoFilter ref="A5:B5" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="5">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:C3"/>
@@ -2955,7 +2956,7 @@
     <mergeCell ref="A35:D35"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="Name, Vorname:"/>
+    <hyperlink ref="A2" r:id="rId1" display="Name, Vorname:" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" scale="75" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -2965,14 +2966,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AG36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" customWidth="1"/>
@@ -3362,95 +3363,95 @@
       </c>
       <c r="K5" s="45">
         <f t="shared" si="2"/>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="L5" s="45">
         <f t="shared" si="2"/>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="M5" s="45">
         <f t="shared" si="2"/>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="N5" s="45">
         <f t="shared" si="2"/>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="O5" s="45">
         <f t="shared" si="2"/>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="P5" s="45">
         <f t="shared" si="2"/>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Q5" s="45">
         <f t="shared" si="2"/>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="R5" s="45">
         <f t="shared" si="2"/>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="S5" s="45">
         <f t="shared" si="2"/>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="T5" s="45">
         <f t="shared" si="2"/>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="U5" s="45">
         <f t="shared" si="2"/>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="V5" s="45">
         <f t="shared" si="2"/>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="W5" s="45">
         <f t="shared" si="2"/>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="X5" s="45">
         <f t="shared" si="2"/>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Y5" s="45">
         <f t="shared" si="2"/>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="Z5" s="45">
         <f t="shared" si="2"/>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AA5" s="45">
         <f t="shared" si="2"/>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AB5" s="45">
         <f t="shared" si="2"/>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AC5" s="45">
         <f t="shared" si="2"/>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AD5" s="45">
         <f t="shared" si="2"/>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AE5" s="45">
         <f t="shared" si="2"/>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AF5" s="45">
         <f t="shared" si="2"/>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="AG5" s="45">
         <f t="shared" si="2"/>
-        <v>62</v>
+        <v>63</v>
       </c>
     </row>
     <row r="6" spans="1:33" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -3549,7 +3550,7 @@
         <v>43758</v>
       </c>
       <c r="D10" s="31">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E10" s="24" t="s">
         <v>24</v>
@@ -3916,7 +3917,7 @@
       <c r="C34" s="50"/>
       <c r="D34" s="33">
         <f>SUM(D6:D33)</f>
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E34" s="12"/>
     </row>
@@ -3935,7 +3936,7 @@
       <c r="E36" s="27"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:B5"/>
+  <autoFilter ref="A5:B5" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="5">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:C3"/>
@@ -3944,7 +3945,7 @@
     <mergeCell ref="A35:D35"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="Name, Vorname:"/>
+    <hyperlink ref="A2" r:id="rId1" display="Name, Vorname:" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" scale="75" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/IP_Controlling_Bruno_Maikoff.xlsx
+++ b/IP_Controlling_Bruno_Maikoff.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\BlockChain_TransactionManager\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FHNW\Semester7\Bachlorthesis\BlockChain_TransactionManager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{384822AE-40B8-4C2F-B52C-EE20D5EED3BF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0BF6459-E020-4B21-8921-015C18245DAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arbeitsrapport_Bruno" sheetId="11" r:id="rId1"/>
@@ -109,10 +109,10 @@
     <t>2tes Meeting, Projektvereinbarung, Protokoll, Testumgebung aufsetzen, Einarbeiten in Materie</t>
   </si>
   <si>
-    <t>Projektvereinbarung finalisiert, First Smart contract</t>
+    <t>Einlesen, First Smart contract, Projektvereinbarung überarbeitet</t>
   </si>
   <si>
-    <t>Einlesen, First Smart contract, Projektvereinbarung überarbeitet</t>
+    <t>Projektvereinbarung finalisiert, First Smart contract, Vereinbarung Feedback einfliessen lassen, know how</t>
   </si>
 </sst>
 </file>
@@ -872,73 +872,73 @@
                   <c:v>32</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>40</c:v>
+                  <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>40</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>40</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>40</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>40</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>40</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>40</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>40</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>40</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>40</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>40</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>40</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>40</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>40</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>40</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>40</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>40</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>40</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>40</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>40</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>40</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>40</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>40</c:v>
+                  <c:v>50</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1980,8 +1980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG36"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2374,95 +2374,95 @@
       </c>
       <c r="K5" s="45">
         <f t="shared" si="29"/>
-        <v>40</v>
+        <v>43</v>
       </c>
       <c r="L5" s="45">
         <f t="shared" si="29"/>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="M5" s="45">
         <f t="shared" si="29"/>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="N5" s="45">
         <f t="shared" si="29"/>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="O5" s="45">
         <f t="shared" si="29"/>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="P5" s="45">
         <f t="shared" si="29"/>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="Q5" s="45">
         <f t="shared" si="29"/>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="R5" s="45">
         <f t="shared" si="29"/>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="S5" s="45">
         <f t="shared" si="29"/>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="T5" s="45">
         <f t="shared" si="29"/>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="U5" s="45">
         <f t="shared" si="29"/>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="V5" s="45">
         <f t="shared" si="29"/>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="W5" s="45">
         <f t="shared" si="29"/>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="X5" s="45">
         <f t="shared" si="29"/>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="Y5" s="45">
         <f t="shared" si="29"/>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="Z5" s="45">
         <f t="shared" si="29"/>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AA5" s="45">
         <f t="shared" si="29"/>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AB5" s="45">
         <f t="shared" si="29"/>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AC5" s="45">
         <f t="shared" si="29"/>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AD5" s="45">
         <f t="shared" si="29"/>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AE5" s="45">
         <f t="shared" ref="AE5" si="30">AD5+SUMIF($A$6:$A$33,AE3,$D$6:$D$33)</f>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AF5" s="45">
         <f t="shared" ref="AF5" si="31">AE5+SUMIF($A$6:$A$33,AF3,$D$6:$D$33)</f>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="AG5" s="45">
         <f t="shared" ref="AG5" si="32">AF5+SUMIF($A$6:$A$33,AG3,$D$6:$D$33)</f>
-        <v>40</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:33" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
@@ -2547,7 +2547,7 @@
       </c>
       <c r="F9" s="9"/>
     </row>
-    <row r="10" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33" s="11" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A10" s="22">
         <f t="shared" si="33"/>
         <v>5</v>
@@ -2561,10 +2561,10 @@
         <v>43758</v>
       </c>
       <c r="D10" s="31">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="F10" s="9"/>
     </row>
@@ -2581,7 +2581,9 @@
         <f t="shared" si="34"/>
         <v>43765</v>
       </c>
-      <c r="D11" s="31"/>
+      <c r="D11" s="31">
+        <v>7</v>
+      </c>
       <c r="E11" s="24"/>
       <c r="F11" s="9"/>
     </row>
@@ -2928,7 +2930,7 @@
       <c r="C34" s="50"/>
       <c r="D34" s="33">
         <f>SUM(D6:D33)</f>
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="E34" s="12"/>
     </row>
@@ -2969,7 +2971,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AG36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="I34" sqref="I34"/>
     </sheetView>
   </sheetViews>
@@ -3553,7 +3555,7 @@
         <v>14</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F10" s="9"/>
     </row>

--- a/IP_Controlling_Bruno_Maikoff.xlsx
+++ b/IP_Controlling_Bruno_Maikoff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FHNW\Semester7\Bachlorthesis\BlockChain_TransactionManager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0BF6459-E020-4B21-8921-015C18245DAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBDF810E-22A2-4583-986A-60E94959F6E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
   <si>
     <t>Aufwand in h</t>
   </si>
@@ -113,6 +113,9 @@
   </si>
   <si>
     <t>Projektvereinbarung finalisiert, First Smart contract, Vereinbarung Feedback einfliessen lassen, know how</t>
+  </si>
+  <si>
+    <t>Analyse; Besprechung; Protokoll; Feedback einbauen; Bericht</t>
   </si>
 </sst>
 </file>
@@ -875,70 +878,70 @@
                   <c:v>43</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>50</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>50</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>50</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>50</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>50</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>50</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>50</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>50</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>50</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>50</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>50</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>50</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>50</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>50</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>50</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>50</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>50</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>50</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>50</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>50</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>50</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>50</c:v>
+                  <c:v>52</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1981,7 +1984,7 @@
   <dimension ref="A1:AG36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2378,91 +2381,91 @@
       </c>
       <c r="L5" s="45">
         <f t="shared" si="29"/>
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="M5" s="45">
         <f t="shared" si="29"/>
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="N5" s="45">
         <f t="shared" si="29"/>
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="O5" s="45">
         <f t="shared" si="29"/>
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="P5" s="45">
         <f t="shared" si="29"/>
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Q5" s="45">
         <f t="shared" si="29"/>
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="R5" s="45">
         <f t="shared" si="29"/>
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="S5" s="45">
         <f t="shared" si="29"/>
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="T5" s="45">
         <f t="shared" si="29"/>
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="U5" s="45">
         <f t="shared" si="29"/>
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="V5" s="45">
         <f t="shared" si="29"/>
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="W5" s="45">
         <f t="shared" si="29"/>
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="X5" s="45">
         <f t="shared" si="29"/>
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Y5" s="45">
         <f t="shared" si="29"/>
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="Z5" s="45">
         <f t="shared" si="29"/>
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AA5" s="45">
         <f t="shared" si="29"/>
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AB5" s="45">
         <f t="shared" si="29"/>
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AC5" s="45">
         <f t="shared" si="29"/>
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AD5" s="45">
         <f t="shared" si="29"/>
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AE5" s="45">
         <f t="shared" ref="AE5" si="30">AD5+SUMIF($A$6:$A$33,AE3,$D$6:$D$33)</f>
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AF5" s="45">
         <f t="shared" ref="AF5" si="31">AE5+SUMIF($A$6:$A$33,AF3,$D$6:$D$33)</f>
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="AG5" s="45">
         <f t="shared" ref="AG5" si="32">AF5+SUMIF($A$6:$A$33,AG3,$D$6:$D$33)</f>
-        <v>50</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:33" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
@@ -2582,9 +2585,11 @@
         <v>43765</v>
       </c>
       <c r="D11" s="31">
-        <v>7</v>
-      </c>
-      <c r="E11" s="24"/>
+        <v>9</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>25</v>
+      </c>
       <c r="F11" s="9"/>
     </row>
     <row r="12" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -2930,7 +2935,7 @@
       <c r="C34" s="50"/>
       <c r="D34" s="33">
         <f>SUM(D6:D33)</f>
-        <v>50</v>
+        <v>52</v>
       </c>
       <c r="E34" s="12"/>
     </row>

--- a/IP_Controlling_Bruno_Maikoff.xlsx
+++ b/IP_Controlling_Bruno_Maikoff.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FHNW\Semester7\Bachlorthesis\BlockChain_TransactionManager\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspaces\BlockChain_TransactionManager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBDF810E-22A2-4583-986A-60E94959F6E7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{242EB56A-3299-4313-ACFE-02C0B909EA25}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arbeitsrapport_Bruno" sheetId="11" r:id="rId1"/>
@@ -564,8 +564,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Standard 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="2">
@@ -680,7 +680,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -998,7 +998,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1"/>
@@ -1053,7 +1053,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2067145632"/>
@@ -1101,7 +1101,7 @@
           <a:cs typeface="Arial"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1115,7 +1115,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1313,70 +1313,70 @@
                   <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>63</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>63</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>63</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>63</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>63</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>63</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>63</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>63</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>63</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>63</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>63</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>63</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>63</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>63</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>63</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>63</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>63</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>63</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>63</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>63</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>63</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>63</c:v>
+                  <c:v>72</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1433,7 +1433,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1"/>
@@ -1488,7 +1488,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2067145632"/>
@@ -1536,7 +1536,7 @@
           <a:cs typeface="Arial"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1983,22 +1983,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.59765625" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" style="15" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="46.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.265625" customWidth="1"/>
+    <col min="3" max="3" width="10.265625" style="15" customWidth="1"/>
+    <col min="4" max="4" width="9.3984375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="46.73046875" customWidth="1"/>
     <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="33" width="4.7109375" customWidth="1"/>
+    <col min="7" max="33" width="4.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="3" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" s="3" customFormat="1" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="46" t="s">
         <v>3</v>
       </c>
@@ -2008,7 +2008,7 @@
       <c r="E1" s="46"/>
       <c r="F1" s="14"/>
     </row>
-    <row r="2" spans="1:33" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="47" t="s">
         <v>10</v>
       </c>
@@ -2103,7 +2103,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A3" s="47"/>
       <c r="B3" s="47"/>
       <c r="C3" s="47"/>
@@ -2220,7 +2220,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:33" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A4" s="16" t="s">
         <v>5</v>
       </c>
@@ -2340,7 +2340,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="5" spans="1:33" s="8" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" s="8" customFormat="1" ht="26.25" x14ac:dyDescent="0.35">
       <c r="A5" s="17" t="s">
         <v>6</v>
       </c>
@@ -2468,7 +2468,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:33" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" s="10" customFormat="1" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A6" s="22">
         <v>1</v>
       </c>
@@ -2487,7 +2487,7 @@
       </c>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="1:33" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" s="10" customFormat="1" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A7" s="22">
         <f t="shared" ref="A7:A22" si="33">A6+1</f>
         <v>2</v>
@@ -2508,7 +2508,7 @@
       </c>
       <c r="F7" s="9"/>
     </row>
-    <row r="8" spans="1:33" s="10" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" s="10" customFormat="1" ht="30.4" x14ac:dyDescent="0.35">
       <c r="A8" s="22">
         <f t="shared" si="33"/>
         <v>3</v>
@@ -2529,7 +2529,7 @@
       </c>
       <c r="F8" s="9"/>
     </row>
-    <row r="9" spans="1:33" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33" s="10" customFormat="1" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A9" s="22">
         <f t="shared" si="33"/>
         <v>4</v>
@@ -2550,7 +2550,7 @@
       </c>
       <c r="F9" s="9"/>
     </row>
-    <row r="10" spans="1:33" s="11" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33" s="11" customFormat="1" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A10" s="22">
         <f t="shared" si="33"/>
         <v>5</v>
@@ -2571,7 +2571,7 @@
       </c>
       <c r="F10" s="9"/>
     </row>
-    <row r="11" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A11" s="22">
         <f t="shared" si="33"/>
         <v>6</v>
@@ -2592,7 +2592,7 @@
       </c>
       <c r="F11" s="9"/>
     </row>
-    <row r="12" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:33" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A12" s="22">
         <f t="shared" si="33"/>
         <v>7</v>
@@ -2608,7 +2608,7 @@
       <c r="D12" s="31"/>
       <c r="E12" s="24"/>
     </row>
-    <row r="13" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:33" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A13" s="22">
         <f t="shared" si="33"/>
         <v>8</v>
@@ -2624,7 +2624,7 @@
       <c r="D13" s="31"/>
       <c r="E13" s="24"/>
     </row>
-    <row r="14" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:33" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A14" s="22">
         <f t="shared" si="33"/>
         <v>9</v>
@@ -2640,7 +2640,7 @@
       <c r="D14" s="31"/>
       <c r="E14" s="24"/>
     </row>
-    <row r="15" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:33" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A15" s="22">
         <f t="shared" si="33"/>
         <v>10</v>
@@ -2656,7 +2656,7 @@
       <c r="D15" s="31"/>
       <c r="E15" s="24"/>
     </row>
-    <row r="16" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:33" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A16" s="34">
         <f t="shared" si="33"/>
         <v>11</v>
@@ -2674,7 +2674,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A17" s="38">
         <f t="shared" si="33"/>
         <v>12</v>
@@ -2689,7 +2689,7 @@
       </c>
       <c r="D17" s="31"/>
     </row>
-    <row r="18" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A18" s="22">
         <f t="shared" si="33"/>
         <v>13</v>
@@ -2705,7 +2705,7 @@
       <c r="D18" s="31"/>
       <c r="E18" s="24"/>
     </row>
-    <row r="19" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A19" s="22">
         <f t="shared" si="33"/>
         <v>14</v>
@@ -2721,7 +2721,7 @@
       <c r="D19" s="31"/>
       <c r="E19" s="24"/>
     </row>
-    <row r="20" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A20" s="22">
         <f t="shared" si="33"/>
         <v>15</v>
@@ -2737,7 +2737,7 @@
       <c r="D20" s="31"/>
       <c r="E20" s="24"/>
     </row>
-    <row r="21" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A21" s="22">
         <f t="shared" si="33"/>
         <v>16</v>
@@ -2753,7 +2753,7 @@
       <c r="D21" s="31"/>
       <c r="E21" s="24"/>
     </row>
-    <row r="22" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A22" s="38">
         <f t="shared" si="33"/>
         <v>17</v>
@@ -2769,7 +2769,7 @@
       <c r="D22" s="31"/>
       <c r="E22" s="40"/>
     </row>
-    <row r="23" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A23" s="22">
         <v>18</v>
       </c>
@@ -2784,7 +2784,7 @@
       <c r="D23" s="31"/>
       <c r="E23" s="24"/>
     </row>
-    <row r="24" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A24" s="22">
         <v>19</v>
       </c>
@@ -2799,7 +2799,7 @@
       <c r="D24" s="31"/>
       <c r="E24" s="24"/>
     </row>
-    <row r="25" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A25" s="22">
         <v>20</v>
       </c>
@@ -2814,7 +2814,7 @@
       <c r="D25" s="31"/>
       <c r="E25" s="24"/>
     </row>
-    <row r="26" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A26" s="22">
         <v>21</v>
       </c>
@@ -2829,7 +2829,7 @@
       <c r="D26" s="31"/>
       <c r="E26" s="24"/>
     </row>
-    <row r="27" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A27" s="22">
         <v>22</v>
       </c>
@@ -2844,7 +2844,7 @@
       <c r="D27" s="31"/>
       <c r="E27" s="24"/>
     </row>
-    <row r="28" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A28" s="22">
         <v>23</v>
       </c>
@@ -2859,7 +2859,7 @@
       <c r="D28" s="31"/>
       <c r="E28" s="24"/>
     </row>
-    <row r="29" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A29" s="22">
         <v>24</v>
       </c>
@@ -2874,7 +2874,7 @@
       <c r="D29" s="31"/>
       <c r="E29" s="24"/>
     </row>
-    <row r="30" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A30" s="22">
         <v>25</v>
       </c>
@@ -2889,7 +2889,7 @@
       <c r="D30" s="31"/>
       <c r="E30" s="24"/>
     </row>
-    <row r="31" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A31" s="22">
         <v>26</v>
       </c>
@@ -2903,7 +2903,7 @@
       </c>
       <c r="D31" s="31"/>
     </row>
-    <row r="32" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A32" s="34">
         <v>27</v>
       </c>
@@ -2920,14 +2920,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="25"/>
       <c r="B33" s="26"/>
       <c r="C33" s="26"/>
       <c r="D33" s="32"/>
       <c r="E33" s="27"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="50" t="s">
         <v>2</v>
       </c>
@@ -2939,14 +2939,14 @@
       </c>
       <c r="E34" s="12"/>
     </row>
-    <row r="35" spans="1:5" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="51"/>
       <c r="B35" s="51"/>
       <c r="C35" s="51"/>
       <c r="D35" s="51"/>
       <c r="E35" s="13"/>
     </row>
-    <row r="36" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="25"/>
       <c r="B36" s="26"/>
       <c r="C36" s="26"/>
@@ -2976,22 +2976,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AG36"/>
   <sheetViews>
-    <sheetView zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.59765625" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" style="15" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="46.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.265625" customWidth="1"/>
+    <col min="3" max="3" width="10.265625" style="15" customWidth="1"/>
+    <col min="4" max="4" width="9.3984375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="46.73046875" customWidth="1"/>
     <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="33" width="4.7109375" customWidth="1"/>
+    <col min="7" max="33" width="4.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="3" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" s="3" customFormat="1" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="46" t="s">
         <v>3</v>
       </c>
@@ -3001,7 +3001,7 @@
       <c r="E1" s="46"/>
       <c r="F1" s="14"/>
     </row>
-    <row r="2" spans="1:33" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="47" t="s">
         <v>10</v>
       </c>
@@ -3096,7 +3096,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:33" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33" ht="12.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="47"/>
       <c r="B3" s="47"/>
       <c r="C3" s="47"/>
@@ -3213,7 +3213,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:33" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A4" s="43" t="s">
         <v>5</v>
       </c>
@@ -3333,7 +3333,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="5" spans="1:33" s="8" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" s="8" customFormat="1" ht="26.25" x14ac:dyDescent="0.35">
       <c r="A5" s="17" t="s">
         <v>6</v>
       </c>
@@ -3374,94 +3374,94 @@
       </c>
       <c r="L5" s="45">
         <f t="shared" si="2"/>
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="M5" s="45">
         <f t="shared" si="2"/>
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="N5" s="45">
         <f t="shared" si="2"/>
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="O5" s="45">
         <f t="shared" si="2"/>
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="P5" s="45">
         <f t="shared" si="2"/>
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="Q5" s="45">
         <f t="shared" si="2"/>
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="R5" s="45">
         <f t="shared" si="2"/>
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="S5" s="45">
         <f t="shared" si="2"/>
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="T5" s="45">
         <f t="shared" si="2"/>
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="U5" s="45">
         <f t="shared" si="2"/>
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="V5" s="45">
         <f t="shared" si="2"/>
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="W5" s="45">
         <f t="shared" si="2"/>
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="X5" s="45">
         <f t="shared" si="2"/>
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="Y5" s="45">
         <f t="shared" si="2"/>
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="Z5" s="45">
         <f t="shared" si="2"/>
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="AA5" s="45">
         <f t="shared" si="2"/>
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="AB5" s="45">
         <f t="shared" si="2"/>
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="AC5" s="45">
         <f t="shared" si="2"/>
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="AD5" s="45">
         <f t="shared" si="2"/>
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="AE5" s="45">
         <f t="shared" si="2"/>
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="AF5" s="45">
         <f t="shared" si="2"/>
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="AG5" s="45">
         <f t="shared" si="2"/>
-        <v>63</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" s="10" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A6" s="22">
         <v>1</v>
       </c>
@@ -3480,7 +3480,7 @@
       </c>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="1:33" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" s="10" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A7" s="22">
         <f t="shared" ref="A7:A22" si="3">A6+1</f>
         <v>2</v>
@@ -3501,7 +3501,7 @@
       </c>
       <c r="F7" s="9"/>
     </row>
-    <row r="8" spans="1:33" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" s="10" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A8" s="22">
         <f t="shared" si="3"/>
         <v>3</v>
@@ -3522,7 +3522,7 @@
       </c>
       <c r="F8" s="9"/>
     </row>
-    <row r="9" spans="1:33" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33" s="10" customFormat="1" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A9" s="22">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -3543,7 +3543,7 @@
       </c>
       <c r="F9" s="9"/>
     </row>
-    <row r="10" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A10" s="22">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -3564,7 +3564,7 @@
       </c>
       <c r="F10" s="9"/>
     </row>
-    <row r="11" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A11" s="22">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -3577,11 +3577,13 @@
         <f t="shared" si="4"/>
         <v>43765</v>
       </c>
-      <c r="D11" s="31"/>
+      <c r="D11" s="31">
+        <v>9</v>
+      </c>
       <c r="E11" s="24"/>
       <c r="F11" s="9"/>
     </row>
-    <row r="12" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:33" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A12" s="22">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -3597,7 +3599,7 @@
       <c r="D12" s="31"/>
       <c r="E12" s="24"/>
     </row>
-    <row r="13" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:33" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A13" s="22">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -3613,7 +3615,7 @@
       <c r="D13" s="31"/>
       <c r="E13" s="24"/>
     </row>
-    <row r="14" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:33" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A14" s="22">
         <f t="shared" si="3"/>
         <v>9</v>
@@ -3629,7 +3631,7 @@
       <c r="D14" s="31"/>
       <c r="E14" s="24"/>
     </row>
-    <row r="15" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:33" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A15" s="22">
         <f t="shared" si="3"/>
         <v>10</v>
@@ -3645,7 +3647,7 @@
       <c r="D15" s="31"/>
       <c r="E15" s="24"/>
     </row>
-    <row r="16" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:33" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A16" s="34">
         <f t="shared" si="3"/>
         <v>11</v>
@@ -3663,7 +3665,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A17" s="38">
         <f t="shared" si="3"/>
         <v>12</v>
@@ -3678,7 +3680,7 @@
       </c>
       <c r="D17" s="31"/>
     </row>
-    <row r="18" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A18" s="22">
         <f t="shared" si="3"/>
         <v>13</v>
@@ -3694,7 +3696,7 @@
       <c r="D18" s="31"/>
       <c r="E18" s="24"/>
     </row>
-    <row r="19" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A19" s="22">
         <f t="shared" si="3"/>
         <v>14</v>
@@ -3710,7 +3712,7 @@
       <c r="D19" s="31"/>
       <c r="E19" s="24"/>
     </row>
-    <row r="20" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A20" s="22">
         <f t="shared" si="3"/>
         <v>15</v>
@@ -3726,7 +3728,7 @@
       <c r="D20" s="31"/>
       <c r="E20" s="24"/>
     </row>
-    <row r="21" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A21" s="22">
         <f t="shared" si="3"/>
         <v>16</v>
@@ -3742,7 +3744,7 @@
       <c r="D21" s="31"/>
       <c r="E21" s="24"/>
     </row>
-    <row r="22" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A22" s="38">
         <f t="shared" si="3"/>
         <v>17</v>
@@ -3758,7 +3760,7 @@
       <c r="D22" s="31"/>
       <c r="E22" s="40"/>
     </row>
-    <row r="23" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A23" s="22">
         <v>18</v>
       </c>
@@ -3773,7 +3775,7 @@
       <c r="D23" s="31"/>
       <c r="E23" s="24"/>
     </row>
-    <row r="24" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A24" s="22">
         <v>19</v>
       </c>
@@ -3788,7 +3790,7 @@
       <c r="D24" s="31"/>
       <c r="E24" s="24"/>
     </row>
-    <row r="25" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A25" s="22">
         <v>20</v>
       </c>
@@ -3803,7 +3805,7 @@
       <c r="D25" s="31"/>
       <c r="E25" s="24"/>
     </row>
-    <row r="26" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A26" s="22">
         <v>21</v>
       </c>
@@ -3818,7 +3820,7 @@
       <c r="D26" s="31"/>
       <c r="E26" s="24"/>
     </row>
-    <row r="27" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A27" s="22">
         <v>22</v>
       </c>
@@ -3833,7 +3835,7 @@
       <c r="D27" s="31"/>
       <c r="E27" s="24"/>
     </row>
-    <row r="28" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A28" s="22">
         <v>23</v>
       </c>
@@ -3848,7 +3850,7 @@
       <c r="D28" s="31"/>
       <c r="E28" s="24"/>
     </row>
-    <row r="29" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A29" s="22">
         <v>24</v>
       </c>
@@ -3863,7 +3865,7 @@
       <c r="D29" s="31"/>
       <c r="E29" s="24"/>
     </row>
-    <row r="30" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A30" s="22">
         <v>25</v>
       </c>
@@ -3878,7 +3880,7 @@
       <c r="D30" s="31"/>
       <c r="E30" s="24"/>
     </row>
-    <row r="31" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A31" s="22">
         <v>26</v>
       </c>
@@ -3892,7 +3894,7 @@
       </c>
       <c r="D31" s="31"/>
     </row>
-    <row r="32" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A32" s="34">
         <v>27</v>
       </c>
@@ -3909,14 +3911,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="25"/>
       <c r="B33" s="26"/>
       <c r="C33" s="26"/>
       <c r="D33" s="32"/>
       <c r="E33" s="27"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="50" t="s">
         <v>2</v>
       </c>
@@ -3924,18 +3926,18 @@
       <c r="C34" s="50"/>
       <c r="D34" s="33">
         <f>SUM(D6:D33)</f>
-        <v>63</v>
+        <v>72</v>
       </c>
       <c r="E34" s="12"/>
     </row>
-    <row r="35" spans="1:5" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="51"/>
       <c r="B35" s="51"/>
       <c r="C35" s="51"/>
       <c r="D35" s="51"/>
       <c r="E35" s="13"/>
     </row>
-    <row r="36" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="25"/>
       <c r="B36" s="26"/>
       <c r="C36" s="26"/>

--- a/IP_Controlling_Bruno_Maikoff.xlsx
+++ b/IP_Controlling_Bruno_Maikoff.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspaces\BlockChain_TransactionManager\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mai714\Documents\Workspace\BlockChain_TransactionManager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{242EB56A-3299-4313-ACFE-02C0B909EA25}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="28995" windowHeight="15795" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Arbeitsrapport_Bruno" sheetId="11" r:id="rId1"/>
@@ -23,7 +22,7 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="1" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -36,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="43" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
   <si>
     <t>Aufwand in h</t>
   </si>
@@ -117,11 +116,14 @@
   <si>
     <t>Analyse; Besprechung; Protokoll; Feedback einbauen; Bericht</t>
   </si>
+  <si>
+    <t>Einlesen, Meeting, Report</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -566,7 +568,7 @@
   <cellStyles count="3">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Standard 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Standard 2" xfId="2"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -593,7 +595,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -1313,70 +1315,70 @@
                   <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>72</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>72</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>72</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>72</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>72</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>72</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>72</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>72</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>72</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>72</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>72</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>72</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>72</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>72</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>72</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>72</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>72</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>72</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>72</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>72</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>72</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>72</c:v>
+                  <c:v>74</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1980,25 +1982,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG36"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.59765625" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="10.265625" customWidth="1"/>
-    <col min="3" max="3" width="10.265625" style="15" customWidth="1"/>
-    <col min="4" max="4" width="9.3984375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="46.73046875" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="15" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="46.7109375" customWidth="1"/>
     <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="33" width="4.73046875" customWidth="1"/>
+    <col min="7" max="33" width="4.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="3" customFormat="1" ht="20.25" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:33" s="3" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="46" t="s">
         <v>3</v>
       </c>
@@ -2008,7 +2010,7 @@
       <c r="E1" s="46"/>
       <c r="F1" s="14"/>
     </row>
-    <row r="2" spans="1:33" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:33" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="47" t="s">
         <v>10</v>
       </c>
@@ -2103,7 +2105,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" s="47"/>
       <c r="B3" s="47"/>
       <c r="C3" s="47"/>
@@ -2220,7 +2222,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:33" ht="25.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:33" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
         <v>5</v>
       </c>
@@ -2340,7 +2342,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="5" spans="1:33" s="8" customFormat="1" ht="26.25" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:33" s="8" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
         <v>6</v>
       </c>
@@ -2468,7 +2470,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:33" s="10" customFormat="1" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:33" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A6" s="22">
         <v>1</v>
       </c>
@@ -2487,7 +2489,7 @@
       </c>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="1:33" s="10" customFormat="1" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:33" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A7" s="22">
         <f t="shared" ref="A7:A22" si="33">A6+1</f>
         <v>2</v>
@@ -2508,7 +2510,7 @@
       </c>
       <c r="F7" s="9"/>
     </row>
-    <row r="8" spans="1:33" s="10" customFormat="1" ht="30.4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:33" s="10" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A8" s="22">
         <f t="shared" si="33"/>
         <v>3</v>
@@ -2529,7 +2531,7 @@
       </c>
       <c r="F8" s="9"/>
     </row>
-    <row r="9" spans="1:33" s="10" customFormat="1" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:33" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A9" s="22">
         <f t="shared" si="33"/>
         <v>4</v>
@@ -2550,7 +2552,7 @@
       </c>
       <c r="F9" s="9"/>
     </row>
-    <row r="10" spans="1:33" s="11" customFormat="1" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:33" s="11" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A10" s="22">
         <f t="shared" si="33"/>
         <v>5</v>
@@ -2571,7 +2573,7 @@
       </c>
       <c r="F10" s="9"/>
     </row>
-    <row r="11" spans="1:33" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A11" s="22">
         <f t="shared" si="33"/>
         <v>6</v>
@@ -2592,7 +2594,7 @@
       </c>
       <c r="F11" s="9"/>
     </row>
-    <row r="12" spans="1:33" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A12" s="22">
         <f t="shared" si="33"/>
         <v>7</v>
@@ -2608,7 +2610,7 @@
       <c r="D12" s="31"/>
       <c r="E12" s="24"/>
     </row>
-    <row r="13" spans="1:33" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A13" s="22">
         <f t="shared" si="33"/>
         <v>8</v>
@@ -2624,7 +2626,7 @@
       <c r="D13" s="31"/>
       <c r="E13" s="24"/>
     </row>
-    <row r="14" spans="1:33" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A14" s="22">
         <f t="shared" si="33"/>
         <v>9</v>
@@ -2640,7 +2642,7 @@
       <c r="D14" s="31"/>
       <c r="E14" s="24"/>
     </row>
-    <row r="15" spans="1:33" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A15" s="22">
         <f t="shared" si="33"/>
         <v>10</v>
@@ -2656,7 +2658,7 @@
       <c r="D15" s="31"/>
       <c r="E15" s="24"/>
     </row>
-    <row r="16" spans="1:33" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A16" s="34">
         <f t="shared" si="33"/>
         <v>11</v>
@@ -2674,7 +2676,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A17" s="38">
         <f t="shared" si="33"/>
         <v>12</v>
@@ -2689,7 +2691,7 @@
       </c>
       <c r="D17" s="31"/>
     </row>
-    <row r="18" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A18" s="22">
         <f t="shared" si="33"/>
         <v>13</v>
@@ -2705,7 +2707,7 @@
       <c r="D18" s="31"/>
       <c r="E18" s="24"/>
     </row>
-    <row r="19" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A19" s="22">
         <f t="shared" si="33"/>
         <v>14</v>
@@ -2721,7 +2723,7 @@
       <c r="D19" s="31"/>
       <c r="E19" s="24"/>
     </row>
-    <row r="20" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A20" s="22">
         <f t="shared" si="33"/>
         <v>15</v>
@@ -2737,7 +2739,7 @@
       <c r="D20" s="31"/>
       <c r="E20" s="24"/>
     </row>
-    <row r="21" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A21" s="22">
         <f t="shared" si="33"/>
         <v>16</v>
@@ -2753,7 +2755,7 @@
       <c r="D21" s="31"/>
       <c r="E21" s="24"/>
     </row>
-    <row r="22" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A22" s="38">
         <f t="shared" si="33"/>
         <v>17</v>
@@ -2769,7 +2771,7 @@
       <c r="D22" s="31"/>
       <c r="E22" s="40"/>
     </row>
-    <row r="23" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A23" s="22">
         <v>18</v>
       </c>
@@ -2784,7 +2786,7 @@
       <c r="D23" s="31"/>
       <c r="E23" s="24"/>
     </row>
-    <row r="24" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A24" s="22">
         <v>19</v>
       </c>
@@ -2799,7 +2801,7 @@
       <c r="D24" s="31"/>
       <c r="E24" s="24"/>
     </row>
-    <row r="25" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A25" s="22">
         <v>20</v>
       </c>
@@ -2814,7 +2816,7 @@
       <c r="D25" s="31"/>
       <c r="E25" s="24"/>
     </row>
-    <row r="26" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A26" s="22">
         <v>21</v>
       </c>
@@ -2829,7 +2831,7 @@
       <c r="D26" s="31"/>
       <c r="E26" s="24"/>
     </row>
-    <row r="27" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A27" s="22">
         <v>22</v>
       </c>
@@ -2844,7 +2846,7 @@
       <c r="D27" s="31"/>
       <c r="E27" s="24"/>
     </row>
-    <row r="28" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A28" s="22">
         <v>23</v>
       </c>
@@ -2859,7 +2861,7 @@
       <c r="D28" s="31"/>
       <c r="E28" s="24"/>
     </row>
-    <row r="29" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A29" s="22">
         <v>24</v>
       </c>
@@ -2874,7 +2876,7 @@
       <c r="D29" s="31"/>
       <c r="E29" s="24"/>
     </row>
-    <row r="30" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A30" s="22">
         <v>25</v>
       </c>
@@ -2889,7 +2891,7 @@
       <c r="D30" s="31"/>
       <c r="E30" s="24"/>
     </row>
-    <row r="31" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A31" s="22">
         <v>26</v>
       </c>
@@ -2903,7 +2905,7 @@
       </c>
       <c r="D31" s="31"/>
     </row>
-    <row r="32" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A32" s="34">
         <v>27</v>
       </c>
@@ -2920,14 +2922,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="25"/>
       <c r="B33" s="26"/>
       <c r="C33" s="26"/>
       <c r="D33" s="32"/>
       <c r="E33" s="27"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="50" t="s">
         <v>2</v>
       </c>
@@ -2939,14 +2941,14 @@
       </c>
       <c r="E34" s="12"/>
     </row>
-    <row r="35" spans="1:5" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:5" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="51"/>
       <c r="B35" s="51"/>
       <c r="C35" s="51"/>
       <c r="D35" s="51"/>
       <c r="E35" s="13"/>
     </row>
-    <row r="36" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="25"/>
       <c r="B36" s="26"/>
       <c r="C36" s="26"/>
@@ -2954,7 +2956,7 @@
       <c r="E36" s="27"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:B5" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A5:B5"/>
   <mergeCells count="5">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:C3"/>
@@ -2963,7 +2965,7 @@
     <mergeCell ref="A35:D35"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="Name, Vorname:" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId1" display="Name, Vorname:"/>
   </hyperlinks>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" scale="75" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -2973,25 +2975,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="L37" sqref="L37"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.59765625" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="10.265625" customWidth="1"/>
-    <col min="3" max="3" width="10.265625" style="15" customWidth="1"/>
-    <col min="4" max="4" width="9.3984375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="46.73046875" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="15" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="46.7109375" customWidth="1"/>
     <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="33" width="4.73046875" customWidth="1"/>
+    <col min="7" max="33" width="4.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="3" customFormat="1" ht="20.25" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:33" s="3" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="46" t="s">
         <v>3</v>
       </c>
@@ -3001,7 +3003,7 @@
       <c r="E1" s="46"/>
       <c r="F1" s="14"/>
     </row>
-    <row r="2" spans="1:33" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:33" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="47" t="s">
         <v>10</v>
       </c>
@@ -3096,7 +3098,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:33" ht="12.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:33" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="47"/>
       <c r="B3" s="47"/>
       <c r="C3" s="47"/>
@@ -3213,7 +3215,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:33" ht="25.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:33" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="43" t="s">
         <v>5</v>
       </c>
@@ -3333,7 +3335,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="5" spans="1:33" s="8" customFormat="1" ht="26.25" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:33" s="8" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
         <v>6</v>
       </c>
@@ -3374,94 +3376,94 @@
       </c>
       <c r="L5" s="45">
         <f t="shared" si="2"/>
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="M5" s="45">
         <f t="shared" si="2"/>
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="N5" s="45">
         <f t="shared" si="2"/>
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="O5" s="45">
         <f t="shared" si="2"/>
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="P5" s="45">
         <f t="shared" si="2"/>
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Q5" s="45">
         <f t="shared" si="2"/>
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="R5" s="45">
         <f t="shared" si="2"/>
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="S5" s="45">
         <f t="shared" si="2"/>
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="T5" s="45">
         <f t="shared" si="2"/>
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="U5" s="45">
         <f t="shared" si="2"/>
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="V5" s="45">
         <f t="shared" si="2"/>
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="W5" s="45">
         <f t="shared" si="2"/>
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="X5" s="45">
         <f t="shared" si="2"/>
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Y5" s="45">
         <f t="shared" si="2"/>
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="Z5" s="45">
         <f t="shared" si="2"/>
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AA5" s="45">
         <f t="shared" si="2"/>
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AB5" s="45">
         <f t="shared" si="2"/>
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AC5" s="45">
         <f t="shared" si="2"/>
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AD5" s="45">
         <f t="shared" si="2"/>
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AE5" s="45">
         <f t="shared" si="2"/>
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AF5" s="45">
         <f t="shared" si="2"/>
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="AG5" s="45">
         <f t="shared" si="2"/>
-        <v>72</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33" s="10" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A6" s="22">
         <v>1</v>
       </c>
@@ -3480,7 +3482,7 @@
       </c>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="1:33" s="10" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:33" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A7" s="22">
         <f t="shared" ref="A7:A22" si="3">A6+1</f>
         <v>2</v>
@@ -3501,7 +3503,7 @@
       </c>
       <c r="F7" s="9"/>
     </row>
-    <row r="8" spans="1:33" s="10" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:33" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A8" s="22">
         <f t="shared" si="3"/>
         <v>3</v>
@@ -3522,7 +3524,7 @@
       </c>
       <c r="F8" s="9"/>
     </row>
-    <row r="9" spans="1:33" s="10" customFormat="1" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:33" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A9" s="22">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -3543,7 +3545,7 @@
       </c>
       <c r="F9" s="9"/>
     </row>
-    <row r="10" spans="1:33" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A10" s="22">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -3564,7 +3566,7 @@
       </c>
       <c r="F10" s="9"/>
     </row>
-    <row r="11" spans="1:33" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A11" s="22">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -3578,12 +3580,14 @@
         <v>43765</v>
       </c>
       <c r="D11" s="31">
-        <v>9</v>
-      </c>
-      <c r="E11" s="24"/>
+        <v>11</v>
+      </c>
+      <c r="E11" s="24" t="s">
+        <v>26</v>
+      </c>
       <c r="F11" s="9"/>
     </row>
-    <row r="12" spans="1:33" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A12" s="22">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -3599,7 +3603,7 @@
       <c r="D12" s="31"/>
       <c r="E12" s="24"/>
     </row>
-    <row r="13" spans="1:33" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A13" s="22">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -3615,7 +3619,7 @@
       <c r="D13" s="31"/>
       <c r="E13" s="24"/>
     </row>
-    <row r="14" spans="1:33" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A14" s="22">
         <f t="shared" si="3"/>
         <v>9</v>
@@ -3631,7 +3635,7 @@
       <c r="D14" s="31"/>
       <c r="E14" s="24"/>
     </row>
-    <row r="15" spans="1:33" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A15" s="22">
         <f t="shared" si="3"/>
         <v>10</v>
@@ -3647,7 +3651,7 @@
       <c r="D15" s="31"/>
       <c r="E15" s="24"/>
     </row>
-    <row r="16" spans="1:33" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A16" s="34">
         <f t="shared" si="3"/>
         <v>11</v>
@@ -3665,7 +3669,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A17" s="38">
         <f t="shared" si="3"/>
         <v>12</v>
@@ -3680,7 +3684,7 @@
       </c>
       <c r="D17" s="31"/>
     </row>
-    <row r="18" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A18" s="22">
         <f t="shared" si="3"/>
         <v>13</v>
@@ -3696,7 +3700,7 @@
       <c r="D18" s="31"/>
       <c r="E18" s="24"/>
     </row>
-    <row r="19" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A19" s="22">
         <f t="shared" si="3"/>
         <v>14</v>
@@ -3712,7 +3716,7 @@
       <c r="D19" s="31"/>
       <c r="E19" s="24"/>
     </row>
-    <row r="20" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A20" s="22">
         <f t="shared" si="3"/>
         <v>15</v>
@@ -3728,7 +3732,7 @@
       <c r="D20" s="31"/>
       <c r="E20" s="24"/>
     </row>
-    <row r="21" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A21" s="22">
         <f t="shared" si="3"/>
         <v>16</v>
@@ -3744,7 +3748,7 @@
       <c r="D21" s="31"/>
       <c r="E21" s="24"/>
     </row>
-    <row r="22" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A22" s="38">
         <f t="shared" si="3"/>
         <v>17</v>
@@ -3760,7 +3764,7 @@
       <c r="D22" s="31"/>
       <c r="E22" s="40"/>
     </row>
-    <row r="23" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A23" s="22">
         <v>18</v>
       </c>
@@ -3775,7 +3779,7 @@
       <c r="D23" s="31"/>
       <c r="E23" s="24"/>
     </row>
-    <row r="24" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A24" s="22">
         <v>19</v>
       </c>
@@ -3790,7 +3794,7 @@
       <c r="D24" s="31"/>
       <c r="E24" s="24"/>
     </row>
-    <row r="25" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A25" s="22">
         <v>20</v>
       </c>
@@ -3805,7 +3809,7 @@
       <c r="D25" s="31"/>
       <c r="E25" s="24"/>
     </row>
-    <row r="26" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A26" s="22">
         <v>21</v>
       </c>
@@ -3820,7 +3824,7 @@
       <c r="D26" s="31"/>
       <c r="E26" s="24"/>
     </row>
-    <row r="27" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A27" s="22">
         <v>22</v>
       </c>
@@ -3835,7 +3839,7 @@
       <c r="D27" s="31"/>
       <c r="E27" s="24"/>
     </row>
-    <row r="28" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A28" s="22">
         <v>23</v>
       </c>
@@ -3850,7 +3854,7 @@
       <c r="D28" s="31"/>
       <c r="E28" s="24"/>
     </row>
-    <row r="29" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A29" s="22">
         <v>24</v>
       </c>
@@ -3865,7 +3869,7 @@
       <c r="D29" s="31"/>
       <c r="E29" s="24"/>
     </row>
-    <row r="30" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A30" s="22">
         <v>25</v>
       </c>
@@ -3880,7 +3884,7 @@
       <c r="D30" s="31"/>
       <c r="E30" s="24"/>
     </row>
-    <row r="31" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A31" s="22">
         <v>26</v>
       </c>
@@ -3894,7 +3898,7 @@
       </c>
       <c r="D31" s="31"/>
     </row>
-    <row r="32" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A32" s="34">
         <v>27</v>
       </c>
@@ -3911,14 +3915,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="25"/>
       <c r="B33" s="26"/>
       <c r="C33" s="26"/>
       <c r="D33" s="32"/>
       <c r="E33" s="27"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="50" t="s">
         <v>2</v>
       </c>
@@ -3926,18 +3930,18 @@
       <c r="C34" s="50"/>
       <c r="D34" s="33">
         <f>SUM(D6:D33)</f>
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="E34" s="12"/>
     </row>
-    <row r="35" spans="1:5" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:5" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="51"/>
       <c r="B35" s="51"/>
       <c r="C35" s="51"/>
       <c r="D35" s="51"/>
       <c r="E35" s="13"/>
     </row>
-    <row r="36" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="25"/>
       <c r="B36" s="26"/>
       <c r="C36" s="26"/>
@@ -3945,7 +3949,7 @@
       <c r="E36" s="27"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:B5" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A5:B5"/>
   <mergeCells count="5">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:C3"/>
@@ -3954,7 +3958,7 @@
     <mergeCell ref="A35:D35"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="Name, Vorname:" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId1" display="Name, Vorname:"/>
   </hyperlinks>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" scale="75" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/IP_Controlling_Bruno_Maikoff.xlsx
+++ b/IP_Controlling_Bruno_Maikoff.xlsx
@@ -1315,70 +1315,70 @@
                   <c:v>63</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>74</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>74</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>74</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>74</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>74</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>74</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>74</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>74</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>74</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>74</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>74</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>74</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>74</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>74</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>74</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>74</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>74</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>74</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>74</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>74</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>74</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>74</c:v>
+                  <c:v>75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2978,8 +2978,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3376,91 +3376,91 @@
       </c>
       <c r="L5" s="45">
         <f t="shared" si="2"/>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M5" s="45">
         <f t="shared" si="2"/>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="N5" s="45">
         <f t="shared" si="2"/>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="O5" s="45">
         <f t="shared" si="2"/>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="P5" s="45">
         <f t="shared" si="2"/>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Q5" s="45">
         <f t="shared" si="2"/>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="R5" s="45">
         <f t="shared" si="2"/>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="S5" s="45">
         <f t="shared" si="2"/>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="T5" s="45">
         <f t="shared" si="2"/>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="U5" s="45">
         <f t="shared" si="2"/>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="V5" s="45">
         <f t="shared" si="2"/>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="W5" s="45">
         <f t="shared" si="2"/>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="X5" s="45">
         <f t="shared" si="2"/>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Y5" s="45">
         <f t="shared" si="2"/>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="Z5" s="45">
         <f t="shared" si="2"/>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AA5" s="45">
         <f t="shared" si="2"/>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AB5" s="45">
         <f t="shared" si="2"/>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AC5" s="45">
         <f t="shared" si="2"/>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AD5" s="45">
         <f t="shared" si="2"/>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AE5" s="45">
         <f t="shared" si="2"/>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AF5" s="45">
         <f t="shared" si="2"/>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="AG5" s="45">
         <f t="shared" si="2"/>
-        <v>74</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:33" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -3580,7 +3580,7 @@
         <v>43765</v>
       </c>
       <c r="D11" s="31">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E11" s="24" t="s">
         <v>26</v>
@@ -3930,7 +3930,7 @@
       <c r="C34" s="50"/>
       <c r="D34" s="33">
         <f>SUM(D6:D33)</f>
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="E34" s="12"/>
     </row>

--- a/IP_Controlling_Bruno_Maikoff.xlsx
+++ b/IP_Controlling_Bruno_Maikoff.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mai714\Documents\Workspace\BlockChain_TransactionManager\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\BlockChain_TransactionManager\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{190A3828-3DC6-4212-90F5-B6529EA9DA7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="28995" windowHeight="15795" activeTab="1"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arbeitsrapport_Bruno" sheetId="11" r:id="rId1"/>
@@ -22,7 +23,7 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="1" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
   <si>
     <t>Aufwand in h</t>
   </si>
@@ -119,11 +120,14 @@
   <si>
     <t>Einlesen, Meeting, Report</t>
   </si>
+  <si>
+    <t>Parity</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -566,9 +570,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Standard 2" xfId="2"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -595,7 +599,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -682,7 +686,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1000,7 +1004,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1"/>
@@ -1055,7 +1059,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2067145632"/>
@@ -1103,7 +1107,7 @@
           <a:cs typeface="Arial"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1117,7 +1121,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1318,67 +1322,67 @@
                   <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>75</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>75</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>75</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>75</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>75</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>75</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>75</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>75</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>75</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>75</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>75</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>75</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>75</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>75</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>75</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>75</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>75</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>75</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>75</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>75</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>75</c:v>
+                  <c:v>83</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1435,7 +1439,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1"/>
@@ -1490,7 +1494,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2067145632"/>
@@ -1538,7 +1542,7 @@
           <a:cs typeface="Arial"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1982,14 +1986,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG36"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" customWidth="1"/>
@@ -2956,7 +2960,7 @@
       <c r="E36" s="27"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:B5"/>
+  <autoFilter ref="A5:B5" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="5">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:C3"/>
@@ -2965,7 +2969,7 @@
     <mergeCell ref="A35:D35"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="Name, Vorname:"/>
+    <hyperlink ref="A2" r:id="rId1" display="Name, Vorname:" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" scale="75" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -2975,14 +2979,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AG36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="K34" sqref="K34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" customWidth="1"/>
@@ -3380,87 +3384,87 @@
       </c>
       <c r="M5" s="45">
         <f t="shared" si="2"/>
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="N5" s="45">
         <f t="shared" si="2"/>
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="O5" s="45">
         <f t="shared" si="2"/>
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="P5" s="45">
         <f t="shared" si="2"/>
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="Q5" s="45">
         <f t="shared" si="2"/>
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="R5" s="45">
         <f t="shared" si="2"/>
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="S5" s="45">
         <f t="shared" si="2"/>
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="T5" s="45">
         <f t="shared" si="2"/>
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="U5" s="45">
         <f t="shared" si="2"/>
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="V5" s="45">
         <f t="shared" si="2"/>
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="W5" s="45">
         <f t="shared" si="2"/>
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="X5" s="45">
         <f t="shared" si="2"/>
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="Y5" s="45">
         <f t="shared" si="2"/>
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="Z5" s="45">
         <f t="shared" si="2"/>
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AA5" s="45">
         <f t="shared" si="2"/>
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AB5" s="45">
         <f t="shared" si="2"/>
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AC5" s="45">
         <f t="shared" si="2"/>
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AD5" s="45">
         <f t="shared" si="2"/>
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AE5" s="45">
         <f t="shared" si="2"/>
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AF5" s="45">
         <f t="shared" si="2"/>
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="AG5" s="45">
         <f t="shared" si="2"/>
-        <v>75</v>
+        <v>83</v>
       </c>
     </row>
     <row r="6" spans="1:33" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -3600,8 +3604,12 @@
         <f t="shared" si="4"/>
         <v>43772</v>
       </c>
-      <c r="D12" s="31"/>
-      <c r="E12" s="24"/>
+      <c r="D12" s="31">
+        <v>8</v>
+      </c>
+      <c r="E12" s="24" t="s">
+        <v>27</v>
+      </c>
     </row>
     <row r="13" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A13" s="22">
@@ -3930,7 +3938,7 @@
       <c r="C34" s="50"/>
       <c r="D34" s="33">
         <f>SUM(D6:D33)</f>
-        <v>75</v>
+        <v>83</v>
       </c>
       <c r="E34" s="12"/>
     </row>
@@ -3949,7 +3957,7 @@
       <c r="E36" s="27"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:B5"/>
+  <autoFilter ref="A5:B5" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="5">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:C3"/>
@@ -3958,7 +3966,7 @@
     <mergeCell ref="A35:D35"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="Name, Vorname:"/>
+    <hyperlink ref="A2" r:id="rId1" display="Name, Vorname:" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" scale="75" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/IP_Controlling_Bruno_Maikoff.xlsx
+++ b/IP_Controlling_Bruno_Maikoff.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\BlockChain_TransactionManager\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mai714\Documents\Workspace\BlockChain_TransactionManager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{190A3828-3DC6-4212-90F5-B6529EA9DA7B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Arbeitsrapport_Bruno" sheetId="11" r:id="rId1"/>
@@ -23,7 +22,7 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="1" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -121,13 +120,13 @@
     <t>Einlesen, Meeting, Report</t>
   </si>
   <si>
-    <t>Parity</t>
+    <t>Parity, Report</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -570,9 +569,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Standard 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard 2" xfId="2"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -599,7 +598,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -686,7 +685,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1004,7 +1003,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1"/>
@@ -1059,7 +1058,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2067145632"/>
@@ -1107,7 +1106,7 @@
           <a:cs typeface="Arial"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1121,7 +1120,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1322,67 +1321,67 @@
                   <c:v>75</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>83</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>83</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>83</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>83</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>83</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>83</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>83</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>83</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>83</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>83</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>83</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>83</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>83</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>83</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>83</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>83</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>83</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>83</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>83</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>83</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>83</c:v>
+                  <c:v>84</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1439,7 +1438,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1"/>
@@ -1494,7 +1493,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2067145632"/>
@@ -1542,7 +1541,7 @@
           <a:cs typeface="Arial"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1986,25 +1985,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG36"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" style="15" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="46.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="46.6640625" customWidth="1"/>
     <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="33" width="4.7109375" customWidth="1"/>
+    <col min="7" max="33" width="4.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="3" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" s="3" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A1" s="46" t="s">
         <v>3</v>
       </c>
@@ -2014,7 +2013,7 @@
       <c r="E1" s="46"/>
       <c r="F1" s="14"/>
     </row>
-    <row r="2" spans="1:33" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="47" t="s">
         <v>10</v>
       </c>
@@ -2109,7 +2108,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" s="47"/>
       <c r="B3" s="47"/>
       <c r="C3" s="47"/>
@@ -2226,7 +2225,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:33" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>5</v>
       </c>
@@ -2346,7 +2345,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="5" spans="1:33" s="8" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" s="8" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>6</v>
       </c>
@@ -2474,7 +2473,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:33" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" s="10" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A6" s="22">
         <v>1</v>
       </c>
@@ -2493,7 +2492,7 @@
       </c>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="1:33" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" s="10" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A7" s="22">
         <f t="shared" ref="A7:A22" si="33">A6+1</f>
         <v>2</v>
@@ -2514,7 +2513,7 @@
       </c>
       <c r="F7" s="9"/>
     </row>
-    <row r="8" spans="1:33" s="10" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" s="10" customFormat="1" ht="30.6" x14ac:dyDescent="0.25">
       <c r="A8" s="22">
         <f t="shared" si="33"/>
         <v>3</v>
@@ -2535,7 +2534,7 @@
       </c>
       <c r="F8" s="9"/>
     </row>
-    <row r="9" spans="1:33" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33" s="10" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A9" s="22">
         <f t="shared" si="33"/>
         <v>4</v>
@@ -2556,7 +2555,7 @@
       </c>
       <c r="F9" s="9"/>
     </row>
-    <row r="10" spans="1:33" s="11" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33" s="11" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A10" s="22">
         <f t="shared" si="33"/>
         <v>5</v>
@@ -2577,7 +2576,7 @@
       </c>
       <c r="F10" s="9"/>
     </row>
-    <row r="11" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A11" s="22">
         <f t="shared" si="33"/>
         <v>6</v>
@@ -2598,7 +2597,7 @@
       </c>
       <c r="F11" s="9"/>
     </row>
-    <row r="12" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:33" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A12" s="22">
         <f t="shared" si="33"/>
         <v>7</v>
@@ -2614,7 +2613,7 @@
       <c r="D12" s="31"/>
       <c r="E12" s="24"/>
     </row>
-    <row r="13" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:33" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A13" s="22">
         <f t="shared" si="33"/>
         <v>8</v>
@@ -2630,7 +2629,7 @@
       <c r="D13" s="31"/>
       <c r="E13" s="24"/>
     </row>
-    <row r="14" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:33" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A14" s="22">
         <f t="shared" si="33"/>
         <v>9</v>
@@ -2646,7 +2645,7 @@
       <c r="D14" s="31"/>
       <c r="E14" s="24"/>
     </row>
-    <row r="15" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:33" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A15" s="22">
         <f t="shared" si="33"/>
         <v>10</v>
@@ -2662,7 +2661,7 @@
       <c r="D15" s="31"/>
       <c r="E15" s="24"/>
     </row>
-    <row r="16" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:33" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A16" s="34">
         <f t="shared" si="33"/>
         <v>11</v>
@@ -2680,7 +2679,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A17" s="38">
         <f t="shared" si="33"/>
         <v>12</v>
@@ -2695,7 +2694,7 @@
       </c>
       <c r="D17" s="31"/>
     </row>
-    <row r="18" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A18" s="22">
         <f t="shared" si="33"/>
         <v>13</v>
@@ -2711,7 +2710,7 @@
       <c r="D18" s="31"/>
       <c r="E18" s="24"/>
     </row>
-    <row r="19" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A19" s="22">
         <f t="shared" si="33"/>
         <v>14</v>
@@ -2727,7 +2726,7 @@
       <c r="D19" s="31"/>
       <c r="E19" s="24"/>
     </row>
-    <row r="20" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A20" s="22">
         <f t="shared" si="33"/>
         <v>15</v>
@@ -2743,7 +2742,7 @@
       <c r="D20" s="31"/>
       <c r="E20" s="24"/>
     </row>
-    <row r="21" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A21" s="22">
         <f t="shared" si="33"/>
         <v>16</v>
@@ -2759,7 +2758,7 @@
       <c r="D21" s="31"/>
       <c r="E21" s="24"/>
     </row>
-    <row r="22" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A22" s="38">
         <f t="shared" si="33"/>
         <v>17</v>
@@ -2775,7 +2774,7 @@
       <c r="D22" s="31"/>
       <c r="E22" s="40"/>
     </row>
-    <row r="23" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A23" s="22">
         <v>18</v>
       </c>
@@ -2790,7 +2789,7 @@
       <c r="D23" s="31"/>
       <c r="E23" s="24"/>
     </row>
-    <row r="24" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A24" s="22">
         <v>19</v>
       </c>
@@ -2805,7 +2804,7 @@
       <c r="D24" s="31"/>
       <c r="E24" s="24"/>
     </row>
-    <row r="25" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A25" s="22">
         <v>20</v>
       </c>
@@ -2820,7 +2819,7 @@
       <c r="D25" s="31"/>
       <c r="E25" s="24"/>
     </row>
-    <row r="26" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A26" s="22">
         <v>21</v>
       </c>
@@ -2835,7 +2834,7 @@
       <c r="D26" s="31"/>
       <c r="E26" s="24"/>
     </row>
-    <row r="27" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A27" s="22">
         <v>22</v>
       </c>
@@ -2850,7 +2849,7 @@
       <c r="D27" s="31"/>
       <c r="E27" s="24"/>
     </row>
-    <row r="28" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A28" s="22">
         <v>23</v>
       </c>
@@ -2865,7 +2864,7 @@
       <c r="D28" s="31"/>
       <c r="E28" s="24"/>
     </row>
-    <row r="29" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A29" s="22">
         <v>24</v>
       </c>
@@ -2880,7 +2879,7 @@
       <c r="D29" s="31"/>
       <c r="E29" s="24"/>
     </row>
-    <row r="30" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A30" s="22">
         <v>25</v>
       </c>
@@ -2895,7 +2894,7 @@
       <c r="D30" s="31"/>
       <c r="E30" s="24"/>
     </row>
-    <row r="31" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A31" s="22">
         <v>26</v>
       </c>
@@ -2909,7 +2908,7 @@
       </c>
       <c r="D31" s="31"/>
     </row>
-    <row r="32" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A32" s="34">
         <v>27</v>
       </c>
@@ -2926,14 +2925,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="25"/>
       <c r="B33" s="26"/>
       <c r="C33" s="26"/>
       <c r="D33" s="32"/>
       <c r="E33" s="27"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="50" t="s">
         <v>2</v>
       </c>
@@ -2945,14 +2944,14 @@
       </c>
       <c r="E34" s="12"/>
     </row>
-    <row r="35" spans="1:5" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="51"/>
       <c r="B35" s="51"/>
       <c r="C35" s="51"/>
       <c r="D35" s="51"/>
       <c r="E35" s="13"/>
     </row>
-    <row r="36" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="25"/>
       <c r="B36" s="26"/>
       <c r="C36" s="26"/>
@@ -2960,7 +2959,7 @@
       <c r="E36" s="27"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:B5" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A5:B5"/>
   <mergeCells count="5">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:C3"/>
@@ -2969,7 +2968,7 @@
     <mergeCell ref="A35:D35"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="Name, Vorname:" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId1" display="Name, Vorname:"/>
   </hyperlinks>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" scale="75" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -2979,25 +2978,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K34" sqref="K34"/>
+      <selection activeCell="E13" sqref="E13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" style="15" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="46.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="46.6640625" customWidth="1"/>
     <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="33" width="4.7109375" customWidth="1"/>
+    <col min="7" max="33" width="4.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="3" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" s="3" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A1" s="46" t="s">
         <v>3</v>
       </c>
@@ -3007,7 +3006,7 @@
       <c r="E1" s="46"/>
       <c r="F1" s="14"/>
     </row>
-    <row r="2" spans="1:33" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="47" t="s">
         <v>10</v>
       </c>
@@ -3102,7 +3101,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:33" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="47"/>
       <c r="B3" s="47"/>
       <c r="C3" s="47"/>
@@ -3219,7 +3218,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:33" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A4" s="43" t="s">
         <v>5</v>
       </c>
@@ -3339,7 +3338,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="5" spans="1:33" s="8" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" s="8" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>6</v>
       </c>
@@ -3384,90 +3383,90 @@
       </c>
       <c r="M5" s="45">
         <f t="shared" si="2"/>
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="N5" s="45">
         <f t="shared" si="2"/>
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="O5" s="45">
         <f t="shared" si="2"/>
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="P5" s="45">
         <f t="shared" si="2"/>
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Q5" s="45">
         <f t="shared" si="2"/>
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="R5" s="45">
         <f t="shared" si="2"/>
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="S5" s="45">
         <f t="shared" si="2"/>
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="T5" s="45">
         <f t="shared" si="2"/>
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="U5" s="45">
         <f t="shared" si="2"/>
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="V5" s="45">
         <f t="shared" si="2"/>
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="W5" s="45">
         <f t="shared" si="2"/>
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="X5" s="45">
         <f t="shared" si="2"/>
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Y5" s="45">
         <f t="shared" si="2"/>
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="Z5" s="45">
         <f t="shared" si="2"/>
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AA5" s="45">
         <f t="shared" si="2"/>
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AB5" s="45">
         <f t="shared" si="2"/>
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AC5" s="45">
         <f t="shared" si="2"/>
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AD5" s="45">
         <f t="shared" si="2"/>
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AE5" s="45">
         <f t="shared" si="2"/>
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AF5" s="45">
         <f t="shared" si="2"/>
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="AG5" s="45">
         <f t="shared" si="2"/>
-        <v>83</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" s="10" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A6" s="22">
         <v>1</v>
       </c>
@@ -3486,7 +3485,7 @@
       </c>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="1:33" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" s="10" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A7" s="22">
         <f t="shared" ref="A7:A22" si="3">A6+1</f>
         <v>2</v>
@@ -3507,7 +3506,7 @@
       </c>
       <c r="F7" s="9"/>
     </row>
-    <row r="8" spans="1:33" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" s="10" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A8" s="22">
         <f t="shared" si="3"/>
         <v>3</v>
@@ -3528,7 +3527,7 @@
       </c>
       <c r="F8" s="9"/>
     </row>
-    <row r="9" spans="1:33" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33" s="10" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A9" s="22">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -3549,7 +3548,7 @@
       </c>
       <c r="F9" s="9"/>
     </row>
-    <row r="10" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A10" s="22">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -3570,7 +3569,7 @@
       </c>
       <c r="F10" s="9"/>
     </row>
-    <row r="11" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A11" s="22">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -3591,7 +3590,7 @@
       </c>
       <c r="F11" s="9"/>
     </row>
-    <row r="12" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:33" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A12" s="22">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -3605,13 +3604,13 @@
         <v>43772</v>
       </c>
       <c r="D12" s="31">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E12" s="24" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:33" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A13" s="22">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -3627,7 +3626,7 @@
       <c r="D13" s="31"/>
       <c r="E13" s="24"/>
     </row>
-    <row r="14" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:33" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A14" s="22">
         <f t="shared" si="3"/>
         <v>9</v>
@@ -3643,7 +3642,7 @@
       <c r="D14" s="31"/>
       <c r="E14" s="24"/>
     </row>
-    <row r="15" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:33" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A15" s="22">
         <f t="shared" si="3"/>
         <v>10</v>
@@ -3659,7 +3658,7 @@
       <c r="D15" s="31"/>
       <c r="E15" s="24"/>
     </row>
-    <row r="16" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:33" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A16" s="34">
         <f t="shared" si="3"/>
         <v>11</v>
@@ -3677,7 +3676,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A17" s="38">
         <f t="shared" si="3"/>
         <v>12</v>
@@ -3692,7 +3691,7 @@
       </c>
       <c r="D17" s="31"/>
     </row>
-    <row r="18" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A18" s="22">
         <f t="shared" si="3"/>
         <v>13</v>
@@ -3708,7 +3707,7 @@
       <c r="D18" s="31"/>
       <c r="E18" s="24"/>
     </row>
-    <row r="19" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A19" s="22">
         <f t="shared" si="3"/>
         <v>14</v>
@@ -3724,7 +3723,7 @@
       <c r="D19" s="31"/>
       <c r="E19" s="24"/>
     </row>
-    <row r="20" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A20" s="22">
         <f t="shared" si="3"/>
         <v>15</v>
@@ -3740,7 +3739,7 @@
       <c r="D20" s="31"/>
       <c r="E20" s="24"/>
     </row>
-    <row r="21" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A21" s="22">
         <f t="shared" si="3"/>
         <v>16</v>
@@ -3756,7 +3755,7 @@
       <c r="D21" s="31"/>
       <c r="E21" s="24"/>
     </row>
-    <row r="22" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A22" s="38">
         <f t="shared" si="3"/>
         <v>17</v>
@@ -3772,7 +3771,7 @@
       <c r="D22" s="31"/>
       <c r="E22" s="40"/>
     </row>
-    <row r="23" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A23" s="22">
         <v>18</v>
       </c>
@@ -3787,7 +3786,7 @@
       <c r="D23" s="31"/>
       <c r="E23" s="24"/>
     </row>
-    <row r="24" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A24" s="22">
         <v>19</v>
       </c>
@@ -3802,7 +3801,7 @@
       <c r="D24" s="31"/>
       <c r="E24" s="24"/>
     </row>
-    <row r="25" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A25" s="22">
         <v>20</v>
       </c>
@@ -3817,7 +3816,7 @@
       <c r="D25" s="31"/>
       <c r="E25" s="24"/>
     </row>
-    <row r="26" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A26" s="22">
         <v>21</v>
       </c>
@@ -3832,7 +3831,7 @@
       <c r="D26" s="31"/>
       <c r="E26" s="24"/>
     </row>
-    <row r="27" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A27" s="22">
         <v>22</v>
       </c>
@@ -3847,7 +3846,7 @@
       <c r="D27" s="31"/>
       <c r="E27" s="24"/>
     </row>
-    <row r="28" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A28" s="22">
         <v>23</v>
       </c>
@@ -3862,7 +3861,7 @@
       <c r="D28" s="31"/>
       <c r="E28" s="24"/>
     </row>
-    <row r="29" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A29" s="22">
         <v>24</v>
       </c>
@@ -3877,7 +3876,7 @@
       <c r="D29" s="31"/>
       <c r="E29" s="24"/>
     </row>
-    <row r="30" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A30" s="22">
         <v>25</v>
       </c>
@@ -3892,7 +3891,7 @@
       <c r="D30" s="31"/>
       <c r="E30" s="24"/>
     </row>
-    <row r="31" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A31" s="22">
         <v>26</v>
       </c>
@@ -3906,7 +3905,7 @@
       </c>
       <c r="D31" s="31"/>
     </row>
-    <row r="32" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A32" s="34">
         <v>27</v>
       </c>
@@ -3923,14 +3922,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="25"/>
       <c r="B33" s="26"/>
       <c r="C33" s="26"/>
       <c r="D33" s="32"/>
       <c r="E33" s="27"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="50" t="s">
         <v>2</v>
       </c>
@@ -3938,18 +3937,18 @@
       <c r="C34" s="50"/>
       <c r="D34" s="33">
         <f>SUM(D6:D33)</f>
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="E34" s="12"/>
     </row>
-    <row r="35" spans="1:5" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="51"/>
       <c r="B35" s="51"/>
       <c r="C35" s="51"/>
       <c r="D35" s="51"/>
       <c r="E35" s="13"/>
     </row>
-    <row r="36" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="25"/>
       <c r="B36" s="26"/>
       <c r="C36" s="26"/>
@@ -3957,7 +3956,7 @@
       <c r="E36" s="27"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:B5" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A5:B5"/>
   <mergeCells count="5">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:C3"/>
@@ -3966,7 +3965,7 @@
     <mergeCell ref="A35:D35"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="Name, Vorname:" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId1" display="Name, Vorname:"/>
   </hyperlinks>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" scale="75" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/IP_Controlling_Bruno_Maikoff.xlsx
+++ b/IP_Controlling_Bruno_Maikoff.xlsx
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="29">
   <si>
     <t>Aufwand in h</t>
   </si>
@@ -121,6 +121,9 @@
   </si>
   <si>
     <t>Parity, Report</t>
+  </si>
+  <si>
+    <t>Parity, Coachmeeting</t>
   </si>
 </sst>
 </file>
@@ -1324,64 +1327,64 @@
                   <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>84</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>84</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>84</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>84</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>84</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>84</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>84</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>84</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>84</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>84</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>84</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>84</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>84</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>84</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>84</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>84</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>84</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>84</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>84</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>84</c:v>
+                  <c:v>90</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1992,18 +1995,18 @@
       <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" style="15" customWidth="1"/>
-    <col min="4" max="4" width="9.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="46.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="15" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="46.7109375" customWidth="1"/>
     <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="33" width="4.6640625" customWidth="1"/>
+    <col min="7" max="33" width="4.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="3" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:33" s="3" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="46" t="s">
         <v>3</v>
       </c>
@@ -2013,7 +2016,7 @@
       <c r="E1" s="46"/>
       <c r="F1" s="14"/>
     </row>
-    <row r="2" spans="1:33" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="47" t="s">
         <v>10</v>
       </c>
@@ -2108,7 +2111,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" s="47"/>
       <c r="B3" s="47"/>
       <c r="C3" s="47"/>
@@ -2225,7 +2228,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:33" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
         <v>5</v>
       </c>
@@ -2345,7 +2348,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="5" spans="1:33" s="8" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" s="8" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
         <v>6</v>
       </c>
@@ -2473,7 +2476,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="6" spans="1:33" s="10" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A6" s="22">
         <v>1</v>
       </c>
@@ -2492,7 +2495,7 @@
       </c>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="1:33" s="10" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A7" s="22">
         <f t="shared" ref="A7:A22" si="33">A6+1</f>
         <v>2</v>
@@ -2513,7 +2516,7 @@
       </c>
       <c r="F7" s="9"/>
     </row>
-    <row r="8" spans="1:33" s="10" customFormat="1" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" s="10" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A8" s="22">
         <f t="shared" si="33"/>
         <v>3</v>
@@ -2534,7 +2537,7 @@
       </c>
       <c r="F8" s="9"/>
     </row>
-    <row r="9" spans="1:33" s="10" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A9" s="22">
         <f t="shared" si="33"/>
         <v>4</v>
@@ -2555,7 +2558,7 @@
       </c>
       <c r="F9" s="9"/>
     </row>
-    <row r="10" spans="1:33" s="11" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" s="11" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A10" s="22">
         <f t="shared" si="33"/>
         <v>5</v>
@@ -2576,7 +2579,7 @@
       </c>
       <c r="F10" s="9"/>
     </row>
-    <row r="11" spans="1:33" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A11" s="22">
         <f t="shared" si="33"/>
         <v>6</v>
@@ -2597,7 +2600,7 @@
       </c>
       <c r="F11" s="9"/>
     </row>
-    <row r="12" spans="1:33" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A12" s="22">
         <f t="shared" si="33"/>
         <v>7</v>
@@ -2613,7 +2616,7 @@
       <c r="D12" s="31"/>
       <c r="E12" s="24"/>
     </row>
-    <row r="13" spans="1:33" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A13" s="22">
         <f t="shared" si="33"/>
         <v>8</v>
@@ -2629,7 +2632,7 @@
       <c r="D13" s="31"/>
       <c r="E13" s="24"/>
     </row>
-    <row r="14" spans="1:33" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A14" s="22">
         <f t="shared" si="33"/>
         <v>9</v>
@@ -2645,7 +2648,7 @@
       <c r="D14" s="31"/>
       <c r="E14" s="24"/>
     </row>
-    <row r="15" spans="1:33" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A15" s="22">
         <f t="shared" si="33"/>
         <v>10</v>
@@ -2661,7 +2664,7 @@
       <c r="D15" s="31"/>
       <c r="E15" s="24"/>
     </row>
-    <row r="16" spans="1:33" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A16" s="34">
         <f t="shared" si="33"/>
         <v>11</v>
@@ -2679,7 +2682,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A17" s="38">
         <f t="shared" si="33"/>
         <v>12</v>
@@ -2694,7 +2697,7 @@
       </c>
       <c r="D17" s="31"/>
     </row>
-    <row r="18" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A18" s="22">
         <f t="shared" si="33"/>
         <v>13</v>
@@ -2710,7 +2713,7 @@
       <c r="D18" s="31"/>
       <c r="E18" s="24"/>
     </row>
-    <row r="19" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A19" s="22">
         <f t="shared" si="33"/>
         <v>14</v>
@@ -2726,7 +2729,7 @@
       <c r="D19" s="31"/>
       <c r="E19" s="24"/>
     </row>
-    <row r="20" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A20" s="22">
         <f t="shared" si="33"/>
         <v>15</v>
@@ -2742,7 +2745,7 @@
       <c r="D20" s="31"/>
       <c r="E20" s="24"/>
     </row>
-    <row r="21" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A21" s="22">
         <f t="shared" si="33"/>
         <v>16</v>
@@ -2758,7 +2761,7 @@
       <c r="D21" s="31"/>
       <c r="E21" s="24"/>
     </row>
-    <row r="22" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A22" s="38">
         <f t="shared" si="33"/>
         <v>17</v>
@@ -2774,7 +2777,7 @@
       <c r="D22" s="31"/>
       <c r="E22" s="40"/>
     </row>
-    <row r="23" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A23" s="22">
         <v>18</v>
       </c>
@@ -2789,7 +2792,7 @@
       <c r="D23" s="31"/>
       <c r="E23" s="24"/>
     </row>
-    <row r="24" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A24" s="22">
         <v>19</v>
       </c>
@@ -2804,7 +2807,7 @@
       <c r="D24" s="31"/>
       <c r="E24" s="24"/>
     </row>
-    <row r="25" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A25" s="22">
         <v>20</v>
       </c>
@@ -2819,7 +2822,7 @@
       <c r="D25" s="31"/>
       <c r="E25" s="24"/>
     </row>
-    <row r="26" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A26" s="22">
         <v>21</v>
       </c>
@@ -2834,7 +2837,7 @@
       <c r="D26" s="31"/>
       <c r="E26" s="24"/>
     </row>
-    <row r="27" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A27" s="22">
         <v>22</v>
       </c>
@@ -2849,7 +2852,7 @@
       <c r="D27" s="31"/>
       <c r="E27" s="24"/>
     </row>
-    <row r="28" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A28" s="22">
         <v>23</v>
       </c>
@@ -2864,7 +2867,7 @@
       <c r="D28" s="31"/>
       <c r="E28" s="24"/>
     </row>
-    <row r="29" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A29" s="22">
         <v>24</v>
       </c>
@@ -2879,7 +2882,7 @@
       <c r="D29" s="31"/>
       <c r="E29" s="24"/>
     </row>
-    <row r="30" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A30" s="22">
         <v>25</v>
       </c>
@@ -2894,7 +2897,7 @@
       <c r="D30" s="31"/>
       <c r="E30" s="24"/>
     </row>
-    <row r="31" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A31" s="22">
         <v>26</v>
       </c>
@@ -2908,7 +2911,7 @@
       </c>
       <c r="D31" s="31"/>
     </row>
-    <row r="32" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A32" s="34">
         <v>27</v>
       </c>
@@ -2925,14 +2928,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="25"/>
       <c r="B33" s="26"/>
       <c r="C33" s="26"/>
       <c r="D33" s="32"/>
       <c r="E33" s="27"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="50" t="s">
         <v>2</v>
       </c>
@@ -2944,14 +2947,14 @@
       </c>
       <c r="E34" s="12"/>
     </row>
-    <row r="35" spans="1:5" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="51"/>
       <c r="B35" s="51"/>
       <c r="C35" s="51"/>
       <c r="D35" s="51"/>
       <c r="E35" s="13"/>
     </row>
-    <row r="36" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="25"/>
       <c r="B36" s="26"/>
       <c r="C36" s="26"/>
@@ -2982,21 +2985,21 @@
   <dimension ref="A1:AG36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E13" sqref="E13"/>
+      <selection activeCell="K41" sqref="K41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" style="15" customWidth="1"/>
-    <col min="4" max="4" width="9.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="46.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="15" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="46.7109375" customWidth="1"/>
     <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="33" width="4.6640625" customWidth="1"/>
+    <col min="7" max="33" width="4.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="3" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:33" s="3" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="46" t="s">
         <v>3</v>
       </c>
@@ -3006,7 +3009,7 @@
       <c r="E1" s="46"/>
       <c r="F1" s="14"/>
     </row>
-    <row r="2" spans="1:33" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="47" t="s">
         <v>10</v>
       </c>
@@ -3101,7 +3104,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:33" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="47"/>
       <c r="B3" s="47"/>
       <c r="C3" s="47"/>
@@ -3218,7 +3221,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:33" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="43" t="s">
         <v>5</v>
       </c>
@@ -3338,7 +3341,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="5" spans="1:33" s="8" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" s="8" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
         <v>6</v>
       </c>
@@ -3387,86 +3390,86 @@
       </c>
       <c r="N5" s="45">
         <f t="shared" si="2"/>
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="O5" s="45">
         <f t="shared" si="2"/>
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="P5" s="45">
         <f t="shared" si="2"/>
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="Q5" s="45">
         <f t="shared" si="2"/>
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="R5" s="45">
         <f t="shared" si="2"/>
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="S5" s="45">
         <f t="shared" si="2"/>
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="T5" s="45">
         <f t="shared" si="2"/>
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="U5" s="45">
         <f t="shared" si="2"/>
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="V5" s="45">
         <f t="shared" si="2"/>
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="W5" s="45">
         <f t="shared" si="2"/>
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="X5" s="45">
         <f t="shared" si="2"/>
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="Y5" s="45">
         <f t="shared" si="2"/>
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="Z5" s="45">
         <f t="shared" si="2"/>
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="AA5" s="45">
         <f t="shared" si="2"/>
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="AB5" s="45">
         <f t="shared" si="2"/>
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="AC5" s="45">
         <f t="shared" si="2"/>
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="AD5" s="45">
         <f t="shared" si="2"/>
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="AE5" s="45">
         <f t="shared" si="2"/>
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="AF5" s="45">
         <f t="shared" si="2"/>
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="AG5" s="45">
         <f t="shared" si="2"/>
-        <v>84</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33" s="10" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A6" s="22">
         <v>1</v>
       </c>
@@ -3485,7 +3488,7 @@
       </c>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="1:33" s="10" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A7" s="22">
         <f t="shared" ref="A7:A22" si="3">A6+1</f>
         <v>2</v>
@@ -3506,7 +3509,7 @@
       </c>
       <c r="F7" s="9"/>
     </row>
-    <row r="8" spans="1:33" s="10" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A8" s="22">
         <f t="shared" si="3"/>
         <v>3</v>
@@ -3527,7 +3530,7 @@
       </c>
       <c r="F8" s="9"/>
     </row>
-    <row r="9" spans="1:33" s="10" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A9" s="22">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -3548,7 +3551,7 @@
       </c>
       <c r="F9" s="9"/>
     </row>
-    <row r="10" spans="1:33" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A10" s="22">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -3569,7 +3572,7 @@
       </c>
       <c r="F10" s="9"/>
     </row>
-    <row r="11" spans="1:33" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A11" s="22">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -3590,7 +3593,7 @@
       </c>
       <c r="F11" s="9"/>
     </row>
-    <row r="12" spans="1:33" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A12" s="22">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -3610,7 +3613,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:33" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A13" s="22">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -3623,10 +3626,14 @@
         <f t="shared" si="4"/>
         <v>43779</v>
       </c>
-      <c r="D13" s="31"/>
-      <c r="E13" s="24"/>
-    </row>
-    <row r="14" spans="1:33" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+      <c r="D13" s="31">
+        <v>6</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A14" s="22">
         <f t="shared" si="3"/>
         <v>9</v>
@@ -3642,7 +3649,7 @@
       <c r="D14" s="31"/>
       <c r="E14" s="24"/>
     </row>
-    <row r="15" spans="1:33" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A15" s="22">
         <f t="shared" si="3"/>
         <v>10</v>
@@ -3658,7 +3665,7 @@
       <c r="D15" s="31"/>
       <c r="E15" s="24"/>
     </row>
-    <row r="16" spans="1:33" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A16" s="34">
         <f t="shared" si="3"/>
         <v>11</v>
@@ -3676,7 +3683,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A17" s="38">
         <f t="shared" si="3"/>
         <v>12</v>
@@ -3691,7 +3698,7 @@
       </c>
       <c r="D17" s="31"/>
     </row>
-    <row r="18" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A18" s="22">
         <f t="shared" si="3"/>
         <v>13</v>
@@ -3707,7 +3714,7 @@
       <c r="D18" s="31"/>
       <c r="E18" s="24"/>
     </row>
-    <row r="19" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A19" s="22">
         <f t="shared" si="3"/>
         <v>14</v>
@@ -3723,7 +3730,7 @@
       <c r="D19" s="31"/>
       <c r="E19" s="24"/>
     </row>
-    <row r="20" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A20" s="22">
         <f t="shared" si="3"/>
         <v>15</v>
@@ -3739,7 +3746,7 @@
       <c r="D20" s="31"/>
       <c r="E20" s="24"/>
     </row>
-    <row r="21" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A21" s="22">
         <f t="shared" si="3"/>
         <v>16</v>
@@ -3755,7 +3762,7 @@
       <c r="D21" s="31"/>
       <c r="E21" s="24"/>
     </row>
-    <row r="22" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A22" s="38">
         <f t="shared" si="3"/>
         <v>17</v>
@@ -3771,7 +3778,7 @@
       <c r="D22" s="31"/>
       <c r="E22" s="40"/>
     </row>
-    <row r="23" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A23" s="22">
         <v>18</v>
       </c>
@@ -3786,7 +3793,7 @@
       <c r="D23" s="31"/>
       <c r="E23" s="24"/>
     </row>
-    <row r="24" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A24" s="22">
         <v>19</v>
       </c>
@@ -3801,7 +3808,7 @@
       <c r="D24" s="31"/>
       <c r="E24" s="24"/>
     </row>
-    <row r="25" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A25" s="22">
         <v>20</v>
       </c>
@@ -3816,7 +3823,7 @@
       <c r="D25" s="31"/>
       <c r="E25" s="24"/>
     </row>
-    <row r="26" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A26" s="22">
         <v>21</v>
       </c>
@@ -3831,7 +3838,7 @@
       <c r="D26" s="31"/>
       <c r="E26" s="24"/>
     </row>
-    <row r="27" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A27" s="22">
         <v>22</v>
       </c>
@@ -3846,7 +3853,7 @@
       <c r="D27" s="31"/>
       <c r="E27" s="24"/>
     </row>
-    <row r="28" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A28" s="22">
         <v>23</v>
       </c>
@@ -3861,7 +3868,7 @@
       <c r="D28" s="31"/>
       <c r="E28" s="24"/>
     </row>
-    <row r="29" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A29" s="22">
         <v>24</v>
       </c>
@@ -3876,7 +3883,7 @@
       <c r="D29" s="31"/>
       <c r="E29" s="24"/>
     </row>
-    <row r="30" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A30" s="22">
         <v>25</v>
       </c>
@@ -3891,7 +3898,7 @@
       <c r="D30" s="31"/>
       <c r="E30" s="24"/>
     </row>
-    <row r="31" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A31" s="22">
         <v>26</v>
       </c>
@@ -3905,7 +3912,7 @@
       </c>
       <c r="D31" s="31"/>
     </row>
-    <row r="32" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A32" s="34">
         <v>27</v>
       </c>
@@ -3922,14 +3929,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="25"/>
       <c r="B33" s="26"/>
       <c r="C33" s="26"/>
       <c r="D33" s="32"/>
       <c r="E33" s="27"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="50" t="s">
         <v>2</v>
       </c>
@@ -3937,18 +3944,18 @@
       <c r="C34" s="50"/>
       <c r="D34" s="33">
         <f>SUM(D6:D33)</f>
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="E34" s="12"/>
     </row>
-    <row r="35" spans="1:5" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="51"/>
       <c r="B35" s="51"/>
       <c r="C35" s="51"/>
       <c r="D35" s="51"/>
       <c r="E35" s="13"/>
     </row>
-    <row r="36" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="25"/>
       <c r="B36" s="26"/>
       <c r="C36" s="26"/>

--- a/IP_Controlling_Bruno_Maikoff.xlsx
+++ b/IP_Controlling_Bruno_Maikoff.xlsx
@@ -1327,64 +1327,64 @@
                   <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>90</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>90</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>90</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>90</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>90</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>90</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>90</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>90</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>90</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>90</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>90</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>90</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>90</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>90</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>90</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>90</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>90</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>90</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>90</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>90</c:v>
+                  <c:v>92</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2985,7 +2985,7 @@
   <dimension ref="A1:AG36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="K41" sqref="K41"/>
+      <selection activeCell="E15" sqref="E15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3390,83 +3390,83 @@
       </c>
       <c r="N5" s="45">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="O5" s="45">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="P5" s="45">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="Q5" s="45">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="R5" s="45">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="S5" s="45">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="T5" s="45">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="U5" s="45">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="V5" s="45">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="W5" s="45">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="X5" s="45">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="Y5" s="45">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="Z5" s="45">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AA5" s="45">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AB5" s="45">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AC5" s="45">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AD5" s="45">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AE5" s="45">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AF5" s="45">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="AG5" s="45">
         <f t="shared" si="2"/>
-        <v>90</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:33" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -3627,7 +3627,7 @@
         <v>43779</v>
       </c>
       <c r="D13" s="31">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E13" s="24" t="s">
         <v>28</v>
@@ -3944,7 +3944,7 @@
       <c r="C34" s="50"/>
       <c r="D34" s="33">
         <f>SUM(D6:D33)</f>
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="E34" s="12"/>
     </row>

--- a/IP_Controlling_Bruno_Maikoff.xlsx
+++ b/IP_Controlling_Bruno_Maikoff.xlsx
@@ -1327,64 +1327,64 @@
                   <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>92</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>92</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>92</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>92</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>92</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>92</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>92</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>92</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>92</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>92</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>92</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>92</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>92</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>92</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>92</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>92</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>92</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>92</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>92</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>92</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2985,7 +2985,7 @@
   <dimension ref="A1:AG36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3390,83 +3390,83 @@
       </c>
       <c r="N5" s="45">
         <f t="shared" si="2"/>
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="O5" s="45">
         <f t="shared" si="2"/>
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="P5" s="45">
         <f t="shared" si="2"/>
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q5" s="45">
         <f t="shared" si="2"/>
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="R5" s="45">
         <f t="shared" si="2"/>
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="S5" s="45">
         <f t="shared" si="2"/>
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="T5" s="45">
         <f t="shared" si="2"/>
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="U5" s="45">
         <f t="shared" si="2"/>
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="V5" s="45">
         <f t="shared" si="2"/>
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="W5" s="45">
         <f t="shared" si="2"/>
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="X5" s="45">
         <f t="shared" si="2"/>
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Y5" s="45">
         <f t="shared" si="2"/>
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Z5" s="45">
         <f t="shared" si="2"/>
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AA5" s="45">
         <f t="shared" si="2"/>
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AB5" s="45">
         <f t="shared" si="2"/>
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AC5" s="45">
         <f t="shared" si="2"/>
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AD5" s="45">
         <f t="shared" si="2"/>
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AE5" s="45">
         <f t="shared" si="2"/>
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AF5" s="45">
         <f t="shared" si="2"/>
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="AG5" s="45">
         <f t="shared" si="2"/>
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="6" spans="1:33" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -3627,7 +3627,7 @@
         <v>43779</v>
       </c>
       <c r="D13" s="31">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="E13" s="24" t="s">
         <v>28</v>
@@ -3944,7 +3944,7 @@
       <c r="C34" s="50"/>
       <c r="D34" s="33">
         <f>SUM(D6:D33)</f>
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="E34" s="12"/>
     </row>

--- a/IP_Controlling_Bruno_Maikoff.xlsx
+++ b/IP_Controlling_Bruno_Maikoff.xlsx
@@ -1327,64 +1327,64 @@
                   <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>94</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>94</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>94</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>94</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>94</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>94</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>94</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>94</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>94</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>94</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>94</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>94</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>94</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>94</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>94</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>94</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>94</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>94</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>94</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>94</c:v>
+                  <c:v>95</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2985,7 +2985,7 @@
   <dimension ref="A1:AG36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3390,83 +3390,83 @@
       </c>
       <c r="N5" s="45">
         <f t="shared" si="2"/>
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="O5" s="45">
         <f t="shared" si="2"/>
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="P5" s="45">
         <f t="shared" si="2"/>
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q5" s="45">
         <f t="shared" si="2"/>
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="R5" s="45">
         <f t="shared" si="2"/>
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="S5" s="45">
         <f t="shared" si="2"/>
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="T5" s="45">
         <f t="shared" si="2"/>
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="U5" s="45">
         <f t="shared" si="2"/>
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="V5" s="45">
         <f t="shared" si="2"/>
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="W5" s="45">
         <f t="shared" si="2"/>
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="X5" s="45">
         <f t="shared" si="2"/>
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Y5" s="45">
         <f t="shared" si="2"/>
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Z5" s="45">
         <f t="shared" si="2"/>
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AA5" s="45">
         <f t="shared" si="2"/>
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AB5" s="45">
         <f t="shared" si="2"/>
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AC5" s="45">
         <f t="shared" si="2"/>
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AD5" s="45">
         <f t="shared" si="2"/>
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AE5" s="45">
         <f t="shared" si="2"/>
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AF5" s="45">
         <f t="shared" si="2"/>
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="AG5" s="45">
         <f t="shared" si="2"/>
-        <v>94</v>
+        <v>95</v>
       </c>
     </row>
     <row r="6" spans="1:33" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -3627,7 +3627,7 @@
         <v>43779</v>
       </c>
       <c r="D13" s="31">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E13" s="24" t="s">
         <v>28</v>
@@ -3944,7 +3944,7 @@
       <c r="C34" s="50"/>
       <c r="D34" s="33">
         <f>SUM(D6:D33)</f>
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="E34" s="12"/>
     </row>

--- a/IP_Controlling_Bruno_Maikoff.xlsx
+++ b/IP_Controlling_Bruno_Maikoff.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mai714\Documents\Workspace\BlockChain_TransactionManager\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\BlockChain_TransactionManager\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE112D2B-CE6D-4C73-8CAF-9C394D575483}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arbeitsrapport_Bruno" sheetId="11" r:id="rId1"/>
@@ -22,7 +23,7 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="1" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
   <si>
     <t>Aufwand in h</t>
   </si>
@@ -125,11 +126,14 @@
   <si>
     <t>Parity, Coachmeeting</t>
   </si>
+  <si>
+    <t>Coachmeetign</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -572,9 +576,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Standard 2" xfId="2"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -601,7 +605,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -688,7 +692,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -892,64 +896,64 @@
                   <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>52</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>52</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>52</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>52</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>52</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>52</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>52</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>52</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>52</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>52</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>52</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>52</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>52</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>52</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>52</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>52</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>52</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>52</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>52</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>52</c:v>
+                  <c:v>59</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1006,7 +1010,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1"/>
@@ -1061,7 +1065,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2067145632"/>
@@ -1109,7 +1113,7 @@
           <a:cs typeface="Arial"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1123,7 +1127,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1441,7 +1445,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1"/>
@@ -1496,7 +1500,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2067145632"/>
@@ -1544,7 +1548,7 @@
           <a:cs typeface="Arial"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1988,14 +1992,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG36"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="Q44" sqref="Q44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" customWidth="1"/>
@@ -2397,83 +2401,83 @@
       </c>
       <c r="N5" s="45">
         <f t="shared" si="29"/>
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="O5" s="45">
         <f t="shared" si="29"/>
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="P5" s="45">
         <f t="shared" si="29"/>
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="Q5" s="45">
         <f t="shared" si="29"/>
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="R5" s="45">
         <f t="shared" si="29"/>
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="S5" s="45">
         <f t="shared" si="29"/>
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="T5" s="45">
         <f t="shared" si="29"/>
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="U5" s="45">
         <f t="shared" si="29"/>
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="V5" s="45">
         <f t="shared" si="29"/>
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="W5" s="45">
         <f t="shared" si="29"/>
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="X5" s="45">
         <f t="shared" si="29"/>
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="Y5" s="45">
         <f t="shared" si="29"/>
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="Z5" s="45">
         <f t="shared" si="29"/>
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="AA5" s="45">
         <f t="shared" si="29"/>
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="AB5" s="45">
         <f t="shared" si="29"/>
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="AC5" s="45">
         <f t="shared" si="29"/>
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="AD5" s="45">
         <f t="shared" si="29"/>
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="AE5" s="45">
         <f t="shared" ref="AE5" si="30">AD5+SUMIF($A$6:$A$33,AE3,$D$6:$D$33)</f>
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="AF5" s="45">
         <f t="shared" ref="AF5" si="31">AE5+SUMIF($A$6:$A$33,AF3,$D$6:$D$33)</f>
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="AG5" s="45">
         <f t="shared" ref="AG5" si="32">AF5+SUMIF($A$6:$A$33,AG3,$D$6:$D$33)</f>
-        <v>52</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:33" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
@@ -2613,8 +2617,6 @@
         <f t="shared" si="34"/>
         <v>43772</v>
       </c>
-      <c r="D12" s="31"/>
-      <c r="E12" s="24"/>
     </row>
     <row r="13" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A13" s="22">
@@ -2629,8 +2631,12 @@
         <f t="shared" si="34"/>
         <v>43779</v>
       </c>
-      <c r="D13" s="31"/>
-      <c r="E13" s="24"/>
+      <c r="D13" s="31">
+        <v>7</v>
+      </c>
+      <c r="E13" s="24" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="14" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A14" s="22">
@@ -2943,7 +2949,7 @@
       <c r="C34" s="50"/>
       <c r="D34" s="33">
         <f>SUM(D6:D33)</f>
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="E34" s="12"/>
     </row>
@@ -2962,7 +2968,7 @@
       <c r="E36" s="27"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:B5"/>
+  <autoFilter ref="A5:B5" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="5">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:C3"/>
@@ -2971,7 +2977,7 @@
     <mergeCell ref="A35:D35"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="Name, Vorname:"/>
+    <hyperlink ref="A2" r:id="rId1" display="Name, Vorname:" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" scale="75" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -2981,14 +2987,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AG36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" customWidth="1"/>
@@ -3963,7 +3969,7 @@
       <c r="E36" s="27"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:B5"/>
+  <autoFilter ref="A5:B5" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="5">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:C3"/>
@@ -3972,7 +3978,7 @@
     <mergeCell ref="A35:D35"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="Name, Vorname:"/>
+    <hyperlink ref="A2" r:id="rId1" display="Name, Vorname:" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" scale="75" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/IP_Controlling_Bruno_Maikoff.xlsx
+++ b/IP_Controlling_Bruno_Maikoff.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\BlockChain_TransactionManager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE112D2B-CE6D-4C73-8CAF-9C394D575483}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDFCA879-6DFA-4F99-B904-CFF48315B10C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arbeitsrapport_Bruno" sheetId="11" r:id="rId1"/>
@@ -124,10 +124,10 @@
     <t>Parity, Report</t>
   </si>
   <si>
-    <t>Parity, Coachmeeting</t>
+    <t>Coachmeetign</t>
   </si>
   <si>
-    <t>Coachmeetign</t>
+    <t>Parity, Coachmeeting, Updating Contracts to Solidity 0.5.12</t>
   </si>
 </sst>
 </file>
@@ -1331,64 +1331,64 @@
                   <c:v>84</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>95</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>95</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>95</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>95</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>95</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>95</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>95</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>95</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>95</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>95</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>95</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>95</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>95</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>95</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>95</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>95</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>95</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>95</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>95</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>95</c:v>
+                  <c:v>97</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1995,7 +1995,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="Q44" sqref="Q44"/>
     </sheetView>
   </sheetViews>
@@ -2635,7 +2635,7 @@
         <v>7</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -2990,8 +2990,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AG36"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3396,83 +3396,83 @@
       </c>
       <c r="N5" s="45">
         <f t="shared" si="2"/>
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="O5" s="45">
         <f t="shared" si="2"/>
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="P5" s="45">
         <f t="shared" si="2"/>
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Q5" s="45">
         <f t="shared" si="2"/>
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="R5" s="45">
         <f t="shared" si="2"/>
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="S5" s="45">
         <f t="shared" si="2"/>
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="T5" s="45">
         <f t="shared" si="2"/>
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="U5" s="45">
         <f t="shared" si="2"/>
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="V5" s="45">
         <f t="shared" si="2"/>
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="W5" s="45">
         <f t="shared" si="2"/>
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="X5" s="45">
         <f t="shared" si="2"/>
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Y5" s="45">
         <f t="shared" si="2"/>
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Z5" s="45">
         <f t="shared" si="2"/>
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AA5" s="45">
         <f t="shared" si="2"/>
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AB5" s="45">
         <f t="shared" si="2"/>
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AC5" s="45">
         <f t="shared" si="2"/>
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AD5" s="45">
         <f t="shared" si="2"/>
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AE5" s="45">
         <f t="shared" si="2"/>
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AF5" s="45">
         <f t="shared" si="2"/>
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="AG5" s="45">
         <f t="shared" si="2"/>
-        <v>95</v>
+        <v>97</v>
       </c>
     </row>
     <row r="6" spans="1:33" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -3633,10 +3633,10 @@
         <v>43779</v>
       </c>
       <c r="D13" s="31">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -3950,7 +3950,7 @@
       <c r="C34" s="50"/>
       <c r="D34" s="33">
         <f>SUM(D6:D33)</f>
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="E34" s="12"/>
     </row>

--- a/IP_Controlling_Bruno_Maikoff.xlsx
+++ b/IP_Controlling_Bruno_Maikoff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\BlockChain_TransactionManager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDFCA879-6DFA-4F99-B904-CFF48315B10C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF1C123D-F986-4069-B60F-03B5D5F1343E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="30">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="31">
   <si>
     <t>Aufwand in h</t>
   </si>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t>Parity, Coachmeeting, Updating Contracts to Solidity 0.5.12</t>
+  </si>
+  <si>
+    <t>Updating Contracts to Solidity 0.5.12</t>
   </si>
 </sst>
 </file>
@@ -1334,61 +1337,61 @@
                   <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>97</c:v>
+                  <c:v>97.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>97</c:v>
+                  <c:v>97.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>97</c:v>
+                  <c:v>97.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>97</c:v>
+                  <c:v>97.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>97</c:v>
+                  <c:v>97.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>97</c:v>
+                  <c:v>97.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>97</c:v>
+                  <c:v>97.5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>97</c:v>
+                  <c:v>97.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>97</c:v>
+                  <c:v>97.5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>97</c:v>
+                  <c:v>97.5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>97</c:v>
+                  <c:v>97.5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>97</c:v>
+                  <c:v>97.5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>97</c:v>
+                  <c:v>97.5</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>97</c:v>
+                  <c:v>97.5</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>97</c:v>
+                  <c:v>97.5</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>97</c:v>
+                  <c:v>97.5</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>97</c:v>
+                  <c:v>97.5</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>97</c:v>
+                  <c:v>97.5</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>97</c:v>
+                  <c:v>97.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3400,79 +3403,79 @@
       </c>
       <c r="O5" s="45">
         <f t="shared" si="2"/>
-        <v>97</v>
+        <v>97.5</v>
       </c>
       <c r="P5" s="45">
         <f t="shared" si="2"/>
-        <v>97</v>
+        <v>97.5</v>
       </c>
       <c r="Q5" s="45">
         <f t="shared" si="2"/>
-        <v>97</v>
+        <v>97.5</v>
       </c>
       <c r="R5" s="45">
         <f t="shared" si="2"/>
-        <v>97</v>
+        <v>97.5</v>
       </c>
       <c r="S5" s="45">
         <f t="shared" si="2"/>
-        <v>97</v>
+        <v>97.5</v>
       </c>
       <c r="T5" s="45">
         <f t="shared" si="2"/>
-        <v>97</v>
+        <v>97.5</v>
       </c>
       <c r="U5" s="45">
         <f t="shared" si="2"/>
-        <v>97</v>
+        <v>97.5</v>
       </c>
       <c r="V5" s="45">
         <f t="shared" si="2"/>
-        <v>97</v>
+        <v>97.5</v>
       </c>
       <c r="W5" s="45">
         <f t="shared" si="2"/>
-        <v>97</v>
+        <v>97.5</v>
       </c>
       <c r="X5" s="45">
         <f t="shared" si="2"/>
-        <v>97</v>
+        <v>97.5</v>
       </c>
       <c r="Y5" s="45">
         <f t="shared" si="2"/>
-        <v>97</v>
+        <v>97.5</v>
       </c>
       <c r="Z5" s="45">
         <f t="shared" si="2"/>
-        <v>97</v>
+        <v>97.5</v>
       </c>
       <c r="AA5" s="45">
         <f t="shared" si="2"/>
-        <v>97</v>
+        <v>97.5</v>
       </c>
       <c r="AB5" s="45">
         <f t="shared" si="2"/>
-        <v>97</v>
+        <v>97.5</v>
       </c>
       <c r="AC5" s="45">
         <f t="shared" si="2"/>
-        <v>97</v>
+        <v>97.5</v>
       </c>
       <c r="AD5" s="45">
         <f t="shared" si="2"/>
-        <v>97</v>
+        <v>97.5</v>
       </c>
       <c r="AE5" s="45">
         <f t="shared" si="2"/>
-        <v>97</v>
+        <v>97.5</v>
       </c>
       <c r="AF5" s="45">
         <f t="shared" si="2"/>
-        <v>97</v>
+        <v>97.5</v>
       </c>
       <c r="AG5" s="45">
         <f t="shared" si="2"/>
-        <v>97</v>
+        <v>97.5</v>
       </c>
     </row>
     <row r="6" spans="1:33" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -3652,8 +3655,12 @@
         <f t="shared" si="4"/>
         <v>43786</v>
       </c>
-      <c r="D14" s="31"/>
-      <c r="E14" s="24"/>
+      <c r="D14" s="31">
+        <v>0.5</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>30</v>
+      </c>
     </row>
     <row r="15" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A15" s="22">
@@ -3950,7 +3957,7 @@
       <c r="C34" s="50"/>
       <c r="D34" s="33">
         <f>SUM(D6:D33)</f>
-        <v>97</v>
+        <v>97.5</v>
       </c>
       <c r="E34" s="12"/>
     </row>

--- a/IP_Controlling_Bruno_Maikoff.xlsx
+++ b/IP_Controlling_Bruno_Maikoff.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\BlockChain_TransactionManager\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mai714\Documents\Workspace\BlockChain_TransactionManager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DF1C123D-F986-4069-B60F-03B5D5F1343E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Arbeitsrapport_Bruno" sheetId="11" r:id="rId1"/>
@@ -23,7 +22,7 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="1" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -136,7 +135,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -579,9 +578,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Standard 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard 2" xfId="2"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -608,7 +607,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -695,7 +694,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1013,7 +1012,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1"/>
@@ -1068,7 +1067,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2067145632"/>
@@ -1116,7 +1115,7 @@
           <a:cs typeface="Arial"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1130,7 +1129,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1337,61 +1336,61 @@
                   <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>97.5</c:v>
+                  <c:v>101.5</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>97.5</c:v>
+                  <c:v>101.5</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>97.5</c:v>
+                  <c:v>101.5</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>97.5</c:v>
+                  <c:v>101.5</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>97.5</c:v>
+                  <c:v>101.5</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>97.5</c:v>
+                  <c:v>101.5</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>97.5</c:v>
+                  <c:v>101.5</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>97.5</c:v>
+                  <c:v>101.5</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>97.5</c:v>
+                  <c:v>101.5</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>97.5</c:v>
+                  <c:v>101.5</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>97.5</c:v>
+                  <c:v>101.5</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>97.5</c:v>
+                  <c:v>101.5</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>97.5</c:v>
+                  <c:v>101.5</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>97.5</c:v>
+                  <c:v>101.5</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>97.5</c:v>
+                  <c:v>101.5</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>97.5</c:v>
+                  <c:v>101.5</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>97.5</c:v>
+                  <c:v>101.5</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>97.5</c:v>
+                  <c:v>101.5</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>97.5</c:v>
+                  <c:v>101.5</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1448,7 +1447,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1"/>
@@ -1503,7 +1502,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2067145632"/>
@@ -1551,7 +1550,7 @@
           <a:cs typeface="Arial"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1995,14 +1994,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG36"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="Q44" sqref="Q44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" customWidth="1"/>
@@ -2971,7 +2970,7 @@
       <c r="E36" s="27"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:B5" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A5:B5"/>
   <mergeCells count="5">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:C3"/>
@@ -2980,7 +2979,7 @@
     <mergeCell ref="A35:D35"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="Name, Vorname:" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId1" display="Name, Vorname:"/>
   </hyperlinks>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" scale="75" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -2990,14 +2989,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" customWidth="1"/>
@@ -3403,79 +3402,79 @@
       </c>
       <c r="O5" s="45">
         <f t="shared" si="2"/>
-        <v>97.5</v>
+        <v>101.5</v>
       </c>
       <c r="P5" s="45">
         <f t="shared" si="2"/>
-        <v>97.5</v>
+        <v>101.5</v>
       </c>
       <c r="Q5" s="45">
         <f t="shared" si="2"/>
-        <v>97.5</v>
+        <v>101.5</v>
       </c>
       <c r="R5" s="45">
         <f t="shared" si="2"/>
-        <v>97.5</v>
+        <v>101.5</v>
       </c>
       <c r="S5" s="45">
         <f t="shared" si="2"/>
-        <v>97.5</v>
+        <v>101.5</v>
       </c>
       <c r="T5" s="45">
         <f t="shared" si="2"/>
-        <v>97.5</v>
+        <v>101.5</v>
       </c>
       <c r="U5" s="45">
         <f t="shared" si="2"/>
-        <v>97.5</v>
+        <v>101.5</v>
       </c>
       <c r="V5" s="45">
         <f t="shared" si="2"/>
-        <v>97.5</v>
+        <v>101.5</v>
       </c>
       <c r="W5" s="45">
         <f t="shared" si="2"/>
-        <v>97.5</v>
+        <v>101.5</v>
       </c>
       <c r="X5" s="45">
         <f t="shared" si="2"/>
-        <v>97.5</v>
+        <v>101.5</v>
       </c>
       <c r="Y5" s="45">
         <f t="shared" si="2"/>
-        <v>97.5</v>
+        <v>101.5</v>
       </c>
       <c r="Z5" s="45">
         <f t="shared" si="2"/>
-        <v>97.5</v>
+        <v>101.5</v>
       </c>
       <c r="AA5" s="45">
         <f t="shared" si="2"/>
-        <v>97.5</v>
+        <v>101.5</v>
       </c>
       <c r="AB5" s="45">
         <f t="shared" si="2"/>
-        <v>97.5</v>
+        <v>101.5</v>
       </c>
       <c r="AC5" s="45">
         <f t="shared" si="2"/>
-        <v>97.5</v>
+        <v>101.5</v>
       </c>
       <c r="AD5" s="45">
         <f t="shared" si="2"/>
-        <v>97.5</v>
+        <v>101.5</v>
       </c>
       <c r="AE5" s="45">
         <f t="shared" si="2"/>
-        <v>97.5</v>
+        <v>101.5</v>
       </c>
       <c r="AF5" s="45">
         <f t="shared" si="2"/>
-        <v>97.5</v>
+        <v>101.5</v>
       </c>
       <c r="AG5" s="45">
         <f t="shared" si="2"/>
-        <v>97.5</v>
+        <v>101.5</v>
       </c>
     </row>
     <row r="6" spans="1:33" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -3656,7 +3655,7 @@
         <v>43786</v>
       </c>
       <c r="D14" s="31">
-        <v>0.5</v>
+        <v>4.5</v>
       </c>
       <c r="E14" s="24" t="s">
         <v>30</v>
@@ -3957,7 +3956,7 @@
       <c r="C34" s="50"/>
       <c r="D34" s="33">
         <f>SUM(D6:D33)</f>
-        <v>97.5</v>
+        <v>101.5</v>
       </c>
       <c r="E34" s="12"/>
     </row>
@@ -3976,7 +3975,7 @@
       <c r="E36" s="27"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:B5" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A5:B5"/>
   <mergeCells count="5">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:C3"/>
@@ -3985,7 +3984,7 @@
     <mergeCell ref="A35:D35"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="Name, Vorname:" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId1" display="Name, Vorname:"/>
   </hyperlinks>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" scale="75" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/IP_Controlling_Bruno_Maikoff.xlsx
+++ b/IP_Controlling_Bruno_Maikoff.xlsx
@@ -1336,61 +1336,61 @@
                   <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>101.5</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>101.5</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>101.5</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>101.5</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>101.5</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>101.5</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>101.5</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>101.5</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>101.5</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>101.5</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>101.5</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>101.5</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>101.5</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>101.5</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>101.5</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>101.5</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>101.5</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>101.5</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>101.5</c:v>
+                  <c:v>103</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2993,7 +2993,7 @@
   <dimension ref="A1:AG36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="E17" sqref="E17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3402,79 +3402,79 @@
       </c>
       <c r="O5" s="45">
         <f t="shared" si="2"/>
-        <v>101.5</v>
+        <v>103</v>
       </c>
       <c r="P5" s="45">
         <f t="shared" si="2"/>
-        <v>101.5</v>
+        <v>103</v>
       </c>
       <c r="Q5" s="45">
         <f t="shared" si="2"/>
-        <v>101.5</v>
+        <v>103</v>
       </c>
       <c r="R5" s="45">
         <f t="shared" si="2"/>
-        <v>101.5</v>
+        <v>103</v>
       </c>
       <c r="S5" s="45">
         <f t="shared" si="2"/>
-        <v>101.5</v>
+        <v>103</v>
       </c>
       <c r="T5" s="45">
         <f t="shared" si="2"/>
-        <v>101.5</v>
+        <v>103</v>
       </c>
       <c r="U5" s="45">
         <f t="shared" si="2"/>
-        <v>101.5</v>
+        <v>103</v>
       </c>
       <c r="V5" s="45">
         <f t="shared" si="2"/>
-        <v>101.5</v>
+        <v>103</v>
       </c>
       <c r="W5" s="45">
         <f t="shared" si="2"/>
-        <v>101.5</v>
+        <v>103</v>
       </c>
       <c r="X5" s="45">
         <f t="shared" si="2"/>
-        <v>101.5</v>
+        <v>103</v>
       </c>
       <c r="Y5" s="45">
         <f t="shared" si="2"/>
-        <v>101.5</v>
+        <v>103</v>
       </c>
       <c r="Z5" s="45">
         <f t="shared" si="2"/>
-        <v>101.5</v>
+        <v>103</v>
       </c>
       <c r="AA5" s="45">
         <f t="shared" si="2"/>
-        <v>101.5</v>
+        <v>103</v>
       </c>
       <c r="AB5" s="45">
         <f t="shared" si="2"/>
-        <v>101.5</v>
+        <v>103</v>
       </c>
       <c r="AC5" s="45">
         <f t="shared" si="2"/>
-        <v>101.5</v>
+        <v>103</v>
       </c>
       <c r="AD5" s="45">
         <f t="shared" si="2"/>
-        <v>101.5</v>
+        <v>103</v>
       </c>
       <c r="AE5" s="45">
         <f t="shared" si="2"/>
-        <v>101.5</v>
+        <v>103</v>
       </c>
       <c r="AF5" s="45">
         <f t="shared" si="2"/>
-        <v>101.5</v>
+        <v>103</v>
       </c>
       <c r="AG5" s="45">
         <f t="shared" si="2"/>
-        <v>101.5</v>
+        <v>103</v>
       </c>
     </row>
     <row r="6" spans="1:33" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -3655,7 +3655,7 @@
         <v>43786</v>
       </c>
       <c r="D14" s="31">
-        <v>4.5</v>
+        <v>6</v>
       </c>
       <c r="E14" s="24" t="s">
         <v>30</v>
@@ -3956,7 +3956,7 @@
       <c r="C34" s="50"/>
       <c r="D34" s="33">
         <f>SUM(D6:D33)</f>
-        <v>101.5</v>
+        <v>103</v>
       </c>
       <c r="E34" s="12"/>
     </row>

--- a/IP_Controlling_Bruno_Maikoff.xlsx
+++ b/IP_Controlling_Bruno_Maikoff.xlsx
@@ -1336,61 +1336,61 @@
                   <c:v>97</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>103</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>103</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>103</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>103</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>103</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>103</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>103</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>103</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>103</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>103</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>103</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>103</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>103</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>103</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>103</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>103</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>103</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>103</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>103</c:v>
+                  <c:v>105</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2993,7 +2993,7 @@
   <dimension ref="A1:AG36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E17" sqref="E17"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3402,79 +3402,79 @@
       </c>
       <c r="O5" s="45">
         <f t="shared" si="2"/>
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="P5" s="45">
         <f t="shared" si="2"/>
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Q5" s="45">
         <f t="shared" si="2"/>
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="R5" s="45">
         <f t="shared" si="2"/>
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="S5" s="45">
         <f t="shared" si="2"/>
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="T5" s="45">
         <f t="shared" si="2"/>
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="U5" s="45">
         <f t="shared" si="2"/>
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="V5" s="45">
         <f t="shared" si="2"/>
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="W5" s="45">
         <f t="shared" si="2"/>
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="X5" s="45">
         <f t="shared" si="2"/>
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Y5" s="45">
         <f t="shared" si="2"/>
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="Z5" s="45">
         <f t="shared" si="2"/>
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AA5" s="45">
         <f t="shared" si="2"/>
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AB5" s="45">
         <f t="shared" si="2"/>
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AC5" s="45">
         <f t="shared" si="2"/>
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AD5" s="45">
         <f t="shared" si="2"/>
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AE5" s="45">
         <f t="shared" si="2"/>
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AF5" s="45">
         <f t="shared" si="2"/>
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="AG5" s="45">
         <f t="shared" si="2"/>
-        <v>103</v>
+        <v>105</v>
       </c>
     </row>
     <row r="6" spans="1:33" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -3655,7 +3655,7 @@
         <v>43786</v>
       </c>
       <c r="D14" s="31">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E14" s="24" t="s">
         <v>30</v>
@@ -3956,7 +3956,7 @@
       <c r="C34" s="50"/>
       <c r="D34" s="33">
         <f>SUM(D6:D33)</f>
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="E34" s="12"/>
     </row>

--- a/IP_Controlling_Bruno_Maikoff.xlsx
+++ b/IP_Controlling_Bruno_Maikoff.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mai714\Documents\Workspace\BlockChain_TransactionManager\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FHNW\Semester7\Bachlorthesis\BlockChain_TransactionManager\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73B4E495-026C-484B-A0B1-2CC5FE6A377C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arbeitsrapport_Bruno" sheetId="11" r:id="rId1"/>
@@ -22,7 +23,7 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="1" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -35,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
   <si>
     <t>Aufwand in h</t>
   </si>
@@ -131,11 +132,20 @@
   <si>
     <t>Updating Contracts to Solidity 0.5.12</t>
   </si>
+  <si>
+    <t>FlowCharts+Zummanen in Brugg</t>
+  </si>
+  <si>
+    <t>Architektur+Zwischenpräsi+Protokoll+Bilder verbessert</t>
+  </si>
+  <si>
+    <t>4+4+4</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -578,9 +588,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Standard 2" xfId="2"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -607,7 +617,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -694,7 +704,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -895,67 +905,67 @@
                   <c:v>52</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>52</c:v>
+                  <c:v>57</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>59</c:v>
+                  <c:v>64</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>59</c:v>
+                  <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>59</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>59</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>59</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>59</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>59</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>59</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>59</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>59</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>59</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>59</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>59</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>59</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>59</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>59</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>59</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>59</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>59</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>59</c:v>
+                  <c:v>87</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1012,7 +1022,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1"/>
@@ -1067,7 +1077,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2067145632"/>
@@ -1115,7 +1125,7 @@
           <a:cs typeface="Arial"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1129,7 +1139,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1447,7 +1457,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1"/>
@@ -1502,7 +1512,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2067145632"/>
@@ -1550,7 +1560,7 @@
           <a:cs typeface="Arial"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1994,14 +2004,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG36"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="Q44" sqref="Q44"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" customWidth="1"/>
@@ -2399,87 +2409,87 @@
       </c>
       <c r="M5" s="45">
         <f t="shared" si="29"/>
-        <v>52</v>
+        <v>57</v>
       </c>
       <c r="N5" s="45">
         <f t="shared" si="29"/>
-        <v>59</v>
+        <v>64</v>
       </c>
       <c r="O5" s="45">
         <f t="shared" si="29"/>
-        <v>59</v>
+        <v>76</v>
       </c>
       <c r="P5" s="45">
         <f t="shared" si="29"/>
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="Q5" s="45">
         <f t="shared" si="29"/>
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="R5" s="45">
         <f t="shared" si="29"/>
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="S5" s="45">
         <f t="shared" si="29"/>
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="T5" s="45">
         <f t="shared" si="29"/>
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="U5" s="45">
         <f t="shared" si="29"/>
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="V5" s="45">
         <f t="shared" si="29"/>
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="W5" s="45">
         <f t="shared" si="29"/>
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="X5" s="45">
         <f t="shared" si="29"/>
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="Y5" s="45">
         <f t="shared" si="29"/>
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="Z5" s="45">
         <f t="shared" si="29"/>
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="AA5" s="45">
         <f t="shared" si="29"/>
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="AB5" s="45">
         <f t="shared" si="29"/>
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="AC5" s="45">
         <f t="shared" si="29"/>
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="AD5" s="45">
         <f t="shared" si="29"/>
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="AE5" s="45">
         <f t="shared" ref="AE5" si="30">AD5+SUMIF($A$6:$A$33,AE3,$D$6:$D$33)</f>
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="AF5" s="45">
         <f t="shared" ref="AF5" si="31">AE5+SUMIF($A$6:$A$33,AF3,$D$6:$D$33)</f>
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="AG5" s="45">
         <f t="shared" ref="AG5" si="32">AF5+SUMIF($A$6:$A$33,AG3,$D$6:$D$33)</f>
-        <v>59</v>
+        <v>87</v>
       </c>
     </row>
     <row r="6" spans="1:33" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
@@ -2619,6 +2629,9 @@
         <f t="shared" si="34"/>
         <v>43772</v>
       </c>
+      <c r="D12" s="11">
+        <v>5</v>
+      </c>
     </row>
     <row r="13" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A13" s="22">
@@ -2653,8 +2666,12 @@
         <f t="shared" si="34"/>
         <v>43786</v>
       </c>
-      <c r="D14" s="31"/>
-      <c r="E14" s="24"/>
+      <c r="D14" s="31">
+        <v>12</v>
+      </c>
+      <c r="E14" s="24" t="s">
+        <v>32</v>
+      </c>
     </row>
     <row r="15" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A15" s="22">
@@ -2669,8 +2686,12 @@
         <f t="shared" si="34"/>
         <v>43793</v>
       </c>
-      <c r="D15" s="31"/>
-      <c r="E15" s="24"/>
+      <c r="D15" s="31">
+        <v>11</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>31</v>
+      </c>
     </row>
     <row r="16" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A16" s="34">
@@ -2685,7 +2706,9 @@
         <f t="shared" si="34"/>
         <v>43800</v>
       </c>
-      <c r="D16" s="36"/>
+      <c r="D16" s="36" t="s">
+        <v>33</v>
+      </c>
       <c r="E16" s="37" t="s">
         <v>12</v>
       </c>
@@ -2951,7 +2974,7 @@
       <c r="C34" s="50"/>
       <c r="D34" s="33">
         <f>SUM(D6:D33)</f>
-        <v>59</v>
+        <v>87</v>
       </c>
       <c r="E34" s="12"/>
     </row>
@@ -2970,7 +2993,7 @@
       <c r="E36" s="27"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:B5"/>
+  <autoFilter ref="A5:B5" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="5">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:C3"/>
@@ -2979,7 +3002,7 @@
     <mergeCell ref="A35:D35"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="Name, Vorname:"/>
+    <hyperlink ref="A2" r:id="rId1" display="Name, Vorname:" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" scale="75" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -2989,14 +3012,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AG36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="B5" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" customWidth="1"/>
@@ -3975,7 +3998,7 @@
       <c r="E36" s="27"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:B5"/>
+  <autoFilter ref="A5:B5" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="5">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:C3"/>
@@ -3984,7 +4007,7 @@
     <mergeCell ref="A35:D35"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="Name, Vorname:"/>
+    <hyperlink ref="A2" r:id="rId1" display="Name, Vorname:" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" scale="75" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/IP_Controlling_Bruno_Maikoff.xlsx
+++ b/IP_Controlling_Bruno_Maikoff.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FHNW\Semester7\Bachlorthesis\BlockChain_TransactionManager\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\BlockChain_TransactionManager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73B4E495-026C-484B-A0B1-2CC5FE6A377C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6E3258A-5FDD-429F-9DF5-240E64AFC052}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arbeitsrapport_Bruno" sheetId="11" r:id="rId1"/>
@@ -28,7 +28,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="35">
   <si>
     <t>Aufwand in h</t>
   </si>
@@ -140,6 +142,9 @@
   </si>
   <si>
     <t>4+4+4</t>
+  </si>
+  <si>
+    <t>Report, Präsi,, Coachmeeting</t>
   </si>
 </sst>
 </file>
@@ -1349,58 +1354,58 @@
                   <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>105</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>105</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>105</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>105</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>105</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>105</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>105</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>105</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>105</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>105</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>105</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>105</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>105</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>105</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>105</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>105</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>105</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>105</c:v>
+                  <c:v>114</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2007,7 +2012,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
@@ -3015,8 +3020,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AG36"/>
   <sheetViews>
-    <sheetView topLeftCell="B5" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3429,75 +3434,75 @@
       </c>
       <c r="P5" s="45">
         <f t="shared" si="2"/>
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="Q5" s="45">
         <f t="shared" si="2"/>
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="R5" s="45">
         <f t="shared" si="2"/>
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="S5" s="45">
         <f t="shared" si="2"/>
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="T5" s="45">
         <f t="shared" si="2"/>
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="U5" s="45">
         <f t="shared" si="2"/>
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="V5" s="45">
         <f t="shared" si="2"/>
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="W5" s="45">
         <f t="shared" si="2"/>
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="X5" s="45">
         <f t="shared" si="2"/>
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="Y5" s="45">
         <f t="shared" si="2"/>
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="Z5" s="45">
         <f t="shared" si="2"/>
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="AA5" s="45">
         <f t="shared" si="2"/>
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="AB5" s="45">
         <f t="shared" si="2"/>
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="AC5" s="45">
         <f t="shared" si="2"/>
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="AD5" s="45">
         <f t="shared" si="2"/>
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="AE5" s="45">
         <f t="shared" si="2"/>
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="AF5" s="45">
         <f t="shared" si="2"/>
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="AG5" s="45">
         <f t="shared" si="2"/>
-        <v>105</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:33" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -3697,8 +3702,12 @@
         <f t="shared" si="4"/>
         <v>43793</v>
       </c>
-      <c r="D15" s="31"/>
-      <c r="E15" s="24"/>
+      <c r="D15" s="31">
+        <v>9</v>
+      </c>
+      <c r="E15" s="24" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="16" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A16" s="34">
@@ -3979,7 +3988,7 @@
       <c r="C34" s="50"/>
       <c r="D34" s="33">
         <f>SUM(D6:D33)</f>
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="E34" s="12"/>
     </row>

--- a/IP_Controlling_Bruno_Maikoff.xlsx
+++ b/IP_Controlling_Bruno_Maikoff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\BlockChain_TransactionManager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A6E3258A-5FDD-429F-9DF5-240E64AFC052}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFCD87BB-E904-49F1-B30E-5EDE16C38A4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1354,58 +1354,58 @@
                   <c:v>105</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>114</c:v>
+                  <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>114</c:v>
+                  <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>114</c:v>
+                  <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>114</c:v>
+                  <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>114</c:v>
+                  <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>114</c:v>
+                  <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>114</c:v>
+                  <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>114</c:v>
+                  <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>114</c:v>
+                  <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>114</c:v>
+                  <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>114</c:v>
+                  <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>114</c:v>
+                  <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>114</c:v>
+                  <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>114</c:v>
+                  <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>114</c:v>
+                  <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>114</c:v>
+                  <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>114</c:v>
+                  <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>114</c:v>
+                  <c:v>118</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3021,7 +3021,7 @@
   <dimension ref="A1:AG36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H32" sqref="H32"/>
+      <selection activeCell="H36" sqref="H36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3434,75 +3434,75 @@
       </c>
       <c r="P5" s="45">
         <f t="shared" si="2"/>
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="Q5" s="45">
         <f t="shared" si="2"/>
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="R5" s="45">
         <f t="shared" si="2"/>
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="S5" s="45">
         <f t="shared" si="2"/>
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="T5" s="45">
         <f t="shared" si="2"/>
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="U5" s="45">
         <f t="shared" si="2"/>
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="V5" s="45">
         <f t="shared" si="2"/>
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="W5" s="45">
         <f t="shared" si="2"/>
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="X5" s="45">
         <f t="shared" si="2"/>
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="Y5" s="45">
         <f t="shared" si="2"/>
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="Z5" s="45">
         <f t="shared" si="2"/>
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AA5" s="45">
         <f t="shared" si="2"/>
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AB5" s="45">
         <f t="shared" si="2"/>
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AC5" s="45">
         <f t="shared" si="2"/>
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AD5" s="45">
         <f t="shared" si="2"/>
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AE5" s="45">
         <f t="shared" si="2"/>
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AF5" s="45">
         <f t="shared" si="2"/>
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="AG5" s="45">
         <f t="shared" si="2"/>
-        <v>114</v>
+        <v>118</v>
       </c>
     </row>
     <row r="6" spans="1:33" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -3703,7 +3703,7 @@
         <v>43793</v>
       </c>
       <c r="D15" s="31">
-        <v>9</v>
+        <v>13</v>
       </c>
       <c r="E15" s="24" t="s">
         <v>34</v>
@@ -3988,7 +3988,7 @@
       <c r="C34" s="50"/>
       <c r="D34" s="33">
         <f>SUM(D6:D33)</f>
-        <v>114</v>
+        <v>118</v>
       </c>
       <c r="E34" s="12"/>
     </row>

--- a/IP_Controlling_Bruno_Maikoff.xlsx
+++ b/IP_Controlling_Bruno_Maikoff.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\BlockChain_TransactionManager\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mai714\Documents\Workspace\BlockChain_TransactionManager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFCD87BB-E904-49F1-B30E-5EDE16C38A4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Arbeitsrapport_Bruno" sheetId="11" r:id="rId1"/>
@@ -23,7 +22,7 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="1" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="36">
   <si>
     <t>Aufwand in h</t>
   </si>
@@ -146,11 +145,14 @@
   <si>
     <t>Report, Präsi,, Coachmeeting</t>
   </si>
+  <si>
+    <t>Projektwoche, Zwischenpräsentation</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -593,9 +595,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Standard 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard 2" xfId="2"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -622,7 +624,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -709,7 +711,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1027,7 +1029,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1"/>
@@ -1082,7 +1084,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2067145632"/>
@@ -1130,7 +1132,7 @@
           <a:cs typeface="Arial"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1144,7 +1146,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1357,55 +1359,55 @@
                   <c:v>118</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>118</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>118</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>118</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>118</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>118</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>118</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>118</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>118</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>118</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>118</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>118</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>118</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>118</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>118</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>118</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>118</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>118</c:v>
+                  <c:v>125</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1462,7 +1464,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1"/>
@@ -1517,7 +1519,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2067145632"/>
@@ -1565,7 +1567,7 @@
           <a:cs typeface="Arial"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2009,14 +2011,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG36"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" customWidth="1"/>
@@ -2998,7 +3000,7 @@
       <c r="E36" s="27"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:B5" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A5:B5"/>
   <mergeCells count="5">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:C3"/>
@@ -3007,7 +3009,7 @@
     <mergeCell ref="A35:D35"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="Name, Vorname:" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId1" display="Name, Vorname:"/>
   </hyperlinks>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" scale="75" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -3017,14 +3019,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H36" sqref="H36"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="R4" sqref="R1:R1048576"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" customWidth="1"/>
@@ -3438,71 +3440,71 @@
       </c>
       <c r="Q5" s="45">
         <f t="shared" si="2"/>
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="R5" s="45">
         <f t="shared" si="2"/>
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="S5" s="45">
         <f t="shared" si="2"/>
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="T5" s="45">
         <f t="shared" si="2"/>
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="U5" s="45">
         <f t="shared" si="2"/>
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="V5" s="45">
         <f t="shared" si="2"/>
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="W5" s="45">
         <f t="shared" si="2"/>
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="X5" s="45">
         <f t="shared" si="2"/>
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="Y5" s="45">
         <f t="shared" si="2"/>
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="Z5" s="45">
         <f t="shared" si="2"/>
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="AA5" s="45">
         <f t="shared" si="2"/>
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="AB5" s="45">
         <f t="shared" si="2"/>
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="AC5" s="45">
         <f t="shared" si="2"/>
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="AD5" s="45">
         <f t="shared" si="2"/>
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="AE5" s="45">
         <f t="shared" si="2"/>
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="AF5" s="45">
         <f t="shared" si="2"/>
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="AG5" s="45">
         <f t="shared" si="2"/>
-        <v>118</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:33" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -3722,9 +3724,11 @@
         <f t="shared" si="4"/>
         <v>43800</v>
       </c>
-      <c r="D16" s="36"/>
+      <c r="D16" s="36">
+        <v>7</v>
+      </c>
       <c r="E16" s="37" t="s">
-        <v>12</v>
+        <v>35</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -3988,7 +3992,7 @@
       <c r="C34" s="50"/>
       <c r="D34" s="33">
         <f>SUM(D6:D33)</f>
-        <v>118</v>
+        <v>125</v>
       </c>
       <c r="E34" s="12"/>
     </row>
@@ -4007,7 +4011,7 @@
       <c r="E36" s="27"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:B5" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A5:B5"/>
   <mergeCells count="5">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:C3"/>
@@ -4016,7 +4020,7 @@
     <mergeCell ref="A35:D35"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="Name, Vorname:" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId1" display="Name, Vorname:"/>
   </hyperlinks>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" scale="75" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/IP_Controlling_Bruno_Maikoff.xlsx
+++ b/IP_Controlling_Bruno_Maikoff.xlsx
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
   <si>
     <t>Aufwand in h</t>
   </si>
@@ -147,6 +147,9 @@
   </si>
   <si>
     <t>Projektwoche, Zwischenpräsentation</t>
+  </si>
+  <si>
+    <t>Report</t>
   </si>
 </sst>
 </file>
@@ -1362,52 +1365,52 @@
                   <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>125</c:v>
+                  <c:v>127</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>125</c:v>
+                  <c:v>127</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>125</c:v>
+                  <c:v>127</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>125</c:v>
+                  <c:v>127</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>125</c:v>
+                  <c:v>127</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>125</c:v>
+                  <c:v>127</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>125</c:v>
+                  <c:v>127</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>125</c:v>
+                  <c:v>127</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>125</c:v>
+                  <c:v>127</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>125</c:v>
+                  <c:v>127</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>125</c:v>
+                  <c:v>127</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>125</c:v>
+                  <c:v>127</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>125</c:v>
+                  <c:v>127</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>125</c:v>
+                  <c:v>127</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>125</c:v>
+                  <c:v>127</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>125</c:v>
+                  <c:v>127</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2018,18 +2021,18 @@
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" style="15" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="46.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="46.6640625" customWidth="1"/>
     <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="33" width="4.7109375" customWidth="1"/>
+    <col min="7" max="33" width="4.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="3" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" s="3" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A1" s="46" t="s">
         <v>3</v>
       </c>
@@ -2039,7 +2042,7 @@
       <c r="E1" s="46"/>
       <c r="F1" s="14"/>
     </row>
-    <row r="2" spans="1:33" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="47" t="s">
         <v>10</v>
       </c>
@@ -2134,7 +2137,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" s="47"/>
       <c r="B3" s="47"/>
       <c r="C3" s="47"/>
@@ -2251,7 +2254,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:33" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>5</v>
       </c>
@@ -2371,7 +2374,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="5" spans="1:33" s="8" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" s="8" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>6</v>
       </c>
@@ -2499,7 +2502,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="6" spans="1:33" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" s="10" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A6" s="22">
         <v>1</v>
       </c>
@@ -2518,7 +2521,7 @@
       </c>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="1:33" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" s="10" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A7" s="22">
         <f t="shared" ref="A7:A22" si="33">A6+1</f>
         <v>2</v>
@@ -2539,7 +2542,7 @@
       </c>
       <c r="F7" s="9"/>
     </row>
-    <row r="8" spans="1:33" s="10" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" s="10" customFormat="1" ht="30.6" x14ac:dyDescent="0.25">
       <c r="A8" s="22">
         <f t="shared" si="33"/>
         <v>3</v>
@@ -2560,7 +2563,7 @@
       </c>
       <c r="F8" s="9"/>
     </row>
-    <row r="9" spans="1:33" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33" s="10" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A9" s="22">
         <f t="shared" si="33"/>
         <v>4</v>
@@ -2581,7 +2584,7 @@
       </c>
       <c r="F9" s="9"/>
     </row>
-    <row r="10" spans="1:33" s="11" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33" s="11" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A10" s="22">
         <f t="shared" si="33"/>
         <v>5</v>
@@ -2602,7 +2605,7 @@
       </c>
       <c r="F10" s="9"/>
     </row>
-    <row r="11" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A11" s="22">
         <f t="shared" si="33"/>
         <v>6</v>
@@ -2623,7 +2626,7 @@
       </c>
       <c r="F11" s="9"/>
     </row>
-    <row r="12" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:33" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A12" s="22">
         <f t="shared" si="33"/>
         <v>7</v>
@@ -2640,7 +2643,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:33" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A13" s="22">
         <f t="shared" si="33"/>
         <v>8</v>
@@ -2660,7 +2663,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:33" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A14" s="22">
         <f t="shared" si="33"/>
         <v>9</v>
@@ -2680,7 +2683,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="15" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:33" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A15" s="22">
         <f t="shared" si="33"/>
         <v>10</v>
@@ -2700,7 +2703,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:33" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A16" s="34">
         <f t="shared" si="33"/>
         <v>11</v>
@@ -2720,7 +2723,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A17" s="38">
         <f t="shared" si="33"/>
         <v>12</v>
@@ -2735,7 +2738,7 @@
       </c>
       <c r="D17" s="31"/>
     </row>
-    <row r="18" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A18" s="22">
         <f t="shared" si="33"/>
         <v>13</v>
@@ -2751,7 +2754,7 @@
       <c r="D18" s="31"/>
       <c r="E18" s="24"/>
     </row>
-    <row r="19" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A19" s="22">
         <f t="shared" si="33"/>
         <v>14</v>
@@ -2767,7 +2770,7 @@
       <c r="D19" s="31"/>
       <c r="E19" s="24"/>
     </row>
-    <row r="20" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A20" s="22">
         <f t="shared" si="33"/>
         <v>15</v>
@@ -2783,7 +2786,7 @@
       <c r="D20" s="31"/>
       <c r="E20" s="24"/>
     </row>
-    <row r="21" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A21" s="22">
         <f t="shared" si="33"/>
         <v>16</v>
@@ -2799,7 +2802,7 @@
       <c r="D21" s="31"/>
       <c r="E21" s="24"/>
     </row>
-    <row r="22" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A22" s="38">
         <f t="shared" si="33"/>
         <v>17</v>
@@ -2815,7 +2818,7 @@
       <c r="D22" s="31"/>
       <c r="E22" s="40"/>
     </row>
-    <row r="23" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A23" s="22">
         <v>18</v>
       </c>
@@ -2830,7 +2833,7 @@
       <c r="D23" s="31"/>
       <c r="E23" s="24"/>
     </row>
-    <row r="24" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A24" s="22">
         <v>19</v>
       </c>
@@ -2845,7 +2848,7 @@
       <c r="D24" s="31"/>
       <c r="E24" s="24"/>
     </row>
-    <row r="25" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A25" s="22">
         <v>20</v>
       </c>
@@ -2860,7 +2863,7 @@
       <c r="D25" s="31"/>
       <c r="E25" s="24"/>
     </row>
-    <row r="26" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A26" s="22">
         <v>21</v>
       </c>
@@ -2875,7 +2878,7 @@
       <c r="D26" s="31"/>
       <c r="E26" s="24"/>
     </row>
-    <row r="27" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A27" s="22">
         <v>22</v>
       </c>
@@ -2890,7 +2893,7 @@
       <c r="D27" s="31"/>
       <c r="E27" s="24"/>
     </row>
-    <row r="28" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A28" s="22">
         <v>23</v>
       </c>
@@ -2905,7 +2908,7 @@
       <c r="D28" s="31"/>
       <c r="E28" s="24"/>
     </row>
-    <row r="29" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A29" s="22">
         <v>24</v>
       </c>
@@ -2920,7 +2923,7 @@
       <c r="D29" s="31"/>
       <c r="E29" s="24"/>
     </row>
-    <row r="30" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A30" s="22">
         <v>25</v>
       </c>
@@ -2935,7 +2938,7 @@
       <c r="D30" s="31"/>
       <c r="E30" s="24"/>
     </row>
-    <row r="31" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A31" s="22">
         <v>26</v>
       </c>
@@ -2949,7 +2952,7 @@
       </c>
       <c r="D31" s="31"/>
     </row>
-    <row r="32" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A32" s="34">
         <v>27</v>
       </c>
@@ -2966,14 +2969,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="25"/>
       <c r="B33" s="26"/>
       <c r="C33" s="26"/>
       <c r="D33" s="32"/>
       <c r="E33" s="27"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="50" t="s">
         <v>2</v>
       </c>
@@ -2985,14 +2988,14 @@
       </c>
       <c r="E34" s="12"/>
     </row>
-    <row r="35" spans="1:5" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="51"/>
       <c r="B35" s="51"/>
       <c r="C35" s="51"/>
       <c r="D35" s="51"/>
       <c r="E35" s="13"/>
     </row>
-    <row r="36" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="25"/>
       <c r="B36" s="26"/>
       <c r="C36" s="26"/>
@@ -3023,21 +3026,21 @@
   <dimension ref="A1:AG36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="R4" sqref="R1:R1048576"/>
+      <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" style="15" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="46.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="46.6640625" customWidth="1"/>
     <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="33" width="4.7109375" customWidth="1"/>
+    <col min="7" max="33" width="4.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="3" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" s="3" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A1" s="46" t="s">
         <v>3</v>
       </c>
@@ -3047,7 +3050,7 @@
       <c r="E1" s="46"/>
       <c r="F1" s="14"/>
     </row>
-    <row r="2" spans="1:33" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="47" t="s">
         <v>10</v>
       </c>
@@ -3142,7 +3145,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:33" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="47"/>
       <c r="B3" s="47"/>
       <c r="C3" s="47"/>
@@ -3259,7 +3262,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:33" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A4" s="43" t="s">
         <v>5</v>
       </c>
@@ -3379,7 +3382,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="5" spans="1:33" s="8" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" s="8" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>6</v>
       </c>
@@ -3444,70 +3447,70 @@
       </c>
       <c r="R5" s="45">
         <f t="shared" si="2"/>
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="S5" s="45">
         <f t="shared" si="2"/>
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="T5" s="45">
         <f t="shared" si="2"/>
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="U5" s="45">
         <f t="shared" si="2"/>
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="V5" s="45">
         <f t="shared" si="2"/>
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="W5" s="45">
         <f t="shared" si="2"/>
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="X5" s="45">
         <f t="shared" si="2"/>
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Y5" s="45">
         <f t="shared" si="2"/>
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="Z5" s="45">
         <f t="shared" si="2"/>
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AA5" s="45">
         <f t="shared" si="2"/>
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AB5" s="45">
         <f t="shared" si="2"/>
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AC5" s="45">
         <f t="shared" si="2"/>
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AD5" s="45">
         <f t="shared" si="2"/>
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AE5" s="45">
         <f t="shared" si="2"/>
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AF5" s="45">
         <f t="shared" si="2"/>
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="AG5" s="45">
         <f t="shared" si="2"/>
-        <v>125</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" s="10" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A6" s="22">
         <v>1</v>
       </c>
@@ -3526,7 +3529,7 @@
       </c>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="1:33" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" s="10" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A7" s="22">
         <f t="shared" ref="A7:A22" si="3">A6+1</f>
         <v>2</v>
@@ -3547,7 +3550,7 @@
       </c>
       <c r="F7" s="9"/>
     </row>
-    <row r="8" spans="1:33" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" s="10" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A8" s="22">
         <f t="shared" si="3"/>
         <v>3</v>
@@ -3568,7 +3571,7 @@
       </c>
       <c r="F8" s="9"/>
     </row>
-    <row r="9" spans="1:33" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33" s="10" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A9" s="22">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -3589,7 +3592,7 @@
       </c>
       <c r="F9" s="9"/>
     </row>
-    <row r="10" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A10" s="22">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -3610,7 +3613,7 @@
       </c>
       <c r="F10" s="9"/>
     </row>
-    <row r="11" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A11" s="22">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -3631,7 +3634,7 @@
       </c>
       <c r="F11" s="9"/>
     </row>
-    <row r="12" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:33" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A12" s="22">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -3651,7 +3654,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="13" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:33" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A13" s="22">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -3671,7 +3674,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:33" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A14" s="22">
         <f t="shared" si="3"/>
         <v>9</v>
@@ -3691,7 +3694,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:33" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A15" s="22">
         <f t="shared" si="3"/>
         <v>10</v>
@@ -3711,7 +3714,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="16" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:33" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A16" s="34">
         <f t="shared" si="3"/>
         <v>11</v>
@@ -3731,7 +3734,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A17" s="38">
         <f t="shared" si="3"/>
         <v>12</v>
@@ -3744,9 +3747,14 @@
         <f t="shared" si="4"/>
         <v>43807</v>
       </c>
-      <c r="D17" s="31"/>
-    </row>
-    <row r="18" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="D17" s="31">
+        <v>2</v>
+      </c>
+      <c r="E17" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A18" s="22">
         <f t="shared" si="3"/>
         <v>13</v>
@@ -3762,7 +3770,7 @@
       <c r="D18" s="31"/>
       <c r="E18" s="24"/>
     </row>
-    <row r="19" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A19" s="22">
         <f t="shared" si="3"/>
         <v>14</v>
@@ -3778,7 +3786,7 @@
       <c r="D19" s="31"/>
       <c r="E19" s="24"/>
     </row>
-    <row r="20" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A20" s="22">
         <f t="shared" si="3"/>
         <v>15</v>
@@ -3794,7 +3802,7 @@
       <c r="D20" s="31"/>
       <c r="E20" s="24"/>
     </row>
-    <row r="21" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A21" s="22">
         <f t="shared" si="3"/>
         <v>16</v>
@@ -3810,7 +3818,7 @@
       <c r="D21" s="31"/>
       <c r="E21" s="24"/>
     </row>
-    <row r="22" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A22" s="38">
         <f t="shared" si="3"/>
         <v>17</v>
@@ -3826,7 +3834,7 @@
       <c r="D22" s="31"/>
       <c r="E22" s="40"/>
     </row>
-    <row r="23" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A23" s="22">
         <v>18</v>
       </c>
@@ -3841,7 +3849,7 @@
       <c r="D23" s="31"/>
       <c r="E23" s="24"/>
     </row>
-    <row r="24" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A24" s="22">
         <v>19</v>
       </c>
@@ -3856,7 +3864,7 @@
       <c r="D24" s="31"/>
       <c r="E24" s="24"/>
     </row>
-    <row r="25" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A25" s="22">
         <v>20</v>
       </c>
@@ -3871,7 +3879,7 @@
       <c r="D25" s="31"/>
       <c r="E25" s="24"/>
     </row>
-    <row r="26" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A26" s="22">
         <v>21</v>
       </c>
@@ -3886,7 +3894,7 @@
       <c r="D26" s="31"/>
       <c r="E26" s="24"/>
     </row>
-    <row r="27" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A27" s="22">
         <v>22</v>
       </c>
@@ -3901,7 +3909,7 @@
       <c r="D27" s="31"/>
       <c r="E27" s="24"/>
     </row>
-    <row r="28" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A28" s="22">
         <v>23</v>
       </c>
@@ -3916,7 +3924,7 @@
       <c r="D28" s="31"/>
       <c r="E28" s="24"/>
     </row>
-    <row r="29" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A29" s="22">
         <v>24</v>
       </c>
@@ -3931,7 +3939,7 @@
       <c r="D29" s="31"/>
       <c r="E29" s="24"/>
     </row>
-    <row r="30" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A30" s="22">
         <v>25</v>
       </c>
@@ -3946,7 +3954,7 @@
       <c r="D30" s="31"/>
       <c r="E30" s="24"/>
     </row>
-    <row r="31" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A31" s="22">
         <v>26</v>
       </c>
@@ -3960,7 +3968,7 @@
       </c>
       <c r="D31" s="31"/>
     </row>
-    <row r="32" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A32" s="34">
         <v>27</v>
       </c>
@@ -3977,14 +3985,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="25"/>
       <c r="B33" s="26"/>
       <c r="C33" s="26"/>
       <c r="D33" s="32"/>
       <c r="E33" s="27"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="50" t="s">
         <v>2</v>
       </c>
@@ -3992,18 +4000,18 @@
       <c r="C34" s="50"/>
       <c r="D34" s="33">
         <f>SUM(D6:D33)</f>
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="E34" s="12"/>
     </row>
-    <row r="35" spans="1:5" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="51"/>
       <c r="B35" s="51"/>
       <c r="C35" s="51"/>
       <c r="D35" s="51"/>
       <c r="E35" s="13"/>
     </row>
-    <row r="36" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="25"/>
       <c r="B36" s="26"/>
       <c r="C36" s="26"/>

--- a/IP_Controlling_Bruno_Maikoff.xlsx
+++ b/IP_Controlling_Bruno_Maikoff.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mai714\Documents\Workspace\BlockChain_TransactionManager\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FHNW\Semester7\Bachlorthesis\BlockChain_TransactionManager\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F2C7ED6-FEE6-44C6-AFDC-D0D21479B4D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arbeitsrapport_Bruno" sheetId="11" r:id="rId1"/>
@@ -22,14 +23,12 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="1" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -37,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="36">
   <si>
     <t>Aufwand in h</t>
   </si>
@@ -75,9 +74,6 @@
   </si>
   <si>
     <t xml:space="preserve"> Abgabe</t>
-  </si>
-  <si>
-    <t>Projektwoche</t>
   </si>
   <si>
     <t>Sergejurij, Maikoff</t>
@@ -140,9 +136,6 @@
     <t>Architektur+Zwischenpräsi+Protokoll+Bilder verbessert</t>
   </si>
   <si>
-    <t>4+4+4</t>
-  </si>
-  <si>
     <t>Report, Präsi,, Coachmeeting</t>
   </si>
   <si>
@@ -151,11 +144,14 @@
   <si>
     <t>Report</t>
   </si>
+  <si>
+    <t>Projektwoche/ Präsentation/Vorbereitung/Nachbearbeitung</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -598,9 +594,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Standard 2" xfId="2"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -627,7 +623,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -714,7 +710,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -924,58 +920,58 @@
                   <c:v>76</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>87</c:v>
+                  <c:v>94</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>87</c:v>
+                  <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>87</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>87</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>87</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>87</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>87</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>87</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>87</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>87</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>87</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>87</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>87</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>87</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>87</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>87</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>87</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>87</c:v>
+                  <c:v>111</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1032,7 +1028,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1"/>
@@ -1087,7 +1083,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2067145632"/>
@@ -1135,7 +1131,7 @@
           <a:cs typeface="Arial"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1149,7 +1145,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1467,7 +1463,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1"/>
@@ -1522,7 +1518,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2067145632"/>
@@ -1570,7 +1566,7 @@
           <a:cs typeface="Arial"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2014,25 +2010,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG36"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" style="15" customWidth="1"/>
-    <col min="4" max="4" width="9.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="46.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="15" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="46.7109375" customWidth="1"/>
     <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="33" width="4.6640625" customWidth="1"/>
+    <col min="7" max="33" width="4.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="3" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:33" s="3" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="46" t="s">
         <v>3</v>
       </c>
@@ -2042,14 +2038,14 @@
       <c r="E1" s="46"/>
       <c r="F1" s="14"/>
     </row>
-    <row r="2" spans="1:33" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="47" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="47"/>
       <c r="C2" s="47"/>
       <c r="D2" s="48" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E2" s="49"/>
       <c r="F2" s="14" t="s">
@@ -2137,7 +2133,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" s="47"/>
       <c r="B3" s="47"/>
       <c r="C3" s="47"/>
@@ -2254,7 +2250,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:33" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
         <v>5</v>
       </c>
@@ -2374,7 +2370,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="5" spans="1:33" s="8" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" s="8" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
         <v>6</v>
       </c>
@@ -2431,78 +2427,78 @@
       </c>
       <c r="P5" s="45">
         <f t="shared" si="29"/>
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="Q5" s="45">
         <f t="shared" si="29"/>
-        <v>87</v>
+        <v>109</v>
       </c>
       <c r="R5" s="45">
         <f t="shared" si="29"/>
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="S5" s="45">
         <f t="shared" si="29"/>
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="T5" s="45">
         <f t="shared" si="29"/>
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="U5" s="45">
         <f t="shared" si="29"/>
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="V5" s="45">
         <f t="shared" si="29"/>
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="W5" s="45">
         <f t="shared" si="29"/>
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="X5" s="45">
         <f t="shared" si="29"/>
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="Y5" s="45">
         <f t="shared" si="29"/>
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="Z5" s="45">
         <f t="shared" si="29"/>
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="AA5" s="45">
         <f t="shared" si="29"/>
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="AB5" s="45">
         <f t="shared" si="29"/>
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="AC5" s="45">
         <f t="shared" si="29"/>
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="AD5" s="45">
         <f t="shared" si="29"/>
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="AE5" s="45">
         <f t="shared" ref="AE5" si="30">AD5+SUMIF($A$6:$A$33,AE3,$D$6:$D$33)</f>
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="AF5" s="45">
         <f t="shared" ref="AF5" si="31">AE5+SUMIF($A$6:$A$33,AF3,$D$6:$D$33)</f>
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="AG5" s="45">
         <f t="shared" ref="AG5" si="32">AF5+SUMIF($A$6:$A$33,AG3,$D$6:$D$33)</f>
-        <v>87</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33" s="10" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A6" s="22">
         <v>1</v>
       </c>
@@ -2517,11 +2513,11 @@
         <v>4</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="1:33" s="10" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A7" s="22">
         <f t="shared" ref="A7:A22" si="33">A6+1</f>
         <v>2</v>
@@ -2538,11 +2534,11 @@
         <v>6</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F7" s="9"/>
     </row>
-    <row r="8" spans="1:33" s="10" customFormat="1" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" s="10" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A8" s="22">
         <f t="shared" si="33"/>
         <v>3</v>
@@ -2559,11 +2555,11 @@
         <v>10</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F8" s="9"/>
     </row>
-    <row r="9" spans="1:33" s="10" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A9" s="22">
         <f t="shared" si="33"/>
         <v>4</v>
@@ -2580,11 +2576,11 @@
         <v>12</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F9" s="9"/>
     </row>
-    <row r="10" spans="1:33" s="11" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" s="11" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A10" s="22">
         <f t="shared" si="33"/>
         <v>5</v>
@@ -2601,11 +2597,11 @@
         <v>11</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F10" s="9"/>
     </row>
-    <row r="11" spans="1:33" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A11" s="22">
         <f t="shared" si="33"/>
         <v>6</v>
@@ -2622,11 +2618,11 @@
         <v>9</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F11" s="9"/>
     </row>
-    <row r="12" spans="1:33" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A12" s="22">
         <f t="shared" si="33"/>
         <v>7</v>
@@ -2643,7 +2639,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:33" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A13" s="22">
         <f t="shared" si="33"/>
         <v>8</v>
@@ -2660,10 +2656,10 @@
         <v>7</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A14" s="22">
         <f t="shared" si="33"/>
         <v>9</v>
@@ -2680,10 +2676,10 @@
         <v>12</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A15" s="22">
         <f t="shared" si="33"/>
         <v>10</v>
@@ -2697,13 +2693,13 @@
         <v>43793</v>
       </c>
       <c r="D15" s="31">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A16" s="34">
         <f t="shared" si="33"/>
         <v>11</v>
@@ -2716,14 +2712,14 @@
         <f t="shared" si="34"/>
         <v>43800</v>
       </c>
-      <c r="D16" s="36" t="s">
-        <v>33</v>
+      <c r="D16" s="36">
+        <v>15</v>
       </c>
       <c r="E16" s="37" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A17" s="38">
         <f t="shared" si="33"/>
         <v>12</v>
@@ -2736,9 +2732,11 @@
         <f t="shared" si="34"/>
         <v>43807</v>
       </c>
-      <c r="D17" s="31"/>
-    </row>
-    <row r="18" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+      <c r="D17" s="31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A18" s="22">
         <f t="shared" si="33"/>
         <v>13</v>
@@ -2754,7 +2752,7 @@
       <c r="D18" s="31"/>
       <c r="E18" s="24"/>
     </row>
-    <row r="19" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A19" s="22">
         <f t="shared" si="33"/>
         <v>14</v>
@@ -2770,7 +2768,7 @@
       <c r="D19" s="31"/>
       <c r="E19" s="24"/>
     </row>
-    <row r="20" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A20" s="22">
         <f t="shared" si="33"/>
         <v>15</v>
@@ -2786,7 +2784,7 @@
       <c r="D20" s="31"/>
       <c r="E20" s="24"/>
     </row>
-    <row r="21" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A21" s="22">
         <f t="shared" si="33"/>
         <v>16</v>
@@ -2802,7 +2800,7 @@
       <c r="D21" s="31"/>
       <c r="E21" s="24"/>
     </row>
-    <row r="22" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A22" s="38">
         <f t="shared" si="33"/>
         <v>17</v>
@@ -2818,7 +2816,7 @@
       <c r="D22" s="31"/>
       <c r="E22" s="40"/>
     </row>
-    <row r="23" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A23" s="22">
         <v>18</v>
       </c>
@@ -2833,7 +2831,7 @@
       <c r="D23" s="31"/>
       <c r="E23" s="24"/>
     </row>
-    <row r="24" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A24" s="22">
         <v>19</v>
       </c>
@@ -2848,7 +2846,7 @@
       <c r="D24" s="31"/>
       <c r="E24" s="24"/>
     </row>
-    <row r="25" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A25" s="22">
         <v>20</v>
       </c>
@@ -2863,7 +2861,7 @@
       <c r="D25" s="31"/>
       <c r="E25" s="24"/>
     </row>
-    <row r="26" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A26" s="22">
         <v>21</v>
       </c>
@@ -2878,7 +2876,7 @@
       <c r="D26" s="31"/>
       <c r="E26" s="24"/>
     </row>
-    <row r="27" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A27" s="22">
         <v>22</v>
       </c>
@@ -2893,7 +2891,7 @@
       <c r="D27" s="31"/>
       <c r="E27" s="24"/>
     </row>
-    <row r="28" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A28" s="22">
         <v>23</v>
       </c>
@@ -2908,7 +2906,7 @@
       <c r="D28" s="31"/>
       <c r="E28" s="24"/>
     </row>
-    <row r="29" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A29" s="22">
         <v>24</v>
       </c>
@@ -2923,7 +2921,7 @@
       <c r="D29" s="31"/>
       <c r="E29" s="24"/>
     </row>
-    <row r="30" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A30" s="22">
         <v>25</v>
       </c>
@@ -2938,7 +2936,7 @@
       <c r="D30" s="31"/>
       <c r="E30" s="24"/>
     </row>
-    <row r="31" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A31" s="22">
         <v>26</v>
       </c>
@@ -2952,7 +2950,7 @@
       </c>
       <c r="D31" s="31"/>
     </row>
-    <row r="32" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A32" s="34">
         <v>27</v>
       </c>
@@ -2969,14 +2967,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="25"/>
       <c r="B33" s="26"/>
       <c r="C33" s="26"/>
       <c r="D33" s="32"/>
       <c r="E33" s="27"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="50" t="s">
         <v>2</v>
       </c>
@@ -2984,18 +2982,18 @@
       <c r="C34" s="50"/>
       <c r="D34" s="33">
         <f>SUM(D6:D33)</f>
-        <v>87</v>
+        <v>111</v>
       </c>
       <c r="E34" s="12"/>
     </row>
-    <row r="35" spans="1:5" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="51"/>
       <c r="B35" s="51"/>
       <c r="C35" s="51"/>
       <c r="D35" s="51"/>
       <c r="E35" s="13"/>
     </row>
-    <row r="36" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="25"/>
       <c r="B36" s="26"/>
       <c r="C36" s="26"/>
@@ -3003,7 +3001,7 @@
       <c r="E36" s="27"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:B5"/>
+  <autoFilter ref="A5:B5" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="5">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:C3"/>
@@ -3012,7 +3010,7 @@
     <mergeCell ref="A35:D35"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="Name, Vorname:"/>
+    <hyperlink ref="A2" r:id="rId1" display="Name, Vorname:" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" scale="75" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -3022,25 +3020,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AG36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="B13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="E18" sqref="E18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" style="15" customWidth="1"/>
-    <col min="4" max="4" width="9.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="46.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="15" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="46.7109375" customWidth="1"/>
     <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="33" width="4.6640625" customWidth="1"/>
+    <col min="7" max="33" width="4.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="3" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:33" s="3" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="46" t="s">
         <v>3</v>
       </c>
@@ -3050,14 +3048,14 @@
       <c r="E1" s="46"/>
       <c r="F1" s="14"/>
     </row>
-    <row r="2" spans="1:33" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="47" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="47"/>
       <c r="C2" s="47"/>
       <c r="D2" s="48" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2" s="49"/>
       <c r="F2" s="14" t="s">
@@ -3145,7 +3143,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:33" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="47"/>
       <c r="B3" s="47"/>
       <c r="C3" s="47"/>
@@ -3262,7 +3260,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:33" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="43" t="s">
         <v>5</v>
       </c>
@@ -3382,7 +3380,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="5" spans="1:33" s="8" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" s="8" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
         <v>6</v>
       </c>
@@ -3510,7 +3508,7 @@
         <v>127</v>
       </c>
     </row>
-    <row r="6" spans="1:33" s="10" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A6" s="22">
         <v>1</v>
       </c>
@@ -3525,11 +3523,11 @@
         <v>3</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="1:33" s="10" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A7" s="22">
         <f t="shared" ref="A7:A22" si="3">A6+1</f>
         <v>2</v>
@@ -3546,11 +3544,11 @@
         <v>6</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F7" s="9"/>
     </row>
-    <row r="8" spans="1:33" s="10" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A8" s="22">
         <f t="shared" si="3"/>
         <v>3</v>
@@ -3567,11 +3565,11 @@
         <v>22</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F8" s="9"/>
     </row>
-    <row r="9" spans="1:33" s="10" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A9" s="22">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -3588,11 +3586,11 @@
         <v>18</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F9" s="9"/>
     </row>
-    <row r="10" spans="1:33" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A10" s="22">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -3609,11 +3607,11 @@
         <v>14</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F10" s="9"/>
     </row>
-    <row r="11" spans="1:33" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A11" s="22">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -3630,11 +3628,11 @@
         <v>12</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F11" s="9"/>
     </row>
-    <row r="12" spans="1:33" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A12" s="22">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -3651,10 +3649,10 @@
         <v>9</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="13" spans="1:33" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A13" s="22">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -3671,10 +3669,10 @@
         <v>13</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:33" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A14" s="22">
         <f t="shared" si="3"/>
         <v>9</v>
@@ -3691,10 +3689,10 @@
         <v>8</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:33" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A15" s="22">
         <f t="shared" si="3"/>
         <v>10</v>
@@ -3711,10 +3709,10 @@
         <v>13</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="16" spans="1:33" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A16" s="34">
         <f t="shared" si="3"/>
         <v>11</v>
@@ -3731,10 +3729,10 @@
         <v>7</v>
       </c>
       <c r="E16" s="37" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A17" s="38">
         <f t="shared" si="3"/>
         <v>12</v>
@@ -3751,10 +3749,10 @@
         <v>2</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A18" s="22">
         <f t="shared" si="3"/>
         <v>13</v>
@@ -3770,7 +3768,7 @@
       <c r="D18" s="31"/>
       <c r="E18" s="24"/>
     </row>
-    <row r="19" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A19" s="22">
         <f t="shared" si="3"/>
         <v>14</v>
@@ -3786,7 +3784,7 @@
       <c r="D19" s="31"/>
       <c r="E19" s="24"/>
     </row>
-    <row r="20" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A20" s="22">
         <f t="shared" si="3"/>
         <v>15</v>
@@ -3802,7 +3800,7 @@
       <c r="D20" s="31"/>
       <c r="E20" s="24"/>
     </row>
-    <row r="21" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A21" s="22">
         <f t="shared" si="3"/>
         <v>16</v>
@@ -3818,7 +3816,7 @@
       <c r="D21" s="31"/>
       <c r="E21" s="24"/>
     </row>
-    <row r="22" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A22" s="38">
         <f t="shared" si="3"/>
         <v>17</v>
@@ -3834,7 +3832,7 @@
       <c r="D22" s="31"/>
       <c r="E22" s="40"/>
     </row>
-    <row r="23" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A23" s="22">
         <v>18</v>
       </c>
@@ -3849,7 +3847,7 @@
       <c r="D23" s="31"/>
       <c r="E23" s="24"/>
     </row>
-    <row r="24" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A24" s="22">
         <v>19</v>
       </c>
@@ -3864,7 +3862,7 @@
       <c r="D24" s="31"/>
       <c r="E24" s="24"/>
     </row>
-    <row r="25" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A25" s="22">
         <v>20</v>
       </c>
@@ -3879,7 +3877,7 @@
       <c r="D25" s="31"/>
       <c r="E25" s="24"/>
     </row>
-    <row r="26" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A26" s="22">
         <v>21</v>
       </c>
@@ -3894,7 +3892,7 @@
       <c r="D26" s="31"/>
       <c r="E26" s="24"/>
     </row>
-    <row r="27" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A27" s="22">
         <v>22</v>
       </c>
@@ -3909,7 +3907,7 @@
       <c r="D27" s="31"/>
       <c r="E27" s="24"/>
     </row>
-    <row r="28" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A28" s="22">
         <v>23</v>
       </c>
@@ -3924,7 +3922,7 @@
       <c r="D28" s="31"/>
       <c r="E28" s="24"/>
     </row>
-    <row r="29" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A29" s="22">
         <v>24</v>
       </c>
@@ -3939,7 +3937,7 @@
       <c r="D29" s="31"/>
       <c r="E29" s="24"/>
     </row>
-    <row r="30" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A30" s="22">
         <v>25</v>
       </c>
@@ -3954,7 +3952,7 @@
       <c r="D30" s="31"/>
       <c r="E30" s="24"/>
     </row>
-    <row r="31" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A31" s="22">
         <v>26</v>
       </c>
@@ -3968,7 +3966,7 @@
       </c>
       <c r="D31" s="31"/>
     </row>
-    <row r="32" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A32" s="34">
         <v>27</v>
       </c>
@@ -3985,14 +3983,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="25"/>
       <c r="B33" s="26"/>
       <c r="C33" s="26"/>
       <c r="D33" s="32"/>
       <c r="E33" s="27"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="50" t="s">
         <v>2</v>
       </c>
@@ -4004,14 +4002,14 @@
       </c>
       <c r="E34" s="12"/>
     </row>
-    <row r="35" spans="1:5" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="51"/>
       <c r="B35" s="51"/>
       <c r="C35" s="51"/>
       <c r="D35" s="51"/>
       <c r="E35" s="13"/>
     </row>
-    <row r="36" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="25"/>
       <c r="B36" s="26"/>
       <c r="C36" s="26"/>
@@ -4019,7 +4017,7 @@
       <c r="E36" s="27"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:B5"/>
+  <autoFilter ref="A5:B5" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="5">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:C3"/>
@@ -4028,7 +4026,7 @@
     <mergeCell ref="A35:D35"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="Name, Vorname:"/>
+    <hyperlink ref="A2" r:id="rId1" display="Name, Vorname:" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" scale="75" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/IP_Controlling_Bruno_Maikoff.xlsx
+++ b/IP_Controlling_Bruno_Maikoff.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22130"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FHNW\Semester7\Bachlorthesis\BlockChain_TransactionManager\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mai714\Documents\Workspace\BlockChain_TransactionManager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F2C7ED6-FEE6-44C6-AFDC-D0D21479B4D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Arbeitsrapport_Bruno" sheetId="11" r:id="rId1"/>
@@ -23,7 +22,7 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="1" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -151,7 +150,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -594,9 +593,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Standard 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard 2" xfId="2"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -623,7 +622,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -710,7 +709,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1028,7 +1027,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1"/>
@@ -1083,7 +1082,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2067145632"/>
@@ -1131,7 +1130,7 @@
           <a:cs typeface="Arial"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1145,7 +1144,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1361,52 +1360,52 @@
                   <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>127</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>127</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>127</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>127</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>127</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>127</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>127</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>127</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>127</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>127</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>127</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>127</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>127</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>127</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>127</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>127</c:v>
+                  <c:v>130</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1463,7 +1462,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1"/>
@@ -1518,7 +1517,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2067145632"/>
@@ -1566,7 +1565,7 @@
           <a:cs typeface="Arial"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2010,14 +2009,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" customWidth="1"/>
@@ -3001,7 +3000,7 @@
       <c r="E36" s="27"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:B5" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A5:B5"/>
   <mergeCells count="5">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:C3"/>
@@ -3010,7 +3009,7 @@
     <mergeCell ref="A35:D35"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="Name, Vorname:" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId1" display="Name, Vorname:"/>
   </hyperlinks>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" scale="75" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -3020,14 +3019,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG36"/>
   <sheetViews>
-    <sheetView topLeftCell="B13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E18" sqref="E18"/>
+    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" customWidth="1"/>
@@ -3445,67 +3444,67 @@
       </c>
       <c r="R5" s="45">
         <f t="shared" si="2"/>
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="S5" s="45">
         <f t="shared" si="2"/>
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="T5" s="45">
         <f t="shared" si="2"/>
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="U5" s="45">
         <f t="shared" si="2"/>
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="V5" s="45">
         <f t="shared" si="2"/>
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="W5" s="45">
         <f t="shared" si="2"/>
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="X5" s="45">
         <f t="shared" si="2"/>
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Y5" s="45">
         <f t="shared" si="2"/>
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="Z5" s="45">
         <f t="shared" si="2"/>
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AA5" s="45">
         <f t="shared" si="2"/>
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AB5" s="45">
         <f t="shared" si="2"/>
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AC5" s="45">
         <f t="shared" si="2"/>
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AD5" s="45">
         <f t="shared" si="2"/>
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AE5" s="45">
         <f t="shared" si="2"/>
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AF5" s="45">
         <f t="shared" si="2"/>
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="AG5" s="45">
         <f t="shared" si="2"/>
-        <v>127</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:33" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -3746,7 +3745,7 @@
         <v>43807</v>
       </c>
       <c r="D17" s="31">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>34</v>
@@ -3998,7 +3997,7 @@
       <c r="C34" s="50"/>
       <c r="D34" s="33">
         <f>SUM(D6:D33)</f>
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="E34" s="12"/>
     </row>
@@ -4017,7 +4016,7 @@
       <c r="E36" s="27"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:B5" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A5:B5"/>
   <mergeCells count="5">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:C3"/>
@@ -4026,7 +4025,7 @@
     <mergeCell ref="A35:D35"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="Name, Vorname:" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId1" display="Name, Vorname:"/>
   </hyperlinks>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" scale="75" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/IP_Controlling_Bruno_Maikoff.xlsx
+++ b/IP_Controlling_Bruno_Maikoff.xlsx
@@ -1360,52 +1360,52 @@
                   <c:v>125</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>130</c:v>
+                  <c:v>134</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>130</c:v>
+                  <c:v>134</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>130</c:v>
+                  <c:v>134</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>130</c:v>
+                  <c:v>134</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>130</c:v>
+                  <c:v>134</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>130</c:v>
+                  <c:v>134</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>130</c:v>
+                  <c:v>134</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>130</c:v>
+                  <c:v>134</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>130</c:v>
+                  <c:v>134</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>130</c:v>
+                  <c:v>134</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>130</c:v>
+                  <c:v>134</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>130</c:v>
+                  <c:v>134</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>130</c:v>
+                  <c:v>134</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>130</c:v>
+                  <c:v>134</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>130</c:v>
+                  <c:v>134</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>130</c:v>
+                  <c:v>134</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3023,7 +3023,7 @@
   <dimension ref="A1:AG36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="E21" sqref="E21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3444,67 +3444,67 @@
       </c>
       <c r="R5" s="45">
         <f t="shared" si="2"/>
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="S5" s="45">
         <f t="shared" si="2"/>
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="T5" s="45">
         <f t="shared" si="2"/>
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="U5" s="45">
         <f t="shared" si="2"/>
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="V5" s="45">
         <f t="shared" si="2"/>
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="W5" s="45">
         <f t="shared" si="2"/>
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="X5" s="45">
         <f t="shared" si="2"/>
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="Y5" s="45">
         <f t="shared" si="2"/>
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="Z5" s="45">
         <f t="shared" si="2"/>
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AA5" s="45">
         <f t="shared" si="2"/>
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AB5" s="45">
         <f t="shared" si="2"/>
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AC5" s="45">
         <f t="shared" si="2"/>
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AD5" s="45">
         <f t="shared" si="2"/>
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AE5" s="45">
         <f t="shared" si="2"/>
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AF5" s="45">
         <f t="shared" si="2"/>
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="AG5" s="45">
         <f t="shared" si="2"/>
-        <v>130</v>
+        <v>134</v>
       </c>
     </row>
     <row r="6" spans="1:33" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -3745,7 +3745,7 @@
         <v>43807</v>
       </c>
       <c r="D17" s="31">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="E17" s="11" t="s">
         <v>34</v>
@@ -3997,7 +3997,7 @@
       <c r="C34" s="50"/>
       <c r="D34" s="33">
         <f>SUM(D6:D33)</f>
-        <v>130</v>
+        <v>134</v>
       </c>
       <c r="E34" s="12"/>
     </row>

--- a/IP_Controlling_Bruno_Maikoff.xlsx
+++ b/IP_Controlling_Bruno_Maikoff.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mai714\Documents\Workspace\BlockChain_TransactionManager\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\BlockChain_TransactionManager\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCD2FE15-EEA4-4F46-919B-1604346CE087}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arbeitsrapport_Bruno" sheetId="11" r:id="rId1"/>
@@ -22,12 +23,14 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="1" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -35,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="36">
   <si>
     <t>Aufwand in h</t>
   </si>
@@ -150,7 +153,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -593,9 +596,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Standard 2" xfId="2"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -622,7 +625,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -709,7 +712,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1027,7 +1030,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1"/>
@@ -1082,7 +1085,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2067145632"/>
@@ -1130,7 +1133,7 @@
           <a:cs typeface="Arial"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1144,7 +1147,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1363,49 +1366,49 @@
                   <c:v>134</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>134</c:v>
+                  <c:v>139</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>134</c:v>
+                  <c:v>139</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>134</c:v>
+                  <c:v>139</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>134</c:v>
+                  <c:v>139</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>134</c:v>
+                  <c:v>139</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>134</c:v>
+                  <c:v>139</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>134</c:v>
+                  <c:v>139</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>134</c:v>
+                  <c:v>139</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>134</c:v>
+                  <c:v>139</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>134</c:v>
+                  <c:v>139</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>134</c:v>
+                  <c:v>139</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>134</c:v>
+                  <c:v>139</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>134</c:v>
+                  <c:v>139</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>134</c:v>
+                  <c:v>139</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>134</c:v>
+                  <c:v>139</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1462,7 +1465,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1"/>
@@ -1517,7 +1520,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2067145632"/>
@@ -1565,7 +1568,7 @@
           <a:cs typeface="Arial"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2009,14 +2012,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG36"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" customWidth="1"/>
@@ -3000,7 +3003,7 @@
       <c r="E36" s="27"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:B5"/>
+  <autoFilter ref="A5:B5" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="5">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:C3"/>
@@ -3009,7 +3012,7 @@
     <mergeCell ref="A35:D35"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="Name, Vorname:"/>
+    <hyperlink ref="A2" r:id="rId1" display="Name, Vorname:" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" scale="75" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -3019,14 +3022,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AG36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" customWidth="1"/>
@@ -3448,63 +3451,63 @@
       </c>
       <c r="S5" s="45">
         <f t="shared" si="2"/>
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="T5" s="45">
         <f t="shared" si="2"/>
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="U5" s="45">
         <f t="shared" si="2"/>
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="V5" s="45">
         <f t="shared" si="2"/>
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="W5" s="45">
         <f t="shared" si="2"/>
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="X5" s="45">
         <f t="shared" si="2"/>
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="Y5" s="45">
         <f t="shared" si="2"/>
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="Z5" s="45">
         <f t="shared" si="2"/>
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AA5" s="45">
         <f t="shared" si="2"/>
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AB5" s="45">
         <f t="shared" si="2"/>
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AC5" s="45">
         <f t="shared" si="2"/>
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AD5" s="45">
         <f t="shared" si="2"/>
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AE5" s="45">
         <f t="shared" si="2"/>
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AF5" s="45">
         <f t="shared" si="2"/>
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="AG5" s="45">
         <f t="shared" si="2"/>
-        <v>134</v>
+        <v>139</v>
       </c>
     </row>
     <row r="6" spans="1:33" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -3764,8 +3767,12 @@
         <f t="shared" si="4"/>
         <v>43814</v>
       </c>
-      <c r="D18" s="31"/>
-      <c r="E18" s="24"/>
+      <c r="D18" s="31">
+        <v>5</v>
+      </c>
+      <c r="E18" s="24" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="19" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A19" s="22">
@@ -3997,7 +4004,7 @@
       <c r="C34" s="50"/>
       <c r="D34" s="33">
         <f>SUM(D6:D33)</f>
-        <v>134</v>
+        <v>139</v>
       </c>
       <c r="E34" s="12"/>
     </row>
@@ -4016,7 +4023,7 @@
       <c r="E36" s="27"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:B5"/>
+  <autoFilter ref="A5:B5" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="5">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:C3"/>
@@ -4025,7 +4032,7 @@
     <mergeCell ref="A35:D35"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="Name, Vorname:"/>
+    <hyperlink ref="A2" r:id="rId1" display="Name, Vorname:" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" scale="75" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/IP_Controlling_Bruno_Maikoff.xlsx
+++ b/IP_Controlling_Bruno_Maikoff.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\BlockChain_TransactionManager\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mai714\Documents\Workspace\BlockChain_TransactionManager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BCD2FE15-EEA4-4F46-919B-1604346CE087}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Arbeitsrapport_Bruno" sheetId="11" r:id="rId1"/>
@@ -23,7 +22,7 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="1" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -153,7 +152,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -596,9 +595,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Standard 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard 2" xfId="2"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -625,7 +624,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -712,7 +711,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1030,7 +1029,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1"/>
@@ -1085,7 +1084,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2067145632"/>
@@ -1133,7 +1132,7 @@
           <a:cs typeface="Arial"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1147,7 +1146,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1366,49 +1365,49 @@
                   <c:v>134</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>139</c:v>
+                  <c:v>144</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>139</c:v>
+                  <c:v>144</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>139</c:v>
+                  <c:v>144</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>139</c:v>
+                  <c:v>144</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>139</c:v>
+                  <c:v>144</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>139</c:v>
+                  <c:v>144</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>139</c:v>
+                  <c:v>144</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>139</c:v>
+                  <c:v>144</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>139</c:v>
+                  <c:v>144</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>139</c:v>
+                  <c:v>144</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>139</c:v>
+                  <c:v>144</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>139</c:v>
+                  <c:v>144</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>139</c:v>
+                  <c:v>144</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>139</c:v>
+                  <c:v>144</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>139</c:v>
+                  <c:v>144</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1465,7 +1464,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1"/>
@@ -1520,7 +1519,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2067145632"/>
@@ -1568,7 +1567,7 @@
           <a:cs typeface="Arial"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2012,14 +2011,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG36"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" customWidth="1"/>
@@ -3003,7 +3002,7 @@
       <c r="E36" s="27"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:B5" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A5:B5"/>
   <mergeCells count="5">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:C3"/>
@@ -3012,7 +3011,7 @@
     <mergeCell ref="A35:D35"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="Name, Vorname:" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId1" display="Name, Vorname:"/>
   </hyperlinks>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" scale="75" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -3022,14 +3021,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" customWidth="1"/>
@@ -3451,63 +3450,63 @@
       </c>
       <c r="S5" s="45">
         <f t="shared" si="2"/>
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="T5" s="45">
         <f t="shared" si="2"/>
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="U5" s="45">
         <f t="shared" si="2"/>
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="V5" s="45">
         <f t="shared" si="2"/>
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="W5" s="45">
         <f t="shared" si="2"/>
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="X5" s="45">
         <f t="shared" si="2"/>
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="Y5" s="45">
         <f t="shared" si="2"/>
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="Z5" s="45">
         <f t="shared" si="2"/>
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AA5" s="45">
         <f t="shared" si="2"/>
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AB5" s="45">
         <f t="shared" si="2"/>
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AC5" s="45">
         <f t="shared" si="2"/>
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AD5" s="45">
         <f t="shared" si="2"/>
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AE5" s="45">
         <f t="shared" si="2"/>
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AF5" s="45">
         <f t="shared" si="2"/>
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="AG5" s="45">
         <f t="shared" si="2"/>
-        <v>139</v>
+        <v>144</v>
       </c>
     </row>
     <row r="6" spans="1:33" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -3768,7 +3767,7 @@
         <v>43814</v>
       </c>
       <c r="D18" s="31">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E18" s="24" t="s">
         <v>34</v>
@@ -4004,7 +4003,7 @@
       <c r="C34" s="50"/>
       <c r="D34" s="33">
         <f>SUM(D6:D33)</f>
-        <v>139</v>
+        <v>144</v>
       </c>
       <c r="E34" s="12"/>
     </row>
@@ -4023,7 +4022,7 @@
       <c r="E36" s="27"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:B5" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A5:B5"/>
   <mergeCells count="5">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:C3"/>
@@ -4032,7 +4031,7 @@
     <mergeCell ref="A35:D35"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="Name, Vorname:" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId1" display="Name, Vorname:"/>
   </hyperlinks>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" scale="75" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/IP_Controlling_Bruno_Maikoff.xlsx
+++ b/IP_Controlling_Bruno_Maikoff.xlsx
@@ -1365,49 +1365,49 @@
                   <c:v>134</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>144</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>144</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>144</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>144</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>144</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>144</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>144</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>144</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>144</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>144</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>144</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>144</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>144</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>144</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>144</c:v>
+                  <c:v>150</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3025,7 +3025,7 @@
   <dimension ref="A1:AG36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="E34" sqref="E34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3450,63 +3450,63 @@
       </c>
       <c r="S5" s="45">
         <f t="shared" si="2"/>
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="T5" s="45">
         <f t="shared" si="2"/>
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="U5" s="45">
         <f t="shared" si="2"/>
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="V5" s="45">
         <f t="shared" si="2"/>
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="W5" s="45">
         <f t="shared" si="2"/>
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="X5" s="45">
         <f t="shared" si="2"/>
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="Y5" s="45">
         <f t="shared" si="2"/>
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="Z5" s="45">
         <f t="shared" si="2"/>
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="AA5" s="45">
         <f t="shared" si="2"/>
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="AB5" s="45">
         <f t="shared" si="2"/>
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="AC5" s="45">
         <f t="shared" si="2"/>
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="AD5" s="45">
         <f t="shared" si="2"/>
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="AE5" s="45">
         <f t="shared" si="2"/>
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="AF5" s="45">
         <f t="shared" si="2"/>
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="AG5" s="45">
         <f t="shared" si="2"/>
-        <v>144</v>
+        <v>150</v>
       </c>
     </row>
     <row r="6" spans="1:33" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -3767,7 +3767,7 @@
         <v>43814</v>
       </c>
       <c r="D18" s="31">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="E18" s="24" t="s">
         <v>34</v>
@@ -4003,7 +4003,7 @@
       <c r="C34" s="50"/>
       <c r="D34" s="33">
         <f>SUM(D6:D33)</f>
-        <v>144</v>
+        <v>150</v>
       </c>
       <c r="E34" s="12"/>
     </row>

--- a/IP_Controlling_Bruno_Maikoff.xlsx
+++ b/IP_Controlling_Bruno_Maikoff.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mai714\Documents\Workspace\BlockChain_TransactionManager\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\BlockChain_TransactionManager\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD2AAC25-31A6-4D65-A7A8-97D2AB7A1F86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arbeitsrapport_Bruno" sheetId="11" r:id="rId1"/>
@@ -22,7 +23,7 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="1" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -152,7 +153,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -595,9 +596,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Standard 2" xfId="2"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -624,7 +625,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -711,7 +712,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1029,7 +1030,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1"/>
@@ -1084,7 +1085,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2067145632"/>
@@ -1132,7 +1133,7 @@
           <a:cs typeface="Arial"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1146,7 +1147,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1368,46 +1369,46 @@
                   <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>150</c:v>
+                  <c:v>155</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>150</c:v>
+                  <c:v>155</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>150</c:v>
+                  <c:v>155</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>150</c:v>
+                  <c:v>155</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>150</c:v>
+                  <c:v>155</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>150</c:v>
+                  <c:v>155</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>150</c:v>
+                  <c:v>155</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>150</c:v>
+                  <c:v>155</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>150</c:v>
+                  <c:v>155</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>150</c:v>
+                  <c:v>155</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>150</c:v>
+                  <c:v>155</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>150</c:v>
+                  <c:v>155</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>150</c:v>
+                  <c:v>155</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>150</c:v>
+                  <c:v>155</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1464,7 +1465,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1"/>
@@ -1519,7 +1520,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2067145632"/>
@@ -1567,7 +1568,7 @@
           <a:cs typeface="Arial"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2011,14 +2012,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG36"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" customWidth="1"/>
@@ -3002,7 +3003,7 @@
       <c r="E36" s="27"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:B5"/>
+  <autoFilter ref="A5:B5" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="5">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:C3"/>
@@ -3011,7 +3012,7 @@
     <mergeCell ref="A35:D35"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="Name, Vorname:"/>
+    <hyperlink ref="A2" r:id="rId1" display="Name, Vorname:" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" scale="75" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -3021,14 +3022,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AG36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" customWidth="1"/>
@@ -3454,59 +3455,59 @@
       </c>
       <c r="T5" s="45">
         <f t="shared" si="2"/>
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="U5" s="45">
         <f t="shared" si="2"/>
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="V5" s="45">
         <f t="shared" si="2"/>
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="W5" s="45">
         <f t="shared" si="2"/>
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="X5" s="45">
         <f t="shared" si="2"/>
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="Y5" s="45">
         <f t="shared" si="2"/>
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="Z5" s="45">
         <f t="shared" si="2"/>
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="AA5" s="45">
         <f t="shared" si="2"/>
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="AB5" s="45">
         <f t="shared" si="2"/>
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="AC5" s="45">
         <f t="shared" si="2"/>
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="AD5" s="45">
         <f t="shared" si="2"/>
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="AE5" s="45">
         <f t="shared" si="2"/>
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="AF5" s="45">
         <f t="shared" si="2"/>
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="AG5" s="45">
         <f t="shared" si="2"/>
-        <v>150</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6" spans="1:33" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -3786,7 +3787,9 @@
         <f t="shared" si="4"/>
         <v>43821</v>
       </c>
-      <c r="D19" s="31"/>
+      <c r="D19" s="31">
+        <v>5</v>
+      </c>
       <c r="E19" s="24"/>
     </row>
     <row r="20" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -4003,7 +4006,7 @@
       <c r="C34" s="50"/>
       <c r="D34" s="33">
         <f>SUM(D6:D33)</f>
-        <v>150</v>
+        <v>155</v>
       </c>
       <c r="E34" s="12"/>
     </row>
@@ -4022,7 +4025,7 @@
       <c r="E36" s="27"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:B5"/>
+  <autoFilter ref="A5:B5" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="5">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:C3"/>
@@ -4031,7 +4034,7 @@
     <mergeCell ref="A35:D35"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="Name, Vorname:"/>
+    <hyperlink ref="A2" r:id="rId1" display="Name, Vorname:" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" scale="75" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/IP_Controlling_Bruno_Maikoff.xlsx
+++ b/IP_Controlling_Bruno_Maikoff.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\BlockChain_TransactionManager\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mai714\Documents\Workspace\BlockChain_TransactionManager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DD2AAC25-31A6-4D65-A7A8-97D2AB7A1F86}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240"/>
   </bookViews>
   <sheets>
     <sheet name="Arbeitsrapport_Bruno" sheetId="11" r:id="rId1"/>
@@ -23,7 +22,7 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="1" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -38,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
   <si>
     <t>Aufwand in h</t>
   </si>
@@ -153,7 +152,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -596,9 +595,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Standard 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard 2" xfId="2"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -625,7 +624,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -712,7 +711,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -934,46 +933,46 @@
                   <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>111</c:v>
+                  <c:v>116</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>111</c:v>
+                  <c:v>116</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>111</c:v>
+                  <c:v>116</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>111</c:v>
+                  <c:v>116</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>111</c:v>
+                  <c:v>116</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>111</c:v>
+                  <c:v>116</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>111</c:v>
+                  <c:v>116</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>111</c:v>
+                  <c:v>116</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>111</c:v>
+                  <c:v>116</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>111</c:v>
+                  <c:v>116</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>111</c:v>
+                  <c:v>116</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>111</c:v>
+                  <c:v>116</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>111</c:v>
+                  <c:v>116</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>111</c:v>
+                  <c:v>116</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1030,7 +1029,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1"/>
@@ -1085,7 +1084,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2067145632"/>
@@ -1133,7 +1132,7 @@
           <a:cs typeface="Arial"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1147,7 +1146,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1369,46 +1368,46 @@
                   <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>155</c:v>
+                  <c:v>157</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>155</c:v>
+                  <c:v>157</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>155</c:v>
+                  <c:v>157</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>155</c:v>
+                  <c:v>157</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>155</c:v>
+                  <c:v>157</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>155</c:v>
+                  <c:v>157</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>155</c:v>
+                  <c:v>157</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>155</c:v>
+                  <c:v>157</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>155</c:v>
+                  <c:v>157</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>155</c:v>
+                  <c:v>157</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>155</c:v>
+                  <c:v>157</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>155</c:v>
+                  <c:v>157</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>155</c:v>
+                  <c:v>157</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>155</c:v>
+                  <c:v>157</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1465,7 +1464,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1"/>
@@ -1520,7 +1519,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2067145632"/>
@@ -1568,7 +1567,7 @@
           <a:cs typeface="Arial"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2012,14 +2011,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG36"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" customWidth="1"/>
@@ -2445,59 +2444,59 @@
       </c>
       <c r="T5" s="45">
         <f t="shared" si="29"/>
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="U5" s="45">
         <f t="shared" si="29"/>
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="V5" s="45">
         <f t="shared" si="29"/>
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="W5" s="45">
         <f t="shared" si="29"/>
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="X5" s="45">
         <f t="shared" si="29"/>
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="Y5" s="45">
         <f t="shared" si="29"/>
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="Z5" s="45">
         <f t="shared" si="29"/>
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="AA5" s="45">
         <f t="shared" si="29"/>
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="AB5" s="45">
         <f t="shared" si="29"/>
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="AC5" s="45">
         <f t="shared" si="29"/>
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="AD5" s="45">
         <f t="shared" si="29"/>
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="AE5" s="45">
         <f t="shared" ref="AE5" si="30">AD5+SUMIF($A$6:$A$33,AE3,$D$6:$D$33)</f>
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="AF5" s="45">
         <f t="shared" ref="AF5" si="31">AE5+SUMIF($A$6:$A$33,AF3,$D$6:$D$33)</f>
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="AG5" s="45">
         <f t="shared" ref="AG5" si="32">AF5+SUMIF($A$6:$A$33,AG3,$D$6:$D$33)</f>
-        <v>111</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:33" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
@@ -2767,7 +2766,9 @@
         <f t="shared" si="34"/>
         <v>43821</v>
       </c>
-      <c r="D19" s="31"/>
+      <c r="D19" s="31">
+        <v>5</v>
+      </c>
       <c r="E19" s="24"/>
     </row>
     <row r="20" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -2984,7 +2985,7 @@
       <c r="C34" s="50"/>
       <c r="D34" s="33">
         <f>SUM(D6:D33)</f>
-        <v>111</v>
+        <v>116</v>
       </c>
       <c r="E34" s="12"/>
     </row>
@@ -3003,7 +3004,7 @@
       <c r="E36" s="27"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:B5" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A5:B5"/>
   <mergeCells count="5">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:C3"/>
@@ -3012,7 +3013,7 @@
     <mergeCell ref="A35:D35"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="Name, Vorname:" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId1" display="Name, Vorname:"/>
   </hyperlinks>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" scale="75" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -3022,14 +3023,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E49" sqref="E49"/>
+    <sheetView topLeftCell="B13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" customWidth="1"/>
@@ -3455,59 +3456,59 @@
       </c>
       <c r="T5" s="45">
         <f t="shared" si="2"/>
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="U5" s="45">
         <f t="shared" si="2"/>
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="V5" s="45">
         <f t="shared" si="2"/>
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="W5" s="45">
         <f t="shared" si="2"/>
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="X5" s="45">
         <f t="shared" si="2"/>
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Y5" s="45">
         <f t="shared" si="2"/>
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="Z5" s="45">
         <f t="shared" si="2"/>
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AA5" s="45">
         <f t="shared" si="2"/>
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AB5" s="45">
         <f t="shared" si="2"/>
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AC5" s="45">
         <f t="shared" si="2"/>
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AD5" s="45">
         <f t="shared" si="2"/>
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AE5" s="45">
         <f t="shared" si="2"/>
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AF5" s="45">
         <f t="shared" si="2"/>
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="AG5" s="45">
         <f t="shared" si="2"/>
-        <v>155</v>
+        <v>157</v>
       </c>
     </row>
     <row r="6" spans="1:33" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -3788,9 +3789,11 @@
         <v>43821</v>
       </c>
       <c r="D19" s="31">
-        <v>5</v>
-      </c>
-      <c r="E19" s="24"/>
+        <v>7</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="20" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A20" s="22">
@@ -4006,7 +4009,7 @@
       <c r="C34" s="50"/>
       <c r="D34" s="33">
         <f>SUM(D6:D33)</f>
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="E34" s="12"/>
     </row>
@@ -4025,7 +4028,7 @@
       <c r="E36" s="27"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:B5" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A5:B5"/>
   <mergeCells count="5">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:C3"/>
@@ -4034,7 +4037,7 @@
     <mergeCell ref="A35:D35"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="Name, Vorname:" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId1" display="Name, Vorname:"/>
   </hyperlinks>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" scale="75" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/IP_Controlling_Bruno_Maikoff.xlsx
+++ b/IP_Controlling_Bruno_Maikoff.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Arbeitsrapport_Bruno" sheetId="11" r:id="rId1"/>
@@ -1368,46 +1368,46 @@
                   <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>157</c:v>
+                  <c:v>159</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>157</c:v>
+                  <c:v>159</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>157</c:v>
+                  <c:v>159</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>157</c:v>
+                  <c:v>159</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>157</c:v>
+                  <c:v>159</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>157</c:v>
+                  <c:v>159</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>157</c:v>
+                  <c:v>159</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>157</c:v>
+                  <c:v>159</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>157</c:v>
+                  <c:v>159</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>157</c:v>
+                  <c:v>159</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>157</c:v>
+                  <c:v>159</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>157</c:v>
+                  <c:v>159</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>157</c:v>
+                  <c:v>159</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>157</c:v>
+                  <c:v>159</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2014,7 +2014,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="K35" sqref="K35"/>
     </sheetView>
   </sheetViews>
@@ -3026,8 +3026,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG36"/>
   <sheetViews>
-    <sheetView topLeftCell="B13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3456,59 +3456,59 @@
       </c>
       <c r="T5" s="45">
         <f t="shared" si="2"/>
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="U5" s="45">
         <f t="shared" si="2"/>
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="V5" s="45">
         <f t="shared" si="2"/>
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="W5" s="45">
         <f t="shared" si="2"/>
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="X5" s="45">
         <f t="shared" si="2"/>
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Y5" s="45">
         <f t="shared" si="2"/>
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="Z5" s="45">
         <f t="shared" si="2"/>
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AA5" s="45">
         <f t="shared" si="2"/>
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AB5" s="45">
         <f t="shared" si="2"/>
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AC5" s="45">
         <f t="shared" si="2"/>
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AD5" s="45">
         <f t="shared" si="2"/>
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AE5" s="45">
         <f t="shared" si="2"/>
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AF5" s="45">
         <f t="shared" si="2"/>
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="AG5" s="45">
         <f t="shared" si="2"/>
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="6" spans="1:33" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -3789,7 +3789,7 @@
         <v>43821</v>
       </c>
       <c r="D19" s="31">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E19" s="24" t="s">
         <v>34</v>
@@ -4009,7 +4009,7 @@
       <c r="C34" s="50"/>
       <c r="D34" s="33">
         <f>SUM(D6:D33)</f>
-        <v>157</v>
+        <v>159</v>
       </c>
       <c r="E34" s="12"/>
     </row>

--- a/IP_Controlling_Bruno_Maikoff.xlsx
+++ b/IP_Controlling_Bruno_Maikoff.xlsx
@@ -1368,46 +1368,46 @@
                   <c:v>150</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>159</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>159</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>159</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>159</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>159</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>159</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>159</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>159</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>159</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>159</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>159</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>159</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>159</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>159</c:v>
+                  <c:v>160</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3027,7 +3027,7 @@
   <dimension ref="A1:AG36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3456,59 +3456,59 @@
       </c>
       <c r="T5" s="45">
         <f t="shared" si="2"/>
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="U5" s="45">
         <f t="shared" si="2"/>
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="V5" s="45">
         <f t="shared" si="2"/>
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="W5" s="45">
         <f t="shared" si="2"/>
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="X5" s="45">
         <f t="shared" si="2"/>
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Y5" s="45">
         <f t="shared" si="2"/>
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="Z5" s="45">
         <f t="shared" si="2"/>
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AA5" s="45">
         <f t="shared" si="2"/>
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AB5" s="45">
         <f t="shared" si="2"/>
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AC5" s="45">
         <f t="shared" si="2"/>
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AD5" s="45">
         <f t="shared" si="2"/>
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AE5" s="45">
         <f t="shared" si="2"/>
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AF5" s="45">
         <f t="shared" si="2"/>
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="AG5" s="45">
         <f t="shared" si="2"/>
-        <v>159</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:33" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -3789,7 +3789,7 @@
         <v>43821</v>
       </c>
       <c r="D19" s="31">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E19" s="24" t="s">
         <v>34</v>
@@ -4009,7 +4009,7 @@
       <c r="C34" s="50"/>
       <c r="D34" s="33">
         <f>SUM(D6:D33)</f>
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="E34" s="12"/>
     </row>

--- a/IP_Controlling_Bruno_Maikoff.xlsx
+++ b/IP_Controlling_Bruno_Maikoff.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mai714\Documents\Workspace\BlockChain_TransactionManager\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\BlockChain_TransactionManager\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D3FC4CC-7695-490E-8A8F-062E83F4DA29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="51840" windowHeight="21240" activeTab="1"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="38700" windowHeight="15435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arbeitsrapport_Bruno" sheetId="11" r:id="rId1"/>
@@ -22,7 +23,7 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="1" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="36">
   <si>
     <t>Aufwand in h</t>
   </si>
@@ -152,7 +153,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -595,9 +596,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Standard 2" xfId="2"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -624,7 +625,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -711,7 +712,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1029,7 +1030,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1"/>
@@ -1084,7 +1085,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2067145632"/>
@@ -1132,7 +1133,7 @@
           <a:cs typeface="Arial"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1146,7 +1147,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1374,40 +1375,40 @@
                   <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>160</c:v>
+                  <c:v>169</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>160</c:v>
+                  <c:v>169</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>160</c:v>
+                  <c:v>169</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>160</c:v>
+                  <c:v>169</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>160</c:v>
+                  <c:v>169</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>160</c:v>
+                  <c:v>169</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>160</c:v>
+                  <c:v>169</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>160</c:v>
+                  <c:v>169</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>160</c:v>
+                  <c:v>169</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>160</c:v>
+                  <c:v>169</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>160</c:v>
+                  <c:v>169</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>160</c:v>
+                  <c:v>169</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1464,7 +1465,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1"/>
@@ -1519,7 +1520,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2067145632"/>
@@ -1567,7 +1568,7 @@
           <a:cs typeface="Arial"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2011,14 +2012,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG36"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K35" sqref="K35"/>
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" customWidth="1"/>
@@ -3004,7 +3005,7 @@
       <c r="E36" s="27"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:B5"/>
+  <autoFilter ref="A5:B5" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="5">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:C3"/>
@@ -3013,7 +3014,7 @@
     <mergeCell ref="A35:D35"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="Name, Vorname:"/>
+    <hyperlink ref="A2" r:id="rId1" display="Name, Vorname:" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" scale="75" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -3023,14 +3024,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AG36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="AI19" sqref="AI19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" customWidth="1"/>
@@ -3464,51 +3465,51 @@
       </c>
       <c r="V5" s="45">
         <f t="shared" si="2"/>
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="W5" s="45">
         <f t="shared" si="2"/>
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="X5" s="45">
         <f t="shared" si="2"/>
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="Y5" s="45">
         <f t="shared" si="2"/>
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="Z5" s="45">
         <f t="shared" si="2"/>
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="AA5" s="45">
         <f t="shared" si="2"/>
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="AB5" s="45">
         <f t="shared" si="2"/>
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="AC5" s="45">
         <f t="shared" si="2"/>
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="AD5" s="45">
         <f t="shared" si="2"/>
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="AE5" s="45">
         <f t="shared" si="2"/>
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="AF5" s="45">
         <f t="shared" si="2"/>
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="AG5" s="45">
         <f t="shared" si="2"/>
-        <v>160</v>
+        <v>169</v>
       </c>
     </row>
     <row r="6" spans="1:33" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -3808,7 +3809,9 @@
         <f t="shared" si="4"/>
         <v>43828</v>
       </c>
-      <c r="D20" s="31"/>
+      <c r="D20" s="31">
+        <v>0</v>
+      </c>
       <c r="E20" s="24"/>
     </row>
     <row r="21" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -3824,8 +3827,12 @@
         <f t="shared" si="4"/>
         <v>43835</v>
       </c>
-      <c r="D21" s="31"/>
-      <c r="E21" s="24"/>
+      <c r="D21" s="31">
+        <v>9</v>
+      </c>
+      <c r="E21" s="24" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="22" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A22" s="38">
@@ -4009,7 +4016,7 @@
       <c r="C34" s="50"/>
       <c r="D34" s="33">
         <f>SUM(D6:D33)</f>
-        <v>160</v>
+        <v>169</v>
       </c>
       <c r="E34" s="12"/>
     </row>
@@ -4028,7 +4035,7 @@
       <c r="E36" s="27"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:B5"/>
+  <autoFilter ref="A5:B5" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="5">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:C3"/>
@@ -4037,7 +4044,7 @@
     <mergeCell ref="A35:D35"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="Name, Vorname:"/>
+    <hyperlink ref="A2" r:id="rId1" display="Name, Vorname:" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" scale="75" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/IP_Controlling_Bruno_Maikoff.xlsx
+++ b/IP_Controlling_Bruno_Maikoff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\BlockChain_TransactionManager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2D3FC4CC-7695-490E-8A8F-062E83F4DA29}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8364E734-FAD0-4491-871D-88143C81D195}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="38700" windowHeight="15435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1375,40 +1375,40 @@
                   <c:v>160</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>169</c:v>
+                  <c:v>175</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>169</c:v>
+                  <c:v>175</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>169</c:v>
+                  <c:v>175</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>169</c:v>
+                  <c:v>175</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>169</c:v>
+                  <c:v>175</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>169</c:v>
+                  <c:v>175</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>169</c:v>
+                  <c:v>175</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>169</c:v>
+                  <c:v>175</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>169</c:v>
+                  <c:v>175</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>169</c:v>
+                  <c:v>175</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>169</c:v>
+                  <c:v>175</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>169</c:v>
+                  <c:v>175</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3028,7 +3028,7 @@
   <dimension ref="A1:AG36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="AI19" sqref="AI19"/>
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3465,51 +3465,51 @@
       </c>
       <c r="V5" s="45">
         <f t="shared" si="2"/>
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="W5" s="45">
         <f t="shared" si="2"/>
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="X5" s="45">
         <f t="shared" si="2"/>
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="Y5" s="45">
         <f t="shared" si="2"/>
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="Z5" s="45">
         <f t="shared" si="2"/>
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="AA5" s="45">
         <f t="shared" si="2"/>
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="AB5" s="45">
         <f t="shared" si="2"/>
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="AC5" s="45">
         <f t="shared" si="2"/>
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="AD5" s="45">
         <f t="shared" si="2"/>
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="AE5" s="45">
         <f t="shared" si="2"/>
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="AF5" s="45">
         <f t="shared" si="2"/>
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="AG5" s="45">
         <f t="shared" si="2"/>
-        <v>169</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6" spans="1:33" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -3828,7 +3828,7 @@
         <v>43835</v>
       </c>
       <c r="D21" s="31">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="E21" s="24" t="s">
         <v>26</v>
@@ -4016,7 +4016,7 @@
       <c r="C34" s="50"/>
       <c r="D34" s="33">
         <f>SUM(D6:D33)</f>
-        <v>169</v>
+        <v>175</v>
       </c>
       <c r="E34" s="12"/>
     </row>

--- a/IP_Controlling_Bruno_Maikoff.xlsx
+++ b/IP_Controlling_Bruno_Maikoff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\BlockChain_TransactionManager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8364E734-FAD0-4491-871D-88143C81D195}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B1F272-C894-4022-9563-20E0F92AEB98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="38700" windowHeight="15435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
   <si>
     <t>Aufwand in h</t>
   </si>
@@ -148,6 +148,9 @@
   </si>
   <si>
     <t>Projektwoche/ Präsentation/Vorbereitung/Nachbearbeitung</t>
+  </si>
+  <si>
+    <t>Parity</t>
   </si>
 </sst>
 </file>
@@ -1378,37 +1381,37 @@
                   <c:v>175</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>175</c:v>
+                  <c:v>181</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>175</c:v>
+                  <c:v>181</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>175</c:v>
+                  <c:v>181</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>175</c:v>
+                  <c:v>181</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>175</c:v>
+                  <c:v>181</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>175</c:v>
+                  <c:v>181</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>175</c:v>
+                  <c:v>181</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>175</c:v>
+                  <c:v>181</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>175</c:v>
+                  <c:v>181</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>175</c:v>
+                  <c:v>181</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>175</c:v>
+                  <c:v>181</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3028,7 +3031,7 @@
   <dimension ref="A1:AG36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3469,47 +3472,47 @@
       </c>
       <c r="W5" s="45">
         <f t="shared" si="2"/>
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="X5" s="45">
         <f t="shared" si="2"/>
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="Y5" s="45">
         <f t="shared" si="2"/>
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="Z5" s="45">
         <f t="shared" si="2"/>
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="AA5" s="45">
         <f t="shared" si="2"/>
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="AB5" s="45">
         <f t="shared" si="2"/>
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="AC5" s="45">
         <f t="shared" si="2"/>
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="AD5" s="45">
         <f t="shared" si="2"/>
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="AE5" s="45">
         <f t="shared" si="2"/>
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="AF5" s="45">
         <f t="shared" si="2"/>
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="AG5" s="45">
         <f t="shared" si="2"/>
-        <v>175</v>
+        <v>181</v>
       </c>
     </row>
     <row r="6" spans="1:33" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -3847,8 +3850,12 @@
         <f>C21+7</f>
         <v>43842</v>
       </c>
-      <c r="D22" s="31"/>
-      <c r="E22" s="40"/>
+      <c r="D22" s="31">
+        <v>6</v>
+      </c>
+      <c r="E22" s="40" t="s">
+        <v>36</v>
+      </c>
     </row>
     <row r="23" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A23" s="22">
@@ -4016,7 +4023,7 @@
       <c r="C34" s="50"/>
       <c r="D34" s="33">
         <f>SUM(D6:D33)</f>
-        <v>175</v>
+        <v>181</v>
       </c>
       <c r="E34" s="12"/>
     </row>

--- a/IP_Controlling_Bruno_Maikoff.xlsx
+++ b/IP_Controlling_Bruno_Maikoff.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22228"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\BlockChain_TransactionManager\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspaces\BlockChain_TransactionManager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{67B1F272-C894-4022-9563-20E0F92AEB98}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F13488-B08B-4249-BB41-B06891146735}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="38700" windowHeight="15435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arbeitsrapport_Bruno" sheetId="11" r:id="rId1"/>
@@ -28,9 +28,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -599,8 +597,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Standard 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="2">
@@ -715,7 +713,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1033,7 +1031,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1"/>
@@ -1088,7 +1086,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2067145632"/>
@@ -1136,7 +1134,7 @@
           <a:cs typeface="Arial"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1150,7 +1148,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1381,37 +1379,37 @@
                   <c:v>175</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>181</c:v>
+                  <c:v>183</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>181</c:v>
+                  <c:v>183</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>181</c:v>
+                  <c:v>183</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>181</c:v>
+                  <c:v>183</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>181</c:v>
+                  <c:v>183</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>181</c:v>
+                  <c:v>183</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>181</c:v>
+                  <c:v>183</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>181</c:v>
+                  <c:v>183</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>181</c:v>
+                  <c:v>183</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>181</c:v>
+                  <c:v>183</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>181</c:v>
+                  <c:v>183</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1468,7 +1466,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1"/>
@@ -1523,7 +1521,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2067145632"/>
@@ -1571,7 +1569,7 @@
           <a:cs typeface="Arial"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2022,18 +2020,18 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.59765625" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" style="15" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="46.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.265625" customWidth="1"/>
+    <col min="3" max="3" width="10.265625" style="15" customWidth="1"/>
+    <col min="4" max="4" width="9.3984375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="46.73046875" customWidth="1"/>
     <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="33" width="4.7109375" customWidth="1"/>
+    <col min="7" max="33" width="4.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="3" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" s="3" customFormat="1" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="46" t="s">
         <v>3</v>
       </c>
@@ -2043,7 +2041,7 @@
       <c r="E1" s="46"/>
       <c r="F1" s="14"/>
     </row>
-    <row r="2" spans="1:33" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="47" t="s">
         <v>10</v>
       </c>
@@ -2138,7 +2136,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A3" s="47"/>
       <c r="B3" s="47"/>
       <c r="C3" s="47"/>
@@ -2255,7 +2253,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:33" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A4" s="16" t="s">
         <v>5</v>
       </c>
@@ -2375,7 +2373,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="5" spans="1:33" s="8" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" s="8" customFormat="1" ht="26.25" x14ac:dyDescent="0.35">
       <c r="A5" s="17" t="s">
         <v>6</v>
       </c>
@@ -2503,7 +2501,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="6" spans="1:33" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" s="10" customFormat="1" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A6" s="22">
         <v>1</v>
       </c>
@@ -2522,7 +2520,7 @@
       </c>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="1:33" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" s="10" customFormat="1" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A7" s="22">
         <f t="shared" ref="A7:A22" si="33">A6+1</f>
         <v>2</v>
@@ -2543,7 +2541,7 @@
       </c>
       <c r="F7" s="9"/>
     </row>
-    <row r="8" spans="1:33" s="10" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" s="10" customFormat="1" ht="30.4" x14ac:dyDescent="0.35">
       <c r="A8" s="22">
         <f t="shared" si="33"/>
         <v>3</v>
@@ -2564,7 +2562,7 @@
       </c>
       <c r="F8" s="9"/>
     </row>
-    <row r="9" spans="1:33" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33" s="10" customFormat="1" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A9" s="22">
         <f t="shared" si="33"/>
         <v>4</v>
@@ -2585,7 +2583,7 @@
       </c>
       <c r="F9" s="9"/>
     </row>
-    <row r="10" spans="1:33" s="11" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33" s="11" customFormat="1" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A10" s="22">
         <f t="shared" si="33"/>
         <v>5</v>
@@ -2606,7 +2604,7 @@
       </c>
       <c r="F10" s="9"/>
     </row>
-    <row r="11" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A11" s="22">
         <f t="shared" si="33"/>
         <v>6</v>
@@ -2627,7 +2625,7 @@
       </c>
       <c r="F11" s="9"/>
     </row>
-    <row r="12" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:33" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A12" s="22">
         <f t="shared" si="33"/>
         <v>7</v>
@@ -2644,7 +2642,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:33" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A13" s="22">
         <f t="shared" si="33"/>
         <v>8</v>
@@ -2664,7 +2662,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:33" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A14" s="22">
         <f t="shared" si="33"/>
         <v>9</v>
@@ -2684,7 +2682,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:33" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A15" s="22">
         <f t="shared" si="33"/>
         <v>10</v>
@@ -2704,7 +2702,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:33" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A16" s="34">
         <f t="shared" si="33"/>
         <v>11</v>
@@ -2724,7 +2722,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A17" s="38">
         <f t="shared" si="33"/>
         <v>12</v>
@@ -2741,7 +2739,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A18" s="22">
         <f t="shared" si="33"/>
         <v>13</v>
@@ -2757,7 +2755,7 @@
       <c r="D18" s="31"/>
       <c r="E18" s="24"/>
     </row>
-    <row r="19" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A19" s="22">
         <f t="shared" si="33"/>
         <v>14</v>
@@ -2775,7 +2773,7 @@
       </c>
       <c r="E19" s="24"/>
     </row>
-    <row r="20" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A20" s="22">
         <f t="shared" si="33"/>
         <v>15</v>
@@ -2791,7 +2789,7 @@
       <c r="D20" s="31"/>
       <c r="E20" s="24"/>
     </row>
-    <row r="21" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A21" s="22">
         <f t="shared" si="33"/>
         <v>16</v>
@@ -2807,7 +2805,7 @@
       <c r="D21" s="31"/>
       <c r="E21" s="24"/>
     </row>
-    <row r="22" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A22" s="38">
         <f t="shared" si="33"/>
         <v>17</v>
@@ -2823,7 +2821,7 @@
       <c r="D22" s="31"/>
       <c r="E22" s="40"/>
     </row>
-    <row r="23" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A23" s="22">
         <v>18</v>
       </c>
@@ -2838,7 +2836,7 @@
       <c r="D23" s="31"/>
       <c r="E23" s="24"/>
     </row>
-    <row r="24" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A24" s="22">
         <v>19</v>
       </c>
@@ -2853,7 +2851,7 @@
       <c r="D24" s="31"/>
       <c r="E24" s="24"/>
     </row>
-    <row r="25" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A25" s="22">
         <v>20</v>
       </c>
@@ -2868,7 +2866,7 @@
       <c r="D25" s="31"/>
       <c r="E25" s="24"/>
     </row>
-    <row r="26" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A26" s="22">
         <v>21</v>
       </c>
@@ -2883,7 +2881,7 @@
       <c r="D26" s="31"/>
       <c r="E26" s="24"/>
     </row>
-    <row r="27" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A27" s="22">
         <v>22</v>
       </c>
@@ -2898,7 +2896,7 @@
       <c r="D27" s="31"/>
       <c r="E27" s="24"/>
     </row>
-    <row r="28" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A28" s="22">
         <v>23</v>
       </c>
@@ -2913,7 +2911,7 @@
       <c r="D28" s="31"/>
       <c r="E28" s="24"/>
     </row>
-    <row r="29" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A29" s="22">
         <v>24</v>
       </c>
@@ -2928,7 +2926,7 @@
       <c r="D29" s="31"/>
       <c r="E29" s="24"/>
     </row>
-    <row r="30" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A30" s="22">
         <v>25</v>
       </c>
@@ -2943,7 +2941,7 @@
       <c r="D30" s="31"/>
       <c r="E30" s="24"/>
     </row>
-    <row r="31" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A31" s="22">
         <v>26</v>
       </c>
@@ -2957,7 +2955,7 @@
       </c>
       <c r="D31" s="31"/>
     </row>
-    <row r="32" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A32" s="34">
         <v>27</v>
       </c>
@@ -2974,14 +2972,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="25"/>
       <c r="B33" s="26"/>
       <c r="C33" s="26"/>
       <c r="D33" s="32"/>
       <c r="E33" s="27"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="50" t="s">
         <v>2</v>
       </c>
@@ -2993,14 +2991,14 @@
       </c>
       <c r="E34" s="12"/>
     </row>
-    <row r="35" spans="1:5" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="51"/>
       <c r="B35" s="51"/>
       <c r="C35" s="51"/>
       <c r="D35" s="51"/>
       <c r="E35" s="13"/>
     </row>
-    <row r="36" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="25"/>
       <c r="B36" s="26"/>
       <c r="C36" s="26"/>
@@ -3031,21 +3029,21 @@
   <dimension ref="A1:AG36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="E25" sqref="E25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.59765625" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" style="15" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="46.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.265625" customWidth="1"/>
+    <col min="3" max="3" width="10.265625" style="15" customWidth="1"/>
+    <col min="4" max="4" width="9.3984375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="46.73046875" customWidth="1"/>
     <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="33" width="4.7109375" customWidth="1"/>
+    <col min="7" max="33" width="4.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="3" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" s="3" customFormat="1" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="46" t="s">
         <v>3</v>
       </c>
@@ -3055,7 +3053,7 @@
       <c r="E1" s="46"/>
       <c r="F1" s="14"/>
     </row>
-    <row r="2" spans="1:33" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="47" t="s">
         <v>10</v>
       </c>
@@ -3150,7 +3148,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:33" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33" ht="12.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="47"/>
       <c r="B3" s="47"/>
       <c r="C3" s="47"/>
@@ -3267,7 +3265,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:33" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A4" s="43" t="s">
         <v>5</v>
       </c>
@@ -3387,7 +3385,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="5" spans="1:33" s="8" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" s="8" customFormat="1" ht="26.25" x14ac:dyDescent="0.35">
       <c r="A5" s="17" t="s">
         <v>6</v>
       </c>
@@ -3472,50 +3470,50 @@
       </c>
       <c r="W5" s="45">
         <f t="shared" si="2"/>
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="X5" s="45">
         <f t="shared" si="2"/>
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Y5" s="45">
         <f t="shared" si="2"/>
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Z5" s="45">
         <f t="shared" si="2"/>
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AA5" s="45">
         <f t="shared" si="2"/>
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AB5" s="45">
         <f t="shared" si="2"/>
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AC5" s="45">
         <f t="shared" si="2"/>
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AD5" s="45">
         <f t="shared" si="2"/>
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AE5" s="45">
         <f t="shared" si="2"/>
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AF5" s="45">
         <f t="shared" si="2"/>
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="AG5" s="45">
         <f t="shared" si="2"/>
-        <v>181</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" s="10" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A6" s="22">
         <v>1</v>
       </c>
@@ -3534,7 +3532,7 @@
       </c>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="1:33" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" s="10" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A7" s="22">
         <f t="shared" ref="A7:A22" si="3">A6+1</f>
         <v>2</v>
@@ -3555,7 +3553,7 @@
       </c>
       <c r="F7" s="9"/>
     </row>
-    <row r="8" spans="1:33" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" s="10" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A8" s="22">
         <f t="shared" si="3"/>
         <v>3</v>
@@ -3576,7 +3574,7 @@
       </c>
       <c r="F8" s="9"/>
     </row>
-    <row r="9" spans="1:33" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33" s="10" customFormat="1" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A9" s="22">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -3597,7 +3595,7 @@
       </c>
       <c r="F9" s="9"/>
     </row>
-    <row r="10" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A10" s="22">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -3618,7 +3616,7 @@
       </c>
       <c r="F10" s="9"/>
     </row>
-    <row r="11" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A11" s="22">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -3639,7 +3637,7 @@
       </c>
       <c r="F11" s="9"/>
     </row>
-    <row r="12" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:33" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A12" s="22">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -3659,7 +3657,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:33" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A13" s="22">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -3679,7 +3677,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:33" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A14" s="22">
         <f t="shared" si="3"/>
         <v>9</v>
@@ -3699,7 +3697,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:33" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A15" s="22">
         <f t="shared" si="3"/>
         <v>10</v>
@@ -3719,7 +3717,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:33" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A16" s="34">
         <f t="shared" si="3"/>
         <v>11</v>
@@ -3739,7 +3737,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A17" s="38">
         <f t="shared" si="3"/>
         <v>12</v>
@@ -3759,7 +3757,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A18" s="22">
         <f t="shared" si="3"/>
         <v>13</v>
@@ -3779,7 +3777,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A19" s="22">
         <f t="shared" si="3"/>
         <v>14</v>
@@ -3799,7 +3797,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A20" s="22">
         <f t="shared" si="3"/>
         <v>15</v>
@@ -3817,7 +3815,7 @@
       </c>
       <c r="E20" s="24"/>
     </row>
-    <row r="21" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A21" s="22">
         <f t="shared" si="3"/>
         <v>16</v>
@@ -3837,7 +3835,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A22" s="38">
         <f t="shared" si="3"/>
         <v>17</v>
@@ -3851,13 +3849,13 @@
         <v>43842</v>
       </c>
       <c r="D22" s="31">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="E22" s="40" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A23" s="22">
         <v>18</v>
       </c>
@@ -3872,7 +3870,7 @@
       <c r="D23" s="31"/>
       <c r="E23" s="24"/>
     </row>
-    <row r="24" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A24" s="22">
         <v>19</v>
       </c>
@@ -3887,7 +3885,7 @@
       <c r="D24" s="31"/>
       <c r="E24" s="24"/>
     </row>
-    <row r="25" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A25" s="22">
         <v>20</v>
       </c>
@@ -3902,7 +3900,7 @@
       <c r="D25" s="31"/>
       <c r="E25" s="24"/>
     </row>
-    <row r="26" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A26" s="22">
         <v>21</v>
       </c>
@@ -3917,7 +3915,7 @@
       <c r="D26" s="31"/>
       <c r="E26" s="24"/>
     </row>
-    <row r="27" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A27" s="22">
         <v>22</v>
       </c>
@@ -3932,7 +3930,7 @@
       <c r="D27" s="31"/>
       <c r="E27" s="24"/>
     </row>
-    <row r="28" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A28" s="22">
         <v>23</v>
       </c>
@@ -3947,7 +3945,7 @@
       <c r="D28" s="31"/>
       <c r="E28" s="24"/>
     </row>
-    <row r="29" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A29" s="22">
         <v>24</v>
       </c>
@@ -3962,7 +3960,7 @@
       <c r="D29" s="31"/>
       <c r="E29" s="24"/>
     </row>
-    <row r="30" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A30" s="22">
         <v>25</v>
       </c>
@@ -3977,7 +3975,7 @@
       <c r="D30" s="31"/>
       <c r="E30" s="24"/>
     </row>
-    <row r="31" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A31" s="22">
         <v>26</v>
       </c>
@@ -3991,7 +3989,7 @@
       </c>
       <c r="D31" s="31"/>
     </row>
-    <row r="32" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A32" s="34">
         <v>27</v>
       </c>
@@ -4008,14 +4006,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="25"/>
       <c r="B33" s="26"/>
       <c r="C33" s="26"/>
       <c r="D33" s="32"/>
       <c r="E33" s="27"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="50" t="s">
         <v>2</v>
       </c>
@@ -4023,18 +4021,18 @@
       <c r="C34" s="50"/>
       <c r="D34" s="33">
         <f>SUM(D6:D33)</f>
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="E34" s="12"/>
     </row>
-    <row r="35" spans="1:5" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="51"/>
       <c r="B35" s="51"/>
       <c r="C35" s="51"/>
       <c r="D35" s="51"/>
       <c r="E35" s="13"/>
     </row>
-    <row r="36" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="25"/>
       <c r="B36" s="26"/>
       <c r="C36" s="26"/>

--- a/IP_Controlling_Bruno_Maikoff.xlsx
+++ b/IP_Controlling_Bruno_Maikoff.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspaces\BlockChain_TransactionManager\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FHNW\Semester7\Bachlorthesis\BlockChain_TransactionManager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56F13488-B08B-4249-BB41-B06891146735}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36136382-C66C-49FC-984D-F1C7FCFA3A43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arbeitsrapport_Bruno" sheetId="11" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="56" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
   <si>
     <t>Aufwand in h</t>
   </si>
@@ -149,6 +149,18 @@
   </si>
   <si>
     <t>Parity</t>
+  </si>
+  <si>
+    <t>Einesen /arbeiten in Web3J</t>
+  </si>
+  <si>
+    <t>Treffen und Nachbearbeitungen vom Treffen</t>
+  </si>
+  <si>
+    <t>Nachbearbeitungen + Einlesen</t>
+  </si>
+  <si>
+    <t>Einarbeiten in Parity+Web3J, Status Meeting + Verbessern der FlowCharts</t>
   </si>
 </sst>
 </file>
@@ -597,8 +609,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Standard 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="2">
@@ -713,7 +725,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -935,46 +947,46 @@
                   <c:v>111</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>116</c:v>
+                  <c:v>121</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>116</c:v>
+                  <c:v>124</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>116</c:v>
+                  <c:v>124</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>116</c:v>
+                  <c:v>129</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>116</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>116</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>116</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>116</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>116</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>116</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>116</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>116</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>116</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>116</c:v>
+                  <c:v>141</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1031,7 +1043,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1"/>
@@ -1086,7 +1098,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2067145632"/>
@@ -1134,7 +1146,7 @@
           <a:cs typeface="Arial"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1148,7 +1160,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1466,7 +1478,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1"/>
@@ -1521,7 +1533,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2067145632"/>
@@ -1569,7 +1581,7 @@
           <a:cs typeface="Arial"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2016,22 +2028,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG36"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.59765625" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="10.265625" customWidth="1"/>
-    <col min="3" max="3" width="10.265625" style="15" customWidth="1"/>
-    <col min="4" max="4" width="9.3984375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="46.73046875" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="15" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="46.7109375" customWidth="1"/>
     <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="33" width="4.73046875" customWidth="1"/>
+    <col min="7" max="33" width="4.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="3" customFormat="1" ht="20.25" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:33" s="3" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="46" t="s">
         <v>3</v>
       </c>
@@ -2041,7 +2053,7 @@
       <c r="E1" s="46"/>
       <c r="F1" s="14"/>
     </row>
-    <row r="2" spans="1:33" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:33" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="47" t="s">
         <v>10</v>
       </c>
@@ -2136,7 +2148,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" s="47"/>
       <c r="B3" s="47"/>
       <c r="C3" s="47"/>
@@ -2253,7 +2265,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:33" ht="25.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:33" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
         <v>5</v>
       </c>
@@ -2373,7 +2385,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="5" spans="1:33" s="8" customFormat="1" ht="26.25" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:33" s="8" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
         <v>6</v>
       </c>
@@ -2446,62 +2458,62 @@
       </c>
       <c r="T5" s="45">
         <f t="shared" si="29"/>
-        <v>116</v>
+        <v>121</v>
       </c>
       <c r="U5" s="45">
         <f t="shared" si="29"/>
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="V5" s="45">
         <f t="shared" si="29"/>
-        <v>116</v>
+        <v>124</v>
       </c>
       <c r="W5" s="45">
         <f t="shared" si="29"/>
-        <v>116</v>
+        <v>129</v>
       </c>
       <c r="X5" s="45">
         <f t="shared" si="29"/>
-        <v>116</v>
+        <v>141</v>
       </c>
       <c r="Y5" s="45">
         <f t="shared" si="29"/>
-        <v>116</v>
+        <v>141</v>
       </c>
       <c r="Z5" s="45">
         <f t="shared" si="29"/>
-        <v>116</v>
+        <v>141</v>
       </c>
       <c r="AA5" s="45">
         <f t="shared" si="29"/>
-        <v>116</v>
+        <v>141</v>
       </c>
       <c r="AB5" s="45">
         <f t="shared" si="29"/>
-        <v>116</v>
+        <v>141</v>
       </c>
       <c r="AC5" s="45">
         <f t="shared" si="29"/>
-        <v>116</v>
+        <v>141</v>
       </c>
       <c r="AD5" s="45">
         <f t="shared" si="29"/>
-        <v>116</v>
+        <v>141</v>
       </c>
       <c r="AE5" s="45">
         <f t="shared" ref="AE5" si="30">AD5+SUMIF($A$6:$A$33,AE3,$D$6:$D$33)</f>
-        <v>116</v>
+        <v>141</v>
       </c>
       <c r="AF5" s="45">
         <f t="shared" ref="AF5" si="31">AE5+SUMIF($A$6:$A$33,AF3,$D$6:$D$33)</f>
-        <v>116</v>
+        <v>141</v>
       </c>
       <c r="AG5" s="45">
         <f t="shared" ref="AG5" si="32">AF5+SUMIF($A$6:$A$33,AG3,$D$6:$D$33)</f>
-        <v>116</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33" s="10" customFormat="1" ht="20.25" x14ac:dyDescent="0.35">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A6" s="22">
         <v>1</v>
       </c>
@@ -2520,7 +2532,7 @@
       </c>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="1:33" s="10" customFormat="1" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:33" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A7" s="22">
         <f t="shared" ref="A7:A22" si="33">A6+1</f>
         <v>2</v>
@@ -2541,7 +2553,7 @@
       </c>
       <c r="F7" s="9"/>
     </row>
-    <row r="8" spans="1:33" s="10" customFormat="1" ht="30.4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:33" s="10" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A8" s="22">
         <f t="shared" si="33"/>
         <v>3</v>
@@ -2562,7 +2574,7 @@
       </c>
       <c r="F8" s="9"/>
     </row>
-    <row r="9" spans="1:33" s="10" customFormat="1" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:33" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A9" s="22">
         <f t="shared" si="33"/>
         <v>4</v>
@@ -2583,7 +2595,7 @@
       </c>
       <c r="F9" s="9"/>
     </row>
-    <row r="10" spans="1:33" s="11" customFormat="1" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:33" s="11" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A10" s="22">
         <f t="shared" si="33"/>
         <v>5</v>
@@ -2604,7 +2616,7 @@
       </c>
       <c r="F10" s="9"/>
     </row>
-    <row r="11" spans="1:33" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A11" s="22">
         <f t="shared" si="33"/>
         <v>6</v>
@@ -2625,7 +2637,7 @@
       </c>
       <c r="F11" s="9"/>
     </row>
-    <row r="12" spans="1:33" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A12" s="22">
         <f t="shared" si="33"/>
         <v>7</v>
@@ -2642,7 +2654,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:33" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A13" s="22">
         <f t="shared" si="33"/>
         <v>8</v>
@@ -2662,7 +2674,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:33" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A14" s="22">
         <f t="shared" si="33"/>
         <v>9</v>
@@ -2682,7 +2694,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:33" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A15" s="22">
         <f t="shared" si="33"/>
         <v>10</v>
@@ -2702,7 +2714,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:33" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A16" s="34">
         <f t="shared" si="33"/>
         <v>11</v>
@@ -2722,7 +2734,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A17" s="38">
         <f t="shared" si="33"/>
         <v>12</v>
@@ -2739,7 +2751,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A18" s="22">
         <f t="shared" si="33"/>
         <v>13</v>
@@ -2755,7 +2767,7 @@
       <c r="D18" s="31"/>
       <c r="E18" s="24"/>
     </row>
-    <row r="19" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A19" s="22">
         <f t="shared" si="33"/>
         <v>14</v>
@@ -2769,11 +2781,13 @@
         <v>43821</v>
       </c>
       <c r="D19" s="31">
-        <v>5</v>
-      </c>
-      <c r="E19" s="24"/>
-    </row>
-    <row r="20" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="E19" s="24" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A20" s="22">
         <f t="shared" si="33"/>
         <v>15</v>
@@ -2786,10 +2800,14 @@
         <f t="shared" si="34"/>
         <v>43828</v>
       </c>
-      <c r="D20" s="31"/>
-      <c r="E20" s="24"/>
-    </row>
-    <row r="21" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+      <c r="D20" s="31">
+        <v>3</v>
+      </c>
+      <c r="E20" s="24" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A21" s="22">
         <f t="shared" si="33"/>
         <v>16</v>
@@ -2805,7 +2823,7 @@
       <c r="D21" s="31"/>
       <c r="E21" s="24"/>
     </row>
-    <row r="22" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A22" s="38">
         <f t="shared" si="33"/>
         <v>17</v>
@@ -2818,10 +2836,14 @@
         <f>C21+7</f>
         <v>43842</v>
       </c>
-      <c r="D22" s="31"/>
-      <c r="E22" s="40"/>
-    </row>
-    <row r="23" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+      <c r="D22" s="31">
+        <v>5</v>
+      </c>
+      <c r="E22" s="40" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" s="11" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A23" s="22">
         <v>18</v>
       </c>
@@ -2833,10 +2855,14 @@
         <f t="shared" si="34"/>
         <v>43849</v>
       </c>
-      <c r="D23" s="31"/>
-      <c r="E23" s="24"/>
-    </row>
-    <row r="24" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+      <c r="D23" s="31">
+        <v>12</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A24" s="22">
         <v>19</v>
       </c>
@@ -2851,7 +2877,7 @@
       <c r="D24" s="31"/>
       <c r="E24" s="24"/>
     </row>
-    <row r="25" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A25" s="22">
         <v>20</v>
       </c>
@@ -2866,7 +2892,7 @@
       <c r="D25" s="31"/>
       <c r="E25" s="24"/>
     </row>
-    <row r="26" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A26" s="22">
         <v>21</v>
       </c>
@@ -2881,7 +2907,7 @@
       <c r="D26" s="31"/>
       <c r="E26" s="24"/>
     </row>
-    <row r="27" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A27" s="22">
         <v>22</v>
       </c>
@@ -2896,7 +2922,7 @@
       <c r="D27" s="31"/>
       <c r="E27" s="24"/>
     </row>
-    <row r="28" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A28" s="22">
         <v>23</v>
       </c>
@@ -2911,7 +2937,7 @@
       <c r="D28" s="31"/>
       <c r="E28" s="24"/>
     </row>
-    <row r="29" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A29" s="22">
         <v>24</v>
       </c>
@@ -2926,7 +2952,7 @@
       <c r="D29" s="31"/>
       <c r="E29" s="24"/>
     </row>
-    <row r="30" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A30" s="22">
         <v>25</v>
       </c>
@@ -2941,7 +2967,7 @@
       <c r="D30" s="31"/>
       <c r="E30" s="24"/>
     </row>
-    <row r="31" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A31" s="22">
         <v>26</v>
       </c>
@@ -2955,7 +2981,7 @@
       </c>
       <c r="D31" s="31"/>
     </row>
-    <row r="32" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A32" s="34">
         <v>27</v>
       </c>
@@ -2972,14 +2998,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="25"/>
       <c r="B33" s="26"/>
       <c r="C33" s="26"/>
       <c r="D33" s="32"/>
       <c r="E33" s="27"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="50" t="s">
         <v>2</v>
       </c>
@@ -2987,18 +3013,18 @@
       <c r="C34" s="50"/>
       <c r="D34" s="33">
         <f>SUM(D6:D33)</f>
-        <v>116</v>
+        <v>141</v>
       </c>
       <c r="E34" s="12"/>
     </row>
-    <row r="35" spans="1:5" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:5" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="51"/>
       <c r="B35" s="51"/>
       <c r="C35" s="51"/>
       <c r="D35" s="51"/>
       <c r="E35" s="13"/>
     </row>
-    <row r="36" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="25"/>
       <c r="B36" s="26"/>
       <c r="C36" s="26"/>
@@ -3028,22 +3054,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AG36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+    <sheetView topLeftCell="B13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D23" sqref="D23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.59765625" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="10.265625" customWidth="1"/>
-    <col min="3" max="3" width="10.265625" style="15" customWidth="1"/>
-    <col min="4" max="4" width="9.3984375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="46.73046875" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="15" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="46.7109375" customWidth="1"/>
     <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="33" width="4.73046875" customWidth="1"/>
+    <col min="7" max="33" width="4.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="3" customFormat="1" ht="20.25" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:33" s="3" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="46" t="s">
         <v>3</v>
       </c>
@@ -3053,7 +3079,7 @@
       <c r="E1" s="46"/>
       <c r="F1" s="14"/>
     </row>
-    <row r="2" spans="1:33" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:33" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="47" t="s">
         <v>10</v>
       </c>
@@ -3148,7 +3174,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:33" ht="12.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:33" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="47"/>
       <c r="B3" s="47"/>
       <c r="C3" s="47"/>
@@ -3265,7 +3291,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:33" ht="25.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:33" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="43" t="s">
         <v>5</v>
       </c>
@@ -3385,7 +3411,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="5" spans="1:33" s="8" customFormat="1" ht="26.25" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:33" s="8" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
         <v>6</v>
       </c>
@@ -3513,7 +3539,7 @@
         <v>183</v>
       </c>
     </row>
-    <row r="6" spans="1:33" s="10" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:33" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A6" s="22">
         <v>1</v>
       </c>
@@ -3532,7 +3558,7 @@
       </c>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="1:33" s="10" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:33" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A7" s="22">
         <f t="shared" ref="A7:A22" si="3">A6+1</f>
         <v>2</v>
@@ -3553,7 +3579,7 @@
       </c>
       <c r="F7" s="9"/>
     </row>
-    <row r="8" spans="1:33" s="10" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:33" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A8" s="22">
         <f t="shared" si="3"/>
         <v>3</v>
@@ -3574,7 +3600,7 @@
       </c>
       <c r="F8" s="9"/>
     </row>
-    <row r="9" spans="1:33" s="10" customFormat="1" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:33" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A9" s="22">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -3595,7 +3621,7 @@
       </c>
       <c r="F9" s="9"/>
     </row>
-    <row r="10" spans="1:33" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A10" s="22">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -3616,7 +3642,7 @@
       </c>
       <c r="F10" s="9"/>
     </row>
-    <row r="11" spans="1:33" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A11" s="22">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -3637,7 +3663,7 @@
       </c>
       <c r="F11" s="9"/>
     </row>
-    <row r="12" spans="1:33" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A12" s="22">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -3657,7 +3683,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:33" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A13" s="22">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -3677,7 +3703,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:33" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A14" s="22">
         <f t="shared" si="3"/>
         <v>9</v>
@@ -3697,7 +3723,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:33" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A15" s="22">
         <f t="shared" si="3"/>
         <v>10</v>
@@ -3717,7 +3743,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:33" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A16" s="34">
         <f t="shared" si="3"/>
         <v>11</v>
@@ -3737,7 +3763,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A17" s="38">
         <f t="shared" si="3"/>
         <v>12</v>
@@ -3757,7 +3783,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A18" s="22">
         <f t="shared" si="3"/>
         <v>13</v>
@@ -3777,7 +3803,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A19" s="22">
         <f t="shared" si="3"/>
         <v>14</v>
@@ -3797,7 +3823,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A20" s="22">
         <f t="shared" si="3"/>
         <v>15</v>
@@ -3815,7 +3841,7 @@
       </c>
       <c r="E20" s="24"/>
     </row>
-    <row r="21" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A21" s="22">
         <f t="shared" si="3"/>
         <v>16</v>
@@ -3835,7 +3861,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A22" s="38">
         <f t="shared" si="3"/>
         <v>17</v>
@@ -3855,7 +3881,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A23" s="22">
         <v>18</v>
       </c>
@@ -3870,7 +3896,7 @@
       <c r="D23" s="31"/>
       <c r="E23" s="24"/>
     </row>
-    <row r="24" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A24" s="22">
         <v>19</v>
       </c>
@@ -3885,7 +3911,7 @@
       <c r="D24" s="31"/>
       <c r="E24" s="24"/>
     </row>
-    <row r="25" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A25" s="22">
         <v>20</v>
       </c>
@@ -3900,7 +3926,7 @@
       <c r="D25" s="31"/>
       <c r="E25" s="24"/>
     </row>
-    <row r="26" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A26" s="22">
         <v>21</v>
       </c>
@@ -3915,7 +3941,7 @@
       <c r="D26" s="31"/>
       <c r="E26" s="24"/>
     </row>
-    <row r="27" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A27" s="22">
         <v>22</v>
       </c>
@@ -3930,7 +3956,7 @@
       <c r="D27" s="31"/>
       <c r="E27" s="24"/>
     </row>
-    <row r="28" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A28" s="22">
         <v>23</v>
       </c>
@@ -3945,7 +3971,7 @@
       <c r="D28" s="31"/>
       <c r="E28" s="24"/>
     </row>
-    <row r="29" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A29" s="22">
         <v>24</v>
       </c>
@@ -3960,7 +3986,7 @@
       <c r="D29" s="31"/>
       <c r="E29" s="24"/>
     </row>
-    <row r="30" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A30" s="22">
         <v>25</v>
       </c>
@@ -3975,7 +4001,7 @@
       <c r="D30" s="31"/>
       <c r="E30" s="24"/>
     </row>
-    <row r="31" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A31" s="22">
         <v>26</v>
       </c>
@@ -3989,7 +4015,7 @@
       </c>
       <c r="D31" s="31"/>
     </row>
-    <row r="32" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A32" s="34">
         <v>27</v>
       </c>
@@ -4006,14 +4032,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="25"/>
       <c r="B33" s="26"/>
       <c r="C33" s="26"/>
       <c r="D33" s="32"/>
       <c r="E33" s="27"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="50" t="s">
         <v>2</v>
       </c>
@@ -4025,14 +4051,14 @@
       </c>
       <c r="E34" s="12"/>
     </row>
-    <row r="35" spans="1:5" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:5" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="51"/>
       <c r="B35" s="51"/>
       <c r="C35" s="51"/>
       <c r="D35" s="51"/>
       <c r="E35" s="13"/>
     </row>
-    <row r="36" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="25"/>
       <c r="B36" s="26"/>
       <c r="C36" s="26"/>

--- a/IP_Controlling_Bruno_Maikoff.xlsx
+++ b/IP_Controlling_Bruno_Maikoff.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FHNW\Semester7\Bachlorthesis\BlockChain_TransactionManager\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\BlockChain_TransactionManager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36136382-C66C-49FC-984D-F1C7FCFA3A43}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF191BD-4091-47F2-BA07-14F40650E383}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="38700" windowHeight="15435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arbeitsrapport_Bruno" sheetId="11" r:id="rId1"/>
@@ -28,7 +28,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="42">
   <si>
     <t>Aufwand in h</t>
   </si>
@@ -160,7 +162,10 @@
     <t>Nachbearbeitungen + Einlesen</t>
   </si>
   <si>
-    <t>Einarbeiten in Parity+Web3J, Status Meeting + Verbessern der FlowCharts</t>
+    <t>Partiy, Docker</t>
+  </si>
+  <si>
+    <t>Einarbeiten in Parity+Web3J, Status Meeting + Verbessern der FlowCharts, Docker</t>
   </si>
 </sst>
 </file>
@@ -959,34 +964,34 @@
                   <c:v>129</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>141</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>141</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>141</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>141</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>141</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>141</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>141</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>141</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>141</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>141</c:v>
+                  <c:v>140</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1394,34 +1399,34 @@
                   <c:v>183</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>183</c:v>
+                  <c:v>194</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>183</c:v>
+                  <c:v>194</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>183</c:v>
+                  <c:v>194</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>183</c:v>
+                  <c:v>194</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>183</c:v>
+                  <c:v>194</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>183</c:v>
+                  <c:v>194</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>183</c:v>
+                  <c:v>194</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>183</c:v>
+                  <c:v>194</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>183</c:v>
+                  <c:v>194</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>183</c:v>
+                  <c:v>194</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2028,8 +2033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2474,43 +2479,43 @@
       </c>
       <c r="X5" s="45">
         <f t="shared" si="29"/>
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Y5" s="45">
         <f t="shared" si="29"/>
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="Z5" s="45">
         <f t="shared" si="29"/>
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AA5" s="45">
         <f t="shared" si="29"/>
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AB5" s="45">
         <f t="shared" si="29"/>
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AC5" s="45">
         <f t="shared" si="29"/>
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AD5" s="45">
         <f t="shared" si="29"/>
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AE5" s="45">
         <f t="shared" ref="AE5" si="30">AD5+SUMIF($A$6:$A$33,AE3,$D$6:$D$33)</f>
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AF5" s="45">
         <f t="shared" ref="AF5" si="31">AE5+SUMIF($A$6:$A$33,AF3,$D$6:$D$33)</f>
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="AG5" s="45">
         <f t="shared" ref="AG5" si="32">AF5+SUMIF($A$6:$A$33,AG3,$D$6:$D$33)</f>
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="6" spans="1:33" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
@@ -2856,10 +2861,10 @@
         <v>43849</v>
       </c>
       <c r="D23" s="31">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -3013,7 +3018,7 @@
       <c r="C34" s="50"/>
       <c r="D34" s="33">
         <f>SUM(D6:D33)</f>
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="E34" s="12"/>
     </row>
@@ -3054,8 +3059,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AG36"/>
   <sheetViews>
-    <sheetView topLeftCell="B13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E43" sqref="E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3500,43 +3505,43 @@
       </c>
       <c r="X5" s="45">
         <f t="shared" si="2"/>
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="Y5" s="45">
         <f t="shared" si="2"/>
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="Z5" s="45">
         <f t="shared" si="2"/>
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="AA5" s="45">
         <f t="shared" si="2"/>
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="AB5" s="45">
         <f t="shared" si="2"/>
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="AC5" s="45">
         <f t="shared" si="2"/>
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="AD5" s="45">
         <f t="shared" si="2"/>
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="AE5" s="45">
         <f t="shared" si="2"/>
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="AF5" s="45">
         <f t="shared" si="2"/>
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="AG5" s="45">
         <f t="shared" si="2"/>
-        <v>183</v>
+        <v>194</v>
       </c>
     </row>
     <row r="6" spans="1:33" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -3893,8 +3898,12 @@
         <f t="shared" si="4"/>
         <v>43849</v>
       </c>
-      <c r="D23" s="31"/>
-      <c r="E23" s="24"/>
+      <c r="D23" s="31">
+        <v>11</v>
+      </c>
+      <c r="E23" s="24" t="s">
+        <v>40</v>
+      </c>
     </row>
     <row r="24" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A24" s="22">
@@ -4047,7 +4056,7 @@
       <c r="C34" s="50"/>
       <c r="D34" s="33">
         <f>SUM(D6:D33)</f>
-        <v>183</v>
+        <v>194</v>
       </c>
       <c r="E34" s="12"/>
     </row>

--- a/IP_Controlling_Bruno_Maikoff.xlsx
+++ b/IP_Controlling_Bruno_Maikoff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\BlockChain_TransactionManager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AFF191BD-4091-47F2-BA07-14F40650E383}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4941AF1-42F6-4E4A-A440-A9046318224B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="38700" windowHeight="15435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -162,10 +162,10 @@
     <t>Nachbearbeitungen + Einlesen</t>
   </si>
   <si>
-    <t>Partiy, Docker</t>
-  </si>
-  <si>
     <t>Einarbeiten in Parity+Web3J, Status Meeting + Verbessern der FlowCharts, Docker</t>
+  </si>
+  <si>
+    <t>Partiy, Docker; Java</t>
   </si>
 </sst>
 </file>
@@ -1399,34 +1399,34 @@
                   <c:v>183</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>194</c:v>
+                  <c:v>198</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>194</c:v>
+                  <c:v>198</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>194</c:v>
+                  <c:v>198</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>194</c:v>
+                  <c:v>198</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>194</c:v>
+                  <c:v>198</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>194</c:v>
+                  <c:v>198</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>194</c:v>
+                  <c:v>198</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>194</c:v>
+                  <c:v>198</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>194</c:v>
+                  <c:v>198</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>194</c:v>
+                  <c:v>198</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2864,7 +2864,7 @@
         <v>11</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -3060,7 +3060,7 @@
   <dimension ref="A1:AG36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E43" sqref="E43"/>
+      <selection activeCell="F38" sqref="F38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3505,43 +3505,43 @@
       </c>
       <c r="X5" s="45">
         <f t="shared" si="2"/>
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Y5" s="45">
         <f t="shared" si="2"/>
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="Z5" s="45">
         <f t="shared" si="2"/>
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="AA5" s="45">
         <f t="shared" si="2"/>
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="AB5" s="45">
         <f t="shared" si="2"/>
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="AC5" s="45">
         <f t="shared" si="2"/>
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="AD5" s="45">
         <f t="shared" si="2"/>
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="AE5" s="45">
         <f t="shared" si="2"/>
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="AF5" s="45">
         <f t="shared" si="2"/>
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="AG5" s="45">
         <f t="shared" si="2"/>
-        <v>194</v>
+        <v>198</v>
       </c>
     </row>
     <row r="6" spans="1:33" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -3899,10 +3899,10 @@
         <v>43849</v>
       </c>
       <c r="D23" s="31">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -4056,7 +4056,7 @@
       <c r="C34" s="50"/>
       <c r="D34" s="33">
         <f>SUM(D6:D33)</f>
-        <v>194</v>
+        <v>198</v>
       </c>
       <c r="E34" s="12"/>
     </row>

--- a/IP_Controlling_Bruno_Maikoff.xlsx
+++ b/IP_Controlling_Bruno_Maikoff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\BlockChain_TransactionManager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E4941AF1-42F6-4E4A-A440-A9046318224B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBE6C5CA-D13D-40A9-B5B2-F674F4B6199D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="38700" windowHeight="15435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1399,34 +1399,34 @@
                   <c:v>183</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>198</c:v>
+                  <c:v>202</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>198</c:v>
+                  <c:v>202</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>198</c:v>
+                  <c:v>202</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>198</c:v>
+                  <c:v>202</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>198</c:v>
+                  <c:v>202</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>198</c:v>
+                  <c:v>202</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>198</c:v>
+                  <c:v>202</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>198</c:v>
+                  <c:v>202</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>198</c:v>
+                  <c:v>202</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>198</c:v>
+                  <c:v>202</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3060,7 +3060,7 @@
   <dimension ref="A1:AG36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F38" sqref="F38"/>
+      <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3505,43 +3505,43 @@
       </c>
       <c r="X5" s="45">
         <f t="shared" si="2"/>
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Y5" s="45">
         <f t="shared" si="2"/>
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="Z5" s="45">
         <f t="shared" si="2"/>
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="AA5" s="45">
         <f t="shared" si="2"/>
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="AB5" s="45">
         <f t="shared" si="2"/>
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="AC5" s="45">
         <f t="shared" si="2"/>
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="AD5" s="45">
         <f t="shared" si="2"/>
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="AE5" s="45">
         <f t="shared" si="2"/>
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="AF5" s="45">
         <f t="shared" si="2"/>
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="AG5" s="45">
         <f t="shared" si="2"/>
-        <v>198</v>
+        <v>202</v>
       </c>
     </row>
     <row r="6" spans="1:33" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -3899,7 +3899,7 @@
         <v>43849</v>
       </c>
       <c r="D23" s="31">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E23" s="24" t="s">
         <v>41</v>
@@ -4056,7 +4056,7 @@
       <c r="C34" s="50"/>
       <c r="D34" s="33">
         <f>SUM(D6:D33)</f>
-        <v>198</v>
+        <v>202</v>
       </c>
       <c r="E34" s="12"/>
     </row>

--- a/IP_Controlling_Bruno_Maikoff.xlsx
+++ b/IP_Controlling_Bruno_Maikoff.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\BlockChain_TransactionManager\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FHNW\Semester7\Bachlorthesis\BlockChain_TransactionManager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FBE6C5CA-D13D-40A9-B5B2-F674F4B6199D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39062A6C-151E-4AD5-9589-65FABDB628DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="38700" windowHeight="15435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arbeitsrapport_Bruno" sheetId="11" r:id="rId1"/>
@@ -162,10 +162,10 @@
     <t>Nachbearbeitungen + Einlesen</t>
   </si>
   <si>
-    <t>Einarbeiten in Parity+Web3J, Status Meeting + Verbessern der FlowCharts, Docker</t>
-  </si>
-  <si>
     <t>Partiy, Docker; Java</t>
+  </si>
+  <si>
+    <t>Einarbeiten in Parity+Web3J, Status Meeting + Verbessern der FlowCharts, Docker, Versucht UnCertified Account Transaktionen zu blockieren wenn Transaktions Gas null ist</t>
   </si>
 </sst>
 </file>
@@ -964,34 +964,34 @@
                   <c:v>129</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>140</c:v>
+                  <c:v>145</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>140</c:v>
+                  <c:v>145</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>140</c:v>
+                  <c:v>145</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>140</c:v>
+                  <c:v>145</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>140</c:v>
+                  <c:v>145</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>140</c:v>
+                  <c:v>145</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>140</c:v>
+                  <c:v>145</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>140</c:v>
+                  <c:v>145</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>140</c:v>
+                  <c:v>145</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>140</c:v>
+                  <c:v>145</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2033,8 +2033,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG36"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G46" sqref="G46"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2479,43 +2479,43 @@
       </c>
       <c r="X5" s="45">
         <f t="shared" si="29"/>
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="Y5" s="45">
         <f t="shared" si="29"/>
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="Z5" s="45">
         <f t="shared" si="29"/>
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="AA5" s="45">
         <f t="shared" si="29"/>
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="AB5" s="45">
         <f t="shared" si="29"/>
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="AC5" s="45">
         <f t="shared" si="29"/>
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="AD5" s="45">
         <f t="shared" si="29"/>
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="AE5" s="45">
         <f t="shared" ref="AE5" si="30">AD5+SUMIF($A$6:$A$33,AE3,$D$6:$D$33)</f>
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="AF5" s="45">
         <f t="shared" ref="AF5" si="31">AE5+SUMIF($A$6:$A$33,AF3,$D$6:$D$33)</f>
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="AG5" s="45">
         <f t="shared" ref="AG5" si="32">AF5+SUMIF($A$6:$A$33,AG3,$D$6:$D$33)</f>
-        <v>140</v>
+        <v>145</v>
       </c>
     </row>
     <row r="6" spans="1:33" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
@@ -2848,7 +2848,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="11" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" s="11" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A23" s="22">
         <v>18</v>
       </c>
@@ -2861,10 +2861,10 @@
         <v>43849</v>
       </c>
       <c r="D23" s="31">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="24" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -3018,7 +3018,7 @@
       <c r="C34" s="50"/>
       <c r="D34" s="33">
         <f>SUM(D6:D33)</f>
-        <v>140</v>
+        <v>145</v>
       </c>
       <c r="E34" s="12"/>
     </row>
@@ -3059,7 +3059,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AG36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="B13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="E42" sqref="E42"/>
     </sheetView>
   </sheetViews>
@@ -3902,7 +3902,7 @@
         <v>19</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">

--- a/IP_Controlling_Bruno_Maikoff.xlsx
+++ b/IP_Controlling_Bruno_Maikoff.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FHNW\Semester7\Bachlorthesis\BlockChain_TransactionManager\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\BlockChain_TransactionManager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39062A6C-151E-4AD5-9589-65FABDB628DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{026194E0-8216-4978-BA34-C5B9FF434D46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="38700" windowHeight="15435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arbeitsrapport_Bruno" sheetId="11" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="61" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="43">
   <si>
     <t>Aufwand in h</t>
   </si>
@@ -166,6 +166,9 @@
   </si>
   <si>
     <t>Einarbeiten in Parity+Web3J, Status Meeting + Verbessern der FlowCharts, Docker, Versucht UnCertified Account Transaktionen zu blockieren wenn Transaktions Gas null ist</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Parity, Docker, Java, Remote Access </t>
   </si>
 </sst>
 </file>
@@ -1402,31 +1405,31 @@
                   <c:v>202</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>202</c:v>
+                  <c:v>215</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>202</c:v>
+                  <c:v>215</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>202</c:v>
+                  <c:v>215</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>202</c:v>
+                  <c:v>215</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>202</c:v>
+                  <c:v>215</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>202</c:v>
+                  <c:v>215</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>202</c:v>
+                  <c:v>215</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>202</c:v>
+                  <c:v>215</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>202</c:v>
+                  <c:v>215</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2033,7 +2036,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
@@ -3059,8 +3062,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AG36"/>
   <sheetViews>
-    <sheetView topLeftCell="B13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E42" sqref="E42"/>
+    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3509,39 +3512,39 @@
       </c>
       <c r="Y5" s="45">
         <f t="shared" si="2"/>
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="Z5" s="45">
         <f t="shared" si="2"/>
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="AA5" s="45">
         <f t="shared" si="2"/>
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="AB5" s="45">
         <f t="shared" si="2"/>
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="AC5" s="45">
         <f t="shared" si="2"/>
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="AD5" s="45">
         <f t="shared" si="2"/>
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="AE5" s="45">
         <f t="shared" si="2"/>
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="AF5" s="45">
         <f t="shared" si="2"/>
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="AG5" s="45">
         <f t="shared" si="2"/>
-        <v>202</v>
+        <v>215</v>
       </c>
     </row>
     <row r="6" spans="1:33" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -3917,8 +3920,12 @@
         <f t="shared" si="5"/>
         <v>43856</v>
       </c>
-      <c r="D24" s="31"/>
-      <c r="E24" s="24"/>
+      <c r="D24" s="31">
+        <v>13</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="25" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A25" s="22">
@@ -4056,7 +4063,7 @@
       <c r="C34" s="50"/>
       <c r="D34" s="33">
         <f>SUM(D6:D33)</f>
-        <v>202</v>
+        <v>215</v>
       </c>
       <c r="E34" s="12"/>
     </row>

--- a/IP_Controlling_Bruno_Maikoff.xlsx
+++ b/IP_Controlling_Bruno_Maikoff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\BlockChain_TransactionManager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{026194E0-8216-4978-BA34-C5B9FF434D46}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7032F255-E3F3-40BD-9A87-3C24E8070CD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="38700" windowHeight="15435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1405,31 +1405,31 @@
                   <c:v>202</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>215</c:v>
+                  <c:v>218</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>215</c:v>
+                  <c:v>218</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>215</c:v>
+                  <c:v>218</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>215</c:v>
+                  <c:v>218</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>215</c:v>
+                  <c:v>218</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>215</c:v>
+                  <c:v>218</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>215</c:v>
+                  <c:v>218</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>215</c:v>
+                  <c:v>218</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>215</c:v>
+                  <c:v>218</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3063,7 +3063,7 @@
   <dimension ref="A1:AG36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3512,39 +3512,39 @@
       </c>
       <c r="Y5" s="45">
         <f t="shared" si="2"/>
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="Z5" s="45">
         <f t="shared" si="2"/>
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="AA5" s="45">
         <f t="shared" si="2"/>
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="AB5" s="45">
         <f t="shared" si="2"/>
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="AC5" s="45">
         <f t="shared" si="2"/>
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="AD5" s="45">
         <f t="shared" si="2"/>
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="AE5" s="45">
         <f t="shared" si="2"/>
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="AF5" s="45">
         <f t="shared" si="2"/>
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="AG5" s="45">
         <f t="shared" si="2"/>
-        <v>215</v>
+        <v>218</v>
       </c>
     </row>
     <row r="6" spans="1:33" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -3921,7 +3921,7 @@
         <v>43856</v>
       </c>
       <c r="D24" s="31">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="E24" s="24" t="s">
         <v>42</v>
@@ -4063,7 +4063,7 @@
       <c r="C34" s="50"/>
       <c r="D34" s="33">
         <f>SUM(D6:D33)</f>
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="E34" s="12"/>
     </row>

--- a/IP_Controlling_Bruno_Maikoff.xlsx
+++ b/IP_Controlling_Bruno_Maikoff.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\BlockChain_TransactionManager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7032F255-E3F3-40BD-9A87-3C24E8070CD7}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EF035FC-771A-41FF-A26A-C3D556CBA769}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="780" yWindow="780" windowWidth="38700" windowHeight="15435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="43">
   <si>
     <t>Aufwand in h</t>
   </si>
@@ -1411,25 +1411,25 @@
                   <c:v>218</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>218</c:v>
+                  <c:v>221</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>218</c:v>
+                  <c:v>221</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>218</c:v>
+                  <c:v>221</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>218</c:v>
+                  <c:v>221</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>218</c:v>
+                  <c:v>221</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>218</c:v>
+                  <c:v>221</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>218</c:v>
+                  <c:v>221</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3063,7 +3063,7 @@
   <dimension ref="A1:AG36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+      <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3520,31 +3520,31 @@
       </c>
       <c r="AA5" s="45">
         <f t="shared" si="2"/>
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="AB5" s="45">
         <f t="shared" si="2"/>
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="AC5" s="45">
         <f t="shared" si="2"/>
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="AD5" s="45">
         <f t="shared" si="2"/>
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="AE5" s="45">
         <f t="shared" si="2"/>
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="AF5" s="45">
         <f t="shared" si="2"/>
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="AG5" s="45">
         <f t="shared" si="2"/>
-        <v>218</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:33" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -3954,8 +3954,12 @@
         <f t="shared" si="5"/>
         <v>43870</v>
       </c>
-      <c r="D26" s="31"/>
-      <c r="E26" s="24"/>
+      <c r="D26" s="31">
+        <v>3</v>
+      </c>
+      <c r="E26" s="24" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="27" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A27" s="22">
@@ -4063,7 +4067,7 @@
       <c r="C34" s="50"/>
       <c r="D34" s="33">
         <f>SUM(D6:D33)</f>
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="E34" s="12"/>
     </row>

--- a/IP_Controlling_Bruno_Maikoff.xlsx
+++ b/IP_Controlling_Bruno_Maikoff.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\BlockChain_TransactionManager\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FHNW\Semester7\Bachlorthesis\BlockChain_TransactionManager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EF035FC-771A-41FF-A26A-C3D556CBA769}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1252A67B-87D1-4F20-AD99-F9C886EC9B5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="38700" windowHeight="15435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arbeitsrapport_Bruno" sheetId="11" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="46">
   <si>
     <t>Aufwand in h</t>
   </si>
@@ -169,6 +169,15 @@
   </si>
   <si>
     <t xml:space="preserve">Parity, Docker, Java, Remote Access </t>
+  </si>
+  <si>
+    <t>Java Programm</t>
+  </si>
+  <si>
+    <t>JavaProgramm, Besprechung, FlowCharts</t>
+  </si>
+  <si>
+    <t>Toml File</t>
   </si>
 </sst>
 </file>
@@ -949,52 +958,52 @@
                   <c:v>109</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>111</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>111</c:v>
+                  <c:v>112</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>121</c:v>
+                  <c:v>122</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>124</c:v>
+                  <c:v>126</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>124</c:v>
+                  <c:v>126</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>129</c:v>
+                  <c:v>131</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>145</c:v>
+                  <c:v>147</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>145</c:v>
+                  <c:v>163</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>145</c:v>
+                  <c:v>167</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>145</c:v>
+                  <c:v>191</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>145</c:v>
+                  <c:v>216</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>145</c:v>
+                  <c:v>216</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>145</c:v>
+                  <c:v>216</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>145</c:v>
+                  <c:v>216</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>145</c:v>
+                  <c:v>216</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>145</c:v>
+                  <c:v>216</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2036,8 +2045,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG36"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2458,67 +2467,67 @@
       </c>
       <c r="R5" s="45">
         <f t="shared" si="29"/>
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="S5" s="45">
         <f t="shared" si="29"/>
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="T5" s="45">
         <f t="shared" si="29"/>
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="U5" s="45">
         <f t="shared" si="29"/>
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="V5" s="45">
         <f t="shared" si="29"/>
-        <v>124</v>
+        <v>126</v>
       </c>
       <c r="W5" s="45">
         <f t="shared" si="29"/>
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="X5" s="45">
         <f t="shared" si="29"/>
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="Y5" s="45">
         <f t="shared" si="29"/>
-        <v>145</v>
+        <v>163</v>
       </c>
       <c r="Z5" s="45">
         <f t="shared" si="29"/>
-        <v>145</v>
+        <v>167</v>
       </c>
       <c r="AA5" s="45">
         <f t="shared" si="29"/>
-        <v>145</v>
+        <v>191</v>
       </c>
       <c r="AB5" s="45">
         <f t="shared" si="29"/>
-        <v>145</v>
+        <v>216</v>
       </c>
       <c r="AC5" s="45">
         <f t="shared" si="29"/>
-        <v>145</v>
+        <v>216</v>
       </c>
       <c r="AD5" s="45">
         <f t="shared" si="29"/>
-        <v>145</v>
+        <v>216</v>
       </c>
       <c r="AE5" s="45">
         <f t="shared" ref="AE5" si="30">AD5+SUMIF($A$6:$A$33,AE3,$D$6:$D$33)</f>
-        <v>145</v>
+        <v>216</v>
       </c>
       <c r="AF5" s="45">
         <f t="shared" ref="AF5" si="31">AE5+SUMIF($A$6:$A$33,AF3,$D$6:$D$33)</f>
-        <v>145</v>
+        <v>216</v>
       </c>
       <c r="AG5" s="45">
         <f t="shared" ref="AG5" si="32">AF5+SUMIF($A$6:$A$33,AG3,$D$6:$D$33)</f>
-        <v>145</v>
+        <v>216</v>
       </c>
     </row>
     <row r="6" spans="1:33" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
@@ -2756,7 +2765,7 @@
         <v>43807</v>
       </c>
       <c r="D17" s="31">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -2809,7 +2818,7 @@
         <v>43828</v>
       </c>
       <c r="D20" s="31">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E20" s="24" t="s">
         <v>39</v>
@@ -2882,8 +2891,12 @@
         <f t="shared" si="35"/>
         <v>43856</v>
       </c>
-      <c r="D24" s="31"/>
-      <c r="E24" s="24"/>
+      <c r="D24" s="31">
+        <v>16</v>
+      </c>
+      <c r="E24" s="24" t="s">
+        <v>45</v>
+      </c>
     </row>
     <row r="25" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A25" s="22">
@@ -2897,7 +2910,9 @@
         <f t="shared" si="35"/>
         <v>43863</v>
       </c>
-      <c r="D25" s="31"/>
+      <c r="D25" s="31">
+        <v>4</v>
+      </c>
       <c r="E25" s="24"/>
     </row>
     <row r="26" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -2912,8 +2927,12 @@
         <f t="shared" si="35"/>
         <v>43870</v>
       </c>
-      <c r="D26" s="31"/>
-      <c r="E26" s="24"/>
+      <c r="D26" s="31">
+        <v>24</v>
+      </c>
+      <c r="E26" s="24" t="s">
+        <v>43</v>
+      </c>
     </row>
     <row r="27" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A27" s="22">
@@ -2927,8 +2946,12 @@
         <f t="shared" si="35"/>
         <v>43877</v>
       </c>
-      <c r="D27" s="31"/>
-      <c r="E27" s="24"/>
+      <c r="D27" s="31">
+        <v>25</v>
+      </c>
+      <c r="E27" s="24" t="s">
+        <v>44</v>
+      </c>
     </row>
     <row r="28" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A28" s="22">
@@ -3021,7 +3044,7 @@
       <c r="C34" s="50"/>
       <c r="D34" s="33">
         <f>SUM(D6:D33)</f>
-        <v>145</v>
+        <v>216</v>
       </c>
       <c r="E34" s="12"/>
     </row>
@@ -3062,7 +3085,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AG36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="B13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="E26" sqref="E26"/>
     </sheetView>
   </sheetViews>

--- a/IP_Controlling_Bruno_Maikoff.xlsx
+++ b/IP_Controlling_Bruno_Maikoff.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FHNW\Semester7\Bachlorthesis\BlockChain_TransactionManager\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspaces\BlockChain_TransactionManager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1252A67B-87D1-4F20-AD99-F9C886EC9B5B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BA1C25C-6E01-4749-98D6-1EC4838EF608}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arbeitsrapport_Bruno" sheetId="11" r:id="rId1"/>
@@ -28,9 +28,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -38,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="47">
   <si>
     <t>Aufwand in h</t>
   </si>
@@ -178,6 +176,9 @@
   </si>
   <si>
     <t>Toml File</t>
+  </si>
+  <si>
+    <t>Report, Docker, Parity</t>
   </si>
 </sst>
 </file>
@@ -626,8 +627,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Standard 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="2">
@@ -742,7 +743,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1060,7 +1061,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1"/>
@@ -1115,7 +1116,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2067145632"/>
@@ -1163,7 +1164,7 @@
           <a:cs typeface="Arial"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1177,7 +1178,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1417,28 +1418,28 @@
                   <c:v>218</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>218</c:v>
+                  <c:v>230</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>221</c:v>
+                  <c:v>247</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>221</c:v>
+                  <c:v>247</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>221</c:v>
+                  <c:v>247</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>221</c:v>
+                  <c:v>247</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>221</c:v>
+                  <c:v>247</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>221</c:v>
+                  <c:v>247</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>221</c:v>
+                  <c:v>247</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1495,7 +1496,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1"/>
@@ -1550,7 +1551,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2067145632"/>
@@ -1598,7 +1599,7 @@
           <a:cs typeface="Arial"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2045,22 +2046,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.59765625" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" style="15" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="46.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.265625" customWidth="1"/>
+    <col min="3" max="3" width="10.265625" style="15" customWidth="1"/>
+    <col min="4" max="4" width="9.3984375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="46.73046875" customWidth="1"/>
     <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="33" width="4.7109375" customWidth="1"/>
+    <col min="7" max="33" width="4.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="3" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" s="3" customFormat="1" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="46" t="s">
         <v>3</v>
       </c>
@@ -2070,7 +2071,7 @@
       <c r="E1" s="46"/>
       <c r="F1" s="14"/>
     </row>
-    <row r="2" spans="1:33" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="47" t="s">
         <v>10</v>
       </c>
@@ -2165,7 +2166,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A3" s="47"/>
       <c r="B3" s="47"/>
       <c r="C3" s="47"/>
@@ -2282,7 +2283,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:33" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A4" s="16" t="s">
         <v>5</v>
       </c>
@@ -2402,7 +2403,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="5" spans="1:33" s="8" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" s="8" customFormat="1" ht="26.25" x14ac:dyDescent="0.35">
       <c r="A5" s="17" t="s">
         <v>6</v>
       </c>
@@ -2530,7 +2531,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="6" spans="1:33" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" s="10" customFormat="1" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A6" s="22">
         <v>1</v>
       </c>
@@ -2549,7 +2550,7 @@
       </c>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="1:33" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" s="10" customFormat="1" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A7" s="22">
         <f t="shared" ref="A7:A22" si="33">A6+1</f>
         <v>2</v>
@@ -2570,7 +2571,7 @@
       </c>
       <c r="F7" s="9"/>
     </row>
-    <row r="8" spans="1:33" s="10" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" s="10" customFormat="1" ht="30.4" x14ac:dyDescent="0.35">
       <c r="A8" s="22">
         <f t="shared" si="33"/>
         <v>3</v>
@@ -2591,7 +2592,7 @@
       </c>
       <c r="F8" s="9"/>
     </row>
-    <row r="9" spans="1:33" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33" s="10" customFormat="1" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A9" s="22">
         <f t="shared" si="33"/>
         <v>4</v>
@@ -2612,7 +2613,7 @@
       </c>
       <c r="F9" s="9"/>
     </row>
-    <row r="10" spans="1:33" s="11" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33" s="11" customFormat="1" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A10" s="22">
         <f t="shared" si="33"/>
         <v>5</v>
@@ -2633,7 +2634,7 @@
       </c>
       <c r="F10" s="9"/>
     </row>
-    <row r="11" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A11" s="22">
         <f t="shared" si="33"/>
         <v>6</v>
@@ -2654,7 +2655,7 @@
       </c>
       <c r="F11" s="9"/>
     </row>
-    <row r="12" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:33" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A12" s="22">
         <f t="shared" si="33"/>
         <v>7</v>
@@ -2671,7 +2672,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:33" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A13" s="22">
         <f t="shared" si="33"/>
         <v>8</v>
@@ -2691,7 +2692,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:33" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A14" s="22">
         <f t="shared" si="33"/>
         <v>9</v>
@@ -2711,7 +2712,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:33" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A15" s="22">
         <f t="shared" si="33"/>
         <v>10</v>
@@ -2731,7 +2732,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:33" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A16" s="34">
         <f t="shared" si="33"/>
         <v>11</v>
@@ -2751,7 +2752,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A17" s="38">
         <f t="shared" si="33"/>
         <v>12</v>
@@ -2768,7 +2769,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A18" s="22">
         <f t="shared" si="33"/>
         <v>13</v>
@@ -2784,7 +2785,7 @@
       <c r="D18" s="31"/>
       <c r="E18" s="24"/>
     </row>
-    <row r="19" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A19" s="22">
         <f t="shared" si="33"/>
         <v>14</v>
@@ -2804,7 +2805,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A20" s="22">
         <f t="shared" si="33"/>
         <v>15</v>
@@ -2824,7 +2825,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A21" s="22">
         <f t="shared" si="33"/>
         <v>16</v>
@@ -2840,7 +2841,7 @@
       <c r="D21" s="31"/>
       <c r="E21" s="24"/>
     </row>
-    <row r="22" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A22" s="38">
         <f t="shared" si="33"/>
         <v>17</v>
@@ -2860,7 +2861,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="11" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" s="11" customFormat="1" ht="30.4" x14ac:dyDescent="0.35">
       <c r="A23" s="22">
         <v>18</v>
       </c>
@@ -2879,7 +2880,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A24" s="22">
         <v>19</v>
       </c>
@@ -2898,7 +2899,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A25" s="22">
         <v>20</v>
       </c>
@@ -2915,7 +2916,7 @@
       </c>
       <c r="E25" s="24"/>
     </row>
-    <row r="26" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A26" s="22">
         <v>21</v>
       </c>
@@ -2934,7 +2935,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A27" s="22">
         <v>22</v>
       </c>
@@ -2953,7 +2954,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A28" s="22">
         <v>23</v>
       </c>
@@ -2968,7 +2969,7 @@
       <c r="D28" s="31"/>
       <c r="E28" s="24"/>
     </row>
-    <row r="29" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A29" s="22">
         <v>24</v>
       </c>
@@ -2983,7 +2984,7 @@
       <c r="D29" s="31"/>
       <c r="E29" s="24"/>
     </row>
-    <row r="30" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A30" s="22">
         <v>25</v>
       </c>
@@ -2998,7 +2999,7 @@
       <c r="D30" s="31"/>
       <c r="E30" s="24"/>
     </row>
-    <row r="31" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A31" s="22">
         <v>26</v>
       </c>
@@ -3012,7 +3013,7 @@
       </c>
       <c r="D31" s="31"/>
     </row>
-    <row r="32" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A32" s="34">
         <v>27</v>
       </c>
@@ -3029,14 +3030,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="25"/>
       <c r="B33" s="26"/>
       <c r="C33" s="26"/>
       <c r="D33" s="32"/>
       <c r="E33" s="27"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="50" t="s">
         <v>2</v>
       </c>
@@ -3048,14 +3049,14 @@
       </c>
       <c r="E34" s="12"/>
     </row>
-    <row r="35" spans="1:5" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="51"/>
       <c r="B35" s="51"/>
       <c r="C35" s="51"/>
       <c r="D35" s="51"/>
       <c r="E35" s="13"/>
     </row>
-    <row r="36" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="25"/>
       <c r="B36" s="26"/>
       <c r="C36" s="26"/>
@@ -3085,22 +3086,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AG36"/>
   <sheetViews>
-    <sheetView topLeftCell="B13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
+    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.59765625" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" style="15" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="46.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.265625" customWidth="1"/>
+    <col min="3" max="3" width="10.265625" style="15" customWidth="1"/>
+    <col min="4" max="4" width="9.3984375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="46.73046875" customWidth="1"/>
     <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="33" width="4.7109375" customWidth="1"/>
+    <col min="7" max="33" width="4.73046875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="3" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" s="3" customFormat="1" ht="20.25" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="46" t="s">
         <v>3</v>
       </c>
@@ -3110,7 +3111,7 @@
       <c r="E1" s="46"/>
       <c r="F1" s="14"/>
     </row>
-    <row r="2" spans="1:33" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A2" s="47" t="s">
         <v>10</v>
       </c>
@@ -3205,7 +3206,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:33" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33" ht="12.95" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A3" s="47"/>
       <c r="B3" s="47"/>
       <c r="C3" s="47"/>
@@ -3322,7 +3323,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:33" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33" ht="25.5" x14ac:dyDescent="0.35">
       <c r="A4" s="43" t="s">
         <v>5</v>
       </c>
@@ -3442,7 +3443,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="5" spans="1:33" s="8" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" s="8" customFormat="1" ht="26.25" x14ac:dyDescent="0.35">
       <c r="A5" s="17" t="s">
         <v>6</v>
       </c>
@@ -3539,38 +3540,38 @@
       </c>
       <c r="Z5" s="45">
         <f t="shared" si="2"/>
-        <v>218</v>
+        <v>230</v>
       </c>
       <c r="AA5" s="45">
         <f t="shared" si="2"/>
-        <v>221</v>
+        <v>247</v>
       </c>
       <c r="AB5" s="45">
         <f t="shared" si="2"/>
-        <v>221</v>
+        <v>247</v>
       </c>
       <c r="AC5" s="45">
         <f t="shared" si="2"/>
-        <v>221</v>
+        <v>247</v>
       </c>
       <c r="AD5" s="45">
         <f t="shared" si="2"/>
-        <v>221</v>
+        <v>247</v>
       </c>
       <c r="AE5" s="45">
         <f t="shared" si="2"/>
-        <v>221</v>
+        <v>247</v>
       </c>
       <c r="AF5" s="45">
         <f t="shared" si="2"/>
-        <v>221</v>
+        <v>247</v>
       </c>
       <c r="AG5" s="45">
         <f t="shared" si="2"/>
-        <v>221</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" s="10" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A6" s="22">
         <v>1</v>
       </c>
@@ -3589,7 +3590,7 @@
       </c>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="1:33" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" s="10" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A7" s="22">
         <f t="shared" ref="A7:A22" si="3">A6+1</f>
         <v>2</v>
@@ -3610,7 +3611,7 @@
       </c>
       <c r="F7" s="9"/>
     </row>
-    <row r="8" spans="1:33" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" s="10" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A8" s="22">
         <f t="shared" si="3"/>
         <v>3</v>
@@ -3631,7 +3632,7 @@
       </c>
       <c r="F8" s="9"/>
     </row>
-    <row r="9" spans="1:33" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33" s="10" customFormat="1" ht="20.25" x14ac:dyDescent="0.35">
       <c r="A9" s="22">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -3652,7 +3653,7 @@
       </c>
       <c r="F9" s="9"/>
     </row>
-    <row r="10" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A10" s="22">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -3673,7 +3674,7 @@
       </c>
       <c r="F10" s="9"/>
     </row>
-    <row r="11" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A11" s="22">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -3694,7 +3695,7 @@
       </c>
       <c r="F11" s="9"/>
     </row>
-    <row r="12" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:33" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A12" s="22">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -3714,7 +3715,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:33" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A13" s="22">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -3734,7 +3735,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:33" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A14" s="22">
         <f t="shared" si="3"/>
         <v>9</v>
@@ -3754,7 +3755,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:33" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A15" s="22">
         <f t="shared" si="3"/>
         <v>10</v>
@@ -3774,7 +3775,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:33" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A16" s="34">
         <f t="shared" si="3"/>
         <v>11</v>
@@ -3794,7 +3795,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A17" s="38">
         <f t="shared" si="3"/>
         <v>12</v>
@@ -3814,7 +3815,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A18" s="22">
         <f t="shared" si="3"/>
         <v>13</v>
@@ -3834,7 +3835,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A19" s="22">
         <f t="shared" si="3"/>
         <v>14</v>
@@ -3854,7 +3855,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A20" s="22">
         <f t="shared" si="3"/>
         <v>15</v>
@@ -3872,7 +3873,7 @@
       </c>
       <c r="E20" s="24"/>
     </row>
-    <row r="21" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A21" s="22">
         <f t="shared" si="3"/>
         <v>16</v>
@@ -3892,7 +3893,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A22" s="38">
         <f t="shared" si="3"/>
         <v>17</v>
@@ -3912,7 +3913,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A23" s="22">
         <v>18</v>
       </c>
@@ -3931,7 +3932,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A24" s="22">
         <v>19</v>
       </c>
@@ -3950,7 +3951,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A25" s="22">
         <v>20</v>
       </c>
@@ -3962,10 +3963,14 @@
         <f t="shared" si="5"/>
         <v>43863</v>
       </c>
-      <c r="D25" s="31"/>
-      <c r="E25" s="24"/>
-    </row>
-    <row r="26" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+      <c r="D25" s="31">
+        <v>12</v>
+      </c>
+      <c r="E25" s="24" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A26" s="22">
         <v>21</v>
       </c>
@@ -3978,13 +3983,13 @@
         <v>43870</v>
       </c>
       <c r="D26" s="31">
-        <v>3</v>
+        <v>17</v>
       </c>
       <c r="E26" s="24" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A27" s="22">
         <v>22</v>
       </c>
@@ -3999,7 +4004,7 @@
       <c r="D27" s="31"/>
       <c r="E27" s="24"/>
     </row>
-    <row r="28" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A28" s="22">
         <v>23</v>
       </c>
@@ -4014,7 +4019,7 @@
       <c r="D28" s="31"/>
       <c r="E28" s="24"/>
     </row>
-    <row r="29" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A29" s="22">
         <v>24</v>
       </c>
@@ -4029,7 +4034,7 @@
       <c r="D29" s="31"/>
       <c r="E29" s="24"/>
     </row>
-    <row r="30" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A30" s="22">
         <v>25</v>
       </c>
@@ -4044,7 +4049,7 @@
       <c r="D30" s="31"/>
       <c r="E30" s="24"/>
     </row>
-    <row r="31" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A31" s="22">
         <v>26</v>
       </c>
@@ -4058,7 +4063,7 @@
       </c>
       <c r="D31" s="31"/>
     </row>
-    <row r="32" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
       <c r="A32" s="34">
         <v>27</v>
       </c>
@@ -4075,14 +4080,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A33" s="25"/>
       <c r="B33" s="26"/>
       <c r="C33" s="26"/>
       <c r="D33" s="32"/>
       <c r="E33" s="27"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34" s="50" t="s">
         <v>2</v>
       </c>
@@ -4090,18 +4095,18 @@
       <c r="C34" s="50"/>
       <c r="D34" s="33">
         <f>SUM(D6:D33)</f>
-        <v>221</v>
+        <v>247</v>
       </c>
       <c r="E34" s="12"/>
     </row>
-    <row r="35" spans="1:5" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="A35" s="51"/>
       <c r="B35" s="51"/>
       <c r="C35" s="51"/>
       <c r="D35" s="51"/>
       <c r="E35" s="13"/>
     </row>
-    <row r="36" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="A36" s="25"/>
       <c r="B36" s="26"/>
       <c r="C36" s="26"/>

--- a/IP_Controlling_Bruno_Maikoff.xlsx
+++ b/IP_Controlling_Bruno_Maikoff.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Workspaces\BlockChain_TransactionManager\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FHNW\Semester7\Bachlorthesis\BlockChain_TransactionManager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BA1C25C-6E01-4749-98D6-1EC4838EF608}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B92DAF04-A90A-4EA9-87DC-13B45BE6DC82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arbeitsrapport_Bruno" sheetId="11" r:id="rId1"/>
@@ -28,7 +28,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -172,13 +174,13 @@
     <t>Java Programm</t>
   </si>
   <si>
-    <t>JavaProgramm, Besprechung, FlowCharts</t>
-  </si>
-  <si>
     <t>Toml File</t>
   </si>
   <si>
     <t>Report, Docker, Parity</t>
+  </si>
+  <si>
+    <t>JavaProgramm, Besprechung, FlowCharts, Abnahmekriterien, AK TestReport, Meilensteine</t>
   </si>
 </sst>
 </file>
@@ -627,8 +629,8 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
     <cellStyle name="Standard 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="2">
@@ -743,7 +745,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1061,7 +1063,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1"/>
@@ -1116,7 +1118,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2067145632"/>
@@ -1164,7 +1166,7 @@
           <a:cs typeface="Arial"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1178,7 +1180,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1496,7 +1498,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1"/>
@@ -1551,7 +1553,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2067145632"/>
@@ -1599,7 +1601,7 @@
           <a:cs typeface="Arial"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2046,22 +2048,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG36"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.59765625" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="10.265625" customWidth="1"/>
-    <col min="3" max="3" width="10.265625" style="15" customWidth="1"/>
-    <col min="4" max="4" width="9.3984375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="46.73046875" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="15" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="46.7109375" customWidth="1"/>
     <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="33" width="4.73046875" customWidth="1"/>
+    <col min="7" max="33" width="4.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="3" customFormat="1" ht="20.25" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:33" s="3" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="46" t="s">
         <v>3</v>
       </c>
@@ -2071,7 +2073,7 @@
       <c r="E1" s="46"/>
       <c r="F1" s="14"/>
     </row>
-    <row r="2" spans="1:33" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:33" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="47" t="s">
         <v>10</v>
       </c>
@@ -2166,7 +2168,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" s="47"/>
       <c r="B3" s="47"/>
       <c r="C3" s="47"/>
@@ -2283,7 +2285,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:33" ht="25.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:33" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
         <v>5</v>
       </c>
@@ -2403,7 +2405,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="5" spans="1:33" s="8" customFormat="1" ht="26.25" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:33" s="8" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
         <v>6</v>
       </c>
@@ -2531,7 +2533,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="6" spans="1:33" s="10" customFormat="1" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:33" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A6" s="22">
         <v>1</v>
       </c>
@@ -2550,7 +2552,7 @@
       </c>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="1:33" s="10" customFormat="1" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:33" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A7" s="22">
         <f t="shared" ref="A7:A22" si="33">A6+1</f>
         <v>2</v>
@@ -2571,7 +2573,7 @@
       </c>
       <c r="F7" s="9"/>
     </row>
-    <row r="8" spans="1:33" s="10" customFormat="1" ht="30.4" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:33" s="10" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A8" s="22">
         <f t="shared" si="33"/>
         <v>3</v>
@@ -2592,7 +2594,7 @@
       </c>
       <c r="F8" s="9"/>
     </row>
-    <row r="9" spans="1:33" s="10" customFormat="1" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:33" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A9" s="22">
         <f t="shared" si="33"/>
         <v>4</v>
@@ -2613,7 +2615,7 @@
       </c>
       <c r="F9" s="9"/>
     </row>
-    <row r="10" spans="1:33" s="11" customFormat="1" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:33" s="11" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A10" s="22">
         <f t="shared" si="33"/>
         <v>5</v>
@@ -2634,7 +2636,7 @@
       </c>
       <c r="F10" s="9"/>
     </row>
-    <row r="11" spans="1:33" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A11" s="22">
         <f t="shared" si="33"/>
         <v>6</v>
@@ -2655,7 +2657,7 @@
       </c>
       <c r="F11" s="9"/>
     </row>
-    <row r="12" spans="1:33" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A12" s="22">
         <f t="shared" si="33"/>
         <v>7</v>
@@ -2672,7 +2674,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:33" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A13" s="22">
         <f t="shared" si="33"/>
         <v>8</v>
@@ -2692,7 +2694,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:33" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A14" s="22">
         <f t="shared" si="33"/>
         <v>9</v>
@@ -2712,7 +2714,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:33" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A15" s="22">
         <f t="shared" si="33"/>
         <v>10</v>
@@ -2732,7 +2734,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:33" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A16" s="34">
         <f t="shared" si="33"/>
         <v>11</v>
@@ -2752,7 +2754,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A17" s="38">
         <f t="shared" si="33"/>
         <v>12</v>
@@ -2769,7 +2771,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A18" s="22">
         <f t="shared" si="33"/>
         <v>13</v>
@@ -2785,7 +2787,7 @@
       <c r="D18" s="31"/>
       <c r="E18" s="24"/>
     </row>
-    <row r="19" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A19" s="22">
         <f t="shared" si="33"/>
         <v>14</v>
@@ -2805,7 +2807,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A20" s="22">
         <f t="shared" si="33"/>
         <v>15</v>
@@ -2825,7 +2827,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A21" s="22">
         <f t="shared" si="33"/>
         <v>16</v>
@@ -2841,7 +2843,7 @@
       <c r="D21" s="31"/>
       <c r="E21" s="24"/>
     </row>
-    <row r="22" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A22" s="38">
         <f t="shared" si="33"/>
         <v>17</v>
@@ -2861,7 +2863,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="11" customFormat="1" ht="30.4" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" s="11" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A23" s="22">
         <v>18</v>
       </c>
@@ -2880,7 +2882,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A24" s="22">
         <v>19</v>
       </c>
@@ -2896,10 +2898,10 @@
         <v>16</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="25" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A25" s="22">
         <v>20</v>
       </c>
@@ -2916,7 +2918,7 @@
       </c>
       <c r="E25" s="24"/>
     </row>
-    <row r="26" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A26" s="22">
         <v>21</v>
       </c>
@@ -2935,7 +2937,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" s="11" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A27" s="22">
         <v>22</v>
       </c>
@@ -2951,10 +2953,10 @@
         <v>25</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="28" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A28" s="22">
         <v>23</v>
       </c>
@@ -2969,7 +2971,7 @@
       <c r="D28" s="31"/>
       <c r="E28" s="24"/>
     </row>
-    <row r="29" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A29" s="22">
         <v>24</v>
       </c>
@@ -2984,7 +2986,7 @@
       <c r="D29" s="31"/>
       <c r="E29" s="24"/>
     </row>
-    <row r="30" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A30" s="22">
         <v>25</v>
       </c>
@@ -2999,7 +3001,7 @@
       <c r="D30" s="31"/>
       <c r="E30" s="24"/>
     </row>
-    <row r="31" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A31" s="22">
         <v>26</v>
       </c>
@@ -3013,7 +3015,7 @@
       </c>
       <c r="D31" s="31"/>
     </row>
-    <row r="32" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A32" s="34">
         <v>27</v>
       </c>
@@ -3030,14 +3032,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="25"/>
       <c r="B33" s="26"/>
       <c r="C33" s="26"/>
       <c r="D33" s="32"/>
       <c r="E33" s="27"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="50" t="s">
         <v>2</v>
       </c>
@@ -3049,14 +3051,14 @@
       </c>
       <c r="E34" s="12"/>
     </row>
-    <row r="35" spans="1:5" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:5" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="51"/>
       <c r="B35" s="51"/>
       <c r="C35" s="51"/>
       <c r="D35" s="51"/>
       <c r="E35" s="13"/>
     </row>
-    <row r="36" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="25"/>
       <c r="B36" s="26"/>
       <c r="C36" s="26"/>
@@ -3086,22 +3088,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AG36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="B7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.59765625" defaultRowHeight="12.75" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="10.265625" customWidth="1"/>
-    <col min="3" max="3" width="10.265625" style="15" customWidth="1"/>
-    <col min="4" max="4" width="9.3984375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="46.73046875" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="15" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="46.7109375" customWidth="1"/>
     <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="33" width="4.73046875" customWidth="1"/>
+    <col min="7" max="33" width="4.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="3" customFormat="1" ht="20.25" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:33" s="3" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="46" t="s">
         <v>3</v>
       </c>
@@ -3111,7 +3113,7 @@
       <c r="E1" s="46"/>
       <c r="F1" s="14"/>
     </row>
-    <row r="2" spans="1:33" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:33" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="47" t="s">
         <v>10</v>
       </c>
@@ -3206,7 +3208,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:33" ht="12.95" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:33" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="47"/>
       <c r="B3" s="47"/>
       <c r="C3" s="47"/>
@@ -3323,7 +3325,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:33" ht="25.5" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:33" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="43" t="s">
         <v>5</v>
       </c>
@@ -3443,7 +3445,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="5" spans="1:33" s="8" customFormat="1" ht="26.25" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:33" s="8" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
         <v>6</v>
       </c>
@@ -3571,7 +3573,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="6" spans="1:33" s="10" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:33" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A6" s="22">
         <v>1</v>
       </c>
@@ -3590,7 +3592,7 @@
       </c>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="1:33" s="10" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:33" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A7" s="22">
         <f t="shared" ref="A7:A22" si="3">A6+1</f>
         <v>2</v>
@@ -3611,7 +3613,7 @@
       </c>
       <c r="F7" s="9"/>
     </row>
-    <row r="8" spans="1:33" s="10" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:33" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A8" s="22">
         <f t="shared" si="3"/>
         <v>3</v>
@@ -3632,7 +3634,7 @@
       </c>
       <c r="F8" s="9"/>
     </row>
-    <row r="9" spans="1:33" s="10" customFormat="1" ht="20.25" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:33" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A9" s="22">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -3653,7 +3655,7 @@
       </c>
       <c r="F9" s="9"/>
     </row>
-    <row r="10" spans="1:33" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A10" s="22">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -3674,7 +3676,7 @@
       </c>
       <c r="F10" s="9"/>
     </row>
-    <row r="11" spans="1:33" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A11" s="22">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -3695,7 +3697,7 @@
       </c>
       <c r="F11" s="9"/>
     </row>
-    <row r="12" spans="1:33" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A12" s="22">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -3715,7 +3717,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:33" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A13" s="22">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -3735,7 +3737,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:33" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A14" s="22">
         <f t="shared" si="3"/>
         <v>9</v>
@@ -3755,7 +3757,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:33" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A15" s="22">
         <f t="shared" si="3"/>
         <v>10</v>
@@ -3775,7 +3777,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:33" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A16" s="34">
         <f t="shared" si="3"/>
         <v>11</v>
@@ -3795,7 +3797,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A17" s="38">
         <f t="shared" si="3"/>
         <v>12</v>
@@ -3815,7 +3817,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A18" s="22">
         <f t="shared" si="3"/>
         <v>13</v>
@@ -3835,7 +3837,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A19" s="22">
         <f t="shared" si="3"/>
         <v>14</v>
@@ -3855,7 +3857,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A20" s="22">
         <f t="shared" si="3"/>
         <v>15</v>
@@ -3873,7 +3875,7 @@
       </c>
       <c r="E20" s="24"/>
     </row>
-    <row r="21" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A21" s="22">
         <f t="shared" si="3"/>
         <v>16</v>
@@ -3893,7 +3895,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A22" s="38">
         <f t="shared" si="3"/>
         <v>17</v>
@@ -3913,7 +3915,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A23" s="22">
         <v>18</v>
       </c>
@@ -3932,7 +3934,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A24" s="22">
         <v>19</v>
       </c>
@@ -3951,7 +3953,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A25" s="22">
         <v>20</v>
       </c>
@@ -3967,10 +3969,10 @@
         <v>12</v>
       </c>
       <c r="E25" s="24" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="26" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A26" s="22">
         <v>21</v>
       </c>
@@ -3989,7 +3991,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A27" s="22">
         <v>22</v>
       </c>
@@ -4004,7 +4006,7 @@
       <c r="D27" s="31"/>
       <c r="E27" s="24"/>
     </row>
-    <row r="28" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A28" s="22">
         <v>23</v>
       </c>
@@ -4019,7 +4021,7 @@
       <c r="D28" s="31"/>
       <c r="E28" s="24"/>
     </row>
-    <row r="29" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A29" s="22">
         <v>24</v>
       </c>
@@ -4034,7 +4036,7 @@
       <c r="D29" s="31"/>
       <c r="E29" s="24"/>
     </row>
-    <row r="30" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="30" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A30" s="22">
         <v>25</v>
       </c>
@@ -4049,7 +4051,7 @@
       <c r="D30" s="31"/>
       <c r="E30" s="24"/>
     </row>
-    <row r="31" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A31" s="22">
         <v>26</v>
       </c>
@@ -4063,7 +4065,7 @@
       </c>
       <c r="D31" s="31"/>
     </row>
-    <row r="32" spans="1:5" s="11" customFormat="1" ht="10.15" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A32" s="34">
         <v>27</v>
       </c>
@@ -4080,14 +4082,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="33" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="25"/>
       <c r="B33" s="26"/>
       <c r="C33" s="26"/>
       <c r="D33" s="32"/>
       <c r="E33" s="27"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="50" t="s">
         <v>2</v>
       </c>
@@ -4099,14 +4101,14 @@
       </c>
       <c r="E34" s="12"/>
     </row>
-    <row r="35" spans="1:5" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:5" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="51"/>
       <c r="B35" s="51"/>
       <c r="C35" s="51"/>
       <c r="D35" s="51"/>
       <c r="E35" s="13"/>
     </row>
-    <row r="36" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="36" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="25"/>
       <c r="B36" s="26"/>
       <c r="C36" s="26"/>

--- a/IP_Controlling_Bruno_Maikoff.xlsx
+++ b/IP_Controlling_Bruno_Maikoff.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FHNW\Semester7\Bachlorthesis\BlockChain_TransactionManager\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\BlockChain_TransactionManager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B92DAF04-A90A-4EA9-87DC-13B45BE6DC82}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D35834AC-8E20-4D51-92ED-10BD0DB3ABD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="780" yWindow="780" windowWidth="38700" windowHeight="15435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arbeitsrapport_Bruno" sheetId="11" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="67" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="48">
   <si>
     <t>Aufwand in h</t>
   </si>
@@ -181,6 +181,9 @@
   </si>
   <si>
     <t>JavaProgramm, Besprechung, FlowCharts, Abnahmekriterien, AK TestReport, Meilensteine</t>
+  </si>
+  <si>
+    <t>Meeting, Report</t>
   </si>
 </sst>
 </file>
@@ -1426,22 +1429,22 @@
                   <c:v>247</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>247</c:v>
+                  <c:v>263</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>247</c:v>
+                  <c:v>263</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>247</c:v>
+                  <c:v>263</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>247</c:v>
+                  <c:v>263</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>247</c:v>
+                  <c:v>263</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>247</c:v>
+                  <c:v>263</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2048,7 +2051,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
@@ -3088,8 +3091,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AG36"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="M38" sqref="M38"/>
+    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3550,27 +3553,27 @@
       </c>
       <c r="AB5" s="45">
         <f t="shared" si="2"/>
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="AC5" s="45">
         <f t="shared" si="2"/>
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="AD5" s="45">
         <f t="shared" si="2"/>
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="AE5" s="45">
         <f t="shared" si="2"/>
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="AF5" s="45">
         <f t="shared" si="2"/>
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="AG5" s="45">
         <f t="shared" si="2"/>
-        <v>247</v>
+        <v>263</v>
       </c>
     </row>
     <row r="6" spans="1:33" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -4003,8 +4006,12 @@
         <f t="shared" si="5"/>
         <v>43877</v>
       </c>
-      <c r="D27" s="31"/>
-      <c r="E27" s="24"/>
+      <c r="D27" s="31">
+        <v>16</v>
+      </c>
+      <c r="E27" s="24" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="28" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A28" s="22">
@@ -4097,7 +4104,7 @@
       <c r="C34" s="50"/>
       <c r="D34" s="33">
         <f>SUM(D6:D33)</f>
-        <v>247</v>
+        <v>263</v>
       </c>
       <c r="E34" s="12"/>
     </row>

--- a/IP_Controlling_Bruno_Maikoff.xlsx
+++ b/IP_Controlling_Bruno_Maikoff.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\BlockChain_TransactionManager\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FHNW\Semester7\Bachlorthesis\BlockChain_TransactionManager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D35834AC-8E20-4D51-92ED-10BD0DB3ABD9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D47DBBA3-EAB1-4B0F-A411-3DD621DE6780}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="780" yWindow="780" windowWidth="38700" windowHeight="15435" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arbeitsrapport_Bruno" sheetId="11" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="50">
   <si>
     <t>Aufwand in h</t>
   </si>
@@ -184,6 +184,12 @@
   </si>
   <si>
     <t>Meeting, Report</t>
+  </si>
+  <si>
+    <t>Raport korrigiert, Algo weiter, Tests, Java fehler korrigiert, Manuelle tests, Abnahmekriterien, testreport</t>
+  </si>
+  <si>
+    <t>s</t>
   </si>
 </sst>
 </file>
@@ -994,22 +1000,22 @@
                   <c:v>191</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>216</c:v>
+                  <c:v>217</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>216</c:v>
+                  <c:v>241</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>216</c:v>
+                  <c:v>241</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>216</c:v>
+                  <c:v>241</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>216</c:v>
+                  <c:v>241</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>216</c:v>
+                  <c:v>241</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2051,8 +2057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG36"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="D5" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2513,27 +2519,27 @@
       </c>
       <c r="AB5" s="45">
         <f t="shared" si="29"/>
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="AC5" s="45">
         <f t="shared" si="29"/>
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="AD5" s="45">
         <f t="shared" si="29"/>
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="AE5" s="45">
         <f t="shared" ref="AE5" si="30">AD5+SUMIF($A$6:$A$33,AE3,$D$6:$D$33)</f>
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="AF5" s="45">
         <f t="shared" ref="AF5" si="31">AE5+SUMIF($A$6:$A$33,AF3,$D$6:$D$33)</f>
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="AG5" s="45">
         <f t="shared" ref="AG5" si="32">AF5+SUMIF($A$6:$A$33,AG3,$D$6:$D$33)</f>
-        <v>216</v>
+        <v>241</v>
       </c>
     </row>
     <row r="6" spans="1:33" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
@@ -2953,13 +2959,13 @@
         <v>43877</v>
       </c>
       <c r="D27" s="31">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E27" s="24" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" s="11" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A28" s="22">
         <v>23</v>
       </c>
@@ -2971,8 +2977,12 @@
         <f t="shared" si="35"/>
         <v>43884</v>
       </c>
-      <c r="D28" s="31"/>
-      <c r="E28" s="24"/>
+      <c r="D28" s="31">
+        <v>24</v>
+      </c>
+      <c r="E28" s="24" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="29" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A29" s="22">
@@ -2986,7 +2996,9 @@
         <f t="shared" si="35"/>
         <v>43891</v>
       </c>
-      <c r="D29" s="31"/>
+      <c r="D29" s="31" t="s">
+        <v>49</v>
+      </c>
       <c r="E29" s="24"/>
     </row>
     <row r="30" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -3050,7 +3062,7 @@
       <c r="C34" s="50"/>
       <c r="D34" s="33">
         <f>SUM(D6:D33)</f>
-        <v>216</v>
+        <v>241</v>
       </c>
       <c r="E34" s="12"/>
     </row>
@@ -3091,7 +3103,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AG36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="B7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="H37" sqref="H37"/>
     </sheetView>
   </sheetViews>

--- a/IP_Controlling_Bruno_Maikoff.xlsx
+++ b/IP_Controlling_Bruno_Maikoff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FHNW\Semester7\Bachlorthesis\BlockChain_TransactionManager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D47DBBA3-EAB1-4B0F-A411-3DD621DE6780}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E64AE84E-E37C-41DB-8E02-470467BEEFE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="49">
   <si>
     <t>Aufwand in h</t>
   </si>
@@ -187,9 +187,6 @@
   </si>
   <si>
     <t>Raport korrigiert, Algo weiter, Tests, Java fehler korrigiert, Manuelle tests, Abnahmekriterien, testreport</t>
-  </si>
-  <si>
-    <t>s</t>
   </si>
 </sst>
 </file>
@@ -2057,7 +2054,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D5" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
@@ -2996,9 +2993,7 @@
         <f t="shared" si="35"/>
         <v>43891</v>
       </c>
-      <c r="D29" s="31" t="s">
-        <v>49</v>
-      </c>
+      <c r="D29" s="31"/>
       <c r="E29" s="24"/>
     </row>
     <row r="30" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">

--- a/IP_Controlling_Bruno_Maikoff.xlsx
+++ b/IP_Controlling_Bruno_Maikoff.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FHNW\Semester7\Bachlorthesis\BlockChain_TransactionManager\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\BlockChain_TransactionManager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E64AE84E-E37C-41DB-8E02-470467BEEFE6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1502B83-56B1-472E-A3D5-F960DABC804D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11265" yWindow="2145" windowWidth="38700" windowHeight="14790" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arbeitsrapport_Bruno" sheetId="11" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="49">
   <si>
     <t>Aufwand in h</t>
   </si>
@@ -1432,22 +1432,22 @@
                   <c:v>247</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>263</c:v>
+                  <c:v>267</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>263</c:v>
+                  <c:v>283</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>263</c:v>
+                  <c:v>283</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>263</c:v>
+                  <c:v>283</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>263</c:v>
+                  <c:v>283</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>263</c:v>
+                  <c:v>283</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2054,7 +2054,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
@@ -3098,8 +3098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AG36"/>
   <sheetViews>
-    <sheetView topLeftCell="B7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E28" sqref="E28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3560,27 +3560,27 @@
       </c>
       <c r="AB5" s="45">
         <f t="shared" si="2"/>
-        <v>263</v>
+        <v>267</v>
       </c>
       <c r="AC5" s="45">
         <f t="shared" si="2"/>
-        <v>263</v>
+        <v>283</v>
       </c>
       <c r="AD5" s="45">
         <f t="shared" si="2"/>
-        <v>263</v>
+        <v>283</v>
       </c>
       <c r="AE5" s="45">
         <f t="shared" si="2"/>
-        <v>263</v>
+        <v>283</v>
       </c>
       <c r="AF5" s="45">
         <f t="shared" si="2"/>
-        <v>263</v>
+        <v>283</v>
       </c>
       <c r="AG5" s="45">
         <f t="shared" si="2"/>
-        <v>263</v>
+        <v>283</v>
       </c>
     </row>
     <row r="6" spans="1:33" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -4014,7 +4014,7 @@
         <v>43877</v>
       </c>
       <c r="D27" s="31">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="E27" s="24" t="s">
         <v>47</v>
@@ -4032,8 +4032,12 @@
         <f t="shared" si="5"/>
         <v>43884</v>
       </c>
-      <c r="D28" s="31"/>
-      <c r="E28" s="24"/>
+      <c r="D28" s="31">
+        <v>16</v>
+      </c>
+      <c r="E28" s="24" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="29" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A29" s="22">
@@ -4111,7 +4115,7 @@
       <c r="C34" s="50"/>
       <c r="D34" s="33">
         <f>SUM(D6:D33)</f>
-        <v>263</v>
+        <v>283</v>
       </c>
       <c r="E34" s="12"/>
     </row>

--- a/IP_Controlling_Bruno_Maikoff.xlsx
+++ b/IP_Controlling_Bruno_Maikoff.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\BlockChain_TransactionManager\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mai714\Documents\Workspace\BlockChain_TransactionManager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1502B83-56B1-472E-A3D5-F960DABC804D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11265" yWindow="2145" windowWidth="38700" windowHeight="14790" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11265" yWindow="2145" windowWidth="38700" windowHeight="14790" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Arbeitsrapport_Bruno" sheetId="11" r:id="rId1"/>
@@ -23,7 +22,7 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="1" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -192,7 +191,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -635,9 +634,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Standard 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard 2" xfId="2"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -664,7 +663,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -751,7 +750,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1069,7 +1068,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1"/>
@@ -1124,7 +1123,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2067145632"/>
@@ -1172,7 +1171,7 @@
           <a:cs typeface="Arial"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1186,7 +1185,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1435,19 +1434,19 @@
                   <c:v>267</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>283</c:v>
+                  <c:v>285</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>283</c:v>
+                  <c:v>285</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>283</c:v>
+                  <c:v>285</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>283</c:v>
+                  <c:v>285</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>283</c:v>
+                  <c:v>285</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1504,7 +1503,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1"/>
@@ -1559,7 +1558,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2067145632"/>
@@ -1607,7 +1606,7 @@
           <a:cs typeface="Arial"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2051,14 +2050,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG36"/>
   <sheetViews>
     <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" customWidth="1"/>
@@ -3076,7 +3075,7 @@
       <c r="E36" s="27"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:B5" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A5:B5"/>
   <mergeCells count="5">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:C3"/>
@@ -3085,7 +3084,7 @@
     <mergeCell ref="A35:D35"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="Name, Vorname:" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId1" display="Name, Vorname:"/>
   </hyperlinks>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" scale="75" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -3095,14 +3094,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E28" sqref="E28"/>
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" customWidth="1"/>
@@ -3564,23 +3563,23 @@
       </c>
       <c r="AC5" s="45">
         <f t="shared" si="2"/>
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="AD5" s="45">
         <f t="shared" si="2"/>
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="AE5" s="45">
         <f t="shared" si="2"/>
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="AF5" s="45">
         <f t="shared" si="2"/>
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="AG5" s="45">
         <f t="shared" si="2"/>
-        <v>283</v>
+        <v>285</v>
       </c>
     </row>
     <row r="6" spans="1:33" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -4033,7 +4032,7 @@
         <v>43884</v>
       </c>
       <c r="D28" s="31">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E28" s="24" t="s">
         <v>34</v>
@@ -4115,7 +4114,7 @@
       <c r="C34" s="50"/>
       <c r="D34" s="33">
         <f>SUM(D6:D33)</f>
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="E34" s="12"/>
     </row>
@@ -4134,7 +4133,7 @@
       <c r="E36" s="27"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:B5" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A5:B5"/>
   <mergeCells count="5">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:C3"/>
@@ -4143,7 +4142,7 @@
     <mergeCell ref="A35:D35"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="Name, Vorname:" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId1" display="Name, Vorname:"/>
   </hyperlinks>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" scale="75" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/IP_Controlling_Bruno_Maikoff.xlsx
+++ b/IP_Controlling_Bruno_Maikoff.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mai714\Documents\Workspace\BlockChain_TransactionManager\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\BlockChain_TransactionManager\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A5CF87E-DF5A-4EA7-8EC6-5D851C67BC41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11265" yWindow="2145" windowWidth="38700" windowHeight="14790" activeTab="1"/>
+    <workbookView xWindow="11265" yWindow="2145" windowWidth="38700" windowHeight="14790" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arbeitsrapport_Bruno" sheetId="11" r:id="rId1"/>
@@ -22,7 +23,7 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="1" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -191,7 +192,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -634,9 +635,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Standard 2" xfId="2"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -663,7 +664,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -750,7 +751,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1068,7 +1069,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1"/>
@@ -1123,7 +1124,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2067145632"/>
@@ -1171,7 +1172,7 @@
           <a:cs typeface="Arial"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1185,7 +1186,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1434,19 +1435,19 @@
                   <c:v>267</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>285</c:v>
+                  <c:v>286</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>285</c:v>
+                  <c:v>286</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>285</c:v>
+                  <c:v>286</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>285</c:v>
+                  <c:v>286</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>285</c:v>
+                  <c:v>286</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1503,7 +1504,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1"/>
@@ -1558,7 +1559,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2067145632"/>
@@ -1606,7 +1607,7 @@
           <a:cs typeface="Arial"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2050,14 +2051,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG36"/>
   <sheetViews>
     <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" customWidth="1"/>
@@ -3075,7 +3076,7 @@
       <c r="E36" s="27"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:B5"/>
+  <autoFilter ref="A5:B5" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="5">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:C3"/>
@@ -3084,7 +3085,7 @@
     <mergeCell ref="A35:D35"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="Name, Vorname:"/>
+    <hyperlink ref="A2" r:id="rId1" display="Name, Vorname:" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" scale="75" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -3094,14 +3095,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AG36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E37" sqref="E37"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" customWidth="1"/>
@@ -3563,23 +3564,23 @@
       </c>
       <c r="AC5" s="45">
         <f t="shared" si="2"/>
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AD5" s="45">
         <f t="shared" si="2"/>
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AE5" s="45">
         <f t="shared" si="2"/>
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AF5" s="45">
         <f t="shared" si="2"/>
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="AG5" s="45">
         <f t="shared" si="2"/>
-        <v>285</v>
+        <v>286</v>
       </c>
     </row>
     <row r="6" spans="1:33" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -4032,7 +4033,7 @@
         <v>43884</v>
       </c>
       <c r="D28" s="31">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E28" s="24" t="s">
         <v>34</v>
@@ -4114,7 +4115,7 @@
       <c r="C34" s="50"/>
       <c r="D34" s="33">
         <f>SUM(D6:D33)</f>
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="E34" s="12"/>
     </row>
@@ -4133,7 +4134,7 @@
       <c r="E36" s="27"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:B5"/>
+  <autoFilter ref="A5:B5" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="5">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:C3"/>
@@ -4142,7 +4143,7 @@
     <mergeCell ref="A35:D35"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="Name, Vorname:"/>
+    <hyperlink ref="A2" r:id="rId1" display="Name, Vorname:" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" scale="75" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/IP_Controlling_Bruno_Maikoff.xlsx
+++ b/IP_Controlling_Bruno_Maikoff.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\BlockChain_TransactionManager\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mai714\Documents\Workspace\BlockChain_TransactionManager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2A5CF87E-DF5A-4EA7-8EC6-5D851C67BC41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11265" yWindow="2145" windowWidth="38700" windowHeight="14790" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11265" yWindow="2145" windowWidth="38700" windowHeight="14790" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Arbeitsrapport_Bruno" sheetId="11" r:id="rId1"/>
@@ -23,7 +22,7 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="1" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -192,7 +191,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -635,9 +634,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Standard 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard 2" xfId="2"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -664,7 +663,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -751,7 +750,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1069,7 +1068,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1"/>
@@ -1124,7 +1123,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2067145632"/>
@@ -1172,7 +1171,7 @@
           <a:cs typeface="Arial"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1186,7 +1185,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1435,19 +1434,19 @@
                   <c:v>267</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>286</c:v>
+                  <c:v>291</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>286</c:v>
+                  <c:v>291</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>286</c:v>
+                  <c:v>291</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>286</c:v>
+                  <c:v>291</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>286</c:v>
+                  <c:v>291</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1504,7 +1503,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1"/>
@@ -1559,7 +1558,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2067145632"/>
@@ -1607,7 +1606,7 @@
           <a:cs typeface="Arial"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2051,14 +2050,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG36"/>
   <sheetViews>
     <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" customWidth="1"/>
@@ -3076,7 +3075,7 @@
       <c r="E36" s="27"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:B5" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A5:B5"/>
   <mergeCells count="5">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:C3"/>
@@ -3085,7 +3084,7 @@
     <mergeCell ref="A35:D35"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="Name, Vorname:" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId1" display="Name, Vorname:"/>
   </hyperlinks>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" scale="75" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -3095,14 +3094,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" customWidth="1"/>
@@ -3564,23 +3563,23 @@
       </c>
       <c r="AC5" s="45">
         <f t="shared" si="2"/>
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="AD5" s="45">
         <f t="shared" si="2"/>
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="AE5" s="45">
         <f t="shared" si="2"/>
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="AF5" s="45">
         <f t="shared" si="2"/>
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="AG5" s="45">
         <f t="shared" si="2"/>
-        <v>286</v>
+        <v>291</v>
       </c>
     </row>
     <row r="6" spans="1:33" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -4033,7 +4032,7 @@
         <v>43884</v>
       </c>
       <c r="D28" s="31">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="E28" s="24" t="s">
         <v>34</v>
@@ -4115,7 +4114,7 @@
       <c r="C34" s="50"/>
       <c r="D34" s="33">
         <f>SUM(D6:D33)</f>
-        <v>286</v>
+        <v>291</v>
       </c>
       <c r="E34" s="12"/>
     </row>
@@ -4134,7 +4133,7 @@
       <c r="E36" s="27"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:B5" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A5:B5"/>
   <mergeCells count="5">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:C3"/>
@@ -4143,7 +4142,7 @@
     <mergeCell ref="A35:D35"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="Name, Vorname:" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId1" display="Name, Vorname:"/>
   </hyperlinks>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" scale="75" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/IP_Controlling_Bruno_Maikoff.xlsx
+++ b/IP_Controlling_Bruno_Maikoff.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mai714\Documents\Workspace\BlockChain_TransactionManager\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\BlockChain_TransactionManager\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A74600F2-006F-45CA-80C8-CE18EB94A4BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11265" yWindow="2145" windowWidth="38700" windowHeight="14790" activeTab="1"/>
+    <workbookView xWindow="11265" yWindow="2145" windowWidth="38700" windowHeight="14790" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arbeitsrapport_Bruno" sheetId="11" r:id="rId1"/>
@@ -22,7 +23,7 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="1" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -191,7 +192,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -634,9 +635,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Standard 2" xfId="2"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -663,7 +664,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -750,7 +751,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1068,7 +1069,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1"/>
@@ -1123,7 +1124,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2067145632"/>
@@ -1171,7 +1172,7 @@
           <a:cs typeface="Arial"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1185,7 +1186,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1434,19 +1435,19 @@
                   <c:v>267</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>291</c:v>
+                  <c:v>294</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>291</c:v>
+                  <c:v>294</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>291</c:v>
+                  <c:v>294</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>291</c:v>
+                  <c:v>294</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>291</c:v>
+                  <c:v>294</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1503,7 +1504,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1"/>
@@ -1558,7 +1559,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2067145632"/>
@@ -1606,7 +1607,7 @@
           <a:cs typeface="Arial"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2050,14 +2051,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG36"/>
   <sheetViews>
     <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" customWidth="1"/>
@@ -3075,7 +3076,7 @@
       <c r="E36" s="27"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:B5"/>
+  <autoFilter ref="A5:B5" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="5">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:C3"/>
@@ -3084,7 +3085,7 @@
     <mergeCell ref="A35:D35"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="Name, Vorname:"/>
+    <hyperlink ref="A2" r:id="rId1" display="Name, Vorname:" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" scale="75" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -3094,14 +3095,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AG36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" customWidth="1"/>
@@ -3563,23 +3564,23 @@
       </c>
       <c r="AC5" s="45">
         <f t="shared" si="2"/>
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="AD5" s="45">
         <f t="shared" si="2"/>
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="AE5" s="45">
         <f t="shared" si="2"/>
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="AF5" s="45">
         <f t="shared" si="2"/>
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="AG5" s="45">
         <f t="shared" si="2"/>
-        <v>291</v>
+        <v>294</v>
       </c>
     </row>
     <row r="6" spans="1:33" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -4032,7 +4033,7 @@
         <v>43884</v>
       </c>
       <c r="D28" s="31">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E28" s="24" t="s">
         <v>34</v>
@@ -4114,7 +4115,7 @@
       <c r="C34" s="50"/>
       <c r="D34" s="33">
         <f>SUM(D6:D33)</f>
-        <v>291</v>
+        <v>294</v>
       </c>
       <c r="E34" s="12"/>
     </row>
@@ -4133,7 +4134,7 @@
       <c r="E36" s="27"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:B5"/>
+  <autoFilter ref="A5:B5" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="5">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:C3"/>
@@ -4142,7 +4143,7 @@
     <mergeCell ref="A35:D35"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="Name, Vorname:"/>
+    <hyperlink ref="A2" r:id="rId1" display="Name, Vorname:" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" scale="75" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/IP_Controlling_Bruno_Maikoff.xlsx
+++ b/IP_Controlling_Bruno_Maikoff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\BlockChain_TransactionManager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A74600F2-006F-45CA-80C8-CE18EB94A4BE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB6AA5A1-6C99-4A62-A570-06234977B268}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11265" yWindow="2145" windowWidth="38700" windowHeight="14790" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1435,19 +1435,19 @@
                   <c:v>267</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>294</c:v>
+                  <c:v>297</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>294</c:v>
+                  <c:v>297</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>294</c:v>
+                  <c:v>297</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>294</c:v>
+                  <c:v>297</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>294</c:v>
+                  <c:v>297</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2054,7 +2054,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG36"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
@@ -3098,8 +3098,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AG36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3564,23 +3564,23 @@
       </c>
       <c r="AC5" s="45">
         <f t="shared" si="2"/>
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="AD5" s="45">
         <f t="shared" si="2"/>
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="AE5" s="45">
         <f t="shared" si="2"/>
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="AF5" s="45">
         <f t="shared" si="2"/>
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="AG5" s="45">
         <f t="shared" si="2"/>
-        <v>294</v>
+        <v>297</v>
       </c>
     </row>
     <row r="6" spans="1:33" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -4033,7 +4033,7 @@
         <v>43884</v>
       </c>
       <c r="D28" s="31">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E28" s="24" t="s">
         <v>34</v>
@@ -4115,7 +4115,7 @@
       <c r="C34" s="50"/>
       <c r="D34" s="33">
         <f>SUM(D6:D33)</f>
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="E34" s="12"/>
     </row>

--- a/IP_Controlling_Bruno_Maikoff.xlsx
+++ b/IP_Controlling_Bruno_Maikoff.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\BlockChain_TransactionManager\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FHNW\Semester7\Bachlorthesis\BlockChain_TransactionManager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB6AA5A1-6C99-4A62-A570-06234977B268}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA2E947-4977-49F8-B3F8-8D2F752E0AAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11265" yWindow="2145" windowWidth="38700" windowHeight="14790" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arbeitsrapport_Bruno" sheetId="11" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="50">
   <si>
     <t>Aufwand in h</t>
   </si>
@@ -187,6 +187,9 @@
   </si>
   <si>
     <t>Raport korrigiert, Algo weiter, Tests, Java fehler korrigiert, Manuelle tests, Abnahmekriterien, testreport</t>
+  </si>
+  <si>
+    <t>Programm, Report, Statusmeeting; Deployable, Tests</t>
   </si>
 </sst>
 </file>
@@ -1000,19 +1003,19 @@
                   <c:v>217</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>241</c:v>
+                  <c:v>249</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>241</c:v>
+                  <c:v>279</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>241</c:v>
+                  <c:v>279</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>241</c:v>
+                  <c:v>279</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>241</c:v>
+                  <c:v>279</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2054,8 +2057,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG36"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AD5" sqref="AD5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2520,23 +2523,23 @@
       </c>
       <c r="AC5" s="45">
         <f t="shared" si="29"/>
-        <v>241</v>
+        <v>249</v>
       </c>
       <c r="AD5" s="45">
         <f t="shared" si="29"/>
-        <v>241</v>
+        <v>279</v>
       </c>
       <c r="AE5" s="45">
         <f t="shared" ref="AE5" si="30">AD5+SUMIF($A$6:$A$33,AE3,$D$6:$D$33)</f>
-        <v>241</v>
+        <v>279</v>
       </c>
       <c r="AF5" s="45">
         <f t="shared" ref="AF5" si="31">AE5+SUMIF($A$6:$A$33,AF3,$D$6:$D$33)</f>
-        <v>241</v>
+        <v>279</v>
       </c>
       <c r="AG5" s="45">
         <f t="shared" ref="AG5" si="32">AF5+SUMIF($A$6:$A$33,AG3,$D$6:$D$33)</f>
-        <v>241</v>
+        <v>279</v>
       </c>
     </row>
     <row r="6" spans="1:33" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
@@ -2975,7 +2978,7 @@
         <v>43884</v>
       </c>
       <c r="D28" s="31">
-        <v>24</v>
+        <v>32</v>
       </c>
       <c r="E28" s="24" t="s">
         <v>48</v>
@@ -2993,8 +2996,12 @@
         <f t="shared" si="35"/>
         <v>43891</v>
       </c>
-      <c r="D29" s="31"/>
-      <c r="E29" s="24"/>
+      <c r="D29" s="31">
+        <v>30</v>
+      </c>
+      <c r="E29" s="24" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="30" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A30" s="22">
@@ -3057,7 +3064,7 @@
       <c r="C34" s="50"/>
       <c r="D34" s="33">
         <f>SUM(D6:D33)</f>
-        <v>241</v>
+        <v>279</v>
       </c>
       <c r="E34" s="12"/>
     </row>
@@ -3098,8 +3105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AG36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="M34" sqref="M34"/>
+    <sheetView topLeftCell="A19" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D29" sqref="D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/IP_Controlling_Bruno_Maikoff.xlsx
+++ b/IP_Controlling_Bruno_Maikoff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\BlockChain_TransactionManager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB6AA5A1-6C99-4A62-A570-06234977B268}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40C015E9-7ECB-4DFD-9AE8-0D8E7B478844}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11265" yWindow="2145" windowWidth="38700" windowHeight="14790" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="49">
   <si>
     <t>Aufwand in h</t>
   </si>
@@ -1438,16 +1438,16 @@
                   <c:v>297</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>297</c:v>
+                  <c:v>302</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>297</c:v>
+                  <c:v>302</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>297</c:v>
+                  <c:v>302</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>297</c:v>
+                  <c:v>302</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3099,7 +3099,7 @@
   <dimension ref="A1:AG36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="M34" sqref="M34"/>
+      <selection activeCell="F32" sqref="F32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3568,19 +3568,19 @@
       </c>
       <c r="AD5" s="45">
         <f t="shared" si="2"/>
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="AE5" s="45">
         <f t="shared" si="2"/>
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="AF5" s="45">
         <f t="shared" si="2"/>
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="AG5" s="45">
         <f t="shared" si="2"/>
-        <v>297</v>
+        <v>302</v>
       </c>
     </row>
     <row r="6" spans="1:33" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -4051,8 +4051,12 @@
         <f t="shared" si="5"/>
         <v>43891</v>
       </c>
-      <c r="D29" s="31"/>
-      <c r="E29" s="24"/>
+      <c r="D29" s="31">
+        <v>5</v>
+      </c>
+      <c r="E29" s="24" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="30" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A30" s="22">
@@ -4115,7 +4119,7 @@
       <c r="C34" s="50"/>
       <c r="D34" s="33">
         <f>SUM(D6:D33)</f>
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="E34" s="12"/>
     </row>

--- a/IP_Controlling_Bruno_Maikoff.xlsx
+++ b/IP_Controlling_Bruno_Maikoff.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FHNW\Semester7\Bachlorthesis\BlockChain_TransactionManager\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\BlockChain_TransactionManager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2EA2E947-4977-49F8-B3F8-8D2F752E0AAB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C20A990-6B21-44D2-858A-5BFDCF9A123F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11265" yWindow="2145" windowWidth="38700" windowHeight="14790" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arbeitsrapport_Bruno" sheetId="11" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="50">
   <si>
     <t>Aufwand in h</t>
   </si>
@@ -1441,16 +1441,16 @@
                   <c:v>297</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>297</c:v>
+                  <c:v>302</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>297</c:v>
+                  <c:v>302</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>297</c:v>
+                  <c:v>302</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>297</c:v>
+                  <c:v>302</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2057,7 +2057,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AD5" sqref="AD5"/>
     </sheetView>
   </sheetViews>
@@ -3105,8 +3105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AG36"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D29" sqref="D29"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="I39" sqref="I39:J39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3575,19 +3575,19 @@
       </c>
       <c r="AD5" s="45">
         <f t="shared" si="2"/>
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="AE5" s="45">
         <f t="shared" si="2"/>
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="AF5" s="45">
         <f t="shared" si="2"/>
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="AG5" s="45">
         <f t="shared" si="2"/>
-        <v>297</v>
+        <v>302</v>
       </c>
     </row>
     <row r="6" spans="1:33" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -4058,8 +4058,12 @@
         <f t="shared" si="5"/>
         <v>43891</v>
       </c>
-      <c r="D29" s="31"/>
-      <c r="E29" s="24"/>
+      <c r="D29" s="31">
+        <v>5</v>
+      </c>
+      <c r="E29" s="24" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="30" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A30" s="22">
@@ -4122,7 +4126,7 @@
       <c r="C34" s="50"/>
       <c r="D34" s="33">
         <f>SUM(D6:D33)</f>
-        <v>297</v>
+        <v>302</v>
       </c>
       <c r="E34" s="12"/>
     </row>

--- a/IP_Controlling_Bruno_Maikoff.xlsx
+++ b/IP_Controlling_Bruno_Maikoff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\BlockChain_TransactionManager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8C20A990-6B21-44D2-858A-5BFDCF9A123F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9759EEF-AB9D-453C-9802-9A611CFB7ECE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11265" yWindow="2145" windowWidth="38700" windowHeight="14790" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1441,16 +1441,16 @@
                   <c:v>297</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>302</c:v>
+                  <c:v>312</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>302</c:v>
+                  <c:v>312</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>302</c:v>
+                  <c:v>312</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>302</c:v>
+                  <c:v>312</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3105,8 +3105,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AG36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="I39" sqref="I39:J39"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3575,19 +3575,19 @@
       </c>
       <c r="AD5" s="45">
         <f t="shared" si="2"/>
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="AE5" s="45">
         <f t="shared" si="2"/>
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="AF5" s="45">
         <f t="shared" si="2"/>
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="AG5" s="45">
         <f t="shared" si="2"/>
-        <v>302</v>
+        <v>312</v>
       </c>
     </row>
     <row r="6" spans="1:33" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -4059,7 +4059,7 @@
         <v>43891</v>
       </c>
       <c r="D29" s="31">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E29" s="24" t="s">
         <v>34</v>
@@ -4126,7 +4126,7 @@
       <c r="C34" s="50"/>
       <c r="D34" s="33">
         <f>SUM(D6:D33)</f>
-        <v>302</v>
+        <v>312</v>
       </c>
       <c r="E34" s="12"/>
     </row>

--- a/IP_Controlling_Bruno_Maikoff.xlsx
+++ b/IP_Controlling_Bruno_Maikoff.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\BlockChain_TransactionManager\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mai714\Documents\Workspace\BlockChain_TransactionManager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B9759EEF-AB9D-453C-9802-9A611CFB7ECE}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11265" yWindow="2145" windowWidth="38700" windowHeight="14790" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11265" yWindow="2145" windowWidth="38700" windowHeight="14790" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Arbeitsrapport_Bruno" sheetId="11" r:id="rId1"/>
@@ -23,7 +22,7 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="1" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -195,7 +194,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -638,9 +637,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Standard 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard 2" xfId="2"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -667,7 +666,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -754,7 +753,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1072,7 +1071,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1"/>
@@ -1127,7 +1126,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2067145632"/>
@@ -1175,7 +1174,7 @@
           <a:cs typeface="Arial"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1189,7 +1188,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1441,16 +1440,16 @@
                   <c:v>297</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>312</c:v>
+                  <c:v>316</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>312</c:v>
+                  <c:v>316</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>312</c:v>
+                  <c:v>316</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>312</c:v>
+                  <c:v>316</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1507,7 +1506,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1"/>
@@ -1562,7 +1561,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2067145632"/>
@@ -1610,7 +1609,7 @@
           <a:cs typeface="Arial"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2054,14 +2053,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG36"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AD5" sqref="AD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" customWidth="1"/>
@@ -3083,7 +3082,7 @@
       <c r="E36" s="27"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:B5" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A5:B5"/>
   <mergeCells count="5">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:C3"/>
@@ -3092,7 +3091,7 @@
     <mergeCell ref="A35:D35"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="Name, Vorname:" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId1" display="Name, Vorname:"/>
   </hyperlinks>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" scale="75" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -3102,14 +3101,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E40" sqref="E40"/>
+    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" customWidth="1"/>
@@ -3575,19 +3574,19 @@
       </c>
       <c r="AD5" s="45">
         <f t="shared" si="2"/>
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="AE5" s="45">
         <f t="shared" si="2"/>
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="AF5" s="45">
         <f t="shared" si="2"/>
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="AG5" s="45">
         <f t="shared" si="2"/>
-        <v>312</v>
+        <v>316</v>
       </c>
     </row>
     <row r="6" spans="1:33" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -4059,7 +4058,7 @@
         <v>43891</v>
       </c>
       <c r="D29" s="31">
-        <v>15</v>
+        <v>19</v>
       </c>
       <c r="E29" s="24" t="s">
         <v>34</v>
@@ -4126,7 +4125,7 @@
       <c r="C34" s="50"/>
       <c r="D34" s="33">
         <f>SUM(D6:D33)</f>
-        <v>312</v>
+        <v>316</v>
       </c>
       <c r="E34" s="12"/>
     </row>
@@ -4145,7 +4144,7 @@
       <c r="E36" s="27"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:B5" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A5:B5"/>
   <mergeCells count="5">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:C3"/>
@@ -4154,7 +4153,7 @@
     <mergeCell ref="A35:D35"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="Name, Vorname:" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId1" display="Name, Vorname:"/>
   </hyperlinks>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" scale="75" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/IP_Controlling_Bruno_Maikoff.xlsx
+++ b/IP_Controlling_Bruno_Maikoff.xlsx
@@ -1440,16 +1440,16 @@
                   <c:v>297</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>316</c:v>
+                  <c:v>319</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>316</c:v>
+                  <c:v>319</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>316</c:v>
+                  <c:v>319</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>316</c:v>
+                  <c:v>319</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3105,7 +3105,7 @@
   <dimension ref="A1:AG36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3574,19 +3574,19 @@
       </c>
       <c r="AD5" s="45">
         <f t="shared" si="2"/>
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="AE5" s="45">
         <f t="shared" si="2"/>
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="AF5" s="45">
         <f t="shared" si="2"/>
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="AG5" s="45">
         <f t="shared" si="2"/>
-        <v>316</v>
+        <v>319</v>
       </c>
     </row>
     <row r="6" spans="1:33" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -4058,7 +4058,7 @@
         <v>43891</v>
       </c>
       <c r="D29" s="31">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="E29" s="24" t="s">
         <v>34</v>
@@ -4125,7 +4125,7 @@
       <c r="C34" s="50"/>
       <c r="D34" s="33">
         <f>SUM(D6:D33)</f>
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="E34" s="12"/>
     </row>

--- a/IP_Controlling_Bruno_Maikoff.xlsx
+++ b/IP_Controlling_Bruno_Maikoff.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mai714\Documents\Workspace\BlockChain_TransactionManager\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\BlockChain_TransactionManager\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99538D3B-9BCB-4299-82BC-54E1B39B11A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11265" yWindow="2145" windowWidth="38700" windowHeight="14790" activeTab="1"/>
+    <workbookView xWindow="11265" yWindow="2145" windowWidth="38700" windowHeight="14790" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arbeitsrapport_Bruno" sheetId="11" r:id="rId1"/>
@@ -22,7 +23,7 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="1" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -194,7 +195,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -637,9 +638,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Standard 2" xfId="2"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -666,7 +667,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -753,7 +754,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1071,7 +1072,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1"/>
@@ -1126,7 +1127,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2067145632"/>
@@ -1174,7 +1175,7 @@
           <a:cs typeface="Arial"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1188,7 +1189,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1440,16 +1441,16 @@
                   <c:v>297</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>319</c:v>
+                  <c:v>324</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>319</c:v>
+                  <c:v>324</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>319</c:v>
+                  <c:v>324</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>319</c:v>
+                  <c:v>324</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1506,7 +1507,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1"/>
@@ -1561,7 +1562,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2067145632"/>
@@ -1609,7 +1610,7 @@
           <a:cs typeface="Arial"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2053,14 +2054,14 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG36"/>
   <sheetViews>
     <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="AD5" sqref="AD5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" customWidth="1"/>
@@ -3082,7 +3083,7 @@
       <c r="E36" s="27"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:B5"/>
+  <autoFilter ref="A5:B5" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="5">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:C3"/>
@@ -3091,7 +3092,7 @@
     <mergeCell ref="A35:D35"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="Name, Vorname:"/>
+    <hyperlink ref="A2" r:id="rId1" display="Name, Vorname:" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" scale="75" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -3101,14 +3102,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AG36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+      <selection activeCell="AJ25" sqref="AJ25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" customWidth="1"/>
@@ -3574,19 +3575,19 @@
       </c>
       <c r="AD5" s="45">
         <f t="shared" si="2"/>
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="AE5" s="45">
         <f t="shared" si="2"/>
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="AF5" s="45">
         <f t="shared" si="2"/>
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="AG5" s="45">
         <f t="shared" si="2"/>
-        <v>319</v>
+        <v>324</v>
       </c>
     </row>
     <row r="6" spans="1:33" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -4058,7 +4059,7 @@
         <v>43891</v>
       </c>
       <c r="D29" s="31">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="E29" s="24" t="s">
         <v>34</v>
@@ -4125,7 +4126,7 @@
       <c r="C34" s="50"/>
       <c r="D34" s="33">
         <f>SUM(D6:D33)</f>
-        <v>319</v>
+        <v>324</v>
       </c>
       <c r="E34" s="12"/>
     </row>
@@ -4144,7 +4145,7 @@
       <c r="E36" s="27"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:B5"/>
+  <autoFilter ref="A5:B5" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="5">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:C3"/>
@@ -4153,7 +4154,7 @@
     <mergeCell ref="A35:D35"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="Name, Vorname:"/>
+    <hyperlink ref="A2" r:id="rId1" display="Name, Vorname:" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" scale="75" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/IP_Controlling_Bruno_Maikoff.xlsx
+++ b/IP_Controlling_Bruno_Maikoff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\BlockChain_TransactionManager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99538D3B-9BCB-4299-82BC-54E1B39B11A0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E1051E3-0153-49D3-9CD9-0475DD6B8889}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11265" yWindow="2145" windowWidth="38700" windowHeight="14790" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1441,16 +1441,16 @@
                   <c:v>297</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>324</c:v>
+                  <c:v>330</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>324</c:v>
+                  <c:v>330</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>324</c:v>
+                  <c:v>330</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>324</c:v>
+                  <c:v>330</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3106,7 +3106,7 @@
   <dimension ref="A1:AG36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="AJ25" sqref="AJ25"/>
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3575,19 +3575,19 @@
       </c>
       <c r="AD5" s="45">
         <f t="shared" si="2"/>
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="AE5" s="45">
         <f t="shared" si="2"/>
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="AF5" s="45">
         <f t="shared" si="2"/>
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="AG5" s="45">
         <f t="shared" si="2"/>
-        <v>324</v>
+        <v>330</v>
       </c>
     </row>
     <row r="6" spans="1:33" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -4059,7 +4059,7 @@
         <v>43891</v>
       </c>
       <c r="D29" s="31">
-        <v>27</v>
+        <v>33</v>
       </c>
       <c r="E29" s="24" t="s">
         <v>34</v>
@@ -4126,7 +4126,7 @@
       <c r="C34" s="50"/>
       <c r="D34" s="33">
         <f>SUM(D6:D33)</f>
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="E34" s="12"/>
     </row>

--- a/IP_Controlling_Bruno_Maikoff.xlsx
+++ b/IP_Controlling_Bruno_Maikoff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\BlockChain_TransactionManager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E1051E3-0153-49D3-9CD9-0475DD6B8889}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB3A37C-C19F-4E5B-ABD0-7B2AC2B8F609}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11265" yWindow="2145" windowWidth="38700" windowHeight="14790" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="50">
   <si>
     <t>Aufwand in h</t>
   </si>
@@ -1444,13 +1444,13 @@
                   <c:v>330</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>330</c:v>
+                  <c:v>337</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>330</c:v>
+                  <c:v>337</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>330</c:v>
+                  <c:v>337</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3106,7 +3106,7 @@
   <dimension ref="A1:AG36"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+      <selection activeCell="AH22" sqref="AH22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3579,15 +3579,15 @@
       </c>
       <c r="AE5" s="45">
         <f t="shared" si="2"/>
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="AF5" s="45">
         <f t="shared" si="2"/>
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="AG5" s="45">
         <f t="shared" si="2"/>
-        <v>330</v>
+        <v>337</v>
       </c>
     </row>
     <row r="6" spans="1:33" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -4077,8 +4077,12 @@
         <f t="shared" si="5"/>
         <v>43898</v>
       </c>
-      <c r="D30" s="31"/>
-      <c r="E30" s="24"/>
+      <c r="D30" s="31">
+        <v>7</v>
+      </c>
+      <c r="E30" s="24" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="31" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A31" s="22">
@@ -4126,7 +4130,7 @@
       <c r="C34" s="50"/>
       <c r="D34" s="33">
         <f>SUM(D6:D33)</f>
-        <v>330</v>
+        <v>337</v>
       </c>
       <c r="E34" s="12"/>
     </row>

--- a/IP_Controlling_Bruno_Maikoff.xlsx
+++ b/IP_Controlling_Bruno_Maikoff.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\BlockChain_TransactionManager\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FHNW\Semester7\Bachlorthesis\BlockChain_TransactionManager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0BB3A37C-C19F-4E5B-ABD0-7B2AC2B8F609}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{596DF56A-9E90-4389-A2E5-52EFA63F9362}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11265" yWindow="2145" windowWidth="38700" windowHeight="14790" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arbeitsrapport_Bruno" sheetId="11" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="53">
   <si>
     <t>Aufwand in h</t>
   </si>
@@ -190,6 +190,15 @@
   </si>
   <si>
     <t>Programm, Report, Statusmeeting; Deployable, Tests</t>
+  </si>
+  <si>
+    <t>8+8+8+8+8+6+6</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Abgabe--&gt; 10+9+8+8+4</t>
+  </si>
+  <si>
+    <t>10+8+8+6+6+8 JAVA CODE</t>
   </si>
 </sst>
 </file>
@@ -1006,16 +1015,16 @@
                   <c:v>249</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>279</c:v>
+                  <c:v>271</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>279</c:v>
+                  <c:v>281</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>279</c:v>
+                  <c:v>281</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>279</c:v>
+                  <c:v>281</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2057,8 +2066,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG36"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AD5" sqref="AD5"/>
+    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2066,7 +2075,7 @@
     <col min="1" max="1" width="8" customWidth="1"/>
     <col min="2" max="2" width="10.28515625" customWidth="1"/>
     <col min="3" max="3" width="10.28515625" style="15" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" style="1" customWidth="1"/>
     <col min="5" max="5" width="46.7109375" customWidth="1"/>
     <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
     <col min="7" max="33" width="4.7109375" customWidth="1"/>
@@ -2527,19 +2536,19 @@
       </c>
       <c r="AD5" s="45">
         <f t="shared" si="29"/>
-        <v>279</v>
+        <v>271</v>
       </c>
       <c r="AE5" s="45">
         <f t="shared" ref="AE5" si="30">AD5+SUMIF($A$6:$A$33,AE3,$D$6:$D$33)</f>
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="AF5" s="45">
         <f t="shared" ref="AF5" si="31">AE5+SUMIF($A$6:$A$33,AF3,$D$6:$D$33)</f>
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="AG5" s="45">
         <f t="shared" ref="AG5" si="32">AF5+SUMIF($A$6:$A$33,AG3,$D$6:$D$33)</f>
-        <v>279</v>
+        <v>281</v>
       </c>
     </row>
     <row r="6" spans="1:33" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
@@ -2997,7 +3006,7 @@
         <v>43891</v>
       </c>
       <c r="D29" s="31">
-        <v>30</v>
+        <v>22</v>
       </c>
       <c r="E29" s="24" t="s">
         <v>49</v>
@@ -3015,8 +3024,12 @@
         <f t="shared" si="35"/>
         <v>43898</v>
       </c>
-      <c r="D30" s="31"/>
-      <c r="E30" s="24"/>
+      <c r="D30" s="31">
+        <v>10</v>
+      </c>
+      <c r="E30" s="24" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="31" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A31" s="22">
@@ -3031,6 +3044,9 @@
         <v>43905</v>
       </c>
       <c r="D31" s="31"/>
+      <c r="E31" s="11" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="32" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A32" s="34">
@@ -3046,7 +3062,7 @@
       </c>
       <c r="D32" s="36"/>
       <c r="E32" s="37" t="s">
-        <v>11</v>
+        <v>51</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3064,7 +3080,7 @@
       <c r="C34" s="50"/>
       <c r="D34" s="33">
         <f>SUM(D6:D33)</f>
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="E34" s="12"/>
     </row>
@@ -3105,8 +3121,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AG36"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="AH22" sqref="AH22"/>
+    <sheetView topLeftCell="A10" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/IP_Controlling_Bruno_Maikoff.xlsx
+++ b/IP_Controlling_Bruno_Maikoff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FHNW\Semester7\Bachlorthesis\BlockChain_TransactionManager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{596DF56A-9E90-4389-A2E5-52EFA63F9362}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD3F97DB-10AD-4385-BF92-8189B8B3EF4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -198,7 +198,7 @@
     <t xml:space="preserve"> Abgabe--&gt; 10+9+8+8+4</t>
   </si>
   <si>
-    <t>10+8+8+6+6+8 JAVA CODE</t>
+    <t>10+9+8+6+6+8 JAVA CODE</t>
   </si>
 </sst>
 </file>
@@ -1018,13 +1018,13 @@
                   <c:v>271</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>281</c:v>
+                  <c:v>290</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>281</c:v>
+                  <c:v>290</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>281</c:v>
+                  <c:v>290</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2066,7 +2066,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
@@ -2540,15 +2540,15 @@
       </c>
       <c r="AE5" s="45">
         <f t="shared" ref="AE5" si="30">AD5+SUMIF($A$6:$A$33,AE3,$D$6:$D$33)</f>
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="AF5" s="45">
         <f t="shared" ref="AF5" si="31">AE5+SUMIF($A$6:$A$33,AF3,$D$6:$D$33)</f>
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="AG5" s="45">
         <f t="shared" ref="AG5" si="32">AF5+SUMIF($A$6:$A$33,AG3,$D$6:$D$33)</f>
-        <v>281</v>
+        <v>290</v>
       </c>
     </row>
     <row r="6" spans="1:33" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
@@ -3025,7 +3025,7 @@
         <v>43898</v>
       </c>
       <c r="D30" s="31">
-        <v>10</v>
+        <v>19</v>
       </c>
       <c r="E30" s="24" t="s">
         <v>52</v>
@@ -3080,7 +3080,7 @@
       <c r="C34" s="50"/>
       <c r="D34" s="33">
         <f>SUM(D6:D33)</f>
-        <v>281</v>
+        <v>290</v>
       </c>
       <c r="E34" s="12"/>
     </row>

--- a/IP_Controlling_Bruno_Maikoff.xlsx
+++ b/IP_Controlling_Bruno_Maikoff.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FHNW\Semester7\Bachlorthesis\BlockChain_TransactionManager\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\BlockChain_TransactionManager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{596DF56A-9E90-4389-A2E5-52EFA63F9362}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17020A2A-A65C-47E2-8772-9584A28CB723}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11265" yWindow="2145" windowWidth="38700" windowHeight="14790" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arbeitsrapport_Bruno" sheetId="11" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="54">
   <si>
     <t>Aufwand in h</t>
   </si>
@@ -199,6 +199,9 @@
   </si>
   <si>
     <t>10+8+8+6+6+8 JAVA CODE</t>
+  </si>
+  <si>
+    <t>Report + Java</t>
   </si>
 </sst>
 </file>
@@ -1453,13 +1456,13 @@
                   <c:v>330</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>337</c:v>
+                  <c:v>350</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>337</c:v>
+                  <c:v>350</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>337</c:v>
+                  <c:v>350</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2066,7 +2069,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="F10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
@@ -3121,8 +3124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AG36"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3595,15 +3598,15 @@
       </c>
       <c r="AE5" s="45">
         <f t="shared" si="2"/>
-        <v>337</v>
+        <v>350</v>
       </c>
       <c r="AF5" s="45">
         <f t="shared" si="2"/>
-        <v>337</v>
+        <v>350</v>
       </c>
       <c r="AG5" s="45">
         <f t="shared" si="2"/>
-        <v>337</v>
+        <v>350</v>
       </c>
     </row>
     <row r="6" spans="1:33" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -4094,10 +4097,10 @@
         <v>43898</v>
       </c>
       <c r="D30" s="31">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E30" s="24" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -4146,7 +4149,7 @@
       <c r="C34" s="50"/>
       <c r="D34" s="33">
         <f>SUM(D6:D33)</f>
-        <v>337</v>
+        <v>350</v>
       </c>
       <c r="E34" s="12"/>
     </row>

--- a/IP_Controlling_Bruno_Maikoff.xlsx
+++ b/IP_Controlling_Bruno_Maikoff.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FHNW\Semester7\Bachlorthesis\BlockChain_TransactionManager\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\BlockChain_TransactionManager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD3F97DB-10AD-4385-BF92-8189B8B3EF4E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA1D0E91-22CD-41E9-85EB-6574D0FF233D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11265" yWindow="2145" windowWidth="38700" windowHeight="14790" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arbeitsrapport_Bruno" sheetId="11" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="54">
   <si>
     <t>Aufwand in h</t>
   </si>
@@ -199,6 +199,9 @@
   </si>
   <si>
     <t>10+9+8+6+6+8 JAVA CODE</t>
+  </si>
+  <si>
+    <t>Report Java</t>
   </si>
 </sst>
 </file>
@@ -1453,13 +1456,13 @@
                   <c:v>330</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>337</c:v>
+                  <c:v>350</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>337</c:v>
+                  <c:v>350</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>337</c:v>
+                  <c:v>350</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2066,7 +2069,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
@@ -3121,8 +3124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AG36"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3595,15 +3598,15 @@
       </c>
       <c r="AE5" s="45">
         <f t="shared" si="2"/>
-        <v>337</v>
+        <v>350</v>
       </c>
       <c r="AF5" s="45">
         <f t="shared" si="2"/>
-        <v>337</v>
+        <v>350</v>
       </c>
       <c r="AG5" s="45">
         <f t="shared" si="2"/>
-        <v>337</v>
+        <v>350</v>
       </c>
     </row>
     <row r="6" spans="1:33" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -4094,10 +4097,10 @@
         <v>43898</v>
       </c>
       <c r="D30" s="31">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="E30" s="24" t="s">
-        <v>34</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -4146,7 +4149,7 @@
       <c r="C34" s="50"/>
       <c r="D34" s="33">
         <f>SUM(D6:D33)</f>
-        <v>337</v>
+        <v>350</v>
       </c>
       <c r="E34" s="12"/>
     </row>

--- a/IP_Controlling_Bruno_Maikoff.xlsx
+++ b/IP_Controlling_Bruno_Maikoff.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\BlockChain_TransactionManager\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mai714\Documents\Workspace\BlockChain_TransactionManager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA1D0E91-22CD-41E9-85EB-6574D0FF233D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11265" yWindow="2145" windowWidth="38700" windowHeight="14790" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11268" yWindow="2148" windowWidth="38700" windowHeight="14796" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Arbeitsrapport_Bruno" sheetId="11" r:id="rId1"/>
@@ -23,7 +22,7 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="1" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -207,7 +206,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -650,9 +649,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Standard 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard 2" xfId="2"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -679,7 +678,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -766,7 +765,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1084,7 +1083,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1"/>
@@ -1139,7 +1138,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2067145632"/>
@@ -1187,7 +1186,7 @@
           <a:cs typeface="Arial"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1201,7 +1200,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1456,13 +1455,13 @@
                   <c:v>330</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>350</c:v>
+                  <c:v>353</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>350</c:v>
+                  <c:v>353</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>350</c:v>
+                  <c:v>353</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1519,7 +1518,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1"/>
@@ -1574,7 +1573,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2067145632"/>
@@ -1622,7 +1621,7 @@
           <a:cs typeface="Arial"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2066,25 +2065,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG36"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" style="15" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="46.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="46.6640625" customWidth="1"/>
     <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="33" width="4.7109375" customWidth="1"/>
+    <col min="7" max="33" width="4.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="3" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" s="3" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A1" s="46" t="s">
         <v>3</v>
       </c>
@@ -2094,7 +2093,7 @@
       <c r="E1" s="46"/>
       <c r="F1" s="14"/>
     </row>
-    <row r="2" spans="1:33" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="47" t="s">
         <v>10</v>
       </c>
@@ -2189,7 +2188,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" s="47"/>
       <c r="B3" s="47"/>
       <c r="C3" s="47"/>
@@ -2306,7 +2305,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:33" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>5</v>
       </c>
@@ -2426,7 +2425,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="5" spans="1:33" s="8" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" s="8" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>6</v>
       </c>
@@ -2554,7 +2553,7 @@
         <v>290</v>
       </c>
     </row>
-    <row r="6" spans="1:33" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" s="10" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A6" s="22">
         <v>1</v>
       </c>
@@ -2573,7 +2572,7 @@
       </c>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="1:33" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" s="10" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A7" s="22">
         <f t="shared" ref="A7:A22" si="33">A6+1</f>
         <v>2</v>
@@ -2594,7 +2593,7 @@
       </c>
       <c r="F7" s="9"/>
     </row>
-    <row r="8" spans="1:33" s="10" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" s="10" customFormat="1" ht="30.6" x14ac:dyDescent="0.25">
       <c r="A8" s="22">
         <f t="shared" si="33"/>
         <v>3</v>
@@ -2615,7 +2614,7 @@
       </c>
       <c r="F8" s="9"/>
     </row>
-    <row r="9" spans="1:33" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33" s="10" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A9" s="22">
         <f t="shared" si="33"/>
         <v>4</v>
@@ -2636,7 +2635,7 @@
       </c>
       <c r="F9" s="9"/>
     </row>
-    <row r="10" spans="1:33" s="11" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33" s="11" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A10" s="22">
         <f t="shared" si="33"/>
         <v>5</v>
@@ -2657,7 +2656,7 @@
       </c>
       <c r="F10" s="9"/>
     </row>
-    <row r="11" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A11" s="22">
         <f t="shared" si="33"/>
         <v>6</v>
@@ -2678,7 +2677,7 @@
       </c>
       <c r="F11" s="9"/>
     </row>
-    <row r="12" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:33" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A12" s="22">
         <f t="shared" si="33"/>
         <v>7</v>
@@ -2695,7 +2694,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:33" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A13" s="22">
         <f t="shared" si="33"/>
         <v>8</v>
@@ -2715,7 +2714,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:33" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A14" s="22">
         <f t="shared" si="33"/>
         <v>9</v>
@@ -2735,7 +2734,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:33" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A15" s="22">
         <f t="shared" si="33"/>
         <v>10</v>
@@ -2755,7 +2754,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:33" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A16" s="34">
         <f t="shared" si="33"/>
         <v>11</v>
@@ -2775,7 +2774,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A17" s="38">
         <f t="shared" si="33"/>
         <v>12</v>
@@ -2792,7 +2791,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A18" s="22">
         <f t="shared" si="33"/>
         <v>13</v>
@@ -2808,7 +2807,7 @@
       <c r="D18" s="31"/>
       <c r="E18" s="24"/>
     </row>
-    <row r="19" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A19" s="22">
         <f t="shared" si="33"/>
         <v>14</v>
@@ -2828,7 +2827,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A20" s="22">
         <f t="shared" si="33"/>
         <v>15</v>
@@ -2848,7 +2847,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A21" s="22">
         <f t="shared" si="33"/>
         <v>16</v>
@@ -2864,7 +2863,7 @@
       <c r="D21" s="31"/>
       <c r="E21" s="24"/>
     </row>
-    <row r="22" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A22" s="38">
         <f t="shared" si="33"/>
         <v>17</v>
@@ -2884,7 +2883,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="11" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" s="11" customFormat="1" ht="30.6" x14ac:dyDescent="0.25">
       <c r="A23" s="22">
         <v>18</v>
       </c>
@@ -2903,7 +2902,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A24" s="22">
         <v>19</v>
       </c>
@@ -2922,7 +2921,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A25" s="22">
         <v>20</v>
       </c>
@@ -2939,7 +2938,7 @@
       </c>
       <c r="E25" s="24"/>
     </row>
-    <row r="26" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A26" s="22">
         <v>21</v>
       </c>
@@ -2958,7 +2957,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="11" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" s="11" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A27" s="22">
         <v>22</v>
       </c>
@@ -2977,7 +2976,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="11" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" s="11" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A28" s="22">
         <v>23</v>
       </c>
@@ -2996,7 +2995,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A29" s="22">
         <v>24</v>
       </c>
@@ -3015,7 +3014,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A30" s="22">
         <v>25</v>
       </c>
@@ -3034,7 +3033,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A31" s="22">
         <v>26</v>
       </c>
@@ -3051,7 +3050,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A32" s="34">
         <v>27</v>
       </c>
@@ -3068,14 +3067,14 @@
         <v>51</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="25"/>
       <c r="B33" s="26"/>
       <c r="C33" s="26"/>
       <c r="D33" s="32"/>
       <c r="E33" s="27"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="50" t="s">
         <v>2</v>
       </c>
@@ -3087,14 +3086,14 @@
       </c>
       <c r="E34" s="12"/>
     </row>
-    <row r="35" spans="1:5" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="51"/>
       <c r="B35" s="51"/>
       <c r="C35" s="51"/>
       <c r="D35" s="51"/>
       <c r="E35" s="13"/>
     </row>
-    <row r="36" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="25"/>
       <c r="B36" s="26"/>
       <c r="C36" s="26"/>
@@ -3102,7 +3101,7 @@
       <c r="E36" s="27"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:B5" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A5:B5"/>
   <mergeCells count="5">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:C3"/>
@@ -3111,7 +3110,7 @@
     <mergeCell ref="A35:D35"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="Name, Vorname:" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId1" display="Name, Vorname:"/>
   </hyperlinks>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" scale="75" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -3121,25 +3120,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="M44" sqref="M44"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" style="15" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="46.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="46.6640625" customWidth="1"/>
     <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="33" width="4.7109375" customWidth="1"/>
+    <col min="7" max="33" width="4.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="3" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" s="3" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A1" s="46" t="s">
         <v>3</v>
       </c>
@@ -3149,7 +3148,7 @@
       <c r="E1" s="46"/>
       <c r="F1" s="14"/>
     </row>
-    <row r="2" spans="1:33" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="47" t="s">
         <v>10</v>
       </c>
@@ -3244,7 +3243,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:33" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="47"/>
       <c r="B3" s="47"/>
       <c r="C3" s="47"/>
@@ -3361,7 +3360,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:33" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A4" s="43" t="s">
         <v>5</v>
       </c>
@@ -3481,7 +3480,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="5" spans="1:33" s="8" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" s="8" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>6</v>
       </c>
@@ -3598,18 +3597,18 @@
       </c>
       <c r="AE5" s="45">
         <f t="shared" si="2"/>
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="AF5" s="45">
         <f t="shared" si="2"/>
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="AG5" s="45">
         <f t="shared" si="2"/>
-        <v>350</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" s="10" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A6" s="22">
         <v>1</v>
       </c>
@@ -3628,7 +3627,7 @@
       </c>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="1:33" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" s="10" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A7" s="22">
         <f t="shared" ref="A7:A22" si="3">A6+1</f>
         <v>2</v>
@@ -3649,7 +3648,7 @@
       </c>
       <c r="F7" s="9"/>
     </row>
-    <row r="8" spans="1:33" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" s="10" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A8" s="22">
         <f t="shared" si="3"/>
         <v>3</v>
@@ -3670,7 +3669,7 @@
       </c>
       <c r="F8" s="9"/>
     </row>
-    <row r="9" spans="1:33" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33" s="10" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A9" s="22">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -3691,7 +3690,7 @@
       </c>
       <c r="F9" s="9"/>
     </row>
-    <row r="10" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A10" s="22">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -3712,7 +3711,7 @@
       </c>
       <c r="F10" s="9"/>
     </row>
-    <row r="11" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A11" s="22">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -3733,7 +3732,7 @@
       </c>
       <c r="F11" s="9"/>
     </row>
-    <row r="12" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:33" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A12" s="22">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -3753,7 +3752,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:33" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A13" s="22">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -3773,7 +3772,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:33" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A14" s="22">
         <f t="shared" si="3"/>
         <v>9</v>
@@ -3793,7 +3792,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:33" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A15" s="22">
         <f t="shared" si="3"/>
         <v>10</v>
@@ -3813,7 +3812,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:33" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A16" s="34">
         <f t="shared" si="3"/>
         <v>11</v>
@@ -3833,7 +3832,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A17" s="38">
         <f t="shared" si="3"/>
         <v>12</v>
@@ -3853,7 +3852,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A18" s="22">
         <f t="shared" si="3"/>
         <v>13</v>
@@ -3873,7 +3872,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A19" s="22">
         <f t="shared" si="3"/>
         <v>14</v>
@@ -3893,7 +3892,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A20" s="22">
         <f t="shared" si="3"/>
         <v>15</v>
@@ -3911,7 +3910,7 @@
       </c>
       <c r="E20" s="24"/>
     </row>
-    <row r="21" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A21" s="22">
         <f t="shared" si="3"/>
         <v>16</v>
@@ -3931,7 +3930,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A22" s="38">
         <f t="shared" si="3"/>
         <v>17</v>
@@ -3951,7 +3950,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A23" s="22">
         <v>18</v>
       </c>
@@ -3970,7 +3969,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A24" s="22">
         <v>19</v>
       </c>
@@ -3989,7 +3988,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A25" s="22">
         <v>20</v>
       </c>
@@ -4008,7 +4007,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A26" s="22">
         <v>21</v>
       </c>
@@ -4027,7 +4026,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A27" s="22">
         <v>22</v>
       </c>
@@ -4046,7 +4045,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A28" s="22">
         <v>23</v>
       </c>
@@ -4065,7 +4064,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A29" s="22">
         <v>24</v>
       </c>
@@ -4084,7 +4083,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A30" s="22">
         <v>25</v>
       </c>
@@ -4097,13 +4096,13 @@
         <v>43898</v>
       </c>
       <c r="D30" s="31">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E30" s="24" t="s">
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A31" s="22">
         <v>26</v>
       </c>
@@ -4117,7 +4116,7 @@
       </c>
       <c r="D31" s="31"/>
     </row>
-    <row r="32" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A32" s="34">
         <v>27</v>
       </c>
@@ -4134,14 +4133,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="25"/>
       <c r="B33" s="26"/>
       <c r="C33" s="26"/>
       <c r="D33" s="32"/>
       <c r="E33" s="27"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="50" t="s">
         <v>2</v>
       </c>
@@ -4149,18 +4148,18 @@
       <c r="C34" s="50"/>
       <c r="D34" s="33">
         <f>SUM(D6:D33)</f>
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="E34" s="12"/>
     </row>
-    <row r="35" spans="1:5" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="51"/>
       <c r="B35" s="51"/>
       <c r="C35" s="51"/>
       <c r="D35" s="51"/>
       <c r="E35" s="13"/>
     </row>
-    <row r="36" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="25"/>
       <c r="B36" s="26"/>
       <c r="C36" s="26"/>
@@ -4168,7 +4167,7 @@
       <c r="E36" s="27"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:B5" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A5:B5"/>
   <mergeCells count="5">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:C3"/>
@@ -4177,7 +4176,7 @@
     <mergeCell ref="A35:D35"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="Name, Vorname:" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId1" display="Name, Vorname:"/>
   </hyperlinks>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" scale="75" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/IP_Controlling_Bruno_Maikoff.xlsx
+++ b/IP_Controlling_Bruno_Maikoff.xlsx
@@ -1455,13 +1455,13 @@
                   <c:v>330</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>353</c:v>
+                  <c:v>355</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>353</c:v>
+                  <c:v>355</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>353</c:v>
+                  <c:v>355</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3124,7 +3124,7 @@
   <dimension ref="A1:AG36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="M44" sqref="M44"/>
+      <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3597,15 +3597,15 @@
       </c>
       <c r="AE5" s="45">
         <f t="shared" si="2"/>
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AF5" s="45">
         <f t="shared" si="2"/>
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="AG5" s="45">
         <f t="shared" si="2"/>
-        <v>353</v>
+        <v>355</v>
       </c>
     </row>
     <row r="6" spans="1:33" s="10" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
@@ -4096,7 +4096,7 @@
         <v>43898</v>
       </c>
       <c r="D30" s="31">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E30" s="24" t="s">
         <v>53</v>
@@ -4148,7 +4148,7 @@
       <c r="C34" s="50"/>
       <c r="D34" s="33">
         <f>SUM(D6:D33)</f>
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="E34" s="12"/>
     </row>

--- a/IP_Controlling_Bruno_Maikoff.xlsx
+++ b/IP_Controlling_Bruno_Maikoff.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mai714\Documents\Workspace\BlockChain_TransactionManager\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FHNW\Semester7\Bachlorthesis\BlockChain_TransactionManager\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C0916C4-8E3F-42D5-8070-D08505665ACA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11268" yWindow="2148" windowWidth="38700" windowHeight="14796" activeTab="1"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arbeitsrapport_Bruno" sheetId="11" r:id="rId1"/>
@@ -22,7 +23,7 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="1" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -191,22 +192,22 @@
     <t>Programm, Report, Statusmeeting; Deployable, Tests</t>
   </si>
   <si>
-    <t>8+8+8+8+8+6+6</t>
-  </si>
-  <si>
     <t xml:space="preserve"> Abgabe--&gt; 10+9+8+8+4</t>
   </si>
   <si>
-    <t>10+9+8+6+6+8 JAVA CODE</t>
-  </si>
-  <si>
     <t>Report Java</t>
+  </si>
+  <si>
+    <t>Planed SA6+Planned SO8 JAVA CODE</t>
+  </si>
+  <si>
+    <t>Geplant8+8+8+8+8+6+6</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -649,9 +650,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Standard 2" xfId="2"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -678,7 +679,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -765,7 +766,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1020,13 +1021,13 @@
                   <c:v>271</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>290</c:v>
+                  <c:v>305</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>290</c:v>
+                  <c:v>305</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>290</c:v>
+                  <c:v>305</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1083,7 +1084,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1"/>
@@ -1138,7 +1139,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2067145632"/>
@@ -1186,7 +1187,7 @@
           <a:cs typeface="Arial"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1200,7 +1201,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1518,7 +1519,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1"/>
@@ -1573,7 +1574,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2067145632"/>
@@ -1621,7 +1622,7 @@
           <a:cs typeface="Arial"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2065,25 +2066,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG36"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" style="15" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="46.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="15" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="46.7109375" customWidth="1"/>
     <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="33" width="4.6640625" customWidth="1"/>
+    <col min="7" max="33" width="4.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="3" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:33" s="3" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="46" t="s">
         <v>3</v>
       </c>
@@ -2093,7 +2094,7 @@
       <c r="E1" s="46"/>
       <c r="F1" s="14"/>
     </row>
-    <row r="2" spans="1:33" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="47" t="s">
         <v>10</v>
       </c>
@@ -2188,7 +2189,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" s="47"/>
       <c r="B3" s="47"/>
       <c r="C3" s="47"/>
@@ -2305,7 +2306,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:33" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
         <v>5</v>
       </c>
@@ -2425,7 +2426,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="5" spans="1:33" s="8" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" s="8" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
         <v>6</v>
       </c>
@@ -2542,18 +2543,18 @@
       </c>
       <c r="AE5" s="45">
         <f t="shared" ref="AE5" si="30">AD5+SUMIF($A$6:$A$33,AE3,$D$6:$D$33)</f>
-        <v>290</v>
+        <v>305</v>
       </c>
       <c r="AF5" s="45">
         <f t="shared" ref="AF5" si="31">AE5+SUMIF($A$6:$A$33,AF3,$D$6:$D$33)</f>
-        <v>290</v>
+        <v>305</v>
       </c>
       <c r="AG5" s="45">
         <f t="shared" ref="AG5" si="32">AF5+SUMIF($A$6:$A$33,AG3,$D$6:$D$33)</f>
-        <v>290</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33" s="10" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
+        <v>305</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A6" s="22">
         <v>1</v>
       </c>
@@ -2572,7 +2573,7 @@
       </c>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="1:33" s="10" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A7" s="22">
         <f t="shared" ref="A7:A22" si="33">A6+1</f>
         <v>2</v>
@@ -2593,7 +2594,7 @@
       </c>
       <c r="F7" s="9"/>
     </row>
-    <row r="8" spans="1:33" s="10" customFormat="1" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" s="10" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A8" s="22">
         <f t="shared" si="33"/>
         <v>3</v>
@@ -2614,7 +2615,7 @@
       </c>
       <c r="F8" s="9"/>
     </row>
-    <row r="9" spans="1:33" s="10" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A9" s="22">
         <f t="shared" si="33"/>
         <v>4</v>
@@ -2635,7 +2636,7 @@
       </c>
       <c r="F9" s="9"/>
     </row>
-    <row r="10" spans="1:33" s="11" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" s="11" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A10" s="22">
         <f t="shared" si="33"/>
         <v>5</v>
@@ -2656,7 +2657,7 @@
       </c>
       <c r="F10" s="9"/>
     </row>
-    <row r="11" spans="1:33" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A11" s="22">
         <f t="shared" si="33"/>
         <v>6</v>
@@ -2677,7 +2678,7 @@
       </c>
       <c r="F11" s="9"/>
     </row>
-    <row r="12" spans="1:33" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A12" s="22">
         <f t="shared" si="33"/>
         <v>7</v>
@@ -2694,7 +2695,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:33" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A13" s="22">
         <f t="shared" si="33"/>
         <v>8</v>
@@ -2714,7 +2715,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:33" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A14" s="22">
         <f t="shared" si="33"/>
         <v>9</v>
@@ -2734,7 +2735,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:33" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A15" s="22">
         <f t="shared" si="33"/>
         <v>10</v>
@@ -2754,7 +2755,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:33" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A16" s="34">
         <f t="shared" si="33"/>
         <v>11</v>
@@ -2774,7 +2775,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A17" s="38">
         <f t="shared" si="33"/>
         <v>12</v>
@@ -2791,7 +2792,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A18" s="22">
         <f t="shared" si="33"/>
         <v>13</v>
@@ -2807,7 +2808,7 @@
       <c r="D18" s="31"/>
       <c r="E18" s="24"/>
     </row>
-    <row r="19" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A19" s="22">
         <f t="shared" si="33"/>
         <v>14</v>
@@ -2827,7 +2828,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A20" s="22">
         <f t="shared" si="33"/>
         <v>15</v>
@@ -2847,7 +2848,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A21" s="22">
         <f t="shared" si="33"/>
         <v>16</v>
@@ -2863,7 +2864,7 @@
       <c r="D21" s="31"/>
       <c r="E21" s="24"/>
     </row>
-    <row r="22" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A22" s="38">
         <f t="shared" si="33"/>
         <v>17</v>
@@ -2883,7 +2884,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="11" customFormat="1" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" s="11" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A23" s="22">
         <v>18</v>
       </c>
@@ -2902,7 +2903,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A24" s="22">
         <v>19</v>
       </c>
@@ -2921,7 +2922,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A25" s="22">
         <v>20</v>
       </c>
@@ -2938,7 +2939,7 @@
       </c>
       <c r="E25" s="24"/>
     </row>
-    <row r="26" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A26" s="22">
         <v>21</v>
       </c>
@@ -2957,7 +2958,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="11" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" s="11" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A27" s="22">
         <v>22</v>
       </c>
@@ -2976,7 +2977,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="11" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" s="11" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A28" s="22">
         <v>23</v>
       </c>
@@ -2995,7 +2996,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A29" s="22">
         <v>24</v>
       </c>
@@ -3014,7 +3015,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A30" s="22">
         <v>25</v>
       </c>
@@ -3027,13 +3028,13 @@
         <v>43898</v>
       </c>
       <c r="D30" s="31">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="E30" s="24" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A31" s="22">
         <v>26</v>
       </c>
@@ -3047,10 +3048,10 @@
       </c>
       <c r="D31" s="31"/>
       <c r="E31" s="11" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="32" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A32" s="34">
         <v>27</v>
       </c>
@@ -3064,17 +3065,17 @@
       </c>
       <c r="D32" s="36"/>
       <c r="E32" s="37" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="25"/>
       <c r="B33" s="26"/>
       <c r="C33" s="26"/>
       <c r="D33" s="32"/>
       <c r="E33" s="27"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="50" t="s">
         <v>2</v>
       </c>
@@ -3082,18 +3083,18 @@
       <c r="C34" s="50"/>
       <c r="D34" s="33">
         <f>SUM(D6:D33)</f>
-        <v>290</v>
+        <v>305</v>
       </c>
       <c r="E34" s="12"/>
     </row>
-    <row r="35" spans="1:5" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="51"/>
       <c r="B35" s="51"/>
       <c r="C35" s="51"/>
       <c r="D35" s="51"/>
       <c r="E35" s="13"/>
     </row>
-    <row r="36" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="25"/>
       <c r="B36" s="26"/>
       <c r="C36" s="26"/>
@@ -3101,7 +3102,7 @@
       <c r="E36" s="27"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:B5"/>
+  <autoFilter ref="A5:B5" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="5">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:C3"/>
@@ -3110,7 +3111,7 @@
     <mergeCell ref="A35:D35"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="Name, Vorname:"/>
+    <hyperlink ref="A2" r:id="rId1" display="Name, Vorname:" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" scale="75" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -3120,25 +3121,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AG36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="F37" sqref="F37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" style="15" customWidth="1"/>
-    <col min="4" max="4" width="9.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="46.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="15" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="46.7109375" customWidth="1"/>
     <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="33" width="4.6640625" customWidth="1"/>
+    <col min="7" max="33" width="4.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="3" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:33" s="3" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="46" t="s">
         <v>3</v>
       </c>
@@ -3148,7 +3149,7 @@
       <c r="E1" s="46"/>
       <c r="F1" s="14"/>
     </row>
-    <row r="2" spans="1:33" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="47" t="s">
         <v>10</v>
       </c>
@@ -3243,7 +3244,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:33" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="47"/>
       <c r="B3" s="47"/>
       <c r="C3" s="47"/>
@@ -3360,7 +3361,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:33" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="43" t="s">
         <v>5</v>
       </c>
@@ -3480,7 +3481,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="5" spans="1:33" s="8" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" s="8" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
         <v>6</v>
       </c>
@@ -3608,7 +3609,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="6" spans="1:33" s="10" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A6" s="22">
         <v>1</v>
       </c>
@@ -3627,7 +3628,7 @@
       </c>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="1:33" s="10" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A7" s="22">
         <f t="shared" ref="A7:A22" si="3">A6+1</f>
         <v>2</v>
@@ -3648,7 +3649,7 @@
       </c>
       <c r="F7" s="9"/>
     </row>
-    <row r="8" spans="1:33" s="10" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A8" s="22">
         <f t="shared" si="3"/>
         <v>3</v>
@@ -3669,7 +3670,7 @@
       </c>
       <c r="F8" s="9"/>
     </row>
-    <row r="9" spans="1:33" s="10" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A9" s="22">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -3690,7 +3691,7 @@
       </c>
       <c r="F9" s="9"/>
     </row>
-    <row r="10" spans="1:33" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A10" s="22">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -3711,7 +3712,7 @@
       </c>
       <c r="F10" s="9"/>
     </row>
-    <row r="11" spans="1:33" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A11" s="22">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -3732,7 +3733,7 @@
       </c>
       <c r="F11" s="9"/>
     </row>
-    <row r="12" spans="1:33" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A12" s="22">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -3752,7 +3753,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:33" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A13" s="22">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -3772,7 +3773,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:33" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A14" s="22">
         <f t="shared" si="3"/>
         <v>9</v>
@@ -3792,7 +3793,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:33" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A15" s="22">
         <f t="shared" si="3"/>
         <v>10</v>
@@ -3812,7 +3813,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:33" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A16" s="34">
         <f t="shared" si="3"/>
         <v>11</v>
@@ -3832,7 +3833,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A17" s="38">
         <f t="shared" si="3"/>
         <v>12</v>
@@ -3852,7 +3853,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A18" s="22">
         <f t="shared" si="3"/>
         <v>13</v>
@@ -3872,7 +3873,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A19" s="22">
         <f t="shared" si="3"/>
         <v>14</v>
@@ -3892,7 +3893,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A20" s="22">
         <f t="shared" si="3"/>
         <v>15</v>
@@ -3910,7 +3911,7 @@
       </c>
       <c r="E20" s="24"/>
     </row>
-    <row r="21" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A21" s="22">
         <f t="shared" si="3"/>
         <v>16</v>
@@ -3930,7 +3931,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A22" s="38">
         <f t="shared" si="3"/>
         <v>17</v>
@@ -3950,7 +3951,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A23" s="22">
         <v>18</v>
       </c>
@@ -3969,7 +3970,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A24" s="22">
         <v>19</v>
       </c>
@@ -3988,7 +3989,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A25" s="22">
         <v>20</v>
       </c>
@@ -4007,7 +4008,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A26" s="22">
         <v>21</v>
       </c>
@@ -4026,7 +4027,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A27" s="22">
         <v>22</v>
       </c>
@@ -4045,7 +4046,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A28" s="22">
         <v>23</v>
       </c>
@@ -4064,7 +4065,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A29" s="22">
         <v>24</v>
       </c>
@@ -4083,7 +4084,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A30" s="22">
         <v>25</v>
       </c>
@@ -4099,10 +4100,10 @@
         <v>25</v>
       </c>
       <c r="E30" s="24" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="31" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A31" s="22">
         <v>26</v>
       </c>
@@ -4116,7 +4117,7 @@
       </c>
       <c r="D31" s="31"/>
     </row>
-    <row r="32" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A32" s="34">
         <v>27</v>
       </c>
@@ -4133,14 +4134,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="25"/>
       <c r="B33" s="26"/>
       <c r="C33" s="26"/>
       <c r="D33" s="32"/>
       <c r="E33" s="27"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="50" t="s">
         <v>2</v>
       </c>
@@ -4152,14 +4153,14 @@
       </c>
       <c r="E34" s="12"/>
     </row>
-    <row r="35" spans="1:5" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="51"/>
       <c r="B35" s="51"/>
       <c r="C35" s="51"/>
       <c r="D35" s="51"/>
       <c r="E35" s="13"/>
     </row>
-    <row r="36" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="25"/>
       <c r="B36" s="26"/>
       <c r="C36" s="26"/>
@@ -4167,7 +4168,7 @@
       <c r="E36" s="27"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:B5"/>
+  <autoFilter ref="A5:B5" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="5">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:C3"/>
@@ -4176,7 +4177,7 @@
     <mergeCell ref="A35:D35"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="Name, Vorname:"/>
+    <hyperlink ref="A2" r:id="rId1" display="Name, Vorname:" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" scale="75" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/IP_Controlling_Bruno_Maikoff.xlsx
+++ b/IP_Controlling_Bruno_Maikoff.xlsx
@@ -1455,13 +1455,13 @@
                   <c:v>330</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>355</c:v>
+                  <c:v>357</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>355</c:v>
+                  <c:v>357</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>355</c:v>
+                  <c:v>357</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3124,7 +3124,7 @@
   <dimension ref="A1:AG36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+      <selection activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
@@ -3597,15 +3597,15 @@
       </c>
       <c r="AE5" s="45">
         <f t="shared" si="2"/>
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="AF5" s="45">
         <f t="shared" si="2"/>
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="AG5" s="45">
         <f t="shared" si="2"/>
-        <v>355</v>
+        <v>357</v>
       </c>
     </row>
     <row r="6" spans="1:33" s="10" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
@@ -4096,7 +4096,7 @@
         <v>43898</v>
       </c>
       <c r="D30" s="31">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E30" s="24" t="s">
         <v>53</v>
@@ -4148,7 +4148,7 @@
       <c r="C34" s="50"/>
       <c r="D34" s="33">
         <f>SUM(D6:D33)</f>
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="E34" s="12"/>
     </row>

--- a/IP_Controlling_Bruno_Maikoff.xlsx
+++ b/IP_Controlling_Bruno_Maikoff.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FHNW\Semester7\Bachlorthesis\BlockChain_TransactionManager\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mai714\Documents\Workspace\BlockChain_TransactionManager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C0916C4-8E3F-42D5-8070-D08505665ACA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Arbeitsrapport_Bruno" sheetId="11" r:id="rId1"/>
@@ -23,7 +22,7 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="1" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -207,7 +206,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -650,9 +649,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Link" xfId="1" builtinId="8"/>
-    <cellStyle name="Standard" xfId="0" builtinId="0"/>
-    <cellStyle name="Standard 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard 2" xfId="2"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -679,7 +678,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -766,7 +765,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1084,7 +1083,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1"/>
@@ -1139,7 +1138,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2067145632"/>
@@ -1187,7 +1186,7 @@
           <a:cs typeface="Arial"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1201,7 +1200,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="de-DE"/>
+  <c:lang val="en-US"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1456,13 +1455,13 @@
                   <c:v>330</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>355</c:v>
+                  <c:v>357</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>355</c:v>
+                  <c:v>357</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>355</c:v>
+                  <c:v>357</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1519,7 +1518,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1"/>
@@ -1574,7 +1573,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="en-US"/>
+            <a:endParaRPr lang="de-DE"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2067145632"/>
@@ -1622,7 +1621,7 @@
           <a:cs typeface="Arial"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="en-US"/>
+      <a:endParaRPr lang="de-DE"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2066,25 +2065,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A19" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" style="15" customWidth="1"/>
-    <col min="4" max="4" width="16.7109375" style="1" customWidth="1"/>
-    <col min="5" max="5" width="46.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="16.6640625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="46.6640625" customWidth="1"/>
     <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="33" width="4.7109375" customWidth="1"/>
+    <col min="7" max="33" width="4.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="3" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" s="3" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A1" s="46" t="s">
         <v>3</v>
       </c>
@@ -2094,7 +2093,7 @@
       <c r="E1" s="46"/>
       <c r="F1" s="14"/>
     </row>
-    <row r="2" spans="1:33" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="47" t="s">
         <v>10</v>
       </c>
@@ -2189,7 +2188,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
       <c r="A3" s="47"/>
       <c r="B3" s="47"/>
       <c r="C3" s="47"/>
@@ -2306,7 +2305,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:33" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A4" s="16" t="s">
         <v>5</v>
       </c>
@@ -2426,7 +2425,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="5" spans="1:33" s="8" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" s="8" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>6</v>
       </c>
@@ -2554,7 +2553,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="6" spans="1:33" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:33" s="10" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A6" s="22">
         <v>1</v>
       </c>
@@ -2573,7 +2572,7 @@
       </c>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="1:33" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" s="10" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A7" s="22">
         <f t="shared" ref="A7:A22" si="33">A6+1</f>
         <v>2</v>
@@ -2594,7 +2593,7 @@
       </c>
       <c r="F7" s="9"/>
     </row>
-    <row r="8" spans="1:33" s="10" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" s="10" customFormat="1" ht="30.6" x14ac:dyDescent="0.25">
       <c r="A8" s="22">
         <f t="shared" si="33"/>
         <v>3</v>
@@ -2615,7 +2614,7 @@
       </c>
       <c r="F8" s="9"/>
     </row>
-    <row r="9" spans="1:33" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33" s="10" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A9" s="22">
         <f t="shared" si="33"/>
         <v>4</v>
@@ -2636,7 +2635,7 @@
       </c>
       <c r="F9" s="9"/>
     </row>
-    <row r="10" spans="1:33" s="11" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33" s="11" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A10" s="22">
         <f t="shared" si="33"/>
         <v>5</v>
@@ -2657,7 +2656,7 @@
       </c>
       <c r="F10" s="9"/>
     </row>
-    <row r="11" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A11" s="22">
         <f t="shared" si="33"/>
         <v>6</v>
@@ -2678,7 +2677,7 @@
       </c>
       <c r="F11" s="9"/>
     </row>
-    <row r="12" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:33" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A12" s="22">
         <f t="shared" si="33"/>
         <v>7</v>
@@ -2695,7 +2694,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:33" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A13" s="22">
         <f t="shared" si="33"/>
         <v>8</v>
@@ -2715,7 +2714,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:33" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A14" s="22">
         <f t="shared" si="33"/>
         <v>9</v>
@@ -2735,7 +2734,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:33" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A15" s="22">
         <f t="shared" si="33"/>
         <v>10</v>
@@ -2755,7 +2754,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:33" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A16" s="34">
         <f t="shared" si="33"/>
         <v>11</v>
@@ -2775,7 +2774,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A17" s="38">
         <f t="shared" si="33"/>
         <v>12</v>
@@ -2792,7 +2791,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A18" s="22">
         <f t="shared" si="33"/>
         <v>13</v>
@@ -2808,7 +2807,7 @@
       <c r="D18" s="31"/>
       <c r="E18" s="24"/>
     </row>
-    <row r="19" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A19" s="22">
         <f t="shared" si="33"/>
         <v>14</v>
@@ -2828,7 +2827,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A20" s="22">
         <f t="shared" si="33"/>
         <v>15</v>
@@ -2848,7 +2847,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A21" s="22">
         <f t="shared" si="33"/>
         <v>16</v>
@@ -2864,7 +2863,7 @@
       <c r="D21" s="31"/>
       <c r="E21" s="24"/>
     </row>
-    <row r="22" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A22" s="38">
         <f t="shared" si="33"/>
         <v>17</v>
@@ -2884,7 +2883,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="11" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" s="11" customFormat="1" ht="30.6" x14ac:dyDescent="0.25">
       <c r="A23" s="22">
         <v>18</v>
       </c>
@@ -2903,7 +2902,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A24" s="22">
         <v>19</v>
       </c>
@@ -2922,7 +2921,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A25" s="22">
         <v>20</v>
       </c>
@@ -2939,7 +2938,7 @@
       </c>
       <c r="E25" s="24"/>
     </row>
-    <row r="26" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A26" s="22">
         <v>21</v>
       </c>
@@ -2958,7 +2957,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="11" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" s="11" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A27" s="22">
         <v>22</v>
       </c>
@@ -2977,7 +2976,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="11" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" s="11" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A28" s="22">
         <v>23</v>
       </c>
@@ -2996,7 +2995,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A29" s="22">
         <v>24</v>
       </c>
@@ -3015,7 +3014,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A30" s="22">
         <v>25</v>
       </c>
@@ -3034,7 +3033,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A31" s="22">
         <v>26</v>
       </c>
@@ -3051,7 +3050,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A32" s="34">
         <v>27</v>
       </c>
@@ -3068,14 +3067,14 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="25"/>
       <c r="B33" s="26"/>
       <c r="C33" s="26"/>
       <c r="D33" s="32"/>
       <c r="E33" s="27"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="50" t="s">
         <v>2</v>
       </c>
@@ -3087,14 +3086,14 @@
       </c>
       <c r="E34" s="12"/>
     </row>
-    <row r="35" spans="1:5" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="51"/>
       <c r="B35" s="51"/>
       <c r="C35" s="51"/>
       <c r="D35" s="51"/>
       <c r="E35" s="13"/>
     </row>
-    <row r="36" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="25"/>
       <c r="B36" s="26"/>
       <c r="C36" s="26"/>
@@ -3102,7 +3101,7 @@
       <c r="E36" s="27"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:B5" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
+  <autoFilter ref="A5:B5"/>
   <mergeCells count="5">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:C3"/>
@@ -3111,7 +3110,7 @@
     <mergeCell ref="A35:D35"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="Name, Vorname:" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId1" display="Name, Vorname:"/>
   </hyperlinks>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" scale="75" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -3121,25 +3120,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG36"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F37" sqref="F37"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="10.28515625" customWidth="1"/>
-    <col min="3" max="3" width="10.28515625" style="15" customWidth="1"/>
-    <col min="4" max="4" width="9.42578125" style="1" customWidth="1"/>
-    <col min="5" max="5" width="46.7109375" customWidth="1"/>
+    <col min="2" max="2" width="10.33203125" customWidth="1"/>
+    <col min="3" max="3" width="10.33203125" style="15" customWidth="1"/>
+    <col min="4" max="4" width="9.44140625" style="1" customWidth="1"/>
+    <col min="5" max="5" width="46.6640625" customWidth="1"/>
     <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="33" width="4.7109375" customWidth="1"/>
+    <col min="7" max="33" width="4.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="3" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" s="3" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
       <c r="A1" s="46" t="s">
         <v>3</v>
       </c>
@@ -3149,7 +3148,7 @@
       <c r="E1" s="46"/>
       <c r="F1" s="14"/>
     </row>
-    <row r="2" spans="1:33" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:33" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="47" t="s">
         <v>10</v>
       </c>
@@ -3244,7 +3243,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:33" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:33" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="47"/>
       <c r="B3" s="47"/>
       <c r="C3" s="47"/>
@@ -3361,7 +3360,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:33" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:33" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A4" s="43" t="s">
         <v>5</v>
       </c>
@@ -3481,7 +3480,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="5" spans="1:33" s="8" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:33" s="8" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
       <c r="A5" s="17" t="s">
         <v>6</v>
       </c>
@@ -3598,18 +3597,18 @@
       </c>
       <c r="AE5" s="45">
         <f t="shared" si="2"/>
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="AF5" s="45">
         <f t="shared" si="2"/>
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="AG5" s="45">
         <f t="shared" si="2"/>
-        <v>355</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" s="10" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A6" s="22">
         <v>1</v>
       </c>
@@ -3628,7 +3627,7 @@
       </c>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="1:33" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:33" s="10" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A7" s="22">
         <f t="shared" ref="A7:A22" si="3">A6+1</f>
         <v>2</v>
@@ -3649,7 +3648,7 @@
       </c>
       <c r="F7" s="9"/>
     </row>
-    <row r="8" spans="1:33" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:33" s="10" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A8" s="22">
         <f t="shared" si="3"/>
         <v>3</v>
@@ -3670,7 +3669,7 @@
       </c>
       <c r="F8" s="9"/>
     </row>
-    <row r="9" spans="1:33" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:33" s="10" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
       <c r="A9" s="22">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -3691,7 +3690,7 @@
       </c>
       <c r="F9" s="9"/>
     </row>
-    <row r="10" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:33" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A10" s="22">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -3712,7 +3711,7 @@
       </c>
       <c r="F10" s="9"/>
     </row>
-    <row r="11" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:33" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A11" s="22">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -3733,7 +3732,7 @@
       </c>
       <c r="F11" s="9"/>
     </row>
-    <row r="12" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:33" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A12" s="22">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -3753,7 +3752,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:33" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A13" s="22">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -3773,7 +3772,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:33" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A14" s="22">
         <f t="shared" si="3"/>
         <v>9</v>
@@ -3793,7 +3792,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:33" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A15" s="22">
         <f t="shared" si="3"/>
         <v>10</v>
@@ -3813,7 +3812,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:33" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A16" s="34">
         <f t="shared" si="3"/>
         <v>11</v>
@@ -3833,7 +3832,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A17" s="38">
         <f t="shared" si="3"/>
         <v>12</v>
@@ -3853,7 +3852,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A18" s="22">
         <f t="shared" si="3"/>
         <v>13</v>
@@ -3873,7 +3872,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A19" s="22">
         <f t="shared" si="3"/>
         <v>14</v>
@@ -3893,7 +3892,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A20" s="22">
         <f t="shared" si="3"/>
         <v>15</v>
@@ -3911,7 +3910,7 @@
       </c>
       <c r="E20" s="24"/>
     </row>
-    <row r="21" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A21" s="22">
         <f t="shared" si="3"/>
         <v>16</v>
@@ -3931,7 +3930,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A22" s="38">
         <f t="shared" si="3"/>
         <v>17</v>
@@ -3951,7 +3950,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A23" s="22">
         <v>18</v>
       </c>
@@ -3970,7 +3969,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A24" s="22">
         <v>19</v>
       </c>
@@ -3989,7 +3988,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A25" s="22">
         <v>20</v>
       </c>
@@ -4008,7 +4007,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A26" s="22">
         <v>21</v>
       </c>
@@ -4027,7 +4026,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A27" s="22">
         <v>22</v>
       </c>
@@ -4046,7 +4045,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A28" s="22">
         <v>23</v>
       </c>
@@ -4065,7 +4064,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A29" s="22">
         <v>24</v>
       </c>
@@ -4084,7 +4083,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A30" s="22">
         <v>25</v>
       </c>
@@ -4097,13 +4096,13 @@
         <v>43898</v>
       </c>
       <c r="D30" s="31">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E30" s="24" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A31" s="22">
         <v>26</v>
       </c>
@@ -4117,7 +4116,7 @@
       </c>
       <c r="D31" s="31"/>
     </row>
-    <row r="32" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
       <c r="A32" s="34">
         <v>27</v>
       </c>
@@ -4134,14 +4133,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="25"/>
       <c r="B33" s="26"/>
       <c r="C33" s="26"/>
       <c r="D33" s="32"/>
       <c r="E33" s="27"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="50" t="s">
         <v>2</v>
       </c>
@@ -4149,18 +4148,18 @@
       <c r="C34" s="50"/>
       <c r="D34" s="33">
         <f>SUM(D6:D33)</f>
-        <v>355</v>
+        <v>357</v>
       </c>
       <c r="E34" s="12"/>
     </row>
-    <row r="35" spans="1:5" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A35" s="51"/>
       <c r="B35" s="51"/>
       <c r="C35" s="51"/>
       <c r="D35" s="51"/>
       <c r="E35" s="13"/>
     </row>
-    <row r="36" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="25"/>
       <c r="B36" s="26"/>
       <c r="C36" s="26"/>
@@ -4168,7 +4167,7 @@
       <c r="E36" s="27"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:B5" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
+  <autoFilter ref="A5:B5"/>
   <mergeCells count="5">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:C3"/>
@@ -4177,7 +4176,7 @@
     <mergeCell ref="A35:D35"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="Name, Vorname:" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
+    <hyperlink ref="A2" r:id="rId1" display="Name, Vorname:"/>
   </hyperlinks>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" scale="75" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/IP_Controlling_Bruno_Maikoff.xlsx
+++ b/IP_Controlling_Bruno_Maikoff.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mai714\Documents\Workspace\BlockChain_TransactionManager\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\BlockChain_TransactionManager\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E654BEB6-C392-46AD-90F9-55A4D8FE5320}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="11265" yWindow="2145" windowWidth="38700" windowHeight="14790" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arbeitsrapport_Bruno" sheetId="11" r:id="rId1"/>
@@ -22,7 +23,7 @@
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" localSheetId="1" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
     <definedName name="LOCAL_MYSQL_DATE_FORMAT" hidden="1">REPT(LOCAL_YEAR_FORMAT,4)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_MONTH_FORMAT,2)&amp;LOCAL_DATE_SEPARATOR&amp;REPT(LOCAL_DAY_FORMAT,2)&amp;" "&amp;REPT(LOCAL_HOUR_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_MINUTE_FORMAT,2)&amp;LOCAL_TIME_SEPARATOR&amp;REPT(LOCAL_SECOND_FORMAT,2)</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -206,7 +207,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr9="http://schemas.microsoft.com/office/spreadsheetml/2016/revision9" mc:Ignorable="x14ac x16r2 xr xr9">
   <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -649,9 +650,9 @@
     </xf>
   </cellXfs>
   <cellStyles count="3">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Standard 2" xfId="2"/>
+    <cellStyle name="Link" xfId="1" builtinId="8"/>
+    <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Standard 2" xfId="2" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -678,7 +679,7 @@
     </dxf>
   </dxfs>
   <tableStyles count="1" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16">
-    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2">
+    <tableStyle name="MySqlDefault" pivot="0" table="0" count="2" xr9:uid="{00000000-0011-0000-FFFF-FFFF00000000}">
       <tableStyleElement type="wholeTable" dxfId="1"/>
       <tableStyleElement type="headerRow" dxfId="0"/>
     </tableStyle>
@@ -765,7 +766,7 @@
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1083,7 +1084,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1"/>
@@ -1138,7 +1139,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2067145632"/>
@@ -1186,7 +1187,7 @@
           <a:cs typeface="Arial"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -1200,7 +1201,7 @@
 <file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
-  <c:lang val="en-US"/>
+  <c:lang val="de-DE"/>
   <c:roundedCorners val="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
@@ -1455,13 +1456,13 @@
                   <c:v>330</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>357</c:v>
+                  <c:v>361</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>357</c:v>
+                  <c:v>361</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>357</c:v>
+                  <c:v>361</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -1518,7 +1519,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="1"/>
@@ -1573,7 +1574,7 @@
                 <a:cs typeface="Arial"/>
               </a:defRPr>
             </a:pPr>
-            <a:endParaRPr lang="de-DE"/>
+            <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
         <c:crossAx val="2067145632"/>
@@ -1621,7 +1622,7 @@
           <a:cs typeface="Arial"/>
         </a:defRPr>
       </a:pPr>
-      <a:endParaRPr lang="de-DE"/>
+      <a:endParaRPr lang="en-US"/>
     </a:p>
   </c:txPr>
   <c:printSettings>
@@ -2065,25 +2066,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG36"/>
   <sheetViews>
     <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" style="15" customWidth="1"/>
-    <col min="4" max="4" width="16.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="46.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="15" customWidth="1"/>
+    <col min="4" max="4" width="16.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="46.7109375" customWidth="1"/>
     <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="33" width="4.6640625" customWidth="1"/>
+    <col min="7" max="33" width="4.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="3" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:33" s="3" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="46" t="s">
         <v>3</v>
       </c>
@@ -2093,7 +2094,7 @@
       <c r="E1" s="46"/>
       <c r="F1" s="14"/>
     </row>
-    <row r="2" spans="1:33" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="47" t="s">
         <v>10</v>
       </c>
@@ -2188,7 +2189,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.2">
       <c r="A3" s="47"/>
       <c r="B3" s="47"/>
       <c r="C3" s="47"/>
@@ -2305,7 +2306,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:33" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="16" t="s">
         <v>5</v>
       </c>
@@ -2425,7 +2426,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="5" spans="1:33" s="8" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" s="8" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
         <v>6</v>
       </c>
@@ -2553,7 +2554,7 @@
         <v>305</v>
       </c>
     </row>
-    <row r="6" spans="1:33" s="10" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:33" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A6" s="22">
         <v>1</v>
       </c>
@@ -2572,7 +2573,7 @@
       </c>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="1:33" s="10" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A7" s="22">
         <f t="shared" ref="A7:A22" si="33">A6+1</f>
         <v>2</v>
@@ -2593,7 +2594,7 @@
       </c>
       <c r="F7" s="9"/>
     </row>
-    <row r="8" spans="1:33" s="10" customFormat="1" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" s="10" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A8" s="22">
         <f t="shared" si="33"/>
         <v>3</v>
@@ -2614,7 +2615,7 @@
       </c>
       <c r="F8" s="9"/>
     </row>
-    <row r="9" spans="1:33" s="10" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A9" s="22">
         <f t="shared" si="33"/>
         <v>4</v>
@@ -2635,7 +2636,7 @@
       </c>
       <c r="F9" s="9"/>
     </row>
-    <row r="10" spans="1:33" s="11" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" s="11" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A10" s="22">
         <f t="shared" si="33"/>
         <v>5</v>
@@ -2656,7 +2657,7 @@
       </c>
       <c r="F10" s="9"/>
     </row>
-    <row r="11" spans="1:33" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A11" s="22">
         <f t="shared" si="33"/>
         <v>6</v>
@@ -2677,7 +2678,7 @@
       </c>
       <c r="F11" s="9"/>
     </row>
-    <row r="12" spans="1:33" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A12" s="22">
         <f t="shared" si="33"/>
         <v>7</v>
@@ -2694,7 +2695,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:33" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A13" s="22">
         <f t="shared" si="33"/>
         <v>8</v>
@@ -2714,7 +2715,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="14" spans="1:33" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A14" s="22">
         <f t="shared" si="33"/>
         <v>9</v>
@@ -2734,7 +2735,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="15" spans="1:33" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A15" s="22">
         <f t="shared" si="33"/>
         <v>10</v>
@@ -2754,7 +2755,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="16" spans="1:33" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A16" s="34">
         <f t="shared" si="33"/>
         <v>11</v>
@@ -2774,7 +2775,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A17" s="38">
         <f t="shared" si="33"/>
         <v>12</v>
@@ -2791,7 +2792,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A18" s="22">
         <f t="shared" si="33"/>
         <v>13</v>
@@ -2807,7 +2808,7 @@
       <c r="D18" s="31"/>
       <c r="E18" s="24"/>
     </row>
-    <row r="19" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A19" s="22">
         <f t="shared" si="33"/>
         <v>14</v>
@@ -2827,7 +2828,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A20" s="22">
         <f t="shared" si="33"/>
         <v>15</v>
@@ -2847,7 +2848,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="21" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A21" s="22">
         <f t="shared" si="33"/>
         <v>16</v>
@@ -2863,7 +2864,7 @@
       <c r="D21" s="31"/>
       <c r="E21" s="24"/>
     </row>
-    <row r="22" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A22" s="38">
         <f t="shared" si="33"/>
         <v>17</v>
@@ -2883,7 +2884,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="11" customFormat="1" ht="30.6" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" s="11" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
       <c r="A23" s="22">
         <v>18</v>
       </c>
@@ -2902,7 +2903,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A24" s="22">
         <v>19</v>
       </c>
@@ -2921,7 +2922,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A25" s="22">
         <v>20</v>
       </c>
@@ -2938,7 +2939,7 @@
       </c>
       <c r="E25" s="24"/>
     </row>
-    <row r="26" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A26" s="22">
         <v>21</v>
       </c>
@@ -2957,7 +2958,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="11" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" s="11" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A27" s="22">
         <v>22</v>
       </c>
@@ -2976,7 +2977,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="11" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" s="11" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A28" s="22">
         <v>23</v>
       </c>
@@ -2995,7 +2996,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A29" s="22">
         <v>24</v>
       </c>
@@ -3014,7 +3015,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A30" s="22">
         <v>25</v>
       </c>
@@ -3033,7 +3034,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A31" s="22">
         <v>26</v>
       </c>
@@ -3050,7 +3051,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A32" s="34">
         <v>27</v>
       </c>
@@ -3067,14 +3068,14 @@
         <v>50</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="25"/>
       <c r="B33" s="26"/>
       <c r="C33" s="26"/>
       <c r="D33" s="32"/>
       <c r="E33" s="27"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="50" t="s">
         <v>2</v>
       </c>
@@ -3086,14 +3087,14 @@
       </c>
       <c r="E34" s="12"/>
     </row>
-    <row r="35" spans="1:5" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="51"/>
       <c r="B35" s="51"/>
       <c r="C35" s="51"/>
       <c r="D35" s="51"/>
       <c r="E35" s="13"/>
     </row>
-    <row r="36" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="25"/>
       <c r="B36" s="26"/>
       <c r="C36" s="26"/>
@@ -3101,7 +3102,7 @@
       <c r="E36" s="27"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:B5"/>
+  <autoFilter ref="A5:B5" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
   <mergeCells count="5">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:C3"/>
@@ -3110,7 +3111,7 @@
     <mergeCell ref="A35:D35"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="Name, Vorname:"/>
+    <hyperlink ref="A2" r:id="rId1" display="Name, Vorname:" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" scale="75" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>
@@ -3120,25 +3121,25 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AG36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="L37" sqref="L37"/>
+      <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.5546875" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="8" customWidth="1"/>
-    <col min="2" max="2" width="10.33203125" customWidth="1"/>
-    <col min="3" max="3" width="10.33203125" style="15" customWidth="1"/>
-    <col min="4" max="4" width="9.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="46.6640625" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="3" max="3" width="10.28515625" style="15" customWidth="1"/>
+    <col min="4" max="4" width="9.42578125" style="1" customWidth="1"/>
+    <col min="5" max="5" width="46.7109375" customWidth="1"/>
     <col min="6" max="6" width="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="33" width="4.6640625" customWidth="1"/>
+    <col min="7" max="33" width="4.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" s="3" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:33" s="3" customFormat="1" ht="20.25" x14ac:dyDescent="0.3">
       <c r="A1" s="46" t="s">
         <v>3</v>
       </c>
@@ -3148,7 +3149,7 @@
       <c r="E1" s="46"/>
       <c r="F1" s="14"/>
     </row>
-    <row r="2" spans="1:33" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:33" ht="24.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A2" s="47" t="s">
         <v>10</v>
       </c>
@@ -3243,7 +3244,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:33" ht="12.9" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:33" ht="12.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="47"/>
       <c r="B3" s="47"/>
       <c r="C3" s="47"/>
@@ -3360,7 +3361,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="4" spans="1:33" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:33" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A4" s="43" t="s">
         <v>5</v>
       </c>
@@ -3480,7 +3481,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="5" spans="1:33" s="8" customFormat="1" ht="26.4" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:33" s="8" customFormat="1" ht="25.5" x14ac:dyDescent="0.2">
       <c r="A5" s="17" t="s">
         <v>6</v>
       </c>
@@ -3597,18 +3598,18 @@
       </c>
       <c r="AE5" s="45">
         <f t="shared" si="2"/>
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="AF5" s="45">
         <f t="shared" si="2"/>
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="AG5" s="45">
         <f t="shared" si="2"/>
-        <v>357</v>
-      </c>
-    </row>
-    <row r="6" spans="1:33" s="10" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="6" spans="1:33" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A6" s="22">
         <v>1</v>
       </c>
@@ -3627,7 +3628,7 @@
       </c>
       <c r="F6" s="9"/>
     </row>
-    <row r="7" spans="1:33" s="10" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:33" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A7" s="22">
         <f t="shared" ref="A7:A22" si="3">A6+1</f>
         <v>2</v>
@@ -3648,7 +3649,7 @@
       </c>
       <c r="F7" s="9"/>
     </row>
-    <row r="8" spans="1:33" s="10" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:33" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A8" s="22">
         <f t="shared" si="3"/>
         <v>3</v>
@@ -3669,7 +3670,7 @@
       </c>
       <c r="F8" s="9"/>
     </row>
-    <row r="9" spans="1:33" s="10" customFormat="1" ht="20.399999999999999" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:33" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
       <c r="A9" s="22">
         <f t="shared" si="3"/>
         <v>4</v>
@@ -3690,7 +3691,7 @@
       </c>
       <c r="F9" s="9"/>
     </row>
-    <row r="10" spans="1:33" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A10" s="22">
         <f t="shared" si="3"/>
         <v>5</v>
@@ -3711,7 +3712,7 @@
       </c>
       <c r="F10" s="9"/>
     </row>
-    <row r="11" spans="1:33" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A11" s="22">
         <f t="shared" si="3"/>
         <v>6</v>
@@ -3732,7 +3733,7 @@
       </c>
       <c r="F11" s="9"/>
     </row>
-    <row r="12" spans="1:33" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A12" s="22">
         <f t="shared" si="3"/>
         <v>7</v>
@@ -3752,7 +3753,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="13" spans="1:33" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A13" s="22">
         <f t="shared" si="3"/>
         <v>8</v>
@@ -3772,7 +3773,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="14" spans="1:33" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A14" s="22">
         <f t="shared" si="3"/>
         <v>9</v>
@@ -3792,7 +3793,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="15" spans="1:33" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A15" s="22">
         <f t="shared" si="3"/>
         <v>10</v>
@@ -3812,7 +3813,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="16" spans="1:33" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A16" s="34">
         <f t="shared" si="3"/>
         <v>11</v>
@@ -3832,7 +3833,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="17" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A17" s="38">
         <f t="shared" si="3"/>
         <v>12</v>
@@ -3852,7 +3853,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="18" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A18" s="22">
         <f t="shared" si="3"/>
         <v>13</v>
@@ -3872,7 +3873,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A19" s="22">
         <f t="shared" si="3"/>
         <v>14</v>
@@ -3892,7 +3893,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A20" s="22">
         <f t="shared" si="3"/>
         <v>15</v>
@@ -3910,7 +3911,7 @@
       </c>
       <c r="E20" s="24"/>
     </row>
-    <row r="21" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A21" s="22">
         <f t="shared" si="3"/>
         <v>16</v>
@@ -3930,7 +3931,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A22" s="38">
         <f t="shared" si="3"/>
         <v>17</v>
@@ -3950,7 +3951,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="23" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A23" s="22">
         <v>18</v>
       </c>
@@ -3969,7 +3970,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="24" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A24" s="22">
         <v>19</v>
       </c>
@@ -3988,7 +3989,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A25" s="22">
         <v>20</v>
       </c>
@@ -4007,7 +4008,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A26" s="22">
         <v>21</v>
       </c>
@@ -4026,7 +4027,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A27" s="22">
         <v>22</v>
       </c>
@@ -4045,7 +4046,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A28" s="22">
         <v>23</v>
       </c>
@@ -4064,7 +4065,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A29" s="22">
         <v>24</v>
       </c>
@@ -4083,7 +4084,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A30" s="22">
         <v>25</v>
       </c>
@@ -4096,13 +4097,13 @@
         <v>43898</v>
       </c>
       <c r="D30" s="31">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="E30" s="24" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A31" s="22">
         <v>26</v>
       </c>
@@ -4116,7 +4117,7 @@
       </c>
       <c r="D31" s="31"/>
     </row>
-    <row r="32" spans="1:5" s="11" customFormat="1" ht="10.199999999999999" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A32" s="34">
         <v>27</v>
       </c>
@@ -4133,14 +4134,14 @@
         <v>11</v>
       </c>
     </row>
-    <row r="33" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="25"/>
       <c r="B33" s="26"/>
       <c r="C33" s="26"/>
       <c r="D33" s="32"/>
       <c r="E33" s="27"/>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="50" t="s">
         <v>2</v>
       </c>
@@ -4148,18 +4149,18 @@
       <c r="C34" s="50"/>
       <c r="D34" s="33">
         <f>SUM(D6:D33)</f>
-        <v>357</v>
+        <v>361</v>
       </c>
       <c r="E34" s="12"/>
     </row>
-    <row r="35" spans="1:5" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" ht="6" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A35" s="51"/>
       <c r="B35" s="51"/>
       <c r="C35" s="51"/>
       <c r="D35" s="51"/>
       <c r="E35" s="13"/>
     </row>
-    <row r="36" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="25"/>
       <c r="B36" s="26"/>
       <c r="C36" s="26"/>
@@ -4167,7 +4168,7 @@
       <c r="E36" s="27"/>
     </row>
   </sheetData>
-  <autoFilter ref="A5:B5"/>
+  <autoFilter ref="A5:B5" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <mergeCells count="5">
     <mergeCell ref="A1:E1"/>
     <mergeCell ref="A2:C3"/>
@@ -4176,7 +4177,7 @@
     <mergeCell ref="A35:D35"/>
   </mergeCells>
   <hyperlinks>
-    <hyperlink ref="A2" r:id="rId1" display="Name, Vorname:"/>
+    <hyperlink ref="A2" r:id="rId1" display="Name, Vorname:" xr:uid="{00000000-0004-0000-0100-000000000000}"/>
   </hyperlinks>
   <pageMargins left="0.74791666666666667" right="0.74791666666666667" top="0.98402777777777772" bottom="0.98402777777777772" header="0.51180555555555551" footer="0.51180555555555551"/>
   <pageSetup paperSize="9" scale="75" firstPageNumber="0" orientation="portrait" horizontalDpi="300" verticalDpi="300"/>

--- a/IP_Controlling_Bruno_Maikoff.xlsx
+++ b/IP_Controlling_Bruno_Maikoff.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\BlockChain_TransactionManager\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FHNW\Semester7\Bachlorthesis\BlockChain_TransactionManager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E654BEB6-C392-46AD-90F9-55A4D8FE5320}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78A4E3B3-DEFD-4048-A98F-BEE32D4AD774}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11265" yWindow="2145" windowWidth="38700" windowHeight="14790" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arbeitsrapport_Bruno" sheetId="11" r:id="rId1"/>
@@ -198,10 +198,10 @@
     <t>Report Java</t>
   </si>
   <si>
-    <t>Planed SA6+Planned SO8 JAVA CODE</t>
-  </si>
-  <si>
     <t>Geplant8+8+8+8+8+6+6</t>
+  </si>
+  <si>
+    <t>Planned SO8 JAVA CODE</t>
   </si>
 </sst>
 </file>
@@ -1021,13 +1021,13 @@
                   <c:v>271</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>305</c:v>
+                  <c:v>313</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>305</c:v>
+                  <c:v>313</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>305</c:v>
+                  <c:v>313</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2069,8 +2069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG36"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2543,15 +2543,15 @@
       </c>
       <c r="AE5" s="45">
         <f t="shared" ref="AE5" si="30">AD5+SUMIF($A$6:$A$33,AE3,$D$6:$D$33)</f>
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="AF5" s="45">
         <f t="shared" ref="AF5" si="31">AE5+SUMIF($A$6:$A$33,AF3,$D$6:$D$33)</f>
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="AG5" s="45">
         <f t="shared" ref="AG5" si="32">AF5+SUMIF($A$6:$A$33,AG3,$D$6:$D$33)</f>
-        <v>305</v>
+        <v>313</v>
       </c>
     </row>
     <row r="6" spans="1:33" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
@@ -3028,10 +3028,10 @@
         <v>43898</v>
       </c>
       <c r="D30" s="31">
-        <v>34</v>
+        <v>42</v>
       </c>
       <c r="E30" s="24" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="31" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -3048,7 +3048,7 @@
       </c>
       <c r="D31" s="31"/>
       <c r="E31" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -3083,7 +3083,7 @@
       <c r="C34" s="50"/>
       <c r="D34" s="33">
         <f>SUM(D6:D33)</f>
-        <v>305</v>
+        <v>313</v>
       </c>
       <c r="E34" s="12"/>
     </row>
@@ -3124,7 +3124,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AG36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="M38" sqref="M38"/>
     </sheetView>
   </sheetViews>

--- a/IP_Controlling_Bruno_Maikoff.xlsx
+++ b/IP_Controlling_Bruno_Maikoff.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FHNW\Semester7\Bachlorthesis\BlockChain_TransactionManager\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\BlockChain_TransactionManager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{78A4E3B3-DEFD-4048-A98F-BEE32D4AD774}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EFB56A9-FEA0-4596-AC2C-09EFCBF4ED8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11265" yWindow="2145" windowWidth="38700" windowHeight="14790" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arbeitsrapport_Bruno" sheetId="11" r:id="rId1"/>
@@ -1456,13 +1456,13 @@
                   <c:v>330</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>361</c:v>
+                  <c:v>365</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>361</c:v>
+                  <c:v>365</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>361</c:v>
+                  <c:v>365</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2069,7 +2069,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
@@ -3124,8 +3124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AG36"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="M38" sqref="M38"/>
+    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3598,15 +3598,15 @@
       </c>
       <c r="AE5" s="45">
         <f t="shared" si="2"/>
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="AF5" s="45">
         <f t="shared" si="2"/>
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="AG5" s="45">
         <f t="shared" si="2"/>
-        <v>361</v>
+        <v>365</v>
       </c>
     </row>
     <row r="6" spans="1:33" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -4097,7 +4097,7 @@
         <v>43898</v>
       </c>
       <c r="D30" s="31">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="E30" s="24" t="s">
         <v>51</v>
@@ -4149,7 +4149,7 @@
       <c r="C34" s="50"/>
       <c r="D34" s="33">
         <f>SUM(D6:D33)</f>
-        <v>361</v>
+        <v>365</v>
       </c>
       <c r="E34" s="12"/>
     </row>

--- a/IP_Controlling_Bruno_Maikoff.xlsx
+++ b/IP_Controlling_Bruno_Maikoff.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\BlockChain_TransactionManager\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FHNW\Semester7\Bachlorthesis\BlockChain_TransactionManager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0EFB56A9-FEA0-4596-AC2C-09EFCBF4ED8E}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1FF1C9A-18A8-435A-BD57-9F8E8459C8D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11265" yWindow="2145" windowWidth="38700" windowHeight="14790" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arbeitsrapport_Bruno" sheetId="11" r:id="rId1"/>
@@ -28,9 +28,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -201,7 +199,7 @@
     <t>Geplant8+8+8+8+8+6+6</t>
   </si>
   <si>
-    <t>Planned SO8 JAVA CODE</t>
+    <t>java Code, testing, Klass diagramm</t>
   </si>
 </sst>
 </file>
@@ -1021,13 +1019,13 @@
                   <c:v>271</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>313</c:v>
+                  <c:v>322</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>313</c:v>
+                  <c:v>322</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>313</c:v>
+                  <c:v>322</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2069,8 +2067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG36"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D33" sqref="D33"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2543,15 +2541,15 @@
       </c>
       <c r="AE5" s="45">
         <f t="shared" ref="AE5" si="30">AD5+SUMIF($A$6:$A$33,AE3,$D$6:$D$33)</f>
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="AF5" s="45">
         <f t="shared" ref="AF5" si="31">AE5+SUMIF($A$6:$A$33,AF3,$D$6:$D$33)</f>
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="AG5" s="45">
         <f t="shared" ref="AG5" si="32">AF5+SUMIF($A$6:$A$33,AG3,$D$6:$D$33)</f>
-        <v>313</v>
+        <v>322</v>
       </c>
     </row>
     <row r="6" spans="1:33" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
@@ -3028,7 +3026,7 @@
         <v>43898</v>
       </c>
       <c r="D30" s="31">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="E30" s="24" t="s">
         <v>53</v>
@@ -3083,7 +3081,7 @@
       <c r="C34" s="50"/>
       <c r="D34" s="33">
         <f>SUM(D6:D33)</f>
-        <v>313</v>
+        <v>322</v>
       </c>
       <c r="E34" s="12"/>
     </row>
@@ -3124,7 +3122,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AG36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>

--- a/IP_Controlling_Bruno_Maikoff.xlsx
+++ b/IP_Controlling_Bruno_Maikoff.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FHNW\Semester7\Bachlorthesis\BlockChain_TransactionManager\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\BlockChain_TransactionManager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1FF1C9A-18A8-435A-BD57-9F8E8459C8D0}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{612BCBA2-BDEB-4593-9D77-51D28EE51344}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11265" yWindow="2145" windowWidth="38700" windowHeight="14790" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arbeitsrapport_Bruno" sheetId="11" r:id="rId1"/>
@@ -28,7 +28,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="54">
   <si>
     <t>Aufwand in h</t>
   </si>
@@ -1457,10 +1459,10 @@
                   <c:v>365</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>365</c:v>
+                  <c:v>371</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>365</c:v>
+                  <c:v>371</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2067,7 +2069,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E30" sqref="E30"/>
     </sheetView>
   </sheetViews>
@@ -3122,8 +3124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AG36"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3600,11 +3602,11 @@
       </c>
       <c r="AF5" s="45">
         <f t="shared" si="2"/>
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="AG5" s="45">
         <f t="shared" si="2"/>
-        <v>365</v>
+        <v>371</v>
       </c>
     </row>
     <row r="6" spans="1:33" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -4113,7 +4115,12 @@
         <f t="shared" si="5"/>
         <v>43905</v>
       </c>
-      <c r="D31" s="31"/>
+      <c r="D31" s="31">
+        <v>6</v>
+      </c>
+      <c r="E31" s="11" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="32" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
       <c r="A32" s="34">
@@ -4147,7 +4154,7 @@
       <c r="C34" s="50"/>
       <c r="D34" s="33">
         <f>SUM(D6:D33)</f>
-        <v>365</v>
+        <v>371</v>
       </c>
       <c r="E34" s="12"/>
     </row>

--- a/IP_Controlling_Bruno_Maikoff.xlsx
+++ b/IP_Controlling_Bruno_Maikoff.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\BlockChain_TransactionManager\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FHNW\Semester7\Bachlorthesis\BlockChain_TransactionManager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{612BCBA2-BDEB-4593-9D77-51D28EE51344}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6830861C-F091-4942-B2C6-3CEC8AB8D7A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11265" yWindow="2145" windowWidth="38700" windowHeight="14790" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arbeitsrapport_Bruno" sheetId="11" r:id="rId1"/>
@@ -28,9 +28,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -198,10 +196,10 @@
     <t>Report Java</t>
   </si>
   <si>
-    <t>Geplant8+8+8+8+8+6+6</t>
-  </si>
-  <si>
     <t>java Code, testing, Klass diagramm</t>
+  </si>
+  <si>
+    <t>8+8+8+6+6</t>
   </si>
 </sst>
 </file>
@@ -1024,10 +1022,10 @@
                   <c:v>322</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>322</c:v>
+                  <c:v>336</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>322</c:v>
+                  <c:v>336</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2069,8 +2067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG36"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E30" sqref="E30"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2547,11 +2545,11 @@
       </c>
       <c r="AF5" s="45">
         <f t="shared" ref="AF5" si="31">AE5+SUMIF($A$6:$A$33,AF3,$D$6:$D$33)</f>
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="AG5" s="45">
         <f t="shared" ref="AG5" si="32">AF5+SUMIF($A$6:$A$33,AG3,$D$6:$D$33)</f>
-        <v>322</v>
+        <v>336</v>
       </c>
     </row>
     <row r="6" spans="1:33" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
@@ -3031,7 +3029,7 @@
         <v>51</v>
       </c>
       <c r="E30" s="24" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="31" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -3046,9 +3044,11 @@
         <f t="shared" si="35"/>
         <v>43905</v>
       </c>
-      <c r="D31" s="31"/>
+      <c r="D31" s="31">
+        <v>14</v>
+      </c>
       <c r="E31" s="11" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="32" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -3083,7 +3083,7 @@
       <c r="C34" s="50"/>
       <c r="D34" s="33">
         <f>SUM(D6:D33)</f>
-        <v>322</v>
+        <v>336</v>
       </c>
       <c r="E34" s="12"/>
     </row>
@@ -3124,7 +3124,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AG36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>

--- a/IP_Controlling_Bruno_Maikoff.xlsx
+++ b/IP_Controlling_Bruno_Maikoff.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FHNW\Semester7\Bachlorthesis\BlockChain_TransactionManager\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\BlockChain_TransactionManager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6830861C-F091-4942-B2C6-3CEC8AB8D7A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D17B035E-3AEB-4ECC-92D1-9C17EAB2C8E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11265" yWindow="2145" windowWidth="38700" windowHeight="14790" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arbeitsrapport_Bruno" sheetId="11" r:id="rId1"/>
@@ -28,7 +28,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1457,10 +1459,10 @@
                   <c:v>365</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>371</c:v>
+                  <c:v>380</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>371</c:v>
+                  <c:v>380</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2067,7 +2069,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
@@ -3124,8 +3126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AG36"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E38" sqref="E38"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E41" sqref="E41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3602,11 +3604,11 @@
       </c>
       <c r="AF5" s="45">
         <f t="shared" si="2"/>
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="AG5" s="45">
         <f t="shared" si="2"/>
-        <v>371</v>
+        <v>380</v>
       </c>
     </row>
     <row r="6" spans="1:33" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -4116,7 +4118,7 @@
         <v>43905</v>
       </c>
       <c r="D31" s="31">
-        <v>6</v>
+        <v>15</v>
       </c>
       <c r="E31" s="11" t="s">
         <v>34</v>
@@ -4154,7 +4156,7 @@
       <c r="C34" s="50"/>
       <c r="D34" s="33">
         <f>SUM(D6:D33)</f>
-        <v>371</v>
+        <v>380</v>
       </c>
       <c r="E34" s="12"/>
     </row>

--- a/IP_Controlling_Bruno_Maikoff.xlsx
+++ b/IP_Controlling_Bruno_Maikoff.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\BlockChain_TransactionManager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D17B035E-3AEB-4ECC-92D1-9C17EAB2C8E3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A104293-EB21-474F-8E2F-09348EABF985}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11265" yWindow="2145" windowWidth="38700" windowHeight="14790" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11610" yWindow="2490" windowWidth="38700" windowHeight="14790" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arbeitsrapport_Bruno" sheetId="11" r:id="rId1"/>
@@ -1459,10 +1459,10 @@
                   <c:v>365</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>380</c:v>
+                  <c:v>390</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>380</c:v>
+                  <c:v>390</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3127,7 +3127,7 @@
   <dimension ref="A1:AG36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3604,11 +3604,11 @@
       </c>
       <c r="AF5" s="45">
         <f t="shared" si="2"/>
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="AG5" s="45">
         <f t="shared" si="2"/>
-        <v>380</v>
+        <v>390</v>
       </c>
     </row>
     <row r="6" spans="1:33" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -4118,7 +4118,7 @@
         <v>43905</v>
       </c>
       <c r="D31" s="31">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E31" s="11" t="s">
         <v>34</v>
@@ -4156,7 +4156,7 @@
       <c r="C34" s="50"/>
       <c r="D34" s="33">
         <f>SUM(D6:D33)</f>
-        <v>380</v>
+        <v>390</v>
       </c>
       <c r="E34" s="12"/>
     </row>

--- a/IP_Controlling_Bruno_Maikoff.xlsx
+++ b/IP_Controlling_Bruno_Maikoff.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\BlockChain_TransactionManager\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FHNW\Semester7\Bachlorthesis\BlockChain_TransactionManager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A104293-EB21-474F-8E2F-09348EABF985}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F6B3E68-1DF7-4A95-8413-4BC914F82045}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11610" yWindow="2490" windowWidth="38700" windowHeight="14790" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arbeitsrapport_Bruno" sheetId="11" r:id="rId1"/>
@@ -28,9 +28,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -201,7 +199,7 @@
     <t>java Code, testing, Klass diagramm</t>
   </si>
   <si>
-    <t>8+8+8+6+6</t>
+    <t>8+4+6</t>
   </si>
 </sst>
 </file>
@@ -1024,10 +1022,10 @@
                   <c:v>322</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>336</c:v>
+                  <c:v>357</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>336</c:v>
+                  <c:v>357</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2069,8 +2067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG36"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2547,11 +2545,11 @@
       </c>
       <c r="AF5" s="45">
         <f t="shared" ref="AF5" si="31">AE5+SUMIF($A$6:$A$33,AF3,$D$6:$D$33)</f>
-        <v>336</v>
+        <v>357</v>
       </c>
       <c r="AG5" s="45">
         <f t="shared" ref="AG5" si="32">AF5+SUMIF($A$6:$A$33,AG3,$D$6:$D$33)</f>
-        <v>336</v>
+        <v>357</v>
       </c>
     </row>
     <row r="6" spans="1:33" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
@@ -3047,7 +3045,7 @@
         <v>43905</v>
       </c>
       <c r="D31" s="31">
-        <v>14</v>
+        <v>35</v>
       </c>
       <c r="E31" s="11" t="s">
         <v>53</v>
@@ -3085,7 +3083,7 @@
       <c r="C34" s="50"/>
       <c r="D34" s="33">
         <f>SUM(D6:D33)</f>
-        <v>336</v>
+        <v>357</v>
       </c>
       <c r="E34" s="12"/>
     </row>
@@ -3126,7 +3124,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AG36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A16" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>

--- a/IP_Controlling_Bruno_Maikoff.xlsx
+++ b/IP_Controlling_Bruno_Maikoff.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\BlockChain_TransactionManager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A104293-EB21-474F-8E2F-09348EABF985}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51E99272-03DD-4BCF-9B7A-D8D83E8C7B08}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11610" yWindow="2490" windowWidth="38700" windowHeight="14790" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11610" yWindow="2490" windowWidth="38700" windowHeight="14790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arbeitsrapport_Bruno" sheetId="11" r:id="rId1"/>
@@ -2069,8 +2069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG36"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3126,8 +3126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AG36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView topLeftCell="A16" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E38" sqref="E38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>

--- a/IP_Controlling_Bruno_Maikoff.xlsx
+++ b/IP_Controlling_Bruno_Maikoff.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FHNW\Semester7\Bachlorthesis\BlockChain_TransactionManager\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\BlockChain_TransactionManager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2F6B3E68-1DF7-4A95-8413-4BC914F82045}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87FCCFAA-59DE-4528-9A30-C8C399AB7605}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11610" yWindow="2490" windowWidth="38700" windowHeight="14790" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arbeitsrapport_Bruno" sheetId="11" r:id="rId1"/>
@@ -28,7 +28,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1454,13 +1456,13 @@
                   <c:v>330</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>365</c:v>
+                  <c:v>372</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>390</c:v>
+                  <c:v>402</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>390</c:v>
+                  <c:v>402</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2067,7 +2069,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
@@ -3124,8 +3126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AG36"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3598,15 +3600,15 @@
       </c>
       <c r="AE5" s="45">
         <f t="shared" si="2"/>
-        <v>365</v>
+        <v>372</v>
       </c>
       <c r="AF5" s="45">
         <f t="shared" si="2"/>
-        <v>390</v>
+        <v>402</v>
       </c>
       <c r="AG5" s="45">
         <f t="shared" si="2"/>
-        <v>390</v>
+        <v>402</v>
       </c>
     </row>
     <row r="6" spans="1:33" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -4097,7 +4099,7 @@
         <v>43898</v>
       </c>
       <c r="D30" s="31">
-        <v>35</v>
+        <v>42</v>
       </c>
       <c r="E30" s="24" t="s">
         <v>51</v>
@@ -4116,7 +4118,7 @@
         <v>43905</v>
       </c>
       <c r="D31" s="31">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E31" s="11" t="s">
         <v>34</v>
@@ -4154,7 +4156,7 @@
       <c r="C34" s="50"/>
       <c r="D34" s="33">
         <f>SUM(D6:D33)</f>
-        <v>390</v>
+        <v>402</v>
       </c>
       <c r="E34" s="12"/>
     </row>

--- a/IP_Controlling_Bruno_Maikoff.xlsx
+++ b/IP_Controlling_Bruno_Maikoff.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\BlockChain_TransactionManager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87FCCFAA-59DE-4528-9A30-C8C399AB7605}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF4452AB-CB1D-4353-8447-79173BA3E563}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11610" yWindow="2490" windowWidth="38700" windowHeight="14790" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11265" yWindow="2145" windowWidth="38700" windowHeight="14790" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arbeitsrapport_Bruno" sheetId="11" r:id="rId1"/>
@@ -1459,10 +1459,10 @@
                   <c:v>372</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>402</c:v>
+                  <c:v>408</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>402</c:v>
+                  <c:v>408</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -3127,7 +3127,7 @@
   <dimension ref="A1:AG36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="F36" sqref="F36"/>
+      <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3604,11 +3604,11 @@
       </c>
       <c r="AF5" s="45">
         <f t="shared" si="2"/>
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="AG5" s="45">
         <f t="shared" si="2"/>
-        <v>402</v>
+        <v>408</v>
       </c>
     </row>
     <row r="6" spans="1:33" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -4118,7 +4118,7 @@
         <v>43905</v>
       </c>
       <c r="D31" s="31">
-        <v>30</v>
+        <v>36</v>
       </c>
       <c r="E31" s="11" t="s">
         <v>34</v>
@@ -4156,7 +4156,7 @@
       <c r="C34" s="50"/>
       <c r="D34" s="33">
         <f>SUM(D6:D33)</f>
-        <v>402</v>
+        <v>408</v>
       </c>
       <c r="E34" s="12"/>
     </row>

--- a/IP_Controlling_Bruno_Maikoff.xlsx
+++ b/IP_Controlling_Bruno_Maikoff.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\BlockChain_TransactionManager\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FHNW\Semester7\Bachlorthesis\BlockChain_TransactionManager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AF4452AB-CB1D-4353-8447-79173BA3E563}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8A41F90-169C-4AA4-A959-4FAD891AC0DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11265" yWindow="2145" windowWidth="38700" windowHeight="14790" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arbeitsrapport_Bruno" sheetId="11" r:id="rId1"/>
@@ -28,9 +28,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -201,7 +199,7 @@
     <t>java Code, testing, Klass diagramm</t>
   </si>
   <si>
-    <t>8+4+6</t>
+    <t>Testing, Java, AK, Betriebshandbuch</t>
   </si>
 </sst>
 </file>
@@ -1024,10 +1022,10 @@
                   <c:v>322</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>357</c:v>
+                  <c:v>368</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>357</c:v>
+                  <c:v>368</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2069,8 +2067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG36"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2547,11 +2545,11 @@
       </c>
       <c r="AF5" s="45">
         <f t="shared" ref="AF5" si="31">AE5+SUMIF($A$6:$A$33,AF3,$D$6:$D$33)</f>
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="AG5" s="45">
         <f t="shared" ref="AG5" si="32">AF5+SUMIF($A$6:$A$33,AG3,$D$6:$D$33)</f>
-        <v>357</v>
+        <v>368</v>
       </c>
     </row>
     <row r="6" spans="1:33" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
@@ -3047,7 +3045,7 @@
         <v>43905</v>
       </c>
       <c r="D31" s="31">
-        <v>35</v>
+        <v>46</v>
       </c>
       <c r="E31" s="11" t="s">
         <v>53</v>
@@ -3085,7 +3083,7 @@
       <c r="C34" s="50"/>
       <c r="D34" s="33">
         <f>SUM(D6:D33)</f>
-        <v>357</v>
+        <v>368</v>
       </c>
       <c r="E34" s="12"/>
     </row>
@@ -3126,7 +3124,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AG36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="J33" sqref="J33"/>
     </sheetView>
   </sheetViews>

--- a/IP_Controlling_Bruno_Maikoff.xlsx
+++ b/IP_Controlling_Bruno_Maikoff.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FHNW\Semester7\Bachlorthesis\BlockChain_TransactionManager\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\BlockChain_TransactionManager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B8A41F90-169C-4AA4-A959-4FAD891AC0DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{950794EB-F358-4E77-8A2F-C85D5116F923}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11265" yWindow="2145" windowWidth="38700" windowHeight="14790" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arbeitsrapport_Bruno" sheetId="11" r:id="rId1"/>
@@ -28,7 +28,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1457,10 +1459,10 @@
                   <c:v>372</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>408</c:v>
+                  <c:v>412</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>408</c:v>
+                  <c:v>412</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2067,8 +2069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D32" sqref="D32"/>
+    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3124,8 +3126,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AG36"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="J33" sqref="J33"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E44" sqref="E44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3602,11 +3604,11 @@
       </c>
       <c r="AF5" s="45">
         <f t="shared" si="2"/>
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="AG5" s="45">
         <f t="shared" si="2"/>
-        <v>408</v>
+        <v>412</v>
       </c>
     </row>
     <row r="6" spans="1:33" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -4116,7 +4118,7 @@
         <v>43905</v>
       </c>
       <c r="D31" s="31">
-        <v>36</v>
+        <v>40</v>
       </c>
       <c r="E31" s="11" t="s">
         <v>34</v>
@@ -4154,7 +4156,7 @@
       <c r="C34" s="50"/>
       <c r="D34" s="33">
         <f>SUM(D6:D33)</f>
-        <v>408</v>
+        <v>412</v>
       </c>
       <c r="E34" s="12"/>
     </row>

--- a/IP_Controlling_Bruno_Maikoff.xlsx
+++ b/IP_Controlling_Bruno_Maikoff.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\BlockChain_TransactionManager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{950794EB-F358-4E77-8A2F-C85D5116F923}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97F501E2-28A8-4DD4-8114-2EAD0E3BA1F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11265" yWindow="2145" windowWidth="38700" windowHeight="14790" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -75,9 +75,6 @@
     <t>Vorname, Name:</t>
   </si>
   <si>
-    <t xml:space="preserve"> Abgabe</t>
-  </si>
-  <si>
     <t>Sergejurij, Maikoff</t>
   </si>
   <si>
@@ -202,6 +199,9 @@
   </si>
   <si>
     <t>Testing, Java, AK, Betriebshandbuch</t>
+  </si>
+  <si>
+    <t>Report, Abgabe</t>
   </si>
 </sst>
 </file>
@@ -1462,7 +1462,7 @@
                   <c:v>412</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>412</c:v>
+                  <c:v>427</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2101,7 +2101,7 @@
       <c r="B2" s="47"/>
       <c r="C2" s="47"/>
       <c r="D2" s="48" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2" s="49"/>
       <c r="F2" s="14" t="s">
@@ -2569,7 +2569,7 @@
         <v>4</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F6" s="9"/>
     </row>
@@ -2590,7 +2590,7 @@
         <v>6</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F7" s="9"/>
     </row>
@@ -2611,7 +2611,7 @@
         <v>10</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F8" s="9"/>
     </row>
@@ -2632,7 +2632,7 @@
         <v>12</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="F9" s="9"/>
     </row>
@@ -2653,7 +2653,7 @@
         <v>11</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F10" s="9"/>
     </row>
@@ -2674,7 +2674,7 @@
         <v>9</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F11" s="9"/>
     </row>
@@ -2712,7 +2712,7 @@
         <v>7</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="14" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -2732,7 +2732,7 @@
         <v>12</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -2752,7 +2752,7 @@
         <v>18</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="16" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -2772,7 +2772,7 @@
         <v>15</v>
       </c>
       <c r="E16" s="37" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -2825,7 +2825,7 @@
         <v>10</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -2845,7 +2845,7 @@
         <v>4</v>
       </c>
       <c r="E20" s="24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -2881,7 +2881,7 @@
         <v>5</v>
       </c>
       <c r="E22" s="40" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:5" s="11" customFormat="1" ht="33.75" x14ac:dyDescent="0.2">
@@ -2900,7 +2900,7 @@
         <v>16</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="24" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -2919,7 +2919,7 @@
         <v>16</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="25" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -2955,7 +2955,7 @@
         <v>24</v>
       </c>
       <c r="E26" s="24" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="27" spans="1:5" s="11" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
@@ -2974,7 +2974,7 @@
         <v>26</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="28" spans="1:5" s="11" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
@@ -2993,7 +2993,7 @@
         <v>32</v>
       </c>
       <c r="E28" s="24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="29" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -3012,7 +3012,7 @@
         <v>22</v>
       </c>
       <c r="E29" s="24" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="30" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -3031,7 +3031,7 @@
         <v>51</v>
       </c>
       <c r="E30" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="31" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -3050,7 +3050,7 @@
         <v>46</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="32" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -3067,7 +3067,7 @@
       </c>
       <c r="D32" s="36"/>
       <c r="E32" s="37" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3127,7 +3127,7 @@
   <dimension ref="A1:AG36"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E44" sqref="E44"/>
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3158,7 +3158,7 @@
       <c r="B2" s="47"/>
       <c r="C2" s="47"/>
       <c r="D2" s="48" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E2" s="49"/>
       <c r="F2" s="14" t="s">
@@ -3608,7 +3608,7 @@
       </c>
       <c r="AG5" s="45">
         <f t="shared" si="2"/>
-        <v>412</v>
+        <v>427</v>
       </c>
     </row>
     <row r="6" spans="1:33" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -3626,7 +3626,7 @@
         <v>3</v>
       </c>
       <c r="E6" s="24" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="F6" s="9"/>
     </row>
@@ -3647,7 +3647,7 @@
         <v>6</v>
       </c>
       <c r="E7" s="24" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="F7" s="9"/>
     </row>
@@ -3668,7 +3668,7 @@
         <v>22</v>
       </c>
       <c r="E8" s="24" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F8" s="9"/>
     </row>
@@ -3689,7 +3689,7 @@
         <v>18</v>
       </c>
       <c r="E9" s="24" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F9" s="9"/>
     </row>
@@ -3710,7 +3710,7 @@
         <v>14</v>
       </c>
       <c r="E10" s="24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="F10" s="9"/>
     </row>
@@ -3731,7 +3731,7 @@
         <v>12</v>
       </c>
       <c r="E11" s="24" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F11" s="9"/>
     </row>
@@ -3752,7 +3752,7 @@
         <v>9</v>
       </c>
       <c r="E12" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -3772,7 +3772,7 @@
         <v>13</v>
       </c>
       <c r="E13" s="24" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -3792,7 +3792,7 @@
         <v>8</v>
       </c>
       <c r="E14" s="24" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -3812,7 +3812,7 @@
         <v>13</v>
       </c>
       <c r="E15" s="24" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="16" spans="1:33" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -3832,7 +3832,7 @@
         <v>7</v>
       </c>
       <c r="E16" s="37" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="17" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -3852,7 +3852,7 @@
         <v>9</v>
       </c>
       <c r="E17" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="18" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -3872,7 +3872,7 @@
         <v>16</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -3892,7 +3892,7 @@
         <v>10</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="20" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -3930,7 +3930,7 @@
         <v>15</v>
       </c>
       <c r="E21" s="24" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="22" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -3950,7 +3950,7 @@
         <v>8</v>
       </c>
       <c r="E22" s="40" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="23" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -3969,7 +3969,7 @@
         <v>19</v>
       </c>
       <c r="E23" s="24" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="24" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -3988,7 +3988,7 @@
         <v>16</v>
       </c>
       <c r="E24" s="24" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="25" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -4007,7 +4007,7 @@
         <v>12</v>
       </c>
       <c r="E25" s="24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="26" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -4026,7 +4026,7 @@
         <v>17</v>
       </c>
       <c r="E26" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="27" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -4045,7 +4045,7 @@
         <v>20</v>
       </c>
       <c r="E27" s="24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="28" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -4064,7 +4064,7 @@
         <v>30</v>
       </c>
       <c r="E28" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="29" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -4083,7 +4083,7 @@
         <v>33</v>
       </c>
       <c r="E29" s="24" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="30" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -4102,7 +4102,7 @@
         <v>42</v>
       </c>
       <c r="E30" s="24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -4121,7 +4121,7 @@
         <v>40</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="32" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -4136,9 +4136,11 @@
         <f>C31+5</f>
         <v>43910</v>
       </c>
-      <c r="D32" s="36"/>
+      <c r="D32" s="36">
+        <v>15</v>
+      </c>
       <c r="E32" s="37" t="s">
-        <v>11</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -4156,7 +4158,7 @@
       <c r="C34" s="50"/>
       <c r="D34" s="33">
         <f>SUM(D6:D33)</f>
-        <v>412</v>
+        <v>427</v>
       </c>
       <c r="E34" s="12"/>
     </row>

--- a/IP_Controlling_Bruno_Maikoff.xlsx
+++ b/IP_Controlling_Bruno_Maikoff.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\BlockChain_TransactionManager\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FHNW\Semester7\Bachlorthesis\BlockChain_TransactionManager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{97F501E2-28A8-4DD4-8114-2EAD0E3BA1F9}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C6A58FE-3DAF-4334-AB3D-39FF6765C4D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11265" yWindow="2145" windowWidth="38700" windowHeight="14790" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arbeitsrapport_Bruno" sheetId="11" r:id="rId1"/>
@@ -28,9 +28,7 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -189,9 +187,6 @@
     <t>Programm, Report, Statusmeeting; Deployable, Tests</t>
   </si>
   <si>
-    <t xml:space="preserve"> Abgabe--&gt; 10+9+8+8+4</t>
-  </si>
-  <si>
     <t>Report Java</t>
   </si>
   <si>
@@ -202,6 +197,9 @@
   </si>
   <si>
     <t>Report, Abgabe</t>
+  </si>
+  <si>
+    <t>7+4</t>
   </si>
 </sst>
 </file>
@@ -1027,7 +1025,7 @@
                   <c:v>368</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>368</c:v>
+                  <c:v>379</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2069,8 +2067,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG36"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -2551,7 +2549,7 @@
       </c>
       <c r="AG5" s="45">
         <f t="shared" ref="AG5" si="32">AF5+SUMIF($A$6:$A$33,AG3,$D$6:$D$33)</f>
-        <v>368</v>
+        <v>379</v>
       </c>
     </row>
     <row r="6" spans="1:33" s="10" customFormat="1" ht="22.5" x14ac:dyDescent="0.2">
@@ -3031,7 +3029,7 @@
         <v>51</v>
       </c>
       <c r="E30" s="24" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="31" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -3050,7 +3048,7 @@
         <v>46</v>
       </c>
       <c r="E31" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="32" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -3065,9 +3063,11 @@
         <f>C31+5</f>
         <v>43910</v>
       </c>
-      <c r="D32" s="36"/>
+      <c r="D32" s="36">
+        <v>11</v>
+      </c>
       <c r="E32" s="37" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -3085,7 +3085,7 @@
       <c r="C34" s="50"/>
       <c r="D34" s="33">
         <f>SUM(D6:D33)</f>
-        <v>368</v>
+        <v>379</v>
       </c>
       <c r="E34" s="12"/>
     </row>
@@ -3126,7 +3126,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AG36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+    <sheetView topLeftCell="A22" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
       <selection activeCell="E32" sqref="E32"/>
     </sheetView>
   </sheetViews>
@@ -4102,7 +4102,7 @@
         <v>42</v>
       </c>
       <c r="E30" s="24" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="31" spans="1:5" s="11" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -4140,7 +4140,7 @@
         <v>15</v>
       </c>
       <c r="E32" s="37" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="6.75" customHeight="1" x14ac:dyDescent="0.2">

--- a/IP_Controlling_Bruno_Maikoff.xlsx
+++ b/IP_Controlling_Bruno_Maikoff.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\FHNW\Semester7\Bachlorthesis\BlockChain_TransactionManager\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\workspace\BlockChain_TransactionManager\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C6A58FE-3DAF-4334-AB3D-39FF6765C4D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{86BECB56-7D77-4CC5-B49B-43B9595421D3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11265" yWindow="2145" windowWidth="38700" windowHeight="14790" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Arbeitsrapport_Bruno" sheetId="11" r:id="rId1"/>
@@ -28,7 +28,9 @@
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -1460,7 +1462,7 @@
                   <c:v>412</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>427</c:v>
+                  <c:v>437</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2067,8 +2069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AG36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D32" sqref="D32"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3126,8 +3128,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AG36"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="E46" sqref="E46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5703125" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -3608,7 +3610,7 @@
       </c>
       <c r="AG5" s="45">
         <f t="shared" si="2"/>
-        <v>427</v>
+        <v>437</v>
       </c>
     </row>
     <row r="6" spans="1:33" s="10" customFormat="1" ht="11.25" x14ac:dyDescent="0.2">
@@ -4137,7 +4139,7 @@
         <v>43910</v>
       </c>
       <c r="D32" s="36">
-        <v>15</v>
+        <v>25</v>
       </c>
       <c r="E32" s="37" t="s">
         <v>52</v>
@@ -4158,7 +4160,7 @@
       <c r="C34" s="50"/>
       <c r="D34" s="33">
         <f>SUM(D6:D33)</f>
-        <v>427</v>
+        <v>437</v>
       </c>
       <c r="E34" s="12"/>
     </row>
